--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1128">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -1451,6 +1451,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_31</t>
   </si>
   <si>
+    <t xml:space="preserve">Language processing.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Controlling Combinatorial Explosion in Inference via Synergy with Nonlinear-Dynamical Attention Allocation</t>
   </si>
   <si>
@@ -1571,6 +1574,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_11</t>
   </si>
   <si>
+    <t xml:space="preserve">Social intelligence.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Towards Flexible Task Environments for Comprehensive Evaluation of Artificial Intelligent Systems and Automatic Learners</t>
   </si>
   <si>
@@ -1727,6 +1733,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_2</t>
   </si>
   <si>
+    <t xml:space="preserve">Genetic programming.</t>
+  </si>
+  <si>
     <t xml:space="preserve">About Understanding</t>
   </si>
   <si>
@@ -1763,14 +1772,16 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_32</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural networks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cognitive Model of Brain-Machine Integration</t>
   </si>
   <si>
     <t xml:space="preserve">Zhongzhi ShiZeqin Huang</t>
   </si>
   <si>
-    <t xml:space="preserve">Brain-machine integration is a new intelligent technology and system, which is a combination of natural intelligence and artificial intelligence. In order to make this integration effective and co-adaptive biological brain and machine should work collaboratively. A cognitive model of brain-machine integration will be proposed. Environment awareness and collaboration approaches will be explored in the paper.
-</t>
+    <t xml:space="preserve">Brain-machine integration is a new intelligent technology and system, which is a combination of natural intelligence and artificial intelligence. In order to make this integration effective and co-adaptive biological brain and machine should work collaboratively. A cognitive model of brain-machine integration will be proposed. Environment awareness and collaboration approaches will be explored in the paper.</t>
   </si>
   <si>
     <t xml:space="preserve">Brain-machine integration, Environment awareness, Collaboration, Motivation, Joint intention</t>
@@ -1782,14 +1793,16 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_17</t>
   </si>
   <si>
+    <t xml:space="preserve">Brain-machine interface.</t>
+  </si>
+  <si>
     <t xml:space="preserve">An Experimental Study of Emergence of Communication of Reinforcement Learning Agents</t>
   </si>
   <si>
     <t xml:space="preserve">Qiong HuangDoya Kenji</t>
   </si>
   <si>
-    <t xml:space="preserve">Ability to use language is an essential requirement for human-level intelligence. For artificial general intelligence, the ability to learn and to create language is even more important [1]. Most previous models of learning and emergence of language took successful communication itself as the task target. However, language, or communication in general, should have evolved to improve certain fitness of the population of agents. Here we consider whether and how a population of reinforcement learning agents can learn to send signals and to respond to signals for the sake of maximizing their own rewards. We take a communication game tested in human subjects [2, 3, 6], in which the aim of the game is for two players to meet together without knowing exact location of the other. In our decentralized reinforcement learning framework with communicative and physical actions [4], we tested how the number N of usable symbols affects whether the meeting task is successfully achieved and what kind of signaling and responding are learned. Even though \(N=2\) symbols are theoretically sufficient, the success rate was only 1 to 2%. With \(N=3\) symbols, success rate was more than 60% and three different signaling strategies were observed. The results indicate the importance of redundancy in signaling degrees of freedom and that a variety of signaling conventions can emerge in populations of simple independent reinforcement learning agents.
-</t>
+    <t xml:space="preserve">Ability to use language is an essential requirement for human-level intelligence. For artificial general intelligence, the ability to learn and to create language is even more important [1]. Most previous models of learning and emergence of language took successful communication itself as the task target. However, language, or communication in general, should have evolved to improve certain fitness of the population of agents. Here we consider whether and how a population of reinforcement learning agents can learn to send signals and to respond to signals for the sake of maximizing their own rewards. We take a communication game tested in human subjects [2, 3, 6], in which the aim of the game is for two players to meet together without knowing exact location of the other. In our decentralized reinforcement learning framework with communicative and physical actions [4], we tested how the number N of usable symbols affects whether the meeting task is successfully achieved and what kind of signaling and responding are learned. Even though \(N=2\) symbols are theoretically sufficient, the success rate was only 1 to 2%. With \(N=3\) symbols, success rate was more than 60% and three different signaling strategies were observed. The results indicate the importance of redundancy in signaling degrees of freedom and that a variety of signaling conventions can emerge in populations of simple independent reinforcement learning agents.</t>
   </si>
   <si>
     <t xml:space="preserve">Multi-agent system, Reinforcement learning, Communication, Meeting task</t>
@@ -1885,6 +1898,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_35</t>
   </si>
   <si>
+    <t xml:space="preserve">Logic deduction.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imitation Learning as Cause-Effect Reasoning</t>
   </si>
   <si>
@@ -1975,7 +1991,7 @@
     <t xml:space="preserve">Generalized Temporal Induction with Temporal Concepts in a Non-axiomatic Reasoning System</t>
   </si>
   <si>
-    <t xml:space="preserve">Tony LofthousePatrick Hammer</t>
+    <t xml:space="preserve">Tony Lofthouse, Patrick Hammer</t>
   </si>
   <si>
     <t xml:space="preserve">The introduction of Temporal Concepts into a Syllogistic based reasoning system such as NARS (Non-Axiomatic Reasoning System) provides a generalized temporal induction capability and extends the meaning of semantic relationship to include temporality.</t>
@@ -2008,6 +2024,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_37</t>
   </si>
   <si>
+    <t xml:space="preserve">Artificial emotions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Observation, Communication and Intelligence in Agent-Based Systems</t>
   </si>
   <si>
@@ -2026,6 +2045,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_6</t>
   </si>
   <si>
+    <t xml:space="preserve">Multi-agent systems, communitcation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scene Based Reasoning</t>
   </si>
   <si>
@@ -2050,9 +2072,7 @@
     <t xml:space="preserve">Alexey PotapovInnokentii ZhdanovOleg ScherbakovNikolai SkorobogatkoHugo LatapieEnzo Fenoglio</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Image and video retrieval by their semantic content has been an important and challenging task for years, because it ultimately requires bridging the symbolic/subsymbolic gap. Recent successes in deep learning enabled detection of objects belonging to many classes greatly outperforming traditional computer vision techniques. However, deep learning solutions capable of executing retrieval queries are still not available. We propose a hybrid solution consisting of a deep neural network for object detection and a cognitive architecture for query execution. Specifically, we use YOLOv2 and OpenCog. Queries allowing the retrieval of video frames containing objects of specified classes and specified spatial arrangement are implemented.
-</t>
+    <t xml:space="preserve">Image and video retrieval by their semantic content has been an important and challenging task for years, because it ultimately requires bridging the symbolic/subsymbolic gap. Recent successes in deep learning enabled detection of objects belonging to many classes greatly outperforming traditional computer vision techniques. However, deep learning solutions capable of executing retrieval queries are still not available. We propose a hybrid solution consisting of a deep neural network for object detection and a cognitive architecture for query execution. Specifically, we use YOLOv2 and OpenCog. Queries allowing the retrieval of video frames containing objects of specified classes and specified spatial arrangement are implemented.</t>
   </si>
   <si>
     <t xml:space="preserve">Semantic vision, Image retrieval, Deep learning, Cognitive architectures</t>
@@ -2082,6 +2102,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_8</t>
   </si>
   <si>
+    <t xml:space="preserve">Reasoning, sensorimotor agent.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Emotional Mechanisms in NARS</t>
   </si>
   <si>
@@ -2142,8 +2165,7 @@
     <t xml:space="preserve">Nil GeisweillerBen Goertzel</t>
   </si>
   <si>
-    <t xml:space="preserve">A novel pattern mining algorithm and a novel formal definition of surprisingness are introduced, both framed in the context of formal reasoning. Hypergraphs are used to represent the data in which patterns are mined, the patterns themselves, and the control rules for the pattern miner. The implementation of these tools in the OpenCog framework, as part of a broader multi-algorithm approach to AGI, is described.
-</t>
+    <t xml:space="preserve">A novel pattern mining algorithm and a novel formal definition of surprisingness are introduced, both framed in the context of formal reasoning. Hypergraphs are used to represent the data in which patterns are mined, the patterns themselves, and the control rules for the pattern miner. The implementation of these tools in the OpenCog framework, as part of a broader multi-algorithm approach to AGI, is described.</t>
   </si>
   <si>
     <t xml:space="preserve">Pattern miner, Surprisingness, Reasoning, Hypergraphs</t>
@@ -2176,8 +2198,7 @@
     <t xml:space="preserve">Robert Johansson</t>
   </si>
   <si>
-    <t xml:space="preserve">
-The purpose of this paper is to introduce how contemporary behavioral psychology approaches intelligence and higher-order cognitive tasks, as instances of so-called arbitrarily applicable relational responding (AARR). We introduce the contemporary theory Relational Frame Theory (RFT), that suggests that key properties of AARR are mutual entailment, combinatorial entailment, and transformation of stimulus function. Furthermore, AARR are contextually controlled and developed through multiple-exemplar training. We explain these concepts and provide examples of how RFT uses this framework to explain complex cognitive tasks such as language, analogies, a sense of Self, and implicit cognition. Applications of RFT are surveyed. Finally, the relevance of RFT for the AGI audience is discussed.</t>
+    <t xml:space="preserve">The purpose of this paper is to introduce how contemporary behavioral psychology approaches intelligence and higher-order cognitive tasks, as instances of so-called arbitrarily applicable relational responding (AARR). We introduce the contemporary theory Relational Frame Theory (RFT), that suggests that key properties of AARR are mutual entailment, combinatorial entailment, and transformation of stimulus function. Furthermore, AARR are contextually controlled and developed through multiple-exemplar training. We explain these concepts and provide examples of how RFT uses this framework to explain complex cognitive tasks such as language, analogies, a sense of Self, and implicit cognition. Applications of RFT are surveyed. Finally, the relevance of RFT for the AGI audience is discussed.</t>
   </si>
   <si>
     <t xml:space="preserve">Relational Frame Theory, Behavioral psychology, Cognition, Intelligence, Language, Higher-order cognition, Self</t>
@@ -2207,14 +2228,16 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_14</t>
   </si>
   <si>
+    <t xml:space="preserve">Generative models, systems biology.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Game-Theoretic Analysis of the Off-Switch Game</t>
   </si>
   <si>
     <t xml:space="preserve">Tobias WängbergMikael BöörsElliot CattTom EverittMarcus Hutter</t>
   </si>
   <si>
-    <t xml:space="preserve">The off-switch game is a game theoretic model of a highly intelligent robot interacting with a human. In the original paper by Hadfield-Menell et al. 
-(2016b), the analysis is not fully game-theoretic as the human is modelled as an irrational player, and the robot’s best action is only calculated under unrealistic normality and soft-max assumptions. In this paper, we make the analysis fully game theoretic, by modelling the human as a rational player with a random utility function. As a consequence, we are able to easily calculate the robot’s best action for arbitrary belief and irrationality assumptions.</t>
+    <t xml:space="preserve">The off-switch game is a game theoretic model of a highly intelligent robot interacting with a human. In the original paper by Hadfield-Menell et al. (2016b), the analysis is not fully game-theoretic as the human is modelled as an irrational player, and the robot’s best action is only calculated under unrealistic normality and soft-max assumptions. In this paper, we make the analysis fully game theoretic, by modelling the human as a rational player with a random utility function. As a consequence, we are able to easily calculate the robot’s best action for arbitrary belief and irrationality assumptions.</t>
   </si>
   <si>
     <t xml:space="preserve">http://link.springer.com/chapter/10.1007/978-3-319-63703-7_16</t>
@@ -2229,8 +2252,7 @@
     <t xml:space="preserve">Alex GlushchenkoAndres SuarezAnton KoloninBen GoertzelOleg Baskov</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Although natural (i.e. human) languages do not seem to follow a strictly formal grammar, their structure analysis and generation can be approximated by one. Having such a grammar is an important tool for programmatic language understanding. Due to the huge number of natural languages and their variations, processing tools that rely on human intervention are available only for the most popular ones. We explore the problem of unsupervisedly inducing a formal grammar for any language, using the Link Grammar paradigm, from unannotated parses also obtained without supervision from an input corpus. The details of our state-of-the-art grammar induction technology and its evaluation techniques are described, as well as preliminary results of its application on both synthetic and real world text-corpora.</t>
+    <t xml:space="preserve">Although natural (i.e. human) languages do not seem to follow a strictly formal grammar, their structure analysis and generation can be approximated by one. Having such a grammar is an important tool for programmatic language understanding. Due to the huge number of natural languages and their variations, processing tools that rely on human intervention are available only for the most popular ones. We explore the problem of unsupervisedly inducing a formal grammar for any language, using the Link Grammar paradigm, from unannotated parses also obtained without supervision from an input corpus. The details of our state-of-the-art grammar induction technology and its evaluation techniques are described, as well as preliminary results of its application on both synthetic and real world text-corpora.</t>
   </si>
   <si>
     <t xml:space="preserve">Categorization, Clustering, Computational linguistics, Dimensionality reduction, Formal grammar, Grammar induction, Natural language processing, Unsupervised learning, Vector space</t>
@@ -2242,6 +2264,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_11</t>
   </si>
   <si>
+    <t xml:space="preserve">NLP, linguistics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genetic Algorithms with DNN-Based Trainable Crossover as an Example of Partial Specialization of General Search</t>
   </si>
   <si>
@@ -2260,6 +2285,9 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_10</t>
   </si>
   <si>
+    <t xml:space="preserve">General search, universal induction, neural networks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generic Animats</t>
   </si>
   <si>
@@ -2314,6 +2342,9 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_21</t>
   </si>
   <si>
+    <t xml:space="preserve">Concept invention.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goal-Directed Procedure Learning</t>
   </si>
   <si>
@@ -2368,6 +2399,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_41</t>
   </si>
   <si>
+    <t xml:space="preserve">Agent-environmennt interaction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stochastic Tasks: Difficulty and Levin Search</t>
   </si>
   <si>
@@ -2386,6 +2420,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_10</t>
   </si>
   <si>
+    <t xml:space="preserve">Task difficulty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reflective Variants of Solomonoff Induction and AIXI</t>
   </si>
   <si>
@@ -2434,14 +2471,16 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_28</t>
   </si>
   <si>
+    <t xml:space="preserve">Intelligence evaluation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unsupervised Language Learning in OpenCog</t>
   </si>
   <si>
     <t xml:space="preserve">Alex GlushchenkoAndres SuarezAnton KoloninBen GoertzelClaudia CastilloMan Hin LeungOleg Baskov</t>
   </si>
   <si>
-    <t xml:space="preserve">
-We discuss technology capable to learn language without supervision. While the entire goal may be too ambitious and not achievable to full extent, we explore how far we can advance grammar learning. We present the current approach employed in the open source OpenCog Artificial Intelligence Platform, describe the cognitive pipeline being constructed and present some intermediate results.</t>
+    <t xml:space="preserve">We discuss technology capable to learn language without supervision. While the entire goal may be too ambitious and not achievable to full extent, we explore how far we can advance grammar learning. We present the current approach employed in the open source OpenCog Artificial Intelligence Platform, describe the cognitive pipeline being constructed and present some intermediate results.</t>
   </si>
   <si>
     <t xml:space="preserve">http://link.springer.com/chapter/10.1007/978-3-319-97676-1_11</t>
@@ -2486,6 +2525,9 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_13</t>
   </si>
   <si>
+    <t xml:space="preserve">Recursive self-improvement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimization Framework with Minimum Description Length Principle for Probabilistic Programming</t>
   </si>
   <si>
@@ -2504,14 +2546,16 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_34</t>
   </si>
   <si>
+    <t xml:space="preserve">Probabilistic programming</t>
+  </si>
+  <si>
     <t xml:space="preserve">Real-Time GA-Based Probabilistic Programming in Application to Robot Control</t>
   </si>
   <si>
     <t xml:space="preserve">Alexey PotapovSergey RodionovVita Potapova</t>
   </si>
   <si>
-    <t xml:space="preserve">Possibility to solve the problem of planning and plan recovery for robots using probabilistic programming with optimization queries, which is being developed as a framework for AGI and cognitive architectures, is considered. Planning can be done directly by introducing a generative model for plans and optimizing an objective function calculated via plan simulation. Plan recovery is achieved almost without modifying optimization queries. These queries are simply executed in parallel with plan execution by a robot meaning that they continuously optimize dynamically varying objective functions tracking their optima. Experiments with the NAO robot showed that replanning can be naturally done within this approach without developing special plan recovery methods.
-</t>
+    <t xml:space="preserve">Possibility to solve the problem of planning and plan recovery for robots using probabilistic programming with optimization queries, which is being developed as a framework for AGI and cognitive architectures, is considered. Planning can be done directly by introducing a generative model for plans and optimizing an objective function calculated via plan simulation. Plan recovery is achieved almost without modifying optimization queries. These queries are simply executed in parallel with plan execution by a robot meaning that they continuously optimize dynamically varying objective functions tracking their optima. Experiments with the NAO robot showed that replanning can be naturally done within this approach without developing special plan recovery methods.</t>
   </si>
   <si>
     <t xml:space="preserve">Probabilistic programming, Optimization queries, Genetic algorithms, Robot planning, Replanning</t>
@@ -2529,8 +2573,7 @@
     <t xml:space="preserve">Bill PowerXiang LiPei Wang</t>
   </si>
   <si>
-    <t xml:space="preserve">Symbolic reasoning systems have leveraged propositional logic frameworks to build diagnostics tools capable of describing complex artifacts, while also allowing for a controlled and efficacious search over failure modes. These diagnostic systems represent a complex and varied context in which to explore general intelligence. This paper explores the application of a different reasoning system to such frameworks, specifically, the Non-Axiomatic Reasoning System. It shows how statements can be built describing an artifact, and that NARS is capable of diagnosing abnormal states within examples of said artifact.
-</t>
+    <t xml:space="preserve">Symbolic reasoning systems have leveraged propositional logic frameworks to build diagnostics tools capable of describing complex artifacts, while also allowing for a controlled and efficacious search over failure modes. These diagnostic systems represent a complex and varied context in which to explore general intelligence. This paper explores the application of a different reasoning system to such frameworks, specifically, the Non-Axiomatic Reasoning System. It shows how statements can be built describing an artifact, and that NARS is capable of diagnosing abnormal states within examples of said artifact.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostics, Model Based Diagnostics, Abductive inference</t>
@@ -2611,6 +2654,9 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_28</t>
   </si>
   <si>
+    <t xml:space="preserve">Cellular automaton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adaptive Compressed Search</t>
   </si>
   <si>
@@ -2692,15 +2738,16 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_14</t>
   </si>
   <si>
+    <t xml:space="preserve">Universal induction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generating Single Subject Activity Videos as a Sequence of Actions Using 3D Convolutional Generative Adversarial Networks</t>
   </si>
   <si>
     <t xml:space="preserve">Ahmad ArinaldiMohamad Ivan Fanany</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Humans have the remarkable ability of imagination, where within the human mind virtual simulations are done of scenarios whether visual, auditory or any other senses. These imaginations are based on the experiences during interaction with the real world, where human senses help the mind understand their surroundings. Such level of imagination has not yet been achieved using current algorithms, but a current trend in deep learning architectures known as Generative Adversarial Networks (GANs) have proven capable of generating new and interesting images or videos based on the training data. In that way, GANs can be used to mimic human imagination, where the resulting generated visuals of GANs are based on the data used during training. In this paper, we use a combination of Long Short-Term Memory (LSTM) Networks and 3D GANs to generate videos. We use a 3D Convolutional GAN to generate new human action videos based on trained data. The generated human action videos are used to generate longer videos consisting of a sequence of short actions combined creating longer and more complex activities. To generate the sequence of actions needed we use an LSTM network to translate a simple input description text into the required sequence of actions. The generated chunks are then concatenated using a motion interpolation scheme to form a single video consisting of many generated actions. Hence a visualization of the input text description is generated as a video of a subject performing the activity described.
-</t>
+    <t xml:space="preserve">Humans have the remarkable ability of imagination, where within the human mind virtual simulations are done of scenarios whether visual, auditory or any other senses. These imaginations are based on the experiences during interaction with the real world, where human senses help the mind understand their surroundings. Such level of imagination has not yet been achieved using current algorithms, but a current trend in deep learning architectures known as Generative Adversarial Networks (GANs) have proven capable of generating new and interesting images or videos based on the training data. In that way, GANs can be used to mimic human imagination, where the resulting generated visuals of GANs are based on the data used during training. In this paper, we use a combination of Long Short-Term Memory (LSTM) Networks and 3D GANs to generate videos. We use a 3D Convolutional GAN to generate new human action videos based on trained data. The generated human action videos are used to generate longer videos consisting of a sequence of short actions combined creating longer and more complex activities. To generate the sequence of actions needed we use an LSTM network to translate a simple input description text into the required sequence of actions. The generated chunks are then concatenated using a motion interpolation scheme to form a single video consisting of many generated actions. Hence a visualization of the input text description is generated as a video of a subject performing the activity described.</t>
   </si>
   <si>
     <t xml:space="preserve">Activity video generation, 3D GAN, LSTM</t>
@@ -2710,6 +2757,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1007/978-3-319-63703-7_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAN</t>
   </si>
   <si>
     <t xml:space="preserve">Asymptotic Logical Uncertainty and the Benford Test</t>
@@ -3524,7 +3574,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3555,6 +3605,18 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -3576,7 +3638,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3597,7 +3659,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3629,11 +3691,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3661,7 +3723,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3669,7 +3731,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="27" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="30" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="31" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3694,7 +3772,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -3702,13 +3780,17 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Accent 1 1" xfId="20"/>
-    <cellStyle name="Bad 4" xfId="21"/>
-    <cellStyle name="Good 3" xfId="22"/>
-    <cellStyle name="Heading 1 1" xfId="23"/>
-    <cellStyle name="Heading 1 2" xfId="24"/>
-    <cellStyle name="Heading 2 1" xfId="25"/>
-    <cellStyle name="Good" xfId="26"/>
-    <cellStyle name="Bad" xfId="27"/>
+    <cellStyle name="Bad 2" xfId="21"/>
+    <cellStyle name="Bad 3" xfId="22"/>
+    <cellStyle name="Bad 4" xfId="23"/>
+    <cellStyle name="Good 1" xfId="24"/>
+    <cellStyle name="Good 2" xfId="25"/>
+    <cellStyle name="Good 3" xfId="26"/>
+    <cellStyle name="Heading 1 1" xfId="27"/>
+    <cellStyle name="Heading 1 2" xfId="28"/>
+    <cellStyle name="Heading 2 1" xfId="29"/>
+    <cellStyle name="Good" xfId="30"/>
+    <cellStyle name="Bad" xfId="31"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3780,18 +3862,18 @@
   </sheetPr>
   <dimension ref="A1:R191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P76" activeCellId="0" sqref="P76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G121" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P148" activeCellId="0" sqref="P148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="38.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.76"/>
@@ -6946,6 +7028,9 @@
       <c r="M78" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="O78" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="n">
@@ -6981,16 +7066,22 @@
       <c r="M79" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="O79" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>2016</v>
@@ -6999,22 +7090,25 @@
         <v>236</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O80" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7022,10 +7116,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>2015</v>
@@ -7034,22 +7128,25 @@
         <v>236</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O81" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7057,10 +7154,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2018</v>
@@ -7069,22 +7166,25 @@
         <v>236</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O82" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7092,10 +7192,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2017</v>
@@ -7104,19 +7204,22 @@
         <v>236</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O83" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7124,10 +7227,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>2016</v>
@@ -7136,22 +7239,25 @@
         <v>236</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O84" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7159,7 +7265,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>313</v>
@@ -7171,22 +7277,25 @@
         <v>236</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O85" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7194,10 +7303,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>2015</v>
@@ -7206,22 +7315,28 @@
         <v>236</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M86" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O86" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7229,10 +7344,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>2015</v>
@@ -7241,22 +7356,25 @@
         <v>236</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O87" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7264,10 +7382,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>2016</v>
@@ -7276,22 +7394,25 @@
         <v>236</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O88" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7299,10 +7420,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>2018</v>
@@ -7311,22 +7432,25 @@
         <v>236</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O89" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7334,10 +7458,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>2015</v>
@@ -7346,22 +7470,25 @@
         <v>236</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O90" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7369,7 +7496,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>159</v>
@@ -7381,22 +7508,25 @@
         <v>236</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O91" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7404,10 +7534,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>2016</v>
@@ -7416,22 +7546,25 @@
         <v>236</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O92" s="24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7439,7 +7572,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>168</v>
@@ -7451,22 +7584,25 @@
         <v>236</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O93" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7474,10 +7610,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>2019</v>
@@ -7486,22 +7622,25 @@
         <v>236</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M94" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O94" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7509,10 +7648,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>2015</v>
@@ -7521,22 +7660,28 @@
         <v>236</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M95" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O95" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7544,10 +7689,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>2016</v>
@@ -7556,22 +7701,25 @@
         <v>236</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O96" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7579,10 +7727,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>2016</v>
@@ -7591,22 +7739,28 @@
         <v>236</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M97" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O97" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="0" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7614,10 +7768,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2019</v>
@@ -7626,22 +7780,28 @@
         <v>236</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M98" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O98" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="0" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7649,10 +7809,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>2019</v>
@@ -7661,22 +7821,25 @@
         <v>236</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M99" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O99" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7684,10 +7847,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>2018</v>
@@ -7696,22 +7859,25 @@
         <v>236</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M100" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O100" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7719,10 +7885,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>2018</v>
@@ -7731,22 +7897,25 @@
         <v>236</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M101" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O101" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7754,7 +7923,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>313</v>
@@ -7766,19 +7935,22 @@
         <v>236</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O102" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7786,10 +7958,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>2018</v>
@@ -7798,22 +7970,25 @@
         <v>236</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M103" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O103" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7821,10 +7996,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>2015</v>
@@ -7833,22 +8008,28 @@
         <v>236</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M104" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O104" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7856,10 +8037,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>2016</v>
@@ -7868,22 +8049,25 @@
         <v>236</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M105" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O105" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7891,10 +8075,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>2016</v>
@@ -7903,22 +8087,25 @@
         <v>236</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M106" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O106" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7926,10 +8113,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>2016</v>
@@ -7938,22 +8125,25 @@
         <v>236</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M107" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O107" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7961,10 +8151,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>2016</v>
@@ -7973,22 +8163,25 @@
         <v>236</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M108" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O108" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7996,7 +8189,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>159</v>
@@ -8008,22 +8201,25 @@
         <v>236</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M109" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O109" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8031,10 +8227,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2016</v>
@@ -8043,22 +8239,25 @@
         <v>236</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M110" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O110" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8066,10 +8265,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>2015</v>
@@ -8078,22 +8277,28 @@
         <v>236</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M111" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O111" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="0" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8101,10 +8306,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>2015</v>
@@ -8113,22 +8318,28 @@
         <v>236</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M112" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O112" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="0" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8136,10 +8347,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>2015</v>
@@ -8148,22 +8359,25 @@
         <v>236</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M113" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O113" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8171,10 +8385,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2018</v>
@@ -8183,22 +8397,25 @@
         <v>236</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M114" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O114" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8206,10 +8423,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>2019</v>
@@ -8218,22 +8435,28 @@
         <v>236</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M115" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O115" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="0" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8241,10 +8464,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>2016</v>
@@ -8253,22 +8476,25 @@
         <v>236</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M116" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O116" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8276,10 +8502,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>2016</v>
@@ -8288,22 +8514,25 @@
         <v>236</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M117" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O117" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8311,10 +8540,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>2017</v>
@@ -8323,22 +8552,25 @@
         <v>236</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M118" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O118" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8346,10 +8578,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2019</v>
@@ -8358,22 +8590,25 @@
         <v>236</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M119" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O119" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8381,10 +8616,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2017</v>
@@ -8393,19 +8628,22 @@
         <v>236</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M120" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O120" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8413,10 +8651,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>2019</v>
@@ -8425,22 +8663,25 @@
         <v>236</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M121" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O121" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8448,10 +8689,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>2017</v>
@@ -8460,22 +8701,28 @@
         <v>236</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M122" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O122" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="0" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8483,10 +8730,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>2017</v>
@@ -8495,19 +8742,22 @@
         <v>236</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M123" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O123" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8515,10 +8765,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2019</v>
@@ -8527,22 +8777,28 @@
         <v>236</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M124" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O124" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="0" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8550,10 +8806,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>2017</v>
@@ -8562,22 +8818,28 @@
         <v>236</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M125" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O125" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="0" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8585,10 +8847,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2017</v>
@@ -8597,22 +8859,25 @@
         <v>236</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M126" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O126" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8620,10 +8885,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>2015</v>
@@ -8632,22 +8897,25 @@
         <v>236</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M127" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O127" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8655,10 +8923,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>2016</v>
@@ -8667,22 +8935,28 @@
         <v>236</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M128" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O128" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="0" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8690,10 +8964,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>2018</v>
@@ -8702,22 +8976,25 @@
         <v>236</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M129" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O129" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8725,10 +9002,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2015</v>
@@ -8737,22 +9014,25 @@
         <v>236</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M130" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O130" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8760,10 +9040,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2015</v>
@@ -8772,22 +9052,28 @@
         <v>236</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M131" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O131" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="0" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8795,10 +9081,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>2015</v>
@@ -8807,22 +9093,28 @@
         <v>236</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M132" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O132" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="0" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8830,10 +9122,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>2015</v>
@@ -8842,22 +9134,25 @@
         <v>236</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M133" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O133" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8865,10 +9160,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>2017</v>
@@ -8877,19 +9172,22 @@
         <v>236</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M134" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O134" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8897,10 +9195,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>2015</v>
@@ -8909,22 +9207,28 @@
         <v>236</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M135" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O135" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="0" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8932,10 +9236,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>2018</v>
@@ -8944,22 +9248,25 @@
         <v>236</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M136" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O136" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8967,10 +9274,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>2015</v>
@@ -8979,22 +9286,25 @@
         <v>236</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M137" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O137" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9002,10 +9312,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>2016</v>
@@ -9014,22 +9324,28 @@
         <v>236</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M138" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O138" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="0" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9037,10 +9353,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>2015</v>
@@ -9049,22 +9365,28 @@
         <v>236</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M139" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O139" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="0" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9072,10 +9394,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>2016</v>
@@ -9084,22 +9406,25 @@
         <v>236</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M140" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O140" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9107,10 +9432,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>2019</v>
@@ -9119,22 +9444,25 @@
         <v>236</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M141" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O141" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9142,10 +9470,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>2017</v>
@@ -9154,22 +9482,25 @@
         <v>236</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M142" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O142" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9177,10 +9508,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>2018</v>
@@ -9189,22 +9520,25 @@
         <v>236</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M143" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O143" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9212,10 +9546,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>2016</v>
@@ -9224,22 +9558,28 @@
         <v>236</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M144" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O144" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="0" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9247,10 +9587,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>2016</v>
@@ -9259,22 +9599,28 @@
         <v>236</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M145" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O145" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9282,10 +9628,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2018</v>
@@ -9294,22 +9640,25 @@
         <v>236</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M146" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O146" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9317,10 +9666,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>2016</v>
@@ -9329,19 +9678,22 @@
         <v>236</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M147" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O147" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9349,10 +9701,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>2015</v>
@@ -9361,22 +9713,28 @@
         <v>236</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M148" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O148" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="0" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9384,7 +9742,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>357</v>
@@ -9396,22 +9754,25 @@
         <v>236</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M149" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O149" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9419,7 +9780,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>267</v>
@@ -9431,22 +9792,28 @@
         <v>236</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M150" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O150" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="0" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9454,10 +9821,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>2017</v>
@@ -9466,22 +9833,28 @@
         <v>236</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M151" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O151" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="0" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9489,10 +9862,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>2016</v>
@@ -9501,16 +9874,16 @@
         <v>236</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>895</v>
+        <v>916</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>63</v>
@@ -9524,10 +9897,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>2015</v>
@@ -9536,16 +9909,16 @@
         <v>236</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>903</v>
+        <v>924</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>63</v>
@@ -9559,10 +9932,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>2019</v>
@@ -9571,16 +9944,16 @@
         <v>236</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>63</v>
@@ -9594,10 +9967,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>911</v>
+        <v>932</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>2017</v>
@@ -9606,13 +9979,13 @@
         <v>236</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>912</v>
+        <v>933</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>914</v>
+        <v>935</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>63</v>
@@ -9626,10 +9999,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>915</v>
+        <v>936</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>916</v>
+        <v>937</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>2018</v>
@@ -9638,16 +10011,16 @@
         <v>236</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>917</v>
+        <v>938</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>918</v>
+        <v>939</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>919</v>
+        <v>940</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>63</v>
@@ -9661,10 +10034,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>2018</v>
@@ -9673,16 +10046,16 @@
         <v>236</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>924</v>
+        <v>945</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>63</v>
@@ -9696,10 +10069,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>2015</v>
@@ -9708,16 +10081,16 @@
         <v>236</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>63</v>
@@ -9731,10 +10104,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>2015</v>
@@ -9743,16 +10116,16 @@
         <v>236</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>938</v>
+        <v>959</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>63</v>
@@ -9766,10 +10139,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>2019</v>
@@ -9778,16 +10151,16 @@
         <v>236</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>943</v>
+        <v>964</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>944</v>
+        <v>965</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>63</v>
@@ -9801,10 +10174,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>2017</v>
@@ -9813,13 +10186,13 @@
         <v>236</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>63</v>
@@ -9833,10 +10206,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>2015</v>
@@ -9845,16 +10218,16 @@
         <v>236</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>953</v>
+        <v>974</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>63</v>
@@ -9868,10 +10241,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>2015</v>
@@ -9880,16 +10253,16 @@
         <v>236</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>958</v>
+        <v>979</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>959</v>
+        <v>980</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>63</v>
@@ -9903,10 +10276,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>963</v>
+        <v>984</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>2015</v>
@@ -9915,16 +10288,16 @@
         <v>236</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>966</v>
+        <v>987</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>63</v>
@@ -9938,7 +10311,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>267</v>
@@ -9950,13 +10323,13 @@
         <v>236</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>63</v>
@@ -9970,10 +10343,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>972</v>
+        <v>993</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>973</v>
+        <v>994</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>2019</v>
@@ -9982,16 +10355,16 @@
         <v>236</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>974</v>
+        <v>995</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>975</v>
+        <v>996</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>976</v>
+        <v>997</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>63</v>
@@ -10005,10 +10378,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>2016</v>
@@ -10017,16 +10390,16 @@
         <v>236</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>981</v>
+        <v>1002</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>983</v>
+        <v>1004</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>63</v>
@@ -10040,10 +10413,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>2016</v>
@@ -10052,16 +10425,16 @@
         <v>236</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>986</v>
+        <v>1007</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>987</v>
+        <v>1008</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>989</v>
+        <v>1010</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>63</v>
@@ -10075,10 +10448,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>2016</v>
@@ -10087,16 +10460,16 @@
         <v>236</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>992</v>
+        <v>1013</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>993</v>
+        <v>1014</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>63</v>
@@ -10110,10 +10483,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>2019</v>
@@ -10122,16 +10495,16 @@
         <v>236</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>998</v>
+        <v>1019</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>999</v>
+        <v>1020</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1001</v>
+        <v>1022</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>63</v>
@@ -10145,10 +10518,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>2019</v>
@@ -10157,16 +10530,16 @@
         <v>236</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>63</v>
@@ -10180,10 +10553,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>2018</v>
@@ -10192,16 +10565,16 @@
         <v>236</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>1010</v>
+        <v>1031</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>1011</v>
+        <v>1032</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>63</v>
@@ -10215,10 +10588,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1014</v>
+        <v>1035</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>2017</v>
@@ -10227,13 +10600,13 @@
         <v>236</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1018</v>
+        <v>1039</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>63</v>
@@ -10247,10 +10620,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1019</v>
+        <v>1040</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1020</v>
+        <v>1041</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>2018</v>
@@ -10259,16 +10632,16 @@
         <v>236</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>1021</v>
+        <v>1042</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>1022</v>
+        <v>1043</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>1023</v>
+        <v>1044</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1024</v>
+        <v>1045</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>63</v>
@@ -10282,10 +10655,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1025</v>
+        <v>1046</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1026</v>
+        <v>1047</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>2018</v>
@@ -10294,16 +10667,16 @@
         <v>236</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>1027</v>
+        <v>1048</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>1028</v>
+        <v>1049</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>1029</v>
+        <v>1050</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1030</v>
+        <v>1051</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>63</v>
@@ -10317,7 +10690,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1031</v>
+        <v>1052</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>357</v>
@@ -10329,16 +10702,16 @@
         <v>236</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>1032</v>
+        <v>1053</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>1033</v>
+        <v>1054</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>1034</v>
+        <v>1055</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1035</v>
+        <v>1056</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>63</v>
@@ -10352,10 +10725,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>2018</v>
@@ -10364,16 +10737,16 @@
         <v>236</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>1038</v>
+        <v>1059</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>1039</v>
+        <v>1060</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>1040</v>
+        <v>1061</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1041</v>
+        <v>1062</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>63</v>
@@ -10387,10 +10760,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1042</v>
+        <v>1063</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>2017</v>
@@ -10399,16 +10772,16 @@
         <v>236</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>1044</v>
+        <v>1065</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>1045</v>
+        <v>1066</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>1046</v>
+        <v>1067</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1047</v>
+        <v>1068</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>63</v>
@@ -10422,10 +10795,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1048</v>
+        <v>1069</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1049</v>
+        <v>1070</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>2019</v>
@@ -10434,16 +10807,16 @@
         <v>236</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>1052</v>
+        <v>1073</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1053</v>
+        <v>1074</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>63</v>
@@ -10457,10 +10830,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1054</v>
+        <v>1075</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>2018</v>
@@ -10469,16 +10842,16 @@
         <v>236</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>1055</v>
+        <v>1076</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>1056</v>
+        <v>1077</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>1057</v>
+        <v>1078</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1058</v>
+        <v>1079</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>63</v>
@@ -10492,10 +10865,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>2018</v>
@@ -10504,16 +10877,16 @@
         <v>236</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>1060</v>
+        <v>1081</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>1061</v>
+        <v>1082</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1063</v>
+        <v>1084</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>63</v>
@@ -10527,10 +10900,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1065</v>
+        <v>1086</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>2017</v>
@@ -10539,13 +10912,13 @@
         <v>236</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>1067</v>
+        <v>1088</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>63</v>
@@ -10559,7 +10932,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1069</v>
+        <v>1090</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>267</v>
@@ -10571,13 +10944,13 @@
         <v>236</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1072</v>
+        <v>1093</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>63</v>
@@ -10591,10 +10964,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1074</v>
+        <v>1095</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>2017</v>
@@ -10603,13 +10976,13 @@
         <v>236</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>1075</v>
+        <v>1096</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>1076</v>
+        <v>1097</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>63</v>
@@ -10623,10 +10996,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1078</v>
+        <v>1099</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>2018</v>
@@ -10635,16 +11008,16 @@
         <v>236</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>1081</v>
+        <v>1102</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1083</v>
+        <v>1104</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>63</v>
@@ -10658,10 +11031,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1084</v>
+        <v>1105</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>2016</v>
@@ -10670,16 +11043,16 @@
         <v>236</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>1086</v>
+        <v>1107</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1089</v>
+        <v>1110</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>63</v>
@@ -10693,10 +11066,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>2016</v>
@@ -10705,13 +11078,13 @@
         <v>236</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>63</v>
@@ -10725,10 +11098,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1095</v>
+        <v>1116</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1096</v>
+        <v>1117</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2016</v>
@@ -10737,16 +11110,16 @@
         <v>236</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>1097</v>
+        <v>1118</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>1099</v>
+        <v>1120</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1100</v>
+        <v>1121</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>63</v>
@@ -10760,10 +11133,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1101</v>
+        <v>1122</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1102</v>
+        <v>1123</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>2016</v>
@@ -10772,16 +11145,16 @@
         <v>236</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>1104</v>
+        <v>1125</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>1105</v>
+        <v>1126</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1106</v>
+        <v>1127</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>63</v>
@@ -10790,15 +11163,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="190" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="24"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="28"/>
-      <c r="I190" s="25"/>
-      <c r="J190" s="25"/>
-      <c r="K190" s="25"/>
+    <row r="190" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="28"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="32"/>
+      <c r="I190" s="29"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="10"/>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1146">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -2780,6 +2780,9 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_20</t>
   </si>
   <si>
+    <t xml:space="preserve">Logical uncertainty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expression Graphs</t>
   </si>
   <si>
@@ -2798,6 +2801,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_25</t>
   </si>
   <si>
+    <t xml:space="preserve">Factor graphs, Bayesian networks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lifelong Learning Starting from Zero</t>
   </si>
   <si>
@@ -2816,6 +2822,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_19</t>
   </si>
   <si>
+    <t xml:space="preserve">Deep learning, neural networks</t>
+  </si>
+  <si>
     <t xml:space="preserve">An Information-Theoretic Predictive Model for the Accuracy of AI Agents Adapted from Psychometrics</t>
   </si>
   <si>
@@ -2831,6 +2840,9 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_21</t>
   </si>
   <si>
+    <t xml:space="preserve">Agent evaluation</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Computational Theory for Life-Long Learning of Semantics</t>
   </si>
   <si>
@@ -2849,6 +2861,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_21</t>
   </si>
   <si>
+    <t xml:space="preserve">Semantic vectors, semantic communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partial Operator Induction with Beta Distributions</t>
   </si>
   <si>
@@ -2867,6 +2882,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_6</t>
   </si>
   <si>
+    <t xml:space="preserve">Solomonoff operator induction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decision-Making During Language Understanding by Intelligent Agents</t>
   </si>
   <si>
@@ -2885,6 +2903,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_32</t>
   </si>
   <si>
+    <t xml:space="preserve">NL understanding, reasoning, OntoAgents</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anchoring Knowledge in Interaction: Towards a Harmonic Subsymbolic/Symbolic Framework and Architecture of Computational Cognition</t>
   </si>
   <si>
@@ -2903,14 +2924,16 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_4</t>
   </si>
   <si>
+    <t xml:space="preserve">Transfer learning, architecture</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extending MicroPsi’s Model of Motivation and Emotion for Conversational Agents</t>
   </si>
   <si>
     <t xml:space="preserve">Joscha BachMurilo CoutinhoLiza Lichtinger</t>
   </si>
   <si>
-    <t xml:space="preserve">We describe a model of emotion and motivation that extends the MicroPsi motivation model for applications in conversational agents and tracking human emotions. The model is based on reactions of the agent to satisfaction and frustration of physiological, cognitive or social needs, and to changes of the agent’s expectations regarding such events. The model covers motivational states, affective states (modulation of cognition), feelings (sensations that correspond to a situation appraisal), emotions (conceptual aggregates of motivational states, modulators and feelings) and is currently being adapted to express emotional states.
-</t>
+    <t xml:space="preserve">We describe a model of emotion and motivation that extends the MicroPsi motivation model for applications in conversational agents and tracking human emotions. The model is based on reactions of the agent to satisfaction and frustration of physiological, cognitive or social needs, and to changes of the agent’s expectations regarding such events. The model covers motivational states, affective states (modulation of cognition), feelings (sensations that correspond to a situation appraisal), emotions (conceptual aggregates of motivational states, modulators and feelings) and is currently being adapted to express emotional states.</t>
   </si>
   <si>
     <t xml:space="preserve">MicroPsi architecture, Artificial emotion, Affect, Motivation, Modulation, Feelings, Appraisal models, Affective computing</t>
@@ -2922,6 +2945,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_4</t>
   </si>
   <si>
+    <t xml:space="preserve">Micropsi architecture, artificial emotion</t>
+  </si>
+  <si>
     <t xml:space="preserve">What People Say? Web-Based Casuistry for Artificial Morality Experiments</t>
   </si>
   <si>
@@ -2937,6 +2963,9 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_17</t>
   </si>
   <si>
+    <t xml:space="preserve">Machine morality, agent ethics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two Attempts to Formalize Counterpossible Reasoning in Deterministic Settings</t>
   </si>
   <si>
@@ -2973,6 +3002,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_29</t>
   </si>
   <si>
+    <t xml:space="preserve">Grid cells</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plan Recovery in Reactive HTNs Using Symbolic Planning</t>
   </si>
   <si>
@@ -2991,6 +3023,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_33</t>
   </si>
   <si>
+    <t xml:space="preserve">Symbolic modeling, agent planning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zeta Distribution and Transfer Learning Problem</t>
   </si>
   <si>
@@ -3003,14 +3038,16 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_17</t>
   </si>
   <si>
+    <t xml:space="preserve">Transfer learning, zeta distribution</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orthogonality-Based Disentanglement of Responsibilities for Ethical Intelligent Systems</t>
   </si>
   <si>
     <t xml:space="preserve">Nadisha-Marie AlimanLeon KesterPeter WerkhovenRoman Yampolskiy</t>
   </si>
   <si>
-    <t xml:space="preserve">In recent years, the implementation of meaningfully controllable advanced intelligent systems whose goals are aligned with ethical values as specified by human entities emerged as key subject of investigation of international relevance across diverse AI-related research areas. In this paper, we present a novel transdisciplinary and Systems Engineering oriented approach denoted “orthogonality-based disentanglement” which jointly tackles both the thereby underlying control problem and value alignment problem while unraveling the corresponding responsibilities of different stakeholders based on the distinction of two orthogonal axes assigned to the problem-solving ability of these intelligent systems on the one hand and to the ethical abilities they exhibit based on quantitatively encoded human values on the other hand. Moreover, we introduce the notion of explicitly formulated ethical goal functions ideally encoding what humans should want and exemplify a possible class of “self-aware” intelligent systems with the capability to reliably adhere to these human-defined goal functions. Beyond that, we discuss an attainable transformative socio-technological feedback-loop that could result out of the introduced orthogonality-based disentanglement approach and briefly elaborate on how the framework additionally provides valuable hints with regard to the coordination subtask in AI Safety. Finally, we point out remaining crucial challenges as incentive for future work.
-</t>
+    <t xml:space="preserve">In recent years, the implementation of meaningfully controllable advanced intelligent systems whose goals are aligned with ethical values as specified by human entities emerged as key subject of investigation of international relevance across diverse AI-related research areas. In this paper, we present a novel transdisciplinary and Systems Engineering oriented approach denoted “orthogonality-based disentanglement” which jointly tackles both the thereby underlying control problem and value alignment problem while unraveling the corresponding responsibilities of different stakeholders based on the distinction of two orthogonal axes assigned to the problem-solving ability of these intelligent systems on the one hand and to the ethical abilities they exhibit based on quantitatively encoded human values on the other hand. Moreover, we introduce the notion of explicitly formulated ethical goal functions ideally encoding what humans should want and exemplify a possible class of “self-aware” intelligent systems with the capability to reliably adhere to these human-defined goal functions. Beyond that, we discuss an attainable transformative socio-technological feedback-loop that could result out of the introduced orthogonality-based disentanglement approach and briefly elaborate on how the framework additionally provides valuable hints with regard to the coordination subtask in AI Safety. Finally, we point out remaining crucial challenges as incentive for future work.</t>
   </si>
   <si>
     <t xml:space="preserve">Ethical goal function, Self-awareness, AI alignment, Control problem, AI coordination</t>
@@ -3028,8 +3065,7 @@
     <t xml:space="preserve">Paul S. RosenbloomAbram DemskiVolkan Ustun</t>
   </si>
   <si>
-    <t xml:space="preserve">The status of Sigma’s grounding in graphical models is challenged by the ways in which their semantics has been violated while incorporating rule-based reasoning into them. This has led to a rethinking of what goes on in its graphical architecture, with results that include a straightforward extension to feedforward neural networks (although not yet with learning).
-</t>
+    <t xml:space="preserve">The status of Sigma’s grounding in graphical models is challenged by the ways in which their semantics has been violated while incorporating rule-based reasoning into them. This has led to a rethinking of what goes on in its graphical architecture, with results that include a straightforward extension to feedforward neural networks (although not yet with learning).</t>
   </si>
   <si>
     <t xml:space="preserve">Cognitive architecture, Graphical models, Neural network</t>
@@ -3077,15 +3113,16 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_30</t>
   </si>
   <si>
+    <t xml:space="preserve">Cartesian compression, deep learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cognitive Module Networks for Grounded Reasoning</t>
   </si>
   <si>
     <t xml:space="preserve">Alexey PotapovAnatoly BelikovVitaly BogdanovAlexander Scherbatiy</t>
   </si>
   <si>
-    <t xml:space="preserve">
-The necessity for neural-symbolic integration becomes evident as more complex problems like visual question answering are beginning to be addressed, which go beyond such limited-domain tasks as classification. Many existing state-of-the-art models are designed for a particular task or even benchmark, while general-purpose approaches are rarely applied to a wide variety of tasks demonstrating high performance. We propose a hybrid neural-symbolic framework, which tightly integrates the knowledge representation and symbolic reasoning mechanisms of the OpenCog cognitive architecture and one of the contemporary deep learning libraries, PyTorch, and show how to implement some existing particular models in our general framework.
-</t>
+    <t xml:space="preserve">The necessity for neural-symbolic integration becomes evident as more complex problems like visual question answering are beginning to be addressed, which go beyond such limited-domain tasks as classification. Many existing state-of-the-art models are designed for a particular task or even benchmark, while general-purpose approaches are rarely applied to a wide variety of tasks demonstrating high performance. We propose a hybrid neural-symbolic framework, which tightly integrates the knowledge representation and symbolic reasoning mechanisms of the OpenCog cognitive architecture and one of the contemporary deep learning libraries, PyTorch, and show how to implement some existing particular models in our general framework.</t>
   </si>
   <si>
     <t xml:space="preserve">Grounded reasoning, Cognitive architectures, Neural module networks, Visual question answering</t>
@@ -3103,8 +3140,7 @@
     <t xml:space="preserve">Roman VisotskyYuval AtzmonGal Chechik</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Learning from few samples is a major challenge for parameter-rich models such as deep networks. In contrast, people can learn complex new concepts even from very few examples, suggesting that the sample complexity of learning can often be reduced. We describe an approach to reduce the number of samples needed for learning using per-sample side information. Specifically, we show how to speed up learning by providing textual information about feature relevance, like the presence of objects in a scene or attributes in an image. We also give an improved generalization error bound for this case. We formulate the learning problem using an ellipsoid-margin loss, and develop an algorithm that minimizes this loss effectively. Empirical evaluation on two machine vision benchmarks for scene classification and fine-grain bird classification demonstrate the benefits of this approach for few-shot learning.</t>
+    <t xml:space="preserve">Learning from few samples is a major challenge for parameter-rich models such as deep networks. In contrast, people can learn complex new concepts even from very few examples, suggesting that the sample complexity of learning can often be reduced. We describe an approach to reduce the number of samples needed for learning using per-sample side information. Specifically, we show how to speed up learning by providing textual information about feature relevance, like the presence of objects in a scene or attributes in an image. We also give an improved generalization error bound for this case. We formulate the learning problem using an ellipsoid-margin loss, and develop an algorithm that minimizes this loss effectively. Empirical evaluation on two machine vision benchmarks for scene classification and fine-grain bird classification demonstrate the benefits of this approach for few-shot learning.</t>
   </si>
   <si>
     <t xml:space="preserve">Few-shot learning, Side information, Machine teaching</t>
@@ -3116,6 +3152,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_21</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural networks, side information</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Time-Critical Simulation of Language Comprehension</t>
   </si>
   <si>
@@ -3134,6 +3173,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_27</t>
   </si>
   <si>
+    <t xml:space="preserve">Language processing, on-line learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bandit Models of Human Behavior: Reward Processing in Mental Disorders</t>
   </si>
   <si>
@@ -3149,6 +3191,9 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_22</t>
   </si>
   <si>
+    <t xml:space="preserve">Multi-armed bandit, general parametric framework</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request Confirmation Networks in MicroPsi 2</t>
   </si>
   <si>
@@ -3165,6 +3210,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1007/978-3-319-97676-1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micropsi architecture, neurosymbolic represention</t>
   </si>
   <si>
     <t xml:space="preserve">Associative Memory: An Spiking Neural Network Robotic Implementation</t>
@@ -3611,6 +3659,12 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -3630,12 +3684,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
@@ -3659,7 +3707,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="30" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3691,7 +3739,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="27" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3723,7 +3771,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3735,7 +3783,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3743,11 +3791,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="30" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="28" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="31" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3783,14 +3831,14 @@
     <cellStyle name="Bad 2" xfId="21"/>
     <cellStyle name="Bad 3" xfId="22"/>
     <cellStyle name="Bad 4" xfId="23"/>
-    <cellStyle name="Good 1" xfId="24"/>
-    <cellStyle name="Good 2" xfId="25"/>
-    <cellStyle name="Good 3" xfId="26"/>
-    <cellStyle name="Heading 1 1" xfId="27"/>
-    <cellStyle name="Heading 1 2" xfId="28"/>
-    <cellStyle name="Heading 2 1" xfId="29"/>
-    <cellStyle name="Good" xfId="30"/>
-    <cellStyle name="Bad" xfId="31"/>
+    <cellStyle name="Bad 5" xfId="24"/>
+    <cellStyle name="Good 1" xfId="25"/>
+    <cellStyle name="Good 2" xfId="26"/>
+    <cellStyle name="Good 3" xfId="27"/>
+    <cellStyle name="Good 4" xfId="28"/>
+    <cellStyle name="Heading 1 1" xfId="29"/>
+    <cellStyle name="Heading 1 2" xfId="30"/>
+    <cellStyle name="Heading 2 1" xfId="31"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3862,11 +3910,11 @@
   </sheetPr>
   <dimension ref="A1:R191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G121" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P148" activeCellId="0" sqref="P148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.61"/>
@@ -9891,16 +9939,22 @@
       <c r="M152" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="O152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="0" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>2015</v>
@@ -9909,22 +9963,28 @@
         <v>236</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M153" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="0" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9932,10 +9992,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>2019</v>
@@ -9944,22 +10004,28 @@
         <v>236</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M154" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="0" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9967,10 +10033,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>2017</v>
@@ -9979,19 +10045,25 @@
         <v>236</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M155" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="0" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9999,10 +10071,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>2018</v>
@@ -10011,22 +10083,28 @@
         <v>236</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M156" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10034,10 +10112,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>2018</v>
@@ -10046,22 +10124,28 @@
         <v>236</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M157" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="0" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10069,10 +10153,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>2015</v>
@@ -10081,22 +10165,28 @@
         <v>236</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M158" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="0" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10104,10 +10194,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>2015</v>
@@ -10116,22 +10206,28 @@
         <v>236</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M159" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="0" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10139,10 +10235,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>2019</v>
@@ -10151,22 +10247,28 @@
         <v>236</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M160" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="0" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10174,10 +10276,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>2017</v>
@@ -10186,19 +10288,25 @@
         <v>236</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M161" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="0" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10206,10 +10314,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>2015</v>
@@ -10218,22 +10326,25 @@
         <v>236</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M162" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O162" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10241,10 +10352,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>2015</v>
@@ -10253,22 +10364,28 @@
         <v>236</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M163" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="0" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10276,10 +10393,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>2015</v>
@@ -10288,22 +10405,28 @@
         <v>236</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M164" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="0" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10311,7 +10434,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>267</v>
@@ -10323,19 +10446,25 @@
         <v>236</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M165" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="0" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10343,10 +10472,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>2019</v>
@@ -10355,22 +10484,25 @@
         <v>236</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M166" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O166" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10378,10 +10510,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>2016</v>
@@ -10390,22 +10522,25 @@
         <v>236</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M167" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O167" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10413,10 +10548,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>2016</v>
@@ -10425,22 +10560,25 @@
         <v>236</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M168" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O168" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10448,10 +10586,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>2016</v>
@@ -10460,22 +10598,28 @@
         <v>236</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M169" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="0" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10483,10 +10627,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>2019</v>
@@ -10495,22 +10639,25 @@
         <v>236</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>1020</v>
+        <v>1034</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>1021</v>
+        <v>1035</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M170" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O170" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10518,10 +10665,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1023</v>
+        <v>1037</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>2019</v>
@@ -10530,22 +10677,28 @@
         <v>236</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>1025</v>
+        <v>1039</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>1026</v>
+        <v>1040</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>1027</v>
+        <v>1041</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1028</v>
+        <v>1042</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M171" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="0" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10553,10 +10706,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>2018</v>
@@ -10565,22 +10718,28 @@
         <v>236</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M172" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="0" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10588,10 +10747,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>2017</v>
@@ -10600,19 +10759,25 @@
         <v>236</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M173" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="0" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10620,10 +10785,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1040</v>
+        <v>1057</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>2018</v>
@@ -10632,22 +10797,28 @@
         <v>236</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>1044</v>
+        <v>1061</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M174" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="O174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="0" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10655,10 +10826,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>2018</v>
@@ -10667,16 +10838,16 @@
         <v>236</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>63</v>
@@ -10690,7 +10861,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>357</v>
@@ -10702,16 +10873,16 @@
         <v>236</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>63</v>
@@ -10725,10 +10896,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>2018</v>
@@ -10737,16 +10908,16 @@
         <v>236</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>63</v>
@@ -10760,10 +10931,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>2017</v>
@@ -10772,16 +10943,16 @@
         <v>236</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>63</v>
@@ -10795,10 +10966,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>2019</v>
@@ -10807,16 +10978,16 @@
         <v>236</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>63</v>
@@ -10830,10 +11001,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>2018</v>
@@ -10842,16 +11013,16 @@
         <v>236</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>63</v>
@@ -10865,10 +11036,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>2018</v>
@@ -10877,16 +11048,16 @@
         <v>236</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>63</v>
@@ -10900,10 +11071,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>2017</v>
@@ -10912,13 +11083,13 @@
         <v>236</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>63</v>
@@ -10932,7 +11103,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>267</v>
@@ -10944,13 +11115,13 @@
         <v>236</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>63</v>
@@ -10964,10 +11135,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>2017</v>
@@ -10976,13 +11147,13 @@
         <v>236</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>63</v>
@@ -10996,10 +11167,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>2018</v>
@@ -11008,16 +11179,16 @@
         <v>236</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>63</v>
@@ -11031,10 +11202,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>2016</v>
@@ -11043,16 +11214,16 @@
         <v>236</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>63</v>
@@ -11066,10 +11237,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>2016</v>
@@ -11078,13 +11249,13 @@
         <v>236</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>63</v>
@@ -11098,10 +11269,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2016</v>
@@ -11110,16 +11281,16 @@
         <v>236</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>63</v>
@@ -11133,10 +11304,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>2016</v>
@@ -11145,16 +11316,16 @@
         <v>236</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>63</v>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1157">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rejection reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusion criteria (5)</t>
   </si>
   <si>
     <t xml:space="preserve">Accepted</t>
@@ -3233,6 +3236,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_4</t>
   </si>
   <si>
+    <t xml:space="preserve">Associative memory, neural networks</t>
+  </si>
+  <si>
     <t xml:space="preserve">On Hierarchical Compression and Power Laws in Nature</t>
   </si>
   <si>
@@ -3284,14 +3290,16 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_11</t>
   </si>
   <si>
+    <t xml:space="preserve">Knowledge representation, semantics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Computable Prediction</t>
   </si>
   <si>
     <t xml:space="preserve">Kenshi Miyabe</t>
   </si>
   <si>
-    <t xml:space="preserve">
-We try to predict the next bit from a given finite binary string when the sequence is sampled from a computable probability measure on the Cantor space. There exists the best betting strategy among a class of effective ones up to a multiplicative constant, the induced prediction from which is called algorithmic probability or universal induction by Solomonoff. The prediction converges to the true induced measure for sufficiently random sequences. However, the prediction is not computable. We propose a framework to study the properties of computable predictions. We prove that all sufficiently general computable predictions also converge to the true induced measure. The class of sequences along which the prediction converges is related to computable randomness. We also discuss the speed of the convergence. We prove that, even when a computable prediction predicts a computable sequence, the speed of the convergence cannot be bounded by a computable function monotonically decreasing to 0.</t>
+    <t xml:space="preserve">We try to predict the next bit from a given finite binary string when the sequence is sampled from a computable probability measure on the Cantor space. There exists the best betting strategy among a class of effective ones up to a multiplicative constant, the induced prediction from which is called algorithmic probability or universal induction by Solomonoff. The prediction converges to the true induced measure for sufficiently random sequences. However, the prediction is not computable. We propose a framework to study the properties of computable predictions. We prove that all sufficiently general computable predictions also converge to the true induced measure. The class of sequences along which the prediction converges is related to computable randomness. We also discuss the speed of the convergence. We prove that, even when a computable prediction predicts a computable sequence, the speed of the convergence cannot be bounded by a computable function monotonically decreasing to 0.</t>
   </si>
   <si>
     <t xml:space="preserve">Algorithmic probability, Universal induction, Computable randomness</t>
@@ -3303,6 +3311,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_14</t>
   </si>
   <si>
+    <t xml:space="preserve">Algorithmic probability, universal induction</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Phenomenologically Justifiable Simulation of Mental Modeling</t>
   </si>
   <si>
@@ -3318,6 +3329,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_26</t>
   </si>
   <si>
+    <t xml:space="preserve">Model generation, reinforcement learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">How Failure Facilitates Success</t>
   </si>
   <si>
@@ -3333,6 +3347,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_28</t>
   </si>
   <si>
+    <t xml:space="preserve">Modeling, partially unknown environment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Analyzing Human Decision Making Process with Intention Estimation Using Cooperative Pattern Task</t>
   </si>
   <si>
@@ -3348,6 +3365,9 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_23</t>
   </si>
   <si>
+    <t xml:space="preserve">Human-robot interaction, cooperative intelligence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abstract Representations and Generalized Frequent Pattern Discovery</t>
   </si>
   <si>
@@ -3360,6 +3380,9 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_7</t>
   </si>
   <si>
+    <t xml:space="preserve">Frequent pattern mining, data mining</t>
+  </si>
+  <si>
     <t xml:space="preserve">From First-Order Logic to Assertional Logic</t>
   </si>
   <si>
@@ -3375,14 +3398,16 @@
     <t xml:space="preserve">10.1007/978-3-319-63703-7_9</t>
   </si>
   <si>
+    <t xml:space="preserve">Knowledge representation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Towards a Sociological Conception of Artificial Intelligence</t>
   </si>
   <si>
     <t xml:space="preserve">Jakub MlynářHamed S. AlaviHimanshu VermaLorenzo Cantoni</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Social sciences have been always formed and influenced by the development of society, adjusting the conceptual, methodological, and theoretical frameworks to emerging social phenomena. In recent years, with the leap in the advancement of Artificial Intelligence (AI) and the proliferation of its everyday applications, “non-human intelligent actors” are increasingly becoming part of the society. This is manifested in the evolving realms of smart home systems, autonomous vehicles, chatbots, intelligent public displays, etc. In this paper, we present a prospective research project that takes one of the pioneering steps towards establishing a “distinctively sociological” conception of AI. Its first objective is to extract the existing conceptions of AI as perceived by its technological developers and (possibly differently) by its users. In the second part, capitalizing on a set of interviews with experts from social science domains, we will explore the new imaginable conceptions of AI that do not originate from its technological possibilities but rather from societal necessities. The current formal ways of defining AI are grounded in the technological possibilities, namely machine learning methods and neural network models. But what exactly is AI as a social phenomenon, which may act on its own, can be blamed responsible for ethically problematic behavior, or even endanger people’s employment? We argue that such conceptual investigation is a crucial step for further empirical studies of phenomena related to AI’s position in current societies, but also will open up ways for critiques of new technological advancements with social consequences in mind from the outset.</t>
+    <t xml:space="preserve">Social sciences have been always formed and influenced by the development of society, adjusting the conceptual, methodological, and theoretical frameworks to emerging social phenomena. In recent years, with the leap in the advancement of Artificial Intelligence (AI) and the proliferation of its everyday applications, “non-human intelligent actors” are increasingly becoming part of the society. This is manifested in the evolving realms of smart home systems, autonomous vehicles, chatbots, intelligent public displays, etc. In this paper, we present a prospective research project that takes one of the pioneering steps towards establishing a “distinctively sociological” conception of AI. Its first objective is to extract the existing conceptions of AI as perceived by its technological developers and (possibly differently) by its users. In the second part, capitalizing on a set of interviews with experts from social science domains, we will explore the new imaginable conceptions of AI that do not originate from its technological possibilities but rather from societal necessities. The current formal ways of defining AI are grounded in the technological possibilities, namely machine learning methods and neural network models. But what exactly is AI as a social phenomenon, which may act on its own, can be blamed responsible for ethically problematic behavior, or even endanger people’s employment? We argue that such conceptual investigation is a crucial step for further empirical studies of phenomena related to AI’s position in current societies, but also will open up ways for critiques of new technological advancements with social consequences in mind from the outset.</t>
   </si>
   <si>
     <t xml:space="preserve">Artificial intelligence, Sociology, Social sciences</t>
@@ -3394,6 +3419,9 @@
     <t xml:space="preserve">10.1007/978-3-319-97676-1_13</t>
   </si>
   <si>
+    <t xml:space="preserve">Human-robot interaction, social sciences</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Methodology for the Assessment of AI Consciousness</t>
   </si>
   <si>
@@ -3461,6 +3489,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1007/978-3-319-41649-6_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal notes, Solomonoff</t>
   </si>
 </sst>
 </file>
@@ -3622,7 +3653,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3685,8 +3716,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3799,6 +3836,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="33" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3820,7 +3865,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -3839,6 +3884,8 @@
     <cellStyle name="Heading 1 1" xfId="29"/>
     <cellStyle name="Heading 1 2" xfId="30"/>
     <cellStyle name="Heading 2 1" xfId="31"/>
+    <cellStyle name="Bad" xfId="32"/>
+    <cellStyle name="Good" xfId="33"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3908,13 +3955,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R191"/>
+  <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D200" activeCellId="0" sqref="D200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.61"/>
@@ -3926,7 +3973,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="55.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3987,8 +4036,11 @@
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3996,37 +4048,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>66</v>
@@ -4040,40 +4092,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>65</v>
@@ -4082,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4090,40 +4142,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>63</v>
@@ -4132,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4140,40 +4192,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>54</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>62</v>
@@ -4187,40 +4239,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>61</v>
@@ -4234,43 +4286,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>8</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" s="13" t="n">
         <v>2</v>
@@ -4281,49 +4333,49 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4331,43 +4383,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10" s="13" t="n">
         <v>1</v>
@@ -4378,37 +4430,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O11" s="13" t="n">
         <v>1</v>
@@ -4419,40 +4471,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="n">
         <v>0</v>
@@ -4466,40 +4518,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" s="3" t="n">
         <v>0</v>
@@ -4508,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4516,40 +4568,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>7</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="n">
         <v>0</v>
@@ -4563,40 +4615,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>12</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="n">
         <v>0</v>
@@ -4610,37 +4662,37 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>2016</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>78</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O16" s="13" t="n">
         <v>2</v>
@@ -4651,43 +4703,43 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>2016</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4695,78 +4747,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>2016</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O18" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O19" s="13" t="n">
         <v>1</v>
@@ -4777,37 +4830,37 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>2016</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N20" s="3" t="n">
         <v>230</v>
@@ -4821,40 +4874,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N21" s="3" t="n">
         <v>220</v>
@@ -4868,40 +4921,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>99</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N22" s="3" t="n">
         <v>247</v>
@@ -4915,31 +4968,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>10</v>
@@ -4953,34 +5006,34 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>10</v>
@@ -4994,31 +5047,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>10</v>
@@ -5032,34 +5085,34 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N26" s="2" t="n">
         <v>9</v>
@@ -5073,34 +5126,34 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N27" s="2" t="n">
         <v>9</v>
@@ -5114,34 +5167,34 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N28" s="2" t="n">
         <v>8</v>
@@ -5155,34 +5208,34 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N29" s="2" t="n">
         <v>7</v>
@@ -5196,34 +5249,34 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>7</v>
@@ -5237,34 +5290,34 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N31" s="2" t="n">
         <v>6</v>
@@ -5273,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5281,34 +5334,34 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N32" s="2" t="n">
         <v>6</v>
@@ -5317,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5325,34 +5378,34 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N33" s="2" t="n">
         <v>6</v>
@@ -5361,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5369,34 +5422,34 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34" s="2" t="n">
         <v>6</v>
@@ -5405,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5413,34 +5466,34 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N35" s="2" t="n">
         <v>6</v>
@@ -5449,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5457,34 +5510,34 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N36" s="2" t="n">
         <v>6</v>
@@ -5498,34 +5551,34 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N37" s="2" t="n">
         <v>6</v>
@@ -5534,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5542,34 +5595,34 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O38" s="21" t="n">
         <v>2</v>
@@ -5580,34 +5633,34 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O39" s="21" t="n">
         <v>2</v>
@@ -5618,34 +5671,34 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O40" s="21" t="n">
         <v>1</v>
@@ -5656,34 +5709,34 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O41" s="21" t="n">
         <v>1</v>
@@ -5694,34 +5747,34 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O42" s="21" t="n">
         <v>2</v>
@@ -5732,34 +5785,34 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O43" s="21" t="n">
         <v>1</v>
@@ -5770,34 +5823,34 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O44" s="21" t="n">
         <v>1</v>
@@ -5808,34 +5861,34 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O45" s="21" t="n">
         <v>1</v>
@@ -5846,34 +5899,34 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O46" s="21" t="n">
         <v>1</v>
@@ -5884,31 +5937,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O47" s="21" t="n">
         <v>2</v>
@@ -5919,31 +5972,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O48" s="21" t="n">
         <v>1</v>
@@ -5954,34 +6007,34 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O49" s="21" t="n">
         <v>1</v>
@@ -5992,34 +6045,34 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O50" s="21" t="n">
         <v>1</v>
@@ -6030,31 +6083,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O51" s="21" t="n">
         <v>1</v>
@@ -6065,34 +6118,34 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O52" s="21" t="n">
         <v>1</v>
@@ -6103,34 +6156,34 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O53" s="21" t="n">
         <v>1</v>
@@ -6141,34 +6194,34 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O54" s="21" t="n">
         <v>1</v>
@@ -6179,34 +6232,34 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O55" s="21" t="n">
         <v>1</v>
@@ -6217,34 +6270,34 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O56" s="21" t="n">
         <v>2</v>
@@ -6255,34 +6308,34 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O57" s="21" t="n">
         <v>2</v>
@@ -6293,34 +6346,34 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O58" s="21" t="n">
         <v>1</v>
@@ -6331,34 +6384,34 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O59" s="21" t="n">
         <v>1</v>
@@ -6369,34 +6422,34 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O60" s="21" t="n">
         <v>2</v>
@@ -6407,34 +6460,34 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O61" s="21" t="n">
         <v>1</v>
@@ -6445,34 +6498,34 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O62" s="21" t="n">
         <v>1</v>
@@ -6483,31 +6536,31 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O63" s="21" t="n">
         <v>1</v>
@@ -6518,34 +6571,34 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O64" s="21" t="n">
         <v>2</v>
@@ -6556,34 +6609,34 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O65" s="21" t="n">
         <v>1</v>
@@ -6594,34 +6647,34 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O66" s="21" t="n">
         <v>1</v>
@@ -6632,34 +6685,34 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O67" s="21" t="n">
         <v>2</v>
@@ -6670,40 +6723,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O68" s="23" t="n">
         <v>0</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6711,34 +6764,34 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O69" s="21" t="n">
         <v>1</v>
@@ -6749,34 +6802,34 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O70" s="21" t="n">
         <v>1</v>
@@ -6787,31 +6840,31 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O71" s="21" t="n">
         <v>2</v>
@@ -6822,34 +6875,34 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O72" s="21" t="n">
         <v>1</v>
@@ -6860,34 +6913,34 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O73" s="21" t="n">
         <v>1</v>
@@ -6898,31 +6951,31 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O74" s="21" t="n">
         <v>1</v>
@@ -6933,31 +6986,31 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O75" s="21" t="n">
         <v>1</v>
@@ -6968,40 +7021,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O76" s="23" t="n">
         <v>0</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7009,34 +7062,34 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O77" s="21" t="n">
         <v>1</v>
@@ -7047,34 +7100,34 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O78" s="24" t="n">
         <v>1</v>
@@ -7085,40 +7138,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O79" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7126,34 +7179,34 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O80" s="24" t="n">
         <v>1</v>
@@ -7164,34 +7217,34 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O81" s="24" t="n">
         <v>1</v>
@@ -7202,34 +7255,34 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" s="24" t="n">
         <v>1</v>
@@ -7240,31 +7293,31 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="24" t="n">
         <v>1</v>
@@ -7275,34 +7328,34 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="24" t="n">
         <v>1</v>
@@ -7313,34 +7366,34 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="24" t="n">
         <v>1</v>
@@ -7351,40 +7404,40 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7392,34 +7445,34 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O87" s="24" t="n">
         <v>1</v>
@@ -7430,34 +7483,34 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O88" s="24" t="n">
         <v>1</v>
@@ -7468,34 +7521,34 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O89" s="24" t="n">
         <v>1</v>
@@ -7506,34 +7559,34 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O90" s="24" t="n">
         <v>1</v>
@@ -7544,34 +7597,34 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O91" s="24" t="n">
         <v>1</v>
@@ -7582,34 +7635,34 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O92" s="24" t="n">
         <v>2</v>
@@ -7620,34 +7673,34 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O93" s="24" t="n">
         <v>1</v>
@@ -7658,34 +7711,34 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O94" s="24" t="n">
         <v>1</v>
@@ -7696,40 +7749,40 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O95" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q95" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7737,34 +7790,34 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O96" s="24" t="n">
         <v>1</v>
@@ -7775,40 +7828,40 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O97" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7816,40 +7869,40 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O98" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7857,34 +7910,34 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O99" s="24" t="n">
         <v>1</v>
@@ -7895,34 +7948,34 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O100" s="24" t="n">
         <v>1</v>
@@ -7933,34 +7986,34 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O101" s="24" t="n">
         <v>1</v>
@@ -7971,31 +8024,31 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O102" s="24" t="n">
         <v>1</v>
@@ -8006,34 +8059,34 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O103" s="24" t="n">
         <v>1</v>
@@ -8044,40 +8097,40 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O104" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8085,34 +8138,34 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O105" s="24" t="n">
         <v>1</v>
@@ -8123,34 +8176,34 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O106" s="24" t="n">
         <v>1</v>
@@ -8161,34 +8214,34 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O107" s="24" t="n">
         <v>1</v>
@@ -8199,34 +8252,34 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O108" s="24" t="n">
         <v>1</v>
@@ -8237,34 +8290,34 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O109" s="24" t="n">
         <v>1</v>
@@ -8275,34 +8328,34 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O110" s="24" t="n">
         <v>1</v>
@@ -8313,40 +8366,40 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O111" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8354,40 +8407,40 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O112" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8395,34 +8448,34 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O113" s="24" t="n">
         <v>1</v>
@@ -8433,34 +8486,34 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O114" s="24" t="n">
         <v>1</v>
@@ -8471,40 +8524,40 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O115" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8512,34 +8565,34 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O116" s="24" t="n">
         <v>1</v>
@@ -8550,34 +8603,34 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O117" s="24" t="n">
         <v>1</v>
@@ -8588,34 +8641,34 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O118" s="24" t="n">
         <v>1</v>
@@ -8626,34 +8679,34 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O119" s="24" t="n">
         <v>1</v>
@@ -8664,31 +8717,31 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O120" s="24" t="n">
         <v>1</v>
@@ -8699,34 +8752,34 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O121" s="24" t="n">
         <v>1</v>
@@ -8737,40 +8790,40 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O122" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8778,31 +8831,31 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O123" s="24" t="n">
         <v>1</v>
@@ -8813,40 +8866,40 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O124" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8854,40 +8907,40 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O125" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8895,34 +8948,34 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O126" s="24" t="n">
         <v>1</v>
@@ -8933,34 +8986,34 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O127" s="26" t="n">
         <v>1</v>
@@ -8971,40 +9024,40 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O128" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9012,34 +9065,34 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O129" s="26" t="n">
         <v>1</v>
@@ -9050,34 +9103,34 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O130" s="26" t="n">
         <v>1</v>
@@ -9088,40 +9141,40 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O131" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q131" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9129,40 +9182,40 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O132" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9170,34 +9223,34 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O133" s="26" t="n">
         <v>1</v>
@@ -9208,31 +9261,31 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O134" s="26" t="n">
         <v>1</v>
@@ -9243,40 +9296,40 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O135" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9284,34 +9337,34 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O136" s="26" t="n">
         <v>1</v>
@@ -9322,34 +9375,34 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O137" s="26" t="n">
         <v>1</v>
@@ -9360,40 +9413,40 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O138" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9401,40 +9454,40 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O139" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9442,34 +9495,34 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O140" s="26" t="n">
         <v>1</v>
@@ -9480,34 +9533,34 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E141" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O141" s="26" t="n">
         <v>1</v>
@@ -9518,34 +9571,34 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E142" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O142" s="26" t="n">
         <v>1</v>
@@ -9556,34 +9609,34 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O143" s="26" t="n">
         <v>1</v>
@@ -9594,40 +9647,40 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O144" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9635,40 +9688,40 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O145" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q145" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9676,34 +9729,34 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O146" s="26" t="n">
         <v>1</v>
@@ -9714,31 +9767,31 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O147" s="26" t="n">
         <v>1</v>
@@ -9749,40 +9802,40 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O148" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q148" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9790,34 +9843,34 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O149" s="26" t="n">
         <v>1</v>
@@ -9828,40 +9881,40 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O150" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q150" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9869,40 +9922,40 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O151" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q151" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9910,40 +9963,40 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O152" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O152" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q152" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9951,40 +10004,40 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O153" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O153" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q153" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9992,40 +10045,40 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O154" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O154" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q154" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10033,37 +10086,37 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O155" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O155" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10071,40 +10124,40 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O156" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O156" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q156" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10112,40 +10165,40 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O157" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O157" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q157" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10153,40 +10206,40 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O158" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O158" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10194,40 +10247,40 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O159" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O159" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q159" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10235,40 +10288,40 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O160" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O160" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q160" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10276,37 +10329,37 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O161" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O161" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q161" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10314,36 +10367,36 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O162" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O162" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10352,40 +10405,40 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O163" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O163" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q163" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10393,40 +10446,40 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O164" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O164" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q164" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10434,37 +10487,37 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O165" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O165" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q165" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10472,36 +10525,36 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E166" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O166" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O166" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10510,36 +10563,36 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O167" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O167" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10548,36 +10601,36 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O168" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O168" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10586,40 +10639,40 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O169" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O169" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q169" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10627,36 +10680,36 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O170" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O170" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10665,40 +10718,40 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O171" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O171" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q171" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10706,40 +10759,40 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O172" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O172" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q172" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10747,37 +10800,37 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O173" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O173" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q173" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10785,40 +10838,40 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E174" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O174" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="O174" s="28" t="n">
         <v>0</v>
       </c>
       <c r="Q174" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10826,34 +10879,40 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O175" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="0" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10861,34 +10920,37 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O176" s="29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10896,34 +10958,37 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O177" s="29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10931,34 +10996,40 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O178" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="0" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10966,34 +11037,40 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O179" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="0" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11001,34 +11078,40 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E180" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O180" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="0" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11036,34 +11119,40 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O181" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="0" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11071,31 +11160,37 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O182" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="0" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11103,31 +11198,37 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O183" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="0" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11135,31 +11236,37 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O184" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="0" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11167,34 +11274,40 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O185" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="0" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11202,34 +11315,37 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E186" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O186" s="29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11237,31 +11353,34 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O187" s="29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11269,34 +11388,37 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E188" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="O188" s="29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11304,45 +11426,55 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="190" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="28"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="E190" s="31"/>
-      <c r="F190" s="32"/>
-      <c r="I190" s="29"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="29"/>
+        <v>242</v>
+      </c>
+      <c r="O189" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="0" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="190" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="30"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="34"/>
+      <c r="I190" s="31"/>
+      <c r="J190" s="31"/>
+      <c r="K190" s="31"/>
+      <c r="O190" s="32" t="n">
+        <f aca="false">COUNTIFS(O3:O189, "&gt;0")</f>
+        <v>122</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="10"/>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1170">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -1524,6 +1524,12 @@
   </si>
   <si>
     <t xml:space="preserve">10.1007/978-3-319-21365-1_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See #27</t>
   </si>
   <si>
     <t xml:space="preserve">Cumulative Learning with Causal-Relational Models</t>
@@ -3534,7 +3540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3599,8 +3605,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3617,6 +3630,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -3693,7 +3712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3736,6 +3755,12 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -3765,11 +3790,11 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3794,11 +3819,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="34" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3826,7 +3851,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3834,11 +3859,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="28" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="29" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="34" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="32" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3846,11 +3871,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="35" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3862,11 +3887,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3874,11 +3899,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="27" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3890,7 +3919,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="27" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="28" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3898,7 +3927,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="29" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="37" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="30" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3910,7 +3943,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="30" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="31" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3939,7 +3972,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -3952,16 +3985,18 @@
     <cellStyle name="Bad 3" xfId="23"/>
     <cellStyle name="Bad 4" xfId="24"/>
     <cellStyle name="Bad 5" xfId="25"/>
-    <cellStyle name="Good 1" xfId="26"/>
-    <cellStyle name="Good 2" xfId="27"/>
-    <cellStyle name="Good 3" xfId="28"/>
-    <cellStyle name="Good 4" xfId="29"/>
-    <cellStyle name="Good 5" xfId="30"/>
-    <cellStyle name="Heading 1 1" xfId="31"/>
-    <cellStyle name="Heading 1 2" xfId="32"/>
-    <cellStyle name="Heading 2 1" xfId="33"/>
-    <cellStyle name="Good" xfId="34"/>
-    <cellStyle name="Bad" xfId="35"/>
+    <cellStyle name="Bad 7" xfId="26"/>
+    <cellStyle name="Good 1" xfId="27"/>
+    <cellStyle name="Good 2" xfId="28"/>
+    <cellStyle name="Good 3" xfId="29"/>
+    <cellStyle name="Good 4" xfId="30"/>
+    <cellStyle name="Good 5" xfId="31"/>
+    <cellStyle name="Good 6" xfId="32"/>
+    <cellStyle name="Heading 1 1" xfId="33"/>
+    <cellStyle name="Heading 1 2" xfId="34"/>
+    <cellStyle name="Heading 2 1" xfId="35"/>
+    <cellStyle name="Good" xfId="36"/>
+    <cellStyle name="Neutral" xfId="37"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3976,7 +4011,7 @@
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF168253"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -4033,11 +4068,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q90" activeCellId="0" sqref="Q90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.61"/>
@@ -5241,7 +5276,7 @@
       <c r="Q23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,6 +5367,15 @@
       <c r="O25" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
@@ -5373,6 +5417,15 @@
       <c r="O26" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
@@ -5414,6 +5467,15 @@
       <c r="O27" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
@@ -5455,6 +5517,15 @@
       <c r="O28" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
@@ -5496,6 +5567,15 @@
       <c r="O29" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
@@ -5537,6 +5617,15 @@
       <c r="O30" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
@@ -5798,6 +5887,15 @@
       <c r="O36" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="P36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
@@ -5856,7 +5954,7 @@
       <c r="D38" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F38" s="15" t="s">
@@ -5877,8 +5975,17 @@
       <c r="M38" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O38" s="27" t="n">
+      <c r="O38" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5894,7 +6001,7 @@
       <c r="D39" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F39" s="15" t="s">
@@ -5915,8 +6022,17 @@
       <c r="M39" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O39" s="27" t="n">
+      <c r="O39" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5932,7 +6048,7 @@
       <c r="D40" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -5953,7 +6069,16 @@
       <c r="M40" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O40" s="27" t="n">
+      <c r="O40" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5970,7 +6095,7 @@
       <c r="D41" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F41" s="15" t="s">
@@ -5991,7 +6116,16 @@
       <c r="M41" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O41" s="27" t="n">
+      <c r="O41" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,7 +6142,7 @@
       <c r="D42" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F42" s="15" t="s">
@@ -6029,8 +6163,17 @@
       <c r="M42" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O42" s="27" t="n">
+      <c r="O42" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6046,7 +6189,7 @@
       <c r="D43" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -6067,7 +6210,16 @@
       <c r="M43" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O43" s="27" t="n">
+      <c r="O43" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,7 +6236,7 @@
       <c r="D44" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F44" s="15" t="s">
@@ -6105,7 +6257,16 @@
       <c r="M44" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O44" s="27" t="n">
+      <c r="O44" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6122,7 +6283,7 @@
       <c r="D45" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F45" s="15" t="s">
@@ -6143,7 +6304,16 @@
       <c r="M45" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O45" s="27" t="n">
+      <c r="O45" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,7 +6330,7 @@
       <c r="D46" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F46" s="15" t="s">
@@ -6181,7 +6351,16 @@
       <c r="M46" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O46" s="27" t="n">
+      <c r="O46" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6198,10 +6377,10 @@
       <c r="D47" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F47" s="28" t="s">
+      <c r="E47" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" s="29" t="s">
         <v>304</v>
       </c>
       <c r="H47" s="0" t="s">
@@ -6216,8 +6395,17 @@
       <c r="M47" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O47" s="27" t="n">
+      <c r="O47" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6233,7 +6421,7 @@
       <c r="D48" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F48" s="15" t="s">
@@ -6251,7 +6439,16 @@
       <c r="M48" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="27" t="n">
+      <c r="O48" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,7 +6465,7 @@
       <c r="D49" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F49" s="15" t="s">
@@ -6289,7 +6486,16 @@
       <c r="M49" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O49" s="27" t="n">
+      <c r="O49" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,7 +6512,7 @@
       <c r="D50" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -6327,7 +6533,16 @@
       <c r="M50" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O50" s="27" t="n">
+      <c r="O50" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,7 +6559,7 @@
       <c r="D51" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -6362,7 +6577,16 @@
       <c r="M51" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O51" s="27" t="n">
+      <c r="O51" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,7 +6603,7 @@
       <c r="D52" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F52" s="15" t="s">
@@ -6400,7 +6624,16 @@
       <c r="M52" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O52" s="27" t="n">
+      <c r="O52" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,7 +6650,7 @@
       <c r="D53" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F53" s="15" t="s">
@@ -6438,8 +6671,17 @@
       <c r="M53" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O53" s="27" t="n">
-        <v>1</v>
+      <c r="O53" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6455,10 +6697,10 @@
       <c r="D54" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F54" s="28" t="s">
+      <c r="E54" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="29" t="s">
         <v>341</v>
       </c>
       <c r="G54" s="0" t="s">
@@ -6476,7 +6718,16 @@
       <c r="M54" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O54" s="27" t="n">
+      <c r="O54" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6493,7 +6744,7 @@
       <c r="D55" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F55" s="15" t="s">
@@ -6514,8 +6765,17 @@
       <c r="M55" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O55" s="27" t="n">
-        <v>1</v>
+      <c r="O55" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6531,7 +6791,7 @@
       <c r="D56" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F56" s="15" t="s">
@@ -6552,8 +6812,17 @@
       <c r="M56" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O56" s="27" t="n">
+      <c r="O56" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6569,10 +6838,10 @@
       <c r="D57" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F57" s="28" t="s">
+      <c r="E57" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>358</v>
       </c>
       <c r="G57" s="0" t="s">
@@ -6590,8 +6859,17 @@
       <c r="M57" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O57" s="27" t="n">
+      <c r="O57" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6607,10 +6885,10 @@
       <c r="D58" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F58" s="28" t="s">
+      <c r="E58" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>364</v>
       </c>
       <c r="G58" s="0" t="s">
@@ -6628,7 +6906,16 @@
       <c r="M58" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O58" s="27" t="n">
+      <c r="O58" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6645,7 +6932,7 @@
       <c r="D59" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F59" s="15" t="s">
@@ -6666,7 +6953,16 @@
       <c r="M59" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O59" s="27" t="n">
+      <c r="O59" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,7 +6979,7 @@
       <c r="D60" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F60" s="15" t="s">
@@ -6704,8 +7000,17 @@
       <c r="M60" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O60" s="27" t="n">
+      <c r="O60" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6721,7 +7026,7 @@
       <c r="D61" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F61" s="15" t="s">
@@ -6742,7 +7047,16 @@
       <c r="M61" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O61" s="27" t="n">
+      <c r="O61" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6759,7 +7073,7 @@
       <c r="D62" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F62" s="15" t="s">
@@ -6780,8 +7094,11 @@
       <c r="M62" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O62" s="27" t="n">
-        <v>1</v>
+      <c r="O62" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6797,7 +7114,7 @@
       <c r="D63" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F63" s="15" t="s">
@@ -6815,7 +7132,16 @@
       <c r="M63" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O63" s="27" t="n">
+      <c r="O63" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,7 +7158,7 @@
       <c r="D64" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F64" s="15" t="s">
@@ -6853,8 +7179,17 @@
       <c r="M64" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O64" s="27" t="n">
+      <c r="O64" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6870,10 +7205,10 @@
       <c r="D65" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F65" s="28" t="s">
+      <c r="E65" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" s="29" t="s">
         <v>403</v>
       </c>
       <c r="G65" s="0" t="s">
@@ -6891,7 +7226,16 @@
       <c r="M65" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O65" s="27" t="n">
+      <c r="O65" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,7 +7252,7 @@
       <c r="D66" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F66" s="15" t="s">
@@ -6929,7 +7273,16 @@
       <c r="M66" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O66" s="27" t="n">
+      <c r="O66" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6946,10 +7299,10 @@
       <c r="D67" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F67" s="28" t="s">
+      <c r="E67" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>415</v>
       </c>
       <c r="G67" s="0" t="s">
@@ -6967,8 +7320,17 @@
       <c r="M67" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O67" s="27" t="n">
+      <c r="O67" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6984,7 +7346,7 @@
       <c r="D68" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F68" s="15" t="s">
@@ -7005,7 +7367,7 @@
       <c r="M68" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="29" t="n">
+      <c r="O68" s="30" t="n">
         <v>0</v>
       </c>
       <c r="S68" s="5" t="s">
@@ -7025,7 +7387,7 @@
       <c r="D69" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F69" s="15" t="s">
@@ -7046,7 +7408,16 @@
       <c r="M69" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O69" s="27" t="n">
+      <c r="O69" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,10 +7434,10 @@
       <c r="D70" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E70" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F70" s="28" t="s">
+      <c r="E70" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" s="29" t="s">
         <v>433</v>
       </c>
       <c r="G70" s="0" t="s">
@@ -7084,7 +7455,16 @@
       <c r="M70" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O70" s="27" t="n">
+      <c r="O70" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7101,7 +7481,7 @@
       <c r="D71" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F71" s="15" t="s">
@@ -7119,8 +7499,17 @@
       <c r="M71" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O71" s="27" t="n">
+      <c r="O71" s="28" t="n">
         <v>2</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7136,10 +7525,10 @@
       <c r="D72" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E72" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F72" s="28" t="s">
+      <c r="E72" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="29" t="s">
         <v>443</v>
       </c>
       <c r="G72" s="0" t="s">
@@ -7157,8 +7546,17 @@
       <c r="M72" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O72" s="27" t="n">
-        <v>1</v>
+      <c r="O72" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7174,7 +7572,7 @@
       <c r="D73" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F73" s="15" t="s">
@@ -7195,7 +7593,16 @@
       <c r="M73" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O73" s="27" t="n">
+      <c r="O73" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7212,7 +7619,7 @@
       <c r="D74" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F74" s="15" t="s">
@@ -7230,7 +7637,16 @@
       <c r="M74" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O74" s="27" t="n">
+      <c r="O74" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7247,7 +7663,7 @@
       <c r="D75" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -7265,7 +7681,16 @@
       <c r="M75" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O75" s="27" t="n">
+      <c r="O75" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,7 +7707,7 @@
       <c r="D76" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F76" s="15" t="s">
@@ -7303,7 +7728,7 @@
       <c r="M76" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O76" s="29" t="n">
+      <c r="O76" s="30" t="n">
         <v>0</v>
       </c>
       <c r="S76" s="5" t="s">
@@ -7323,10 +7748,10 @@
       <c r="D77" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F77" s="28" t="s">
+      <c r="E77" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F77" s="29" t="s">
         <v>472</v>
       </c>
       <c r="G77" s="0" t="s">
@@ -7344,7 +7769,16 @@
       <c r="M77" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O77" s="27" t="n">
+      <c r="O77" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,7 +7795,7 @@
       <c r="D78" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F78" s="15" t="s">
@@ -7382,7 +7816,16 @@
       <c r="M78" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O78" s="30" t="n">
+      <c r="O78" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7399,7 +7842,7 @@
       <c r="D79" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F79" s="15" t="s">
@@ -7420,7 +7863,7 @@
       <c r="M79" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O79" s="31" t="n">
+      <c r="O79" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S79" s="5" t="s">
@@ -7440,7 +7883,7 @@
       <c r="D80" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F80" s="15" t="s">
@@ -7461,7 +7904,16 @@
       <c r="M80" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O80" s="30" t="n">
+      <c r="O80" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7478,7 +7930,7 @@
       <c r="D81" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F81" s="15" t="s">
@@ -7499,8 +7951,20 @@
       <c r="M81" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O81" s="30" t="n">
-        <v>1</v>
+      <c r="O81" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7508,28 +7972,28 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>69</v>
@@ -7537,7 +8001,16 @@
       <c r="M82" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O82" s="30" t="n">
+      <c r="O82" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7546,25 +8019,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>69</v>
@@ -7572,7 +8045,16 @@
       <c r="M83" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O83" s="30" t="n">
+      <c r="O83" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7581,28 +8063,28 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>69</v>
@@ -7610,7 +8092,16 @@
       <c r="M84" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O84" s="30" t="n">
+      <c r="O84" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7619,7 +8110,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>325</v>
@@ -7627,20 +8118,20 @@
       <c r="D85" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>69</v>
@@ -7648,7 +8139,16 @@
       <c r="M85" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O85" s="30" t="n">
+      <c r="O85" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7657,28 +8157,28 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>69</v>
@@ -7686,11 +8186,11 @@
       <c r="M86" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O86" s="31" t="n">
+      <c r="O86" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7698,28 +8198,28 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>69</v>
@@ -7727,7 +8227,16 @@
       <c r="M87" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O87" s="30" t="n">
+      <c r="O87" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7736,28 +8245,28 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>69</v>
@@ -7765,7 +8274,16 @@
       <c r="M88" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O88" s="30" t="n">
+      <c r="O88" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,28 +8292,28 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>69</v>
@@ -7803,7 +8321,16 @@
       <c r="M89" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O89" s="30" t="n">
+      <c r="O89" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7812,28 +8339,28 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>69</v>
@@ -7841,7 +8368,7 @@
       <c r="M90" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O90" s="30" t="n">
+      <c r="O90" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7850,7 +8377,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>170</v>
@@ -7858,20 +8385,20 @@
       <c r="D91" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>69</v>
@@ -7879,7 +8406,7 @@
       <c r="M91" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O91" s="30" t="n">
+      <c r="O91" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,28 +8415,28 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>69</v>
@@ -7917,7 +8444,7 @@
       <c r="M92" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O92" s="30" t="n">
+      <c r="O92" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7926,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>180</v>
@@ -7934,20 +8461,20 @@
       <c r="D93" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>69</v>
@@ -7955,7 +8482,7 @@
       <c r="M93" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O93" s="30" t="n">
+      <c r="O93" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7964,28 +8491,28 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>69</v>
@@ -7993,7 +8520,7 @@
       <c r="M94" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O94" s="30" t="n">
+      <c r="O94" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8002,28 +8529,28 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>69</v>
@@ -8031,11 +8558,11 @@
       <c r="M95" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O95" s="31" t="n">
+      <c r="O95" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8043,28 +8570,28 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>69</v>
@@ -8072,7 +8599,7 @@
       <c r="M96" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O96" s="30" t="n">
+      <c r="O96" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8081,28 +8608,28 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>69</v>
@@ -8110,11 +8637,11 @@
       <c r="M97" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O97" s="31" t="n">
+      <c r="O97" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8122,28 +8649,28 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E98" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>598</v>
+      <c r="E98" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>600</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>69</v>
@@ -8151,11 +8678,11 @@
       <c r="M98" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O98" s="31" t="n">
+      <c r="O98" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8163,28 +8690,28 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E99" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>605</v>
+      <c r="E99" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>607</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>69</v>
@@ -8192,7 +8719,7 @@
       <c r="M99" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O99" s="30" t="n">
+      <c r="O99" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8201,28 +8728,28 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>69</v>
@@ -8230,7 +8757,7 @@
       <c r="M100" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O100" s="30" t="n">
+      <c r="O100" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8239,28 +8766,28 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>69</v>
@@ -8268,7 +8795,7 @@
       <c r="M101" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O101" s="30" t="n">
+      <c r="O101" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8277,7 +8804,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>325</v>
@@ -8285,17 +8812,17 @@
       <c r="D102" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>69</v>
@@ -8303,7 +8830,7 @@
       <c r="M102" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O102" s="30" t="n">
+      <c r="O102" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8312,28 +8839,28 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>69</v>
@@ -8341,7 +8868,7 @@
       <c r="M103" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O103" s="30" t="n">
+      <c r="O103" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8350,28 +8877,28 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>69</v>
@@ -8379,11 +8906,11 @@
       <c r="M104" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O104" s="31" t="n">
+      <c r="O104" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S104" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8391,28 +8918,28 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>69</v>
@@ -8420,7 +8947,7 @@
       <c r="M105" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O105" s="30" t="n">
+      <c r="O105" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,28 +8956,28 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>69</v>
@@ -8458,7 +8985,7 @@
       <c r="M106" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O106" s="30" t="n">
+      <c r="O106" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8467,28 +8994,28 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>69</v>
@@ -8496,7 +9023,7 @@
       <c r="M107" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O107" s="30" t="n">
+      <c r="O107" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8505,28 +9032,28 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>69</v>
@@ -8534,7 +9061,7 @@
       <c r="M108" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O108" s="30" t="n">
+      <c r="O108" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8543,7 +9070,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>170</v>
@@ -8551,20 +9078,20 @@
       <c r="D109" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>69</v>
@@ -8572,7 +9099,7 @@
       <c r="M109" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O109" s="30" t="n">
+      <c r="O109" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8581,28 +9108,28 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>69</v>
@@ -8610,7 +9137,7 @@
       <c r="M110" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O110" s="30" t="n">
+      <c r="O110" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8619,28 +9146,28 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>69</v>
@@ -8648,11 +9175,11 @@
       <c r="M111" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O111" s="31" t="n">
+      <c r="O111" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8660,28 +9187,28 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>69</v>
@@ -8689,11 +9216,11 @@
       <c r="M112" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O112" s="31" t="n">
+      <c r="O112" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8701,28 +9228,28 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>69</v>
@@ -8730,7 +9257,7 @@
       <c r="M113" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O113" s="30" t="n">
+      <c r="O113" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8739,28 +9266,28 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E114" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F114" s="28" t="s">
-        <v>695</v>
+      <c r="E114" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>697</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>69</v>
@@ -8768,7 +9295,7 @@
       <c r="M114" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O114" s="30" t="n">
+      <c r="O114" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8777,28 +9304,28 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>69</v>
@@ -8806,11 +9333,11 @@
       <c r="M115" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O115" s="31" t="n">
+      <c r="O115" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8818,28 +9345,28 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>69</v>
@@ -8847,7 +9374,7 @@
       <c r="M116" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O116" s="30" t="n">
+      <c r="O116" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8856,28 +9383,28 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>69</v>
@@ -8885,7 +9412,7 @@
       <c r="M117" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O117" s="30" t="n">
+      <c r="O117" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8894,28 +9421,28 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>69</v>
@@ -8923,7 +9450,7 @@
       <c r="M118" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O118" s="30" t="n">
+      <c r="O118" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8932,28 +9459,28 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E119" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F119" s="28" t="s">
-        <v>726</v>
+      <c r="E119" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>728</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>69</v>
@@ -8961,7 +9488,7 @@
       <c r="M119" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O119" s="30" t="n">
+      <c r="O119" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8970,25 +9497,25 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>69</v>
@@ -8996,7 +9523,7 @@
       <c r="M120" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O120" s="30" t="n">
+      <c r="O120" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9005,28 +9532,28 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E121" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>737</v>
+      <c r="E121" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>739</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>69</v>
@@ -9034,7 +9561,7 @@
       <c r="M121" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O121" s="30" t="n">
+      <c r="O121" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9043,28 +9570,28 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>69</v>
@@ -9072,11 +9599,11 @@
       <c r="M122" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O122" s="31" t="n">
+      <c r="O122" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9084,25 +9611,25 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E123" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F123" s="28" t="s">
-        <v>750</v>
+      <c r="E123" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>752</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>69</v>
@@ -9110,7 +9637,7 @@
       <c r="M123" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O123" s="30" t="n">
+      <c r="O123" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9119,28 +9646,28 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E124" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>755</v>
+      <c r="E124" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>757</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>69</v>
@@ -9148,11 +9675,11 @@
       <c r="M124" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O124" s="31" t="n">
+      <c r="O124" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S124" s="5" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9160,28 +9687,28 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>69</v>
@@ -9189,11 +9716,11 @@
       <c r="M125" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O125" s="31" t="n">
+      <c r="O125" s="32" t="n">
         <v>0</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9201,28 +9728,28 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>69</v>
@@ -9230,7 +9757,7 @@
       <c r="M126" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O126" s="30" t="n">
+      <c r="O126" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9239,28 +9766,28 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>69</v>
@@ -9268,7 +9795,7 @@
       <c r="M127" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O127" s="32" t="n">
+      <c r="O127" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9277,28 +9804,28 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>69</v>
@@ -9306,11 +9833,11 @@
       <c r="M128" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O128" s="33" t="n">
+      <c r="O128" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9318,28 +9845,28 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>69</v>
@@ -9347,7 +9874,7 @@
       <c r="M129" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O129" s="32" t="n">
+      <c r="O129" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9356,28 +9883,28 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>69</v>
@@ -9385,7 +9912,7 @@
       <c r="M130" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O130" s="32" t="n">
+      <c r="O130" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9394,28 +9921,28 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>69</v>
@@ -9423,11 +9950,11 @@
       <c r="M131" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O131" s="33" t="n">
+      <c r="O131" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S131" s="5" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9435,28 +9962,28 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>69</v>
@@ -9464,11 +9991,11 @@
       <c r="M132" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O132" s="33" t="n">
+      <c r="O132" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S132" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9476,28 +10003,28 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>69</v>
@@ -9505,7 +10032,7 @@
       <c r="M133" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O133" s="32" t="n">
+      <c r="O133" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9514,25 +10041,25 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>69</v>
@@ -9540,7 +10067,7 @@
       <c r="M134" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O134" s="32" t="n">
+      <c r="O134" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9549,28 +10076,28 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>69</v>
@@ -9578,11 +10105,11 @@
       <c r="M135" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O135" s="33" t="n">
+      <c r="O135" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9590,28 +10117,28 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E136" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>831</v>
+      <c r="E136" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>833</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>69</v>
@@ -9619,7 +10146,7 @@
       <c r="M136" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O136" s="32" t="n">
+      <c r="O136" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +10155,28 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>69</v>
@@ -9657,7 +10184,7 @@
       <c r="M137" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O137" s="32" t="n">
+      <c r="O137" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9666,28 +10193,28 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>69</v>
@@ -9695,11 +10222,11 @@
       <c r="M138" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O138" s="33" t="n">
+      <c r="O138" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9707,28 +10234,28 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="E139" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>69</v>
@@ -9736,11 +10263,11 @@
       <c r="M139" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O139" s="33" t="n">
+      <c r="O139" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S139" s="5" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9748,28 +10275,28 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E140" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>856</v>
+      <c r="E140" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>858</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>69</v>
@@ -9777,7 +10304,7 @@
       <c r="M140" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O140" s="32" t="n">
+      <c r="O140" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9786,28 +10313,28 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E141" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>862</v>
+      <c r="E141" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>864</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>69</v>
@@ -9815,7 +10342,7 @@
       <c r="M141" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O141" s="32" t="n">
+      <c r="O141" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9824,28 +10351,28 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>69</v>
@@ -9853,7 +10380,7 @@
       <c r="M142" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O142" s="32" t="n">
+      <c r="O142" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9862,28 +10389,28 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>69</v>
@@ -9891,7 +10418,7 @@
       <c r="M143" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O143" s="32" t="n">
+      <c r="O143" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9900,28 +10427,28 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>69</v>
@@ -9929,11 +10456,11 @@
       <c r="M144" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O144" s="33" t="n">
+      <c r="O144" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9941,28 +10468,28 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>69</v>
@@ -9970,11 +10497,11 @@
       <c r="M145" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O145" s="33" t="n">
+      <c r="O145" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9982,28 +10509,28 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>69</v>
@@ -10011,7 +10538,7 @@
       <c r="M146" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O146" s="32" t="n">
+      <c r="O146" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10020,25 +10547,25 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>69</v>
@@ -10046,7 +10573,7 @@
       <c r="M147" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O147" s="32" t="n">
+      <c r="O147" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10055,28 +10582,28 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>69</v>
@@ -10084,7 +10611,7 @@
       <c r="M148" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O148" s="33" t="n">
+      <c r="O148" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S148" s="5" t="s">
@@ -10096,7 +10623,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>369</v>
@@ -10104,20 +10631,20 @@
       <c r="D149" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>69</v>
@@ -10125,7 +10652,7 @@
       <c r="M149" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O149" s="32" t="n">
+      <c r="O149" s="34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10134,7 +10661,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>279</v>
@@ -10142,20 +10669,20 @@
       <c r="D150" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>69</v>
@@ -10163,11 +10690,11 @@
       <c r="M150" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O150" s="33" t="n">
+      <c r="O150" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S150" s="5" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10175,28 +10702,28 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E151" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F151" s="28" t="s">
-        <v>920</v>
+      <c r="E151" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>922</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>69</v>
@@ -10204,11 +10731,11 @@
       <c r="M151" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O151" s="33" t="n">
+      <c r="O151" s="35" t="n">
         <v>0</v>
       </c>
       <c r="S151" s="5" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10216,28 +10743,28 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>69</v>
@@ -10245,11 +10772,11 @@
       <c r="M152" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O152" s="34" t="n">
+      <c r="O152" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S152" s="5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10257,28 +10784,28 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>69</v>
@@ -10286,11 +10813,11 @@
       <c r="M153" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O153" s="34" t="n">
+      <c r="O153" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10298,28 +10825,28 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>69</v>
@@ -10327,11 +10854,11 @@
       <c r="M154" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O154" s="34" t="n">
+      <c r="O154" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10339,25 +10866,25 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="E155" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>69</v>
@@ -10365,11 +10892,11 @@
       <c r="M155" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O155" s="34" t="n">
+      <c r="O155" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10377,28 +10904,28 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>69</v>
@@ -10406,11 +10933,11 @@
       <c r="M156" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O156" s="34" t="n">
+      <c r="O156" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10418,28 +10945,28 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>69</v>
@@ -10447,11 +10974,11 @@
       <c r="M157" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O157" s="34" t="n">
+      <c r="O157" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10459,28 +10986,28 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>69</v>
@@ -10488,11 +11015,11 @@
       <c r="M158" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O158" s="34" t="n">
+      <c r="O158" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S158" s="5" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10500,28 +11027,28 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>69</v>
@@ -10529,11 +11056,11 @@
       <c r="M159" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O159" s="34" t="n">
+      <c r="O159" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S159" s="5" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10541,28 +11068,28 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E160" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F160" s="28" t="s">
-        <v>982</v>
+      <c r="E160" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>984</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>69</v>
@@ -10570,11 +11097,11 @@
       <c r="M160" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O160" s="34" t="n">
+      <c r="O160" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S160" s="5" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10582,25 +11109,25 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>69</v>
@@ -10608,11 +11135,11 @@
       <c r="M161" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O161" s="34" t="n">
+      <c r="O161" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S161" s="5" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10620,28 +11147,28 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>69</v>
@@ -10649,7 +11176,7 @@
       <c r="M162" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O162" s="35" t="n">
+      <c r="O162" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10658,28 +11185,28 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>69</v>
@@ -10687,11 +11214,11 @@
       <c r="M163" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O163" s="34" t="n">
+      <c r="O163" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S163" s="5" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10699,28 +11226,28 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>69</v>
@@ -10728,11 +11255,11 @@
       <c r="M164" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O164" s="34" t="n">
+      <c r="O164" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S164" s="5" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10740,7 +11267,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>279</v>
@@ -10748,17 +11275,17 @@
       <c r="D165" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>69</v>
@@ -10766,11 +11293,11 @@
       <c r="M165" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O165" s="34" t="n">
+      <c r="O165" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S165" s="5" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10778,28 +11305,28 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E166" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F166" s="28" t="s">
-        <v>1020</v>
+      <c r="E166" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F166" s="29" t="s">
+        <v>1022</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>69</v>
@@ -10807,7 +11334,7 @@
       <c r="M166" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O166" s="35" t="n">
+      <c r="O166" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10816,28 +11343,28 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E167" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F167" s="28" t="s">
-        <v>1026</v>
+      <c r="E167" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>1028</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>69</v>
@@ -10845,7 +11372,7 @@
       <c r="M167" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O167" s="35" t="n">
+      <c r="O167" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10854,28 +11381,28 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>69</v>
@@ -10883,7 +11410,7 @@
       <c r="M168" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O168" s="35" t="n">
+      <c r="O168" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10892,28 +11419,28 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E169" s="26" t="s">
+      <c r="E169" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>69</v>
@@ -10921,11 +11448,11 @@
       <c r="M169" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O169" s="34" t="n">
+      <c r="O169" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S169" s="5" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10933,28 +11460,28 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E170" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F170" s="28" t="s">
-        <v>1045</v>
+      <c r="E170" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F170" s="29" t="s">
+        <v>1047</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>69</v>
@@ -10962,7 +11489,7 @@
       <c r="M170" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O170" s="35" t="n">
+      <c r="O170" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10971,28 +11498,28 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E171" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F171" s="28" t="s">
-        <v>1051</v>
+      <c r="E171" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F171" s="29" t="s">
+        <v>1053</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>69</v>
@@ -11000,11 +11527,11 @@
       <c r="M171" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O171" s="34" t="n">
+      <c r="O171" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S171" s="5" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11012,28 +11539,28 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>69</v>
@@ -11041,11 +11568,11 @@
       <c r="M172" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O172" s="34" t="n">
+      <c r="O172" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11053,25 +11580,25 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>69</v>
@@ -11079,11 +11606,11 @@
       <c r="M173" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O173" s="34" t="n">
+      <c r="O173" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S173" s="5" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11091,28 +11618,28 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>69</v>
@@ -11120,11 +11647,11 @@
       <c r="M174" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O174" s="34" t="n">
+      <c r="O174" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11132,28 +11659,28 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>69</v>
@@ -11161,11 +11688,11 @@
       <c r="M175" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O175" s="34" t="n">
+      <c r="O175" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S175" s="5" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11173,7 +11700,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>369</v>
@@ -11181,20 +11708,20 @@
       <c r="D176" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="E176" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F176" s="15" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>69</v>
@@ -11202,7 +11729,7 @@
       <c r="M176" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O176" s="35" t="n">
+      <c r="O176" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11211,28 +11738,28 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E177" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F177" s="15" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>69</v>
@@ -11240,7 +11767,7 @@
       <c r="M177" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O177" s="35" t="n">
+      <c r="O177" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11249,28 +11776,28 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>69</v>
@@ -11278,11 +11805,11 @@
       <c r="M178" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O178" s="34" t="n">
+      <c r="O178" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11290,28 +11817,28 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E179" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F179" s="28" t="s">
-        <v>1103</v>
+      <c r="E179" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>1105</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>69</v>
@@ -11319,11 +11846,11 @@
       <c r="M179" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O179" s="34" t="n">
+      <c r="O179" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S179" s="5" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11331,28 +11858,28 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>69</v>
@@ -11360,11 +11887,11 @@
       <c r="M180" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O180" s="34" t="n">
+      <c r="O180" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S180" s="5" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11372,28 +11899,28 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E181" s="26" t="s">
+      <c r="E181" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>69</v>
@@ -11401,11 +11928,11 @@
       <c r="M181" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O181" s="34" t="n">
+      <c r="O181" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S181" s="5" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11413,25 +11940,25 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>69</v>
@@ -11439,11 +11966,11 @@
       <c r="M182" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O182" s="34" t="n">
+      <c r="O182" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11451,7 +11978,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>279</v>
@@ -11459,17 +11986,17 @@
       <c r="D183" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>69</v>
@@ -11477,11 +12004,11 @@
       <c r="M183" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O183" s="34" t="n">
+      <c r="O183" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S183" s="5" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11489,25 +12016,25 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>69</v>
@@ -11515,11 +12042,11 @@
       <c r="M184" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O184" s="34" t="n">
+      <c r="O184" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11527,28 +12054,28 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E185" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F185" s="28" t="s">
-        <v>1139</v>
+      <c r="E185" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F185" s="29" t="s">
+        <v>1141</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>69</v>
@@ -11556,11 +12083,11 @@
       <c r="M185" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O185" s="34" t="n">
+      <c r="O185" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S185" s="5" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11568,28 +12095,28 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F186" s="15" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>69</v>
@@ -11597,7 +12124,7 @@
       <c r="M186" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O186" s="35" t="n">
+      <c r="O186" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11606,25 +12133,25 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>69</v>
@@ -11632,7 +12159,7 @@
       <c r="M187" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O187" s="35" t="n">
+      <c r="O187" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11641,28 +12168,28 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>69</v>
@@ -11670,7 +12197,7 @@
       <c r="M188" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O188" s="35" t="n">
+      <c r="O188" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11679,28 +12206,28 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="27" t="s">
         <v>248</v>
       </c>
       <c r="F189" s="15" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>69</v>
@@ -11708,27 +12235,31 @@
       <c r="M189" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="O189" s="34" t="n">
+      <c r="O189" s="36" t="n">
         <v>0</v>
       </c>
       <c r="S189" s="5" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="190" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-      <c r="E190" s="39"/>
-      <c r="F190" s="40"/>
-      <c r="I190" s="37"/>
-      <c r="J190" s="37"/>
-      <c r="K190" s="37"/>
-      <c r="O190" s="38" t="n">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="190" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="38"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="42"/>
+      <c r="I190" s="39"/>
+      <c r="J190" s="39"/>
+      <c r="K190" s="39"/>
+      <c r="O190" s="40" t="n">
         <f aca="false">COUNTIFS(O3:O189, "&gt;0")</f>
         <v>122</v>
       </c>
-      <c r="S190" s="41"/>
+      <c r="R190" s="40" t="n">
+        <f aca="false">COUNTIFS(R3:R189, "=1")</f>
+        <v>56</v>
+      </c>
+      <c r="S190" s="43"/>
       <c r="AMJ190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -4068,8 +4068,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q90" activeCellId="0" sqref="Q90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D102" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N105" activeCellId="0" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8371,6 +8371,15 @@
       <c r="O90" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P90" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" s="33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
@@ -8409,6 +8418,15 @@
       <c r="O91" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P91" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
@@ -8447,6 +8465,15 @@
       <c r="O92" s="31" t="n">
         <v>2</v>
       </c>
+      <c r="P92" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
@@ -8485,6 +8512,15 @@
       <c r="O93" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P93" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
@@ -8523,6 +8559,15 @@
       <c r="O94" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P94" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
@@ -8602,6 +8647,15 @@
       <c r="O96" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P96" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
@@ -8722,6 +8776,15 @@
       <c r="O99" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
@@ -8760,6 +8823,15 @@
       <c r="O100" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
@@ -8798,6 +8870,15 @@
       <c r="O101" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P101" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
@@ -8833,6 +8914,15 @@
       <c r="O102" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P102" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
@@ -8871,6 +8961,15 @@
       <c r="O103" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P103" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="n">
@@ -8950,6 +9049,15 @@
       <c r="O105" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P105" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="n">
@@ -8988,6 +9096,15 @@
       <c r="O106" s="31" t="n">
         <v>1</v>
       </c>
+      <c r="P106" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="n">
@@ -9024,6 +9141,15 @@
         <v>253</v>
       </c>
       <c r="O107" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12257,7 +12383,7 @@
       </c>
       <c r="R190" s="40" t="n">
         <f aca="false">COUNTIFS(R3:R189, "=1")</f>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="S190" s="43"/>
       <c r="AMJ190" s="0"/>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1184">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sciendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defining AI</t>
   </si>
   <si>
     <t xml:space="preserve">Computable Variants of AIXI which are More Powerful than AIXItl</t>
@@ -1478,6 +1481,9 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_12</t>
   </si>
   <si>
+    <t xml:space="preserve">Task theory</t>
+  </si>
+  <si>
     <t xml:space="preserve">From Specialized Syntax to General Logic: The Case of Comparatives</t>
   </si>
   <si>
@@ -1604,6 +1610,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_8</t>
   </si>
   <si>
+    <t xml:space="preserve">Deep learning, neural networks, CNN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instrumental Properties of Social Testbeds</t>
   </si>
   <si>
@@ -2054,6 +2063,9 @@
     <t xml:space="preserve">10.1007/978-3-319-41649-6_25</t>
   </si>
   <si>
+    <t xml:space="preserve">Temporal reasoning, NARS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotional Concept Development</t>
   </si>
   <si>
@@ -2261,6 +2273,9 @@
     <t xml:space="preserve">10.1007/978-3-030-27005-6_10</t>
   </si>
   <si>
+    <t xml:space="preserve">Relational Frame Theory, cognitive science</t>
+  </si>
+  <si>
     <t xml:space="preserve">One-Shot Ontogenetic Learning in Biomedical Datastreams</t>
   </si>
   <si>
@@ -2375,6 +2390,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_27</t>
   </si>
   <si>
+    <t xml:space="preserve">HCI, cognitive modeling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Towards a Computational Framework for Function-Driven Concept Invention</t>
   </si>
   <si>
@@ -2558,6 +2576,9 @@
     <t xml:space="preserve">10.1007/978-3-319-21365-1_15</t>
   </si>
   <si>
+    <t xml:space="preserve">Sigma, emotion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Growing Recursive Self-Improvers</t>
   </si>
   <si>
@@ -3126,6 +3147,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1007/978-3-319-41649-6_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma, neural networks</t>
   </si>
   <si>
     <t xml:space="preserve">Self-Modification of Policy and Utility Function in Rational Agents</t>
@@ -3742,7 +3766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3815,6 +3839,9 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3835,11 +3862,14 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3864,7 +3894,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3872,7 +3902,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="41" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="40" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3940,7 +3970,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="39" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="41" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3962,6 +3992,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="43" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="34" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -3992,15 +4026,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="44" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="40" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="42" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="42" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4045,7 +4083,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -4068,13 +4106,15 @@
     <cellStyle name="Good 6" xfId="33"/>
     <cellStyle name="Good 7" xfId="34"/>
     <cellStyle name="Good 8" xfId="35"/>
-    <cellStyle name="Heading 1 1" xfId="36"/>
-    <cellStyle name="Heading 1 2" xfId="37"/>
-    <cellStyle name="Heading 2 1" xfId="38"/>
-    <cellStyle name="Neutral 7" xfId="39"/>
-    <cellStyle name="Neutral 8" xfId="40"/>
-    <cellStyle name="Neutral" xfId="41"/>
-    <cellStyle name="Good" xfId="42"/>
+    <cellStyle name="Good 9" xfId="36"/>
+    <cellStyle name="Heading 1 1" xfId="37"/>
+    <cellStyle name="Heading 1 2" xfId="38"/>
+    <cellStyle name="Heading 2 1" xfId="39"/>
+    <cellStyle name="Neutral 1" xfId="40"/>
+    <cellStyle name="Neutral 7" xfId="41"/>
+    <cellStyle name="Neutral 8" xfId="42"/>
+    <cellStyle name="Neutral" xfId="43"/>
+    <cellStyle name="Bad" xfId="44"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4147,10 +4187,10 @@
   <dimension ref="A1:AMJ191"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F145" activeCellId="0" sqref="F145"/>
+      <selection pane="topLeft" activeCell="C135" activeCellId="0" sqref="C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.61"/>
@@ -4166,9 +4206,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="55.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="46.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5372,7 +5412,10 @@
         <v>1</v>
       </c>
       <c r="R23" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5380,10 +5423,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>2019</v>
@@ -5392,13 +5435,13 @@
         <v>167</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>33</v>
@@ -5433,10 +5476,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>2019</v>
@@ -5445,10 +5488,10 @@
         <v>167</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>33</v>
@@ -5471,7 +5514,7 @@
       <c r="Q25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R25" s="31" t="n">
+      <c r="R25" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5480,10 +5523,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2018</v>
@@ -5492,13 +5535,13 @@
         <v>167</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>33</v>
@@ -5521,7 +5564,7 @@
       <c r="Q26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R26" s="31" t="n">
+      <c r="R26" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,10 +5573,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2018</v>
@@ -5542,13 +5585,13 @@
         <v>167</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>33</v>
@@ -5571,7 +5614,7 @@
       <c r="Q27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R27" s="31" t="n">
+      <c r="R27" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,10 +5623,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2018</v>
@@ -5592,13 +5635,13 @@
         <v>167</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>33</v>
@@ -5621,7 +5664,7 @@
       <c r="Q28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R28" s="32" t="n">
+      <c r="R28" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,10 +5673,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>2017</v>
@@ -5642,13 +5685,13 @@
         <v>167</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>33</v>
@@ -5671,7 +5714,7 @@
       <c r="Q29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R29" s="32" t="n">
+      <c r="R29" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,10 +5723,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2017</v>
@@ -5692,13 +5735,13 @@
         <v>167</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>33</v>
@@ -5721,7 +5764,7 @@
       <c r="Q30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R30" s="31" t="n">
+      <c r="R30" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,10 +5773,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>2015</v>
@@ -5742,16 +5785,16 @@
         <v>167</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>34</v>
@@ -5766,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5774,10 +5817,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>2015</v>
@@ -5786,13 +5829,13 @@
         <v>167</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>33</v>
@@ -5810,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5818,10 +5861,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>2015</v>
@@ -5830,13 +5873,13 @@
         <v>167</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>33</v>
@@ -5854,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5862,10 +5905,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>2015</v>
@@ -5874,13 +5917,13 @@
         <v>167</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>33</v>
@@ -5898,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5906,10 +5949,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>2015</v>
@@ -5918,13 +5961,13 @@
         <v>167</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>33</v>
@@ -5942,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5950,10 +5993,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>2015</v>
@@ -5962,13 +6005,13 @@
         <v>167</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>33</v>
@@ -5991,7 +6034,7 @@
       <c r="Q36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R36" s="31" t="n">
+      <c r="R36" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,10 +6043,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>2015</v>
@@ -6012,13 +6055,13 @@
         <v>167</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>33</v>
@@ -6036,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6044,36 +6087,36 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>249</v>
+      <c r="E38" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O38" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O38" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P38" s="0" t="n">
@@ -6082,7 +6125,7 @@
       <c r="Q38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="31" t="n">
+      <c r="R38" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6091,36 +6134,36 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>249</v>
+      <c r="E39" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O39" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O39" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P39" s="0" t="n">
@@ -6129,7 +6172,7 @@
       <c r="Q39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="31" t="n">
+      <c r="R39" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,36 +6181,36 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>249</v>
+      <c r="E40" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O40" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O40" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P40" s="0" t="n">
@@ -6176,7 +6219,7 @@
       <c r="Q40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R40" s="31" t="n">
+      <c r="R40" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,36 +6228,36 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>249</v>
+      <c r="E41" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O41" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O41" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P41" s="0" t="n">
@@ -6223,7 +6266,7 @@
       <c r="Q41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="31" t="n">
+      <c r="R41" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6232,36 +6275,36 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>249</v>
+      <c r="E42" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O42" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O42" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P42" s="0" t="n">
@@ -6270,7 +6313,7 @@
       <c r="Q42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="31" t="n">
+      <c r="R42" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6279,36 +6322,36 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>249</v>
+      <c r="E43" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O43" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O43" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="0" t="n">
@@ -6317,7 +6360,7 @@
       <c r="Q43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="31" t="n">
+      <c r="R43" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6326,36 +6369,36 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>249</v>
+      <c r="E44" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O44" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O44" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P44" s="0" t="n">
@@ -6364,7 +6407,7 @@
       <c r="Q44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R44" s="31" t="n">
+      <c r="R44" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,36 +6416,36 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>249</v>
+      <c r="E45" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O45" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O45" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P45" s="0" t="n">
@@ -6411,7 +6454,7 @@
       <c r="Q45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R45" s="31" t="n">
+      <c r="R45" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6420,36 +6463,36 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>249</v>
+      <c r="E46" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O46" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O46" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P46" s="0" t="n">
@@ -6458,7 +6501,7 @@
       <c r="Q46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R46" s="31" t="n">
+      <c r="R46" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,33 +6510,33 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E47" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>305</v>
+      <c r="E47" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O47" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O47" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P47" s="0" t="n">
@@ -6502,7 +6545,7 @@
       <c r="Q47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="31" t="n">
+      <c r="R47" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6511,33 +6554,33 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>249</v>
+      <c r="E48" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O48" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O48" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P48" s="0" t="n">
@@ -6546,7 +6589,7 @@
       <c r="Q48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="31" t="n">
+      <c r="R48" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6555,36 +6598,36 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>249</v>
+      <c r="E49" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O49" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O49" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P49" s="0" t="n">
@@ -6593,7 +6636,7 @@
       <c r="Q49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R49" s="31" t="n">
+      <c r="R49" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6602,36 +6645,36 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>249</v>
+      <c r="E50" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O50" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O50" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P50" s="0" t="n">
@@ -6640,7 +6683,7 @@
       <c r="Q50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R50" s="31" t="n">
+      <c r="R50" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6649,33 +6692,33 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E51" s="33" t="s">
-        <v>249</v>
+      <c r="E51" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O51" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O51" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P51" s="0" t="n">
@@ -6684,7 +6727,7 @@
       <c r="Q51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="31" t="n">
+      <c r="R51" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6693,36 +6736,36 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>249</v>
+      <c r="E52" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O52" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O52" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P52" s="0" t="n">
@@ -6731,7 +6774,7 @@
       <c r="Q52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="31" t="n">
+      <c r="R52" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6740,36 +6783,36 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>249</v>
+      <c r="E53" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O53" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O53" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P53" s="0" t="n">
@@ -6778,7 +6821,7 @@
       <c r="Q53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R53" s="32" t="n">
+      <c r="R53" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6787,36 +6830,36 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>342</v>
+      <c r="E54" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>343</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O54" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O54" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P54" s="0" t="n">
@@ -6825,7 +6868,7 @@
       <c r="Q54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R54" s="31" t="n">
+      <c r="R54" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,36 +6877,36 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>249</v>
+      <c r="E55" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O55" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O55" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P55" s="0" t="n">
@@ -6876,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6884,36 +6927,36 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>249</v>
+      <c r="E56" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O56" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O56" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P56" s="0" t="n">
@@ -6922,7 +6965,7 @@
       <c r="Q56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="31" t="n">
+      <c r="R56" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6931,36 +6974,36 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>360</v>
+      <c r="E57" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O57" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O57" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P57" s="0" t="n">
@@ -6969,7 +7012,7 @@
       <c r="Q57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R57" s="31" t="n">
+      <c r="R57" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,36 +7021,36 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>366</v>
+      <c r="E58" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>367</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O58" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O58" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P58" s="0" t="n">
@@ -7016,7 +7059,7 @@
       <c r="Q58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="31" t="n">
+      <c r="R58" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7025,36 +7068,36 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>249</v>
+      <c r="E59" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O59" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O59" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P59" s="0" t="n">
@@ -7063,7 +7106,7 @@
       <c r="Q59" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R59" s="31" t="n">
+      <c r="R59" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7072,36 +7115,36 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E60" s="33" t="s">
-        <v>249</v>
+      <c r="E60" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O60" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O60" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P60" s="0" t="n">
@@ -7110,7 +7153,7 @@
       <c r="Q60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R60" s="31" t="n">
+      <c r="R60" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,36 +7162,36 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>249</v>
+      <c r="E61" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O61" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O61" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P61" s="0" t="n">
@@ -7157,7 +7200,7 @@
       <c r="Q61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R61" s="31" t="n">
+      <c r="R61" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7166,36 +7209,36 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E62" s="33" t="s">
-        <v>249</v>
+      <c r="E62" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O62" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O62" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P62" s="0" t="n">
@@ -7208,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7216,33 +7259,33 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E63" s="33" t="s">
-        <v>249</v>
+      <c r="E63" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O63" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O63" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P63" s="0" t="n">
@@ -7251,7 +7294,7 @@
       <c r="Q63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R63" s="31" t="n">
+      <c r="R63" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7260,36 +7303,36 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E64" s="33" t="s">
-        <v>249</v>
+      <c r="E64" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O64" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O64" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P64" s="0" t="n">
@@ -7298,7 +7341,7 @@
       <c r="Q64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R64" s="31" t="n">
+      <c r="R64" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,36 +7350,36 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E65" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>406</v>
+      <c r="E65" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>407</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O65" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O65" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P65" s="0" t="n">
@@ -7345,7 +7388,7 @@
       <c r="Q65" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R65" s="31" t="n">
+      <c r="R65" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7354,36 +7397,36 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E66" s="33" t="s">
-        <v>249</v>
+      <c r="E66" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O66" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O66" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P66" s="0" t="n">
@@ -7392,7 +7435,7 @@
       <c r="Q66" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R66" s="31" t="n">
+      <c r="R66" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7401,36 +7444,36 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E67" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>418</v>
+      <c r="E67" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>419</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O67" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O67" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P67" s="0" t="n">
@@ -7439,7 +7482,7 @@
       <c r="Q67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R67" s="31" t="n">
+      <c r="R67" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,40 +7491,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E68" s="33" t="s">
-        <v>249</v>
+      <c r="E68" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O68" s="36" t="n">
+        <v>255</v>
+      </c>
+      <c r="O68" s="37" t="n">
         <v>0</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7489,36 +7532,36 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E69" s="33" t="s">
-        <v>249</v>
+      <c r="E69" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O69" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O69" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P69" s="0" t="n">
@@ -7527,7 +7570,7 @@
       <c r="Q69" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R69" s="31" t="n">
+      <c r="R69" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,36 +7579,36 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E70" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>436</v>
+      <c r="E70" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>437</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O70" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O70" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P70" s="0" t="n">
@@ -7574,7 +7617,7 @@
       <c r="Q70" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R70" s="31" t="n">
+      <c r="R70" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7583,33 +7626,33 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E71" s="33" t="s">
-        <v>249</v>
+      <c r="E71" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O71" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O71" s="35" t="n">
         <v>2</v>
       </c>
       <c r="P71" s="0" t="n">
@@ -7618,7 +7661,7 @@
       <c r="Q71" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R71" s="31" t="n">
+      <c r="R71" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7627,36 +7670,36 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E72" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>446</v>
+      <c r="E72" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>447</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O72" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O72" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P72" s="0" t="n">
@@ -7674,36 +7717,36 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>249</v>
+      <c r="E73" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O73" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O73" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P73" s="0" t="n">
@@ -7712,7 +7755,7 @@
       <c r="Q73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R73" s="31" t="n">
+      <c r="R73" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7721,33 +7764,33 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E74" s="33" t="s">
-        <v>249</v>
+      <c r="E74" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O74" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O74" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P74" s="0" t="n">
@@ -7756,7 +7799,7 @@
       <c r="Q74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R74" s="31" t="n">
+      <c r="R74" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7765,33 +7808,33 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E75" s="33" t="s">
-        <v>249</v>
+      <c r="E75" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O75" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O75" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P75" s="0" t="n">
@@ -7800,7 +7843,7 @@
       <c r="Q75" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R75" s="31" t="n">
+      <c r="R75" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7809,40 +7852,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E76" s="33" t="s">
-        <v>249</v>
+      <c r="E76" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O76" s="36" t="n">
+        <v>255</v>
+      </c>
+      <c r="O76" s="37" t="n">
         <v>0</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7850,36 +7893,36 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>475</v>
+      <c r="E77" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>476</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O77" s="34" t="n">
+        <v>255</v>
+      </c>
+      <c r="O77" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P77" s="0" t="n">
@@ -7888,7 +7931,7 @@
       <c r="Q77" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R77" s="31" t="n">
+      <c r="R77" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7897,36 +7940,36 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E78" s="33" t="s">
-        <v>249</v>
+      <c r="E78" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O78" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O78" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P78" s="0" t="n">
@@ -7935,8 +7978,11 @@
       <c r="Q78" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R78" s="31" t="n">
-        <v>1</v>
+      <c r="R78" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7944,40 +7990,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E79" s="33" t="s">
-        <v>249</v>
+      <c r="E79" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O79" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O79" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7985,36 +8031,36 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E80" s="33" t="s">
-        <v>249</v>
+      <c r="E80" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O80" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O80" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P80" s="0" t="n">
@@ -8023,7 +8069,7 @@
       <c r="Q80" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R80" s="31" t="n">
+      <c r="R80" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8032,36 +8078,36 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E81" s="33" t="s">
-        <v>249</v>
+      <c r="E81" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O81" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O81" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P81" s="0" t="n">
@@ -8074,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8082,36 +8128,36 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E82" s="33" t="s">
-        <v>249</v>
+      <c r="E82" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O82" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O82" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P82" s="0" t="n">
@@ -8120,7 +8166,7 @@
       <c r="Q82" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R82" s="31" t="n">
+      <c r="R82" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8129,33 +8175,33 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E83" s="33" t="s">
-        <v>249</v>
+      <c r="E83" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O83" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O83" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P83" s="0" t="n">
@@ -8164,7 +8210,7 @@
       <c r="Q83" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R83" s="31" t="n">
+      <c r="R83" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8173,36 +8219,36 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E84" s="33" t="s">
-        <v>249</v>
+      <c r="E84" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O84" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O84" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P84" s="0" t="n">
@@ -8211,7 +8257,7 @@
       <c r="Q84" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R84" s="31" t="n">
+      <c r="R84" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8220,36 +8266,36 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E85" s="33" t="s">
-        <v>249</v>
+      <c r="E85" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O85" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O85" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P85" s="0" t="n">
@@ -8258,8 +8304,11 @@
       <c r="Q85" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R85" s="31" t="n">
-        <v>1</v>
+      <c r="R85" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8267,40 +8316,40 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E86" s="33" t="s">
-        <v>249</v>
+      <c r="E86" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O86" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O86" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8308,36 +8357,36 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E87" s="33" t="s">
-        <v>249</v>
+      <c r="E87" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O87" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O87" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P87" s="0" t="n">
@@ -8346,7 +8395,7 @@
       <c r="Q87" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R87" s="39" t="n">
+      <c r="R87" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8355,36 +8404,36 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E88" s="33" t="s">
-        <v>249</v>
+      <c r="E88" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O88" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O88" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P88" s="0" t="n">
@@ -8393,7 +8442,7 @@
       <c r="Q88" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R88" s="39" t="n">
+      <c r="R88" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8402,36 +8451,36 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E89" s="33" t="s">
-        <v>249</v>
+      <c r="E89" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O89" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O89" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P89" s="0" t="n">
@@ -8440,7 +8489,7 @@
       <c r="Q89" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R89" s="31" t="n">
+      <c r="R89" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8449,36 +8498,36 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E90" s="33" t="s">
-        <v>249</v>
+      <c r="E90" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O90" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O90" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P90" s="0" t="n">
@@ -8487,7 +8536,7 @@
       <c r="Q90" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="n">
+      <c r="R90" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8496,36 +8545,36 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E91" s="33" t="s">
-        <v>249</v>
+      <c r="E91" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O91" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O91" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P91" s="0" t="n">
@@ -8534,7 +8583,7 @@
       <c r="Q91" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R91" s="32" t="n">
+      <c r="R91" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8543,36 +8592,36 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E92" s="33" t="s">
-        <v>249</v>
+      <c r="E92" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O92" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O92" s="38" t="n">
         <v>2</v>
       </c>
       <c r="P92" s="0" t="n">
@@ -8581,7 +8630,7 @@
       <c r="Q92" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R92" s="32" t="n">
+      <c r="R92" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8590,36 +8639,36 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E93" s="33" t="s">
-        <v>249</v>
+      <c r="E93" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O93" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O93" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P93" s="0" t="n">
@@ -8628,7 +8677,7 @@
       <c r="Q93" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R93" s="32" t="n">
+      <c r="R93" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8637,36 +8686,36 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E94" s="33" t="s">
-        <v>249</v>
+      <c r="E94" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O94" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O94" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P94" s="0" t="n">
@@ -8675,7 +8724,7 @@
       <c r="Q94" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R94" s="32" t="n">
+      <c r="R94" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,40 +8733,40 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E95" s="33" t="s">
-        <v>249</v>
+      <c r="E95" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O95" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O95" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8725,36 +8774,36 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E96" s="33" t="s">
-        <v>249</v>
+      <c r="E96" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O96" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O96" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P96" s="0" t="n">
@@ -8763,7 +8812,7 @@
       <c r="Q96" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R96" s="32" t="n">
+      <c r="R96" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8772,40 +8821,40 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E97" s="33" t="s">
-        <v>249</v>
+      <c r="E97" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O97" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O97" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8813,40 +8862,40 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E98" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>602</v>
+      <c r="E98" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>605</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O98" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O98" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8854,36 +8903,36 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E99" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>609</v>
+      <c r="E99" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>612</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O99" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O99" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P99" s="0" t="n">
@@ -8892,7 +8941,7 @@
       <c r="Q99" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R99" s="32" t="n">
+      <c r="R99" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8901,36 +8950,36 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E100" s="33" t="s">
-        <v>249</v>
+      <c r="E100" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O100" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O100" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P100" s="0" t="n">
@@ -8939,7 +8988,7 @@
       <c r="Q100" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R100" s="32" t="n">
+      <c r="R100" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8948,36 +8997,36 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E101" s="33" t="s">
-        <v>249</v>
+      <c r="E101" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O101" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O101" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P101" s="0" t="n">
@@ -8986,7 +9035,7 @@
       <c r="Q101" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R101" s="32" t="n">
+      <c r="R101" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8995,33 +9044,33 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E102" s="33" t="s">
-        <v>249</v>
+      <c r="E102" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O102" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O102" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P102" s="0" t="n">
@@ -9030,7 +9079,7 @@
       <c r="Q102" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R102" s="32" t="n">
+      <c r="R102" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9039,36 +9088,36 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E103" s="33" t="s">
-        <v>249</v>
+      <c r="E103" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O103" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O103" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P103" s="0" t="n">
@@ -9077,7 +9126,7 @@
       <c r="Q103" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R103" s="32" t="n">
+      <c r="R103" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9086,40 +9135,40 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E104" s="33" t="s">
-        <v>249</v>
+      <c r="E104" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O104" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O104" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S104" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9127,36 +9176,36 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E105" s="33" t="s">
-        <v>249</v>
+      <c r="E105" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O105" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O105" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P105" s="0" t="n">
@@ -9165,7 +9214,7 @@
       <c r="Q105" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R105" s="32" t="n">
+      <c r="R105" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9174,36 +9223,36 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E106" s="33" t="s">
-        <v>249</v>
+      <c r="E106" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O106" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O106" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P106" s="0" t="n">
@@ -9212,7 +9261,7 @@
       <c r="Q106" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R106" s="32" t="n">
+      <c r="R106" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9221,36 +9270,36 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E107" s="33" t="s">
-        <v>249</v>
+      <c r="E107" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O107" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O107" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P107" s="0" t="n">
@@ -9259,7 +9308,7 @@
       <c r="Q107" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R107" s="32" t="n">
+      <c r="R107" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,36 +9317,36 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E108" s="33" t="s">
-        <v>249</v>
+      <c r="E108" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O108" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O108" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P108" s="0" t="n">
@@ -9306,7 +9355,7 @@
       <c r="Q108" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R108" s="32" t="n">
+      <c r="R108" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9315,36 +9364,36 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E109" s="33" t="s">
-        <v>249</v>
+      <c r="E109" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O109" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O109" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P109" s="0" t="n">
@@ -9353,7 +9402,7 @@
       <c r="Q109" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R109" s="32" t="n">
+      <c r="R109" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9362,36 +9411,36 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E110" s="33" t="s">
-        <v>249</v>
+      <c r="E110" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O110" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O110" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P110" s="0" t="n">
@@ -9401,7 +9450,10 @@
         <v>1</v>
       </c>
       <c r="R110" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9409,40 +9461,40 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E111" s="33" t="s">
-        <v>249</v>
+      <c r="E111" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O111" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O111" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9450,40 +9502,40 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E112" s="33" t="s">
-        <v>249</v>
+      <c r="E112" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O112" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O112" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9491,36 +9543,36 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E113" s="33" t="s">
-        <v>249</v>
+      <c r="E113" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O113" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O113" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P113" s="0" t="n">
@@ -9538,36 +9590,36 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E114" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>699</v>
+      <c r="E114" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F114" s="36" t="s">
+        <v>703</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O114" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O114" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P114" s="0" t="n">
@@ -9576,7 +9628,7 @@
       <c r="Q114" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R114" s="32" t="n">
+      <c r="R114" s="31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9585,40 +9637,40 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E115" s="33" t="s">
-        <v>249</v>
+      <c r="E115" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O115" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O115" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9626,36 +9678,36 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E116" s="33" t="s">
-        <v>249</v>
+      <c r="E116" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O116" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O116" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P116" s="0" t="n">
@@ -9664,7 +9716,7 @@
       <c r="Q116" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R116" s="32" t="n">
+      <c r="R116" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9673,36 +9725,36 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E117" s="33" t="s">
-        <v>249</v>
+      <c r="E117" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O117" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O117" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P117" s="0" t="n">
@@ -9711,7 +9763,7 @@
       <c r="Q117" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R117" s="40" t="n">
+      <c r="R117" s="42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9720,36 +9772,36 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E118" s="33" t="s">
-        <v>249</v>
+      <c r="E118" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O118" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O118" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P118" s="0" t="n">
@@ -9762,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="S118" s="5" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9770,36 +9822,36 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E119" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F119" s="35" t="s">
-        <v>731</v>
+      <c r="E119" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F119" s="36" t="s">
+        <v>735</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O119" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O119" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P119" s="0" t="n">
@@ -9808,7 +9860,7 @@
       <c r="Q119" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R119" s="32" t="n">
+      <c r="R119" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9817,33 +9869,33 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E120" s="33" t="s">
-        <v>249</v>
+      <c r="E120" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O120" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O120" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P120" s="0" t="n">
@@ -9852,7 +9904,7 @@
       <c r="Q120" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R120" s="32" t="n">
+      <c r="R120" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9861,36 +9913,36 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E121" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>742</v>
+      <c r="E121" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F121" s="36" t="s">
+        <v>746</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O121" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O121" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P121" s="0" t="n">
@@ -9900,7 +9952,10 @@
         <v>1</v>
       </c>
       <c r="R121" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S121" s="5" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9908,40 +9963,40 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E122" s="33" t="s">
-        <v>249</v>
+      <c r="E122" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O122" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O122" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9949,33 +10004,33 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E123" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F123" s="35" t="s">
-        <v>755</v>
+      <c r="E123" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F123" s="36" t="s">
+        <v>760</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O123" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O123" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P123" s="0" t="n">
@@ -9984,7 +10039,7 @@
       <c r="Q123" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R123" s="32" t="n">
+      <c r="R123" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9993,40 +10048,40 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E124" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F124" s="35" t="s">
-        <v>760</v>
+      <c r="E124" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" s="36" t="s">
+        <v>765</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O124" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O124" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S124" s="5" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10034,40 +10089,40 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E125" s="33" t="s">
-        <v>249</v>
+      <c r="E125" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O125" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="O125" s="40" t="n">
         <v>0</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10075,36 +10130,36 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E126" s="33" t="s">
-        <v>249</v>
+      <c r="E126" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O126" s="37" t="n">
+        <v>255</v>
+      </c>
+      <c r="O126" s="38" t="n">
         <v>1</v>
       </c>
       <c r="P126" s="0" t="n">
@@ -10113,7 +10168,7 @@
       <c r="Q126" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R126" s="32" t="n">
+      <c r="R126" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10122,46 +10177,49 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E127" s="33" t="s">
-        <v>249</v>
+      <c r="E127" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O127" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O127" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P127" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q127" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R127" s="40" t="n">
-        <v>1</v>
+      <c r="R127" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10169,40 +10227,40 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E128" s="33" t="s">
-        <v>249</v>
+      <c r="E128" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O128" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O128" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10210,36 +10268,36 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E129" s="33" t="s">
-        <v>249</v>
+      <c r="E129" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O129" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O129" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P129" s="0" t="n">
@@ -10248,7 +10306,7 @@
       <c r="Q129" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R129" s="32" t="n">
+      <c r="R129" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10257,36 +10315,36 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E130" s="33" t="s">
-        <v>249</v>
+      <c r="E130" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O130" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O130" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P130" s="0" t="n">
@@ -10295,7 +10353,7 @@
       <c r="Q130" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R130" s="32" t="n">
+      <c r="R130" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10304,40 +10362,40 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E131" s="33" t="s">
-        <v>249</v>
+      <c r="E131" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O131" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O131" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S131" s="5" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10345,40 +10403,40 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E132" s="33" t="s">
-        <v>249</v>
+      <c r="E132" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O132" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O132" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S132" s="5" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10386,36 +10444,36 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E133" s="33" t="s">
-        <v>249</v>
+      <c r="E133" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O133" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O133" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P133" s="0" t="n">
@@ -10433,33 +10491,33 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E134" s="33" t="s">
-        <v>249</v>
+      <c r="E134" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O134" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O134" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P134" s="0" t="n">
@@ -10468,7 +10526,7 @@
       <c r="Q134" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R134" s="32" t="n">
+      <c r="R134" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10477,40 +10535,40 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E135" s="33" t="s">
-        <v>249</v>
+      <c r="E135" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O135" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O135" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10518,36 +10576,36 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E136" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F136" s="35" t="s">
-        <v>836</v>
+      <c r="E136" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F136" s="36" t="s">
+        <v>842</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O136" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O136" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P136" s="0" t="n">
@@ -10556,7 +10614,7 @@
       <c r="Q136" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R136" s="32" t="n">
+      <c r="R136" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10565,46 +10623,49 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E137" s="33" t="s">
-        <v>249</v>
+      <c r="E137" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O137" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O137" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P137" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R137" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S137" s="5" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10612,40 +10673,40 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E138" s="33" t="s">
-        <v>249</v>
+      <c r="E138" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O138" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O138" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10653,40 +10714,40 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E139" s="33" t="s">
-        <v>249</v>
+      <c r="E139" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O139" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O139" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S139" s="5" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10694,36 +10755,36 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E140" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F140" s="35" t="s">
-        <v>861</v>
+      <c r="E140" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F140" s="36" t="s">
+        <v>868</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O140" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O140" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P140" s="0" t="n">
@@ -10732,7 +10793,7 @@
       <c r="Q140" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R140" s="32" t="n">
+      <c r="R140" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10741,36 +10802,36 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E141" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F141" s="35" t="s">
-        <v>867</v>
+      <c r="E141" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>874</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O141" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O141" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P141" s="0" t="n">
@@ -10779,7 +10840,7 @@
       <c r="Q141" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R141" s="32" t="n">
+      <c r="R141" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10788,36 +10849,36 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E142" s="33" t="s">
-        <v>249</v>
+      <c r="E142" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O142" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O142" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P142" s="0" t="n">
@@ -10826,7 +10887,7 @@
       <c r="Q142" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R142" s="32" t="n">
+      <c r="R142" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10835,36 +10896,36 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E143" s="33" t="s">
-        <v>249</v>
+      <c r="E143" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O143" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O143" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P143" s="0" t="n">
@@ -10873,7 +10934,7 @@
       <c r="Q143" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R143" s="32" t="n">
+      <c r="R143" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10882,40 +10943,40 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E144" s="33" t="s">
-        <v>249</v>
+      <c r="E144" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O144" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O144" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10923,40 +10984,40 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E145" s="33" t="s">
-        <v>249</v>
+      <c r="E145" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O145" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O145" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10964,36 +11025,36 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E146" s="33" t="s">
-        <v>249</v>
+      <c r="E146" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O146" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O146" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P146" s="0" t="n">
@@ -11002,7 +11063,7 @@
       <c r="Q146" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R146" s="32" t="n">
+      <c r="R146" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11011,33 +11072,33 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E147" s="33" t="s">
-        <v>249</v>
+      <c r="E147" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O147" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O147" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P147" s="0" t="n">
@@ -11046,7 +11107,7 @@
       <c r="Q147" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R147" s="32" t="n">
+      <c r="R147" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11055,40 +11116,40 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E148" s="33" t="s">
-        <v>249</v>
+      <c r="E148" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O148" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O148" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11096,36 +11157,36 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E149" s="33" t="s">
-        <v>249</v>
+      <c r="E149" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O149" s="41" t="n">
+        <v>255</v>
+      </c>
+      <c r="O149" s="43" t="n">
         <v>1</v>
       </c>
       <c r="P149" s="0" t="n">
@@ -11134,7 +11195,7 @@
       <c r="Q149" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R149" s="32" t="n">
+      <c r="R149" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11143,40 +11204,40 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E150" s="33" t="s">
-        <v>249</v>
+      <c r="E150" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O150" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O150" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S150" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11184,40 +11245,40 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E151" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F151" s="35" t="s">
-        <v>924</v>
+      <c r="E151" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F151" s="36" t="s">
+        <v>931</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O151" s="42" t="n">
+        <v>255</v>
+      </c>
+      <c r="O151" s="44" t="n">
         <v>0</v>
       </c>
       <c r="S151" s="5" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11225,40 +11286,40 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E152" s="33" t="s">
-        <v>249</v>
+      <c r="E152" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O152" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O152" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S152" s="5" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11266,40 +11327,40 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E153" s="33" t="s">
-        <v>249</v>
+      <c r="E153" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O153" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O153" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11307,40 +11368,40 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E154" s="33" t="s">
-        <v>249</v>
+      <c r="E154" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O154" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O154" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11348,37 +11409,37 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E155" s="33" t="s">
-        <v>249</v>
+      <c r="E155" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O155" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O155" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11386,40 +11447,40 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E156" s="33" t="s">
-        <v>249</v>
+      <c r="E156" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O156" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O156" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11427,40 +11488,40 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E157" s="33" t="s">
-        <v>249</v>
+      <c r="E157" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O157" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O157" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11468,40 +11529,40 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E158" s="33" t="s">
-        <v>249</v>
+      <c r="E158" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O158" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O158" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S158" s="5" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11509,40 +11570,40 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E159" s="33" t="s">
-        <v>249</v>
+      <c r="E159" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O159" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O159" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S159" s="5" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11550,40 +11611,40 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E160" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F160" s="35" t="s">
-        <v>986</v>
+      <c r="E160" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F160" s="36" t="s">
+        <v>993</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O160" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O160" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S160" s="5" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11591,37 +11652,37 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E161" s="33" t="s">
-        <v>249</v>
+      <c r="E161" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O161" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O161" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S161" s="5" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11629,36 +11690,36 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E162" s="33" t="s">
-        <v>249</v>
+      <c r="E162" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O162" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O162" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P162" s="0" t="n">
@@ -11671,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="S162" s="5" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11679,40 +11740,40 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E163" s="33" t="s">
-        <v>249</v>
+      <c r="E163" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O163" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O163" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S163" s="5" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11720,40 +11781,40 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="E164" s="33" t="s">
-        <v>249</v>
+      <c r="E164" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O164" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O164" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S164" s="5" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11761,37 +11822,37 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E165" s="33" t="s">
-        <v>249</v>
+      <c r="E165" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O165" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O165" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S165" s="5" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11799,36 +11860,36 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E166" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F166" s="35" t="s">
-        <v>1025</v>
+      <c r="E166" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F166" s="36" t="s">
+        <v>1032</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O166" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O166" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P166" s="0" t="n">
@@ -11837,7 +11898,7 @@
       <c r="Q166" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R166" s="32" t="n">
+      <c r="R166" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11846,46 +11907,49 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E167" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F167" s="35" t="s">
-        <v>1031</v>
+      <c r="E167" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F167" s="36" t="s">
+        <v>1038</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O167" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O167" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P167" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q167" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R167" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S167" s="5" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11893,36 +11957,36 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E168" s="33" t="s">
-        <v>249</v>
+      <c r="E168" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O168" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O168" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P168" s="0" t="n">
@@ -11931,7 +11995,7 @@
       <c r="Q168" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R168" s="32" t="n">
+      <c r="R168" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11940,40 +12004,40 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E169" s="33" t="s">
-        <v>249</v>
+      <c r="E169" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O169" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O169" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S169" s="5" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11981,36 +12045,36 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E170" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F170" s="35" t="s">
-        <v>1050</v>
+      <c r="E170" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F170" s="36" t="s">
+        <v>1058</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O170" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O170" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P170" s="0" t="n">
@@ -12023,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12031,40 +12095,40 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E171" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F171" s="35" t="s">
-        <v>1057</v>
+      <c r="E171" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F171" s="36" t="s">
+        <v>1065</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O171" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O171" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S171" s="5" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12072,40 +12136,40 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E172" s="33" t="s">
-        <v>249</v>
+      <c r="E172" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O172" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O172" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12113,37 +12177,37 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E173" s="33" t="s">
-        <v>249</v>
+      <c r="E173" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O173" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O173" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S173" s="5" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12151,40 +12215,40 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E174" s="33" t="s">
-        <v>249</v>
+      <c r="E174" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O174" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O174" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12192,40 +12256,40 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E175" s="33" t="s">
-        <v>249</v>
+      <c r="E175" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O175" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O175" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S175" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12233,36 +12297,36 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E176" s="33" t="s">
-        <v>249</v>
+      <c r="E176" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O176" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O176" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P176" s="0" t="n">
@@ -12271,7 +12335,7 @@
       <c r="Q176" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R176" s="32" t="n">
+      <c r="R176" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12280,36 +12344,36 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E177" s="33" t="s">
-        <v>249</v>
+      <c r="E177" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O177" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O177" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P177" s="0" t="n">
@@ -12318,7 +12382,7 @@
       <c r="Q177" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R177" s="32" t="n">
+      <c r="R177" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12327,40 +12391,40 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E178" s="33" t="s">
-        <v>249</v>
+      <c r="E178" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O178" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O178" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12368,40 +12432,40 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="E179" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F179" s="35" t="s">
-        <v>1109</v>
+      <c r="E179" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F179" s="36" t="s">
+        <v>1117</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O179" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O179" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S179" s="5" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12409,40 +12473,40 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E180" s="33" t="s">
-        <v>249</v>
+      <c r="E180" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O180" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O180" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S180" s="5" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12450,40 +12514,40 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E181" s="33" t="s">
-        <v>249</v>
+      <c r="E181" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O181" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O181" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S181" s="5" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12491,37 +12555,37 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E182" s="33" t="s">
-        <v>249</v>
+      <c r="E182" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O182" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O182" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12529,37 +12593,37 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E183" s="33" t="s">
-        <v>249</v>
+      <c r="E183" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O183" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O183" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S183" s="5" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12567,37 +12631,37 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E184" s="33" t="s">
-        <v>249</v>
+      <c r="E184" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O184" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O184" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12605,40 +12669,40 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E185" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F185" s="35" t="s">
-        <v>1145</v>
+      <c r="E185" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F185" s="36" t="s">
+        <v>1153</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O185" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O185" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S185" s="5" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12646,36 +12710,36 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E186" s="33" t="s">
-        <v>249</v>
+      <c r="E186" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O186" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O186" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P186" s="0" t="n">
@@ -12688,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12696,33 +12760,33 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E187" s="33" t="s">
-        <v>249</v>
+      <c r="E187" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O187" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O187" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P187" s="0" t="n">
@@ -12731,7 +12795,7 @@
       <c r="Q187" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R187" s="32" t="n">
+      <c r="R187" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12740,36 +12804,36 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E188" s="33" t="s">
-        <v>249</v>
+      <c r="E188" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O188" s="44" t="n">
+        <v>255</v>
+      </c>
+      <c r="O188" s="46" t="n">
         <v>1</v>
       </c>
       <c r="P188" s="0" t="n">
@@ -12782,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="S188" s="5" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12790,64 +12854,64 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E189" s="33" t="s">
-        <v>249</v>
+      <c r="E189" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="O189" s="43" t="n">
+        <v>255</v>
+      </c>
+      <c r="O189" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S189" s="5" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="190" s="47" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="45"/>
-      <c r="B190" s="46"/>
-      <c r="C190" s="46"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="49"/>
-      <c r="I190" s="46"/>
-      <c r="J190" s="46"/>
-      <c r="K190" s="46"/>
-      <c r="O190" s="47" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="190" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
+      <c r="C190" s="48"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="51"/>
+      <c r="I190" s="48"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="48"/>
+      <c r="O190" s="49" t="n">
         <f aca="false">COUNTIFS(O3:O189, "&gt;0")</f>
         <v>122</v>
       </c>
-      <c r="Q190" s="47" t="n">
+      <c r="Q190" s="49" t="n">
         <f aca="false">COUNTIFS(Q3:Q189, "=1")</f>
         <v>82</v>
       </c>
-      <c r="R190" s="47" t="n">
+      <c r="R190" s="49" t="n">
         <f aca="false">COUNTIFS(R3:R189, "=1")</f>
-        <v>104</v>
-      </c>
-      <c r="S190" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="S190" s="52"/>
       <c r="AMJ190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843BEA8-2225-4DBC-9AAA-D20946BA0D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FFC949-CDDD-4FA1-9866-EB3930DCB3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29055" yWindow="165" windowWidth="48675" windowHeight="15375" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Accepted Papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="1188">
   <si>
     <t>Material search results</t>
   </si>
@@ -3596,6 +3597,9 @@
   </si>
   <si>
     <t>Animats, Q-learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papers accepted for mapping </t>
   </si>
 </sst>
 </file>
@@ -4314,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4325,6 +4329,7 @@
     <col min="3" max="3" width="40.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
@@ -13067,4 +13072,3406 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B71EA-290D-4309-8558-374C60EDEE62}">
+  <dimension ref="A1:AME97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="111.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="46.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1019" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1019" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AME2"/>
+    </row>
+    <row r="3" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="2">
+        <v>78</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18">
+        <v>2015</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22">
+        <v>2018</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23">
+        <v>2016</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" t="s">
+        <v>290</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24">
+        <v>2015</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" t="s">
+        <v>296</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" t="s">
+        <v>301</v>
+      </c>
+      <c r="H25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26">
+        <v>2019</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="H26" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27">
+        <v>2017</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H27" t="s">
+        <v>312</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28">
+        <v>2018</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29">
+        <v>2017</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="G29" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" t="s">
+        <v>324</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" t="s">
+        <v>334</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32">
+        <v>2015</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G32" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" t="s">
+        <v>339</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33">
+        <v>2017</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="G33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H33" t="s">
+        <v>345</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34">
+        <v>2015</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="G34" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" t="s">
+        <v>357</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="G35" t="s">
+        <v>362</v>
+      </c>
+      <c r="H35" t="s">
+        <v>363</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36">
+        <v>2018</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37">
+        <v>2015</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" t="s">
+        <v>374</v>
+      </c>
+      <c r="H37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38">
+        <v>2015</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" t="s">
+        <v>380</v>
+      </c>
+      <c r="H38" t="s">
+        <v>381</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G39" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39" t="s">
+        <v>387</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40">
+        <v>2017</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="H40" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D41">
+        <v>2016</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="G41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H41" t="s">
+        <v>403</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42">
+        <v>2019</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42" t="s">
+        <v>408</v>
+      </c>
+      <c r="H42" t="s">
+        <v>409</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43">
+        <v>2016</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="G43" t="s">
+        <v>414</v>
+      </c>
+      <c r="H43" t="s">
+        <v>415</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D44">
+        <v>2018</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="G44" t="s">
+        <v>420</v>
+      </c>
+      <c r="H44" t="s">
+        <v>421</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45">
+        <v>2015</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G45" t="s">
+        <v>432</v>
+      </c>
+      <c r="H45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46">
+        <v>2019</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G46" t="s">
+        <v>438</v>
+      </c>
+      <c r="H46" t="s">
+        <v>439</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>69</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D47">
+        <v>2018</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H47" t="s">
+        <v>443</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D48">
+        <v>2018</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="G48" t="s">
+        <v>454</v>
+      </c>
+      <c r="H48" t="s">
+        <v>455</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D49">
+        <v>2016</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="H49" t="s">
+        <v>460</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>73</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50">
+        <v>2015</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H50" t="s">
+        <v>465</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D51">
+        <v>2017</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="G51" t="s">
+        <v>477</v>
+      </c>
+      <c r="H51" t="s">
+        <v>478</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>78</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D52">
+        <v>2016</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="G52" t="s">
+        <v>497</v>
+      </c>
+      <c r="H52" t="s">
+        <v>498</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>80</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D53">
+        <v>2018</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="G53" t="s">
+        <v>510</v>
+      </c>
+      <c r="H53" t="s">
+        <v>511</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>81</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D54">
+        <v>2017</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="H54" t="s">
+        <v>516</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>82</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55">
+        <v>2016</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G55" t="s">
+        <v>521</v>
+      </c>
+      <c r="H55" t="s">
+        <v>522</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D56">
+        <v>2015</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="G56" t="s">
+        <v>540</v>
+      </c>
+      <c r="H56" t="s">
+        <v>541</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>86</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D57">
+        <v>2016</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="G57" t="s">
+        <v>546</v>
+      </c>
+      <c r="H57" t="s">
+        <v>547</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>87</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D58">
+        <v>2018</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="G58" t="s">
+        <v>552</v>
+      </c>
+      <c r="H58" t="s">
+        <v>553</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D59">
+        <v>2015</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="G59" t="s">
+        <v>558</v>
+      </c>
+      <c r="H59" t="s">
+        <v>559</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>89</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60">
+        <v>2015</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="G60" t="s">
+        <v>563</v>
+      </c>
+      <c r="H60" t="s">
+        <v>564</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>90</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D61">
+        <v>2016</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="G61" t="s">
+        <v>569</v>
+      </c>
+      <c r="H61" t="s">
+        <v>570</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62">
+        <v>2018</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="G62" t="s">
+        <v>574</v>
+      </c>
+      <c r="H62" t="s">
+        <v>575</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>92</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D63">
+        <v>2019</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="G63" t="s">
+        <v>580</v>
+      </c>
+      <c r="H63" t="s">
+        <v>581</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D64">
+        <v>2016</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="G64" t="s">
+        <v>593</v>
+      </c>
+      <c r="H64" t="s">
+        <v>594</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>97</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D65">
+        <v>2019</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="G65" t="s">
+        <v>613</v>
+      </c>
+      <c r="H65" t="s">
+        <v>614</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>98</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D66">
+        <v>2018</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="G66" t="s">
+        <v>619</v>
+      </c>
+      <c r="H66" t="s">
+        <v>620</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>99</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D67">
+        <v>2018</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G67" t="s">
+        <v>625</v>
+      </c>
+      <c r="H67" t="s">
+        <v>626</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68">
+        <v>2017</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="H68" t="s">
+        <v>630</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>101</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D69">
+        <v>2018</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="G69" t="s">
+        <v>635</v>
+      </c>
+      <c r="H69" t="s">
+        <v>636</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
+        <v>103</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D70">
+        <v>2016</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="G70" t="s">
+        <v>648</v>
+      </c>
+      <c r="H70" t="s">
+        <v>649</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>104</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D71">
+        <v>2016</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="G71" t="s">
+        <v>654</v>
+      </c>
+      <c r="H71" t="s">
+        <v>655</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>105</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D72">
+        <v>2016</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="G72" t="s">
+        <v>660</v>
+      </c>
+      <c r="H72" t="s">
+        <v>661</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
+        <v>106</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D73">
+        <v>2016</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="G73" t="s">
+        <v>666</v>
+      </c>
+      <c r="H73" t="s">
+        <v>667</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
+        <v>107</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74">
+        <v>2016</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="G74" t="s">
+        <v>671</v>
+      </c>
+      <c r="H74" t="s">
+        <v>672</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
+        <v>112</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D75">
+        <v>2018</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>703</v>
+      </c>
+      <c r="G75" t="s">
+        <v>704</v>
+      </c>
+      <c r="H75" t="s">
+        <v>705</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
+        <v>114</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D76">
+        <v>2016</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="G76" t="s">
+        <v>717</v>
+      </c>
+      <c r="H76" t="s">
+        <v>718</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
+        <v>115</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D77">
+        <v>2016</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="G77" t="s">
+        <v>723</v>
+      </c>
+      <c r="H77" t="s">
+        <v>724</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
+        <v>117</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D78">
+        <v>2019</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="G78" t="s">
+        <v>736</v>
+      </c>
+      <c r="H78" t="s">
+        <v>737</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
+        <v>118</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D79">
+        <v>2017</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="H79" t="s">
+        <v>742</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16">
+        <v>121</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D80">
+        <v>2017</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="H80" t="s">
+        <v>761</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
+        <v>124</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D81">
+        <v>2017</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="G81" t="s">
+        <v>780</v>
+      </c>
+      <c r="H81" t="s">
+        <v>781</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
+        <v>127</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D82">
+        <v>2018</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="G82" t="s">
+        <v>800</v>
+      </c>
+      <c r="H82" t="s">
+        <v>801</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M82" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
+        <v>128</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D83">
+        <v>2015</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="G83" t="s">
+        <v>806</v>
+      </c>
+      <c r="H83" t="s">
+        <v>807</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D84">
+        <v>2015</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="G84" t="s">
+        <v>826</v>
+      </c>
+      <c r="H84" t="s">
+        <v>827</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
+        <v>132</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D85">
+        <v>2017</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="H85" t="s">
+        <v>832</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
+        <v>134</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D86">
+        <v>2018</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="G86" t="s">
+        <v>766</v>
+      </c>
+      <c r="H86" t="s">
+        <v>843</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
+        <v>138</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D87">
+        <v>2016</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="G87" t="s">
+        <v>869</v>
+      </c>
+      <c r="H87" t="s">
+        <v>870</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16">
+        <v>139</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D88">
+        <v>2019</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="G88" t="s">
+        <v>875</v>
+      </c>
+      <c r="H88" t="s">
+        <v>876</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16">
+        <v>141</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D89">
+        <v>2018</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="G89" t="s">
+        <v>886</v>
+      </c>
+      <c r="H89" t="s">
+        <v>887</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16">
+        <v>144</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D90">
+        <v>2018</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="G90" t="s">
+        <v>905</v>
+      </c>
+      <c r="H90" t="s">
+        <v>906</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16">
+        <v>145</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D91">
+        <v>2016</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="H91" t="s">
+        <v>911</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16">
+        <v>147</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92">
+        <v>2016</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="G92" t="s">
+        <v>921</v>
+      </c>
+      <c r="H92" t="s">
+        <v>922</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M92" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D93">
+        <v>2019</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16">
+        <v>174</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D94">
+        <v>2017</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1019" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>185</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D95">
+        <v>2016</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1019" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="47">
+        <f>COUNT(A3:A95)</f>
+        <v>93</v>
+      </c>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="51"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="AME96"/>
+    </row>
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="E10:E97" xr:uid="{241F5E68-5F12-465A-A28D-BA53E5118789}">
+      <formula1>"JAGI,AIJ,JAIR,ICAGI,IJCAI,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FFC949-CDDD-4FA1-9866-EB3930DCB3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E3B63-165C-434F-AFD0-CC348AC6097F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3670,7 +3670,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3741,6 +3741,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF158466"/>
         <bgColor rgb="FF168253"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3819,7 +3825,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3909,6 +3915,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Accent 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -13078,18 +13089,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B71EA-290D-4309-8558-374C60EDEE62}">
   <dimension ref="A1:AME97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="111.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="53" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
@@ -13129,7 +13140,7 @@
       <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="54" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -13186,7 +13197,7 @@
       <c r="G3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="55" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -13227,7 +13238,7 @@
       <c r="G4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="55" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -13271,7 +13282,7 @@
       <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="55" t="s">
         <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -13315,7 +13326,7 @@
       <c r="G6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="55" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -13359,7 +13370,7 @@
       <c r="G7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="55" t="s">
         <v>124</v>
       </c>
       <c r="J7" s="2">
@@ -13394,7 +13405,7 @@
       <c r="F8" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="55" t="s">
         <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -13435,7 +13446,7 @@
       <c r="G9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="55" t="s">
         <v>155</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -13742,7 +13753,7 @@
       <c r="G17" t="s">
         <v>252</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="53" t="s">
         <v>253</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -13777,7 +13788,7 @@
       <c r="G18" t="s">
         <v>259</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="53" t="s">
         <v>260</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -13812,7 +13823,7 @@
       <c r="G19" t="s">
         <v>265</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="53" t="s">
         <v>266</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -13847,7 +13858,7 @@
       <c r="G20" t="s">
         <v>271</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="53" t="s">
         <v>272</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -13882,7 +13893,7 @@
       <c r="G21" t="s">
         <v>277</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="53" t="s">
         <v>278</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -13917,7 +13928,7 @@
       <c r="G22" t="s">
         <v>283</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="53" t="s">
         <v>284</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -13952,7 +13963,7 @@
       <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -13987,7 +13998,7 @@
       <c r="G24" t="s">
         <v>295</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -14022,7 +14033,7 @@
       <c r="G25" t="s">
         <v>301</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="53" t="s">
         <v>302</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -14054,7 +14065,7 @@
       <c r="F26" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="53" t="s">
         <v>307</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -14086,7 +14097,7 @@
       <c r="F27" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="53" t="s">
         <v>312</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -14121,7 +14132,7 @@
       <c r="G28" t="s">
         <v>317</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="53" t="s">
         <v>318</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -14156,7 +14167,7 @@
       <c r="G29" t="s">
         <v>323</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="53" t="s">
         <v>324</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -14188,7 +14199,7 @@
       <c r="F30" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="53" t="s">
         <v>329</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -14223,7 +14234,7 @@
       <c r="G31" t="s">
         <v>333</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="53" t="s">
         <v>334</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -14258,7 +14269,7 @@
       <c r="G32" t="s">
         <v>338</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="53" t="s">
         <v>339</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -14293,7 +14304,7 @@
       <c r="G33" t="s">
         <v>344</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="53" t="s">
         <v>345</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -14328,7 +14339,7 @@
       <c r="G34" t="s">
         <v>356</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="53" t="s">
         <v>357</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -14363,7 +14374,7 @@
       <c r="G35" t="s">
         <v>362</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="53" t="s">
         <v>363</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -14398,7 +14409,7 @@
       <c r="G36" t="s">
         <v>368</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="53" t="s">
         <v>369</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -14433,7 +14444,7 @@
       <c r="G37" t="s">
         <v>374</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="53" t="s">
         <v>375</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -14468,7 +14479,7 @@
       <c r="G38" t="s">
         <v>380</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="53" t="s">
         <v>381</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -14503,7 +14514,7 @@
       <c r="G39" t="s">
         <v>386</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="53" t="s">
         <v>387</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -14535,7 +14546,7 @@
       <c r="F40" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="53" t="s">
         <v>397</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -14570,7 +14581,7 @@
       <c r="G41" t="s">
         <v>402</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="53" t="s">
         <v>403</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -14605,7 +14616,7 @@
       <c r="G42" t="s">
         <v>408</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="53" t="s">
         <v>409</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -14640,7 +14651,7 @@
       <c r="G43" t="s">
         <v>414</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="53" t="s">
         <v>415</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -14675,7 +14686,7 @@
       <c r="G44" t="s">
         <v>420</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="53" t="s">
         <v>421</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -14710,7 +14721,7 @@
       <c r="G45" t="s">
         <v>432</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="53" t="s">
         <v>433</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -14745,7 +14756,7 @@
       <c r="G46" t="s">
         <v>438</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="53" t="s">
         <v>439</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -14777,7 +14788,7 @@
       <c r="F47" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="53" t="s">
         <v>443</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -14812,7 +14823,7 @@
       <c r="G48" t="s">
         <v>454</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="53" t="s">
         <v>455</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -14844,7 +14855,7 @@
       <c r="F49" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="53" t="s">
         <v>460</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -14876,7 +14887,7 @@
       <c r="F50" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="53" t="s">
         <v>465</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -14911,7 +14922,7 @@
       <c r="G51" t="s">
         <v>477</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="53" t="s">
         <v>478</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -14946,7 +14957,7 @@
       <c r="G52" t="s">
         <v>497</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="53" t="s">
         <v>498</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -14981,7 +14992,7 @@
       <c r="G53" t="s">
         <v>510</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="53" t="s">
         <v>511</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -15013,7 +15024,7 @@
       <c r="F54" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="53" t="s">
         <v>516</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -15048,7 +15059,7 @@
       <c r="G55" t="s">
         <v>521</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="53" t="s">
         <v>522</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -15083,7 +15094,7 @@
       <c r="G56" t="s">
         <v>540</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="53" t="s">
         <v>541</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -15118,7 +15129,7 @@
       <c r="G57" t="s">
         <v>546</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="53" t="s">
         <v>547</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -15153,7 +15164,7 @@
       <c r="G58" t="s">
         <v>552</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="53" t="s">
         <v>553</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -15188,7 +15199,7 @@
       <c r="G59" t="s">
         <v>558</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="53" t="s">
         <v>559</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -15223,7 +15234,7 @@
       <c r="G60" t="s">
         <v>563</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="53" t="s">
         <v>564</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -15258,7 +15269,7 @@
       <c r="G61" t="s">
         <v>569</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="53" t="s">
         <v>570</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -15293,7 +15304,7 @@
       <c r="G62" t="s">
         <v>574</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="53" t="s">
         <v>575</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -15328,7 +15339,7 @@
       <c r="G63" t="s">
         <v>580</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="53" t="s">
         <v>581</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -15363,7 +15374,7 @@
       <c r="G64" t="s">
         <v>593</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="53" t="s">
         <v>594</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -15398,7 +15409,7 @@
       <c r="G65" t="s">
         <v>613</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="53" t="s">
         <v>614</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -15433,7 +15444,7 @@
       <c r="G66" t="s">
         <v>619</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="53" t="s">
         <v>620</v>
       </c>
       <c r="I66" s="2" t="s">
@@ -15468,7 +15479,7 @@
       <c r="G67" t="s">
         <v>625</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="53" t="s">
         <v>626</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -15500,7 +15511,7 @@
       <c r="F68" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="53" t="s">
         <v>630</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -15535,7 +15546,7 @@
       <c r="G69" t="s">
         <v>635</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="53" t="s">
         <v>636</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -15570,7 +15581,7 @@
       <c r="G70" t="s">
         <v>648</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="53" t="s">
         <v>649</v>
       </c>
       <c r="I70" s="2" t="s">
@@ -15605,7 +15616,7 @@
       <c r="G71" t="s">
         <v>654</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="53" t="s">
         <v>655</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -15640,7 +15651,7 @@
       <c r="G72" t="s">
         <v>660</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="53" t="s">
         <v>661</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -15675,7 +15686,7 @@
       <c r="G73" t="s">
         <v>666</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="53" t="s">
         <v>667</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -15710,7 +15721,7 @@
       <c r="G74" t="s">
         <v>671</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="53" t="s">
         <v>672</v>
       </c>
       <c r="I74" s="2" t="s">
@@ -15745,7 +15756,7 @@
       <c r="G75" t="s">
         <v>704</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="53" t="s">
         <v>705</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -15780,7 +15791,7 @@
       <c r="G76" t="s">
         <v>717</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="53" t="s">
         <v>718</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -15815,7 +15826,7 @@
       <c r="G77" t="s">
         <v>723</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="53" t="s">
         <v>724</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -15850,7 +15861,7 @@
       <c r="G78" t="s">
         <v>736</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="53" t="s">
         <v>737</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -15882,7 +15893,7 @@
       <c r="F79" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="53" t="s">
         <v>742</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -15914,7 +15925,7 @@
       <c r="F80" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="53" t="s">
         <v>761</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -15949,7 +15960,7 @@
       <c r="G81" t="s">
         <v>780</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="53" t="s">
         <v>781</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -15984,7 +15995,7 @@
       <c r="G82" t="s">
         <v>800</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="53" t="s">
         <v>801</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -16019,7 +16030,7 @@
       <c r="G83" t="s">
         <v>806</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="53" t="s">
         <v>807</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -16054,7 +16065,7 @@
       <c r="G84" t="s">
         <v>826</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="53" t="s">
         <v>827</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -16086,7 +16097,7 @@
       <c r="F85" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="53" t="s">
         <v>832</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -16121,7 +16132,7 @@
       <c r="G86" t="s">
         <v>766</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="53" t="s">
         <v>843</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -16156,7 +16167,7 @@
       <c r="G87" t="s">
         <v>869</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="53" t="s">
         <v>870</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -16191,7 +16202,7 @@
       <c r="G88" t="s">
         <v>875</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="53" t="s">
         <v>876</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -16226,7 +16237,7 @@
       <c r="G89" t="s">
         <v>886</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="53" t="s">
         <v>887</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -16261,7 +16272,7 @@
       <c r="G90" t="s">
         <v>905</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="53" t="s">
         <v>906</v>
       </c>
       <c r="I90" s="2" t="s">
@@ -16293,7 +16304,7 @@
       <c r="F91" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="53" t="s">
         <v>911</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -16328,7 +16339,7 @@
       <c r="G92" t="s">
         <v>921</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="53" t="s">
         <v>922</v>
       </c>
       <c r="I92" s="2" t="s">
@@ -16363,7 +16374,7 @@
       <c r="G93" t="s">
         <v>1033</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="53" t="s">
         <v>1034</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -16398,7 +16409,7 @@
       <c r="G94" t="s">
         <v>1099</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="57" t="s">
         <v>1100</v>
       </c>
       <c r="I94" s="2" t="s">
@@ -16430,7 +16441,7 @@
       <c r="F95" s="18" t="s">
         <v>1167</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="53" t="s">
         <v>1168</v>
       </c>
       <c r="I95" s="2" t="s">
@@ -16452,6 +16463,7 @@
       <c r="C96" s="48"/>
       <c r="E96" s="50"/>
       <c r="F96" s="51"/>
+      <c r="H96" s="56"/>
       <c r="I96" s="48"/>
       <c r="J96" s="48"/>
       <c r="K96" s="48"/>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E3B63-165C-434F-AFD0-CC348AC6097F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA1D90-46AB-4DB3-A853-72F2DC726867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1203">
   <si>
     <t>Material search results</t>
   </si>
@@ -3600,13 +3600,58 @@
   </si>
   <si>
     <t xml:space="preserve">Papers accepted for mapping </t>
+  </si>
+  <si>
+    <t>Search Summary</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Total papers</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Keskiarvo</t>
+  </si>
+  <si>
+    <t>Juokseva summa</t>
+  </si>
+  <si>
+    <t>Laske</t>
+  </si>
+  <si>
+    <t>Search Engine</t>
+  </si>
+  <si>
+    <t>Additional Limitations</t>
+  </si>
+  <si>
+    <t>Cognitive architecture</t>
+  </si>
+  <si>
+    <t>Accepted (%)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>JYU</t>
+  </si>
+  <si>
+    <t>Wieringa-classification</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3668,6 +3713,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3750,7 +3801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3796,8 +3847,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -3824,8 +3884,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3920,8 +3981,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="26" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="27">
     <cellStyle name="Accent 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Bad 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -3948,6 +4016,7 @@
     <cellStyle name="Neutral 7" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Neutral 8" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Prosenttia" xfId="26" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4327,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ191"/>
+  <dimension ref="A1:AMJ200"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9727,6 +9796,9 @@
       <c r="R113" s="8">
         <v>0</v>
       </c>
+      <c r="S113" s="5" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
@@ -13043,7 +13115,10 @@
       </c>
     </row>
     <row r="190" spans="1:1024" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="47"/>
+      <c r="A190" s="47">
+        <f>COUNT(A3:A189)</f>
+        <v>187</v>
+      </c>
       <c r="B190" s="48"/>
       <c r="C190" s="48"/>
       <c r="E190" s="50"/>
@@ -13069,15 +13144,184 @@
     <row r="191" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16"/>
     </row>
+    <row r="193" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B193" s="58" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="60" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C194" s="60" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D194" s="61" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E194" s="60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F194" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" s="61" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="2">
+        <f>COUNTIF(E3:E189,"=JAIR")</f>
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <f>COUNTIFS(E3:E189,"JAIR",O3:O189,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <f>COUNTIFS(E3:E189,"JAIR",R3:R189,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="H195" s="59">
+        <f>G195/E195</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="2">
+        <f>COUNTIF(E3:E189,"=IJCAI")</f>
+        <v>12</v>
+      </c>
+      <c r="F196">
+        <f>COUNTIFS(E4:E190,"IJCAI",O4:O190,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="G196">
+        <f>COUNTIFS(E3:E189,"IJCAI",R3:R189,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="H196" s="59">
+        <f t="shared" ref="H196:H200" si="0">G196/E196</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="2">
+        <f>COUNTIF(E3:E189,"=AIJ")</f>
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <f>COUNTIFS(E4:E190,"AIJ",O4:O190,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="G197">
+        <f>COUNTIFS(E3:E189,"AIJ",R3:R189,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="H197" s="59">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E198" s="2">
+        <f>COUNTIF(E3:E189,"=JAGI")</f>
+        <v>15</v>
+      </c>
+      <c r="F198">
+        <f>COUNTIFS(E4:E190,"JAGI",O4:O190,"&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="G198">
+        <f>COUNTIFS(E3:E189,"JAGI",R3:R189,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="H198" s="59">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E199" s="2">
+        <f>COUNTIF(E3:E189,"=ICAGI")</f>
+        <v>152</v>
+      </c>
+      <c r="F199">
+        <f>COUNTIFS(E4:E190,"ICAGI",O4:O190,"&gt;0")</f>
+        <v>99</v>
+      </c>
+      <c r="G199">
+        <f>COUNTIFS(E3:E189,"ICAGI",R3:R189,"&gt;0")</f>
+        <v>79</v>
+      </c>
+      <c r="H199" s="59">
+        <f t="shared" si="0"/>
+        <v>0.51973684210526316</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="62"/>
+      <c r="C200" s="62"/>
+      <c r="D200" s="63"/>
+      <c r="E200" s="62">
+        <f>SUM(E195:E199)</f>
+        <v>187</v>
+      </c>
+      <c r="F200" s="63">
+        <f>SUM(F195:F199)</f>
+        <v>122</v>
+      </c>
+      <c r="G200" s="63">
+        <f>SUM(G195:G199)</f>
+        <v>93</v>
+      </c>
+      <c r="H200" s="64">
+        <f t="shared" si="0"/>
+        <v>0.49732620320855614</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="E23:E191" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="E23:E191 B198:B199" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"JAGI,AIJ,JAIR,ICAGI,IJCAI,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -13087,10 +13331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B71EA-290D-4309-8558-374C60EDEE62}">
-  <dimension ref="A1:AME97"/>
+  <dimension ref="A1:AMB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13102,23 +13346,21 @@
     <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="53" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="46.42578125" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="46.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1019" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1016" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="2" spans="1:1019" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1016" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -13147,35 +13389,29 @@
         <v>11</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>16</v>
+      <c r="M2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>1201</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AME2"/>
-    </row>
-    <row r="3" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1202</v>
+      </c>
+      <c r="AMB2"/>
+    </row>
+    <row r="3" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -13203,20 +13439,17 @@
       <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -13244,23 +13477,17 @@
       <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="2">
-        <v>23</v>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>6</v>
       </c>
@@ -13288,23 +13515,17 @@
       <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="2">
-        <v>8</v>
+      <c r="J5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>8</v>
       </c>
@@ -13332,23 +13553,17 @@
       <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="2">
-        <v>25</v>
+      <c r="J6" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>14</v>
       </c>
@@ -13373,20 +13588,17 @@
       <c r="H7" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="2">
-        <v>78</v>
+      <c r="J7" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>17</v>
       </c>
@@ -13411,20 +13623,17 @@
       <c r="I8" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K8" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>19</v>
       </c>
@@ -13452,23 +13661,17 @@
       <c r="I9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J9" s="2">
-        <v>5</v>
+      <c r="J9" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>23</v>
       </c>
@@ -13490,20 +13693,17 @@
       <c r="I10" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>24</v>
       </c>
@@ -13528,20 +13728,17 @@
       <c r="I11" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N11" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>25</v>
       </c>
@@ -13566,20 +13763,17 @@
       <c r="I12" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>26</v>
       </c>
@@ -13604,20 +13798,17 @@
       <c r="I13" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>27</v>
       </c>
@@ -13642,20 +13833,17 @@
       <c r="I14" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N14" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>28</v>
       </c>
@@ -13680,20 +13868,17 @@
       <c r="I15" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N15" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>34</v>
       </c>
@@ -13718,20 +13903,17 @@
       <c r="I16" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N16" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>36</v>
       </c>
@@ -13759,14 +13941,17 @@
       <c r="I17" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>37</v>
       </c>
@@ -13794,14 +13979,17 @@
       <c r="I18" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>38</v>
       </c>
@@ -13829,14 +14017,17 @@
       <c r="I19" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="J19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>39</v>
       </c>
@@ -13864,14 +14055,17 @@
       <c r="I20" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>40</v>
       </c>
@@ -13899,14 +14093,17 @@
       <c r="I21" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>41</v>
       </c>
@@ -13934,14 +14131,17 @@
       <c r="I22" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="J22" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42</v>
       </c>
@@ -13969,14 +14169,17 @@
       <c r="I23" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>43</v>
       </c>
@@ -14004,14 +14207,17 @@
       <c r="I24" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="J24" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44</v>
       </c>
@@ -14039,14 +14245,17 @@
       <c r="I25" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="J25" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>45</v>
       </c>
@@ -14071,14 +14280,17 @@
       <c r="I26" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="J26" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>46</v>
       </c>
@@ -14103,14 +14315,17 @@
       <c r="I27" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="J27" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>47</v>
       </c>
@@ -14138,14 +14353,17 @@
       <c r="I28" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>48</v>
       </c>
@@ -14173,14 +14391,17 @@
       <c r="I29" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="J29" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>49</v>
       </c>
@@ -14205,14 +14426,17 @@
       <c r="I30" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="J30" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>50</v>
       </c>
@@ -14240,14 +14464,17 @@
       <c r="I31" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="J31" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>51</v>
       </c>
@@ -14275,14 +14502,17 @@
       <c r="I32" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="J32" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>52</v>
       </c>
@@ -14310,14 +14540,17 @@
       <c r="I33" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="J33" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>54</v>
       </c>
@@ -14345,14 +14578,17 @@
       <c r="I34" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="J34" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>55</v>
       </c>
@@ -14380,14 +14616,17 @@
       <c r="I35" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="J35" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>56</v>
       </c>
@@ -14415,14 +14654,17 @@
       <c r="I36" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="J36" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>57</v>
       </c>
@@ -14450,14 +14692,17 @@
       <c r="I37" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="J37" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>58</v>
       </c>
@@ -14485,14 +14730,17 @@
       <c r="I38" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="J38" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>59</v>
       </c>
@@ -14520,14 +14768,17 @@
       <c r="I39" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="J39" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>61</v>
       </c>
@@ -14552,14 +14803,17 @@
       <c r="I40" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="J40" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>62</v>
       </c>
@@ -14587,14 +14841,17 @@
       <c r="I41" s="2" t="s">
         <v>404</v>
       </c>
+      <c r="J41" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>63</v>
       </c>
@@ -14622,14 +14879,17 @@
       <c r="I42" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="J42" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>64</v>
       </c>
@@ -14657,14 +14917,17 @@
       <c r="I43" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="J43" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>65</v>
       </c>
@@ -14692,14 +14955,17 @@
       <c r="I44" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="J44" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>67</v>
       </c>
@@ -14727,14 +14993,17 @@
       <c r="I45" s="2" t="s">
         <v>434</v>
       </c>
+      <c r="J45" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>68</v>
       </c>
@@ -14762,14 +15031,17 @@
       <c r="I46" s="2" t="s">
         <v>440</v>
       </c>
+      <c r="J46" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>69</v>
       </c>
@@ -14794,14 +15066,17 @@
       <c r="I47" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="J47" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>71</v>
       </c>
@@ -14829,14 +15104,17 @@
       <c r="I48" s="2" t="s">
         <v>456</v>
       </c>
+      <c r="J48" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M48" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>72</v>
       </c>
@@ -14861,14 +15139,17 @@
       <c r="I49" s="2" t="s">
         <v>461</v>
       </c>
+      <c r="J49" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>73</v>
       </c>
@@ -14893,14 +15174,17 @@
       <c r="I50" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="J50" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>75</v>
       </c>
@@ -14928,14 +15212,17 @@
       <c r="I51" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="J51" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>78</v>
       </c>
@@ -14963,14 +15250,17 @@
       <c r="I52" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="J52" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>80</v>
       </c>
@@ -14998,14 +15288,17 @@
       <c r="I53" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="J53" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>81</v>
       </c>
@@ -15030,14 +15323,17 @@
       <c r="I54" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="J54" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>82</v>
       </c>
@@ -15065,14 +15361,17 @@
       <c r="I55" s="2" t="s">
         <v>523</v>
       </c>
+      <c r="J55" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M55" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>85</v>
       </c>
@@ -15100,14 +15399,17 @@
       <c r="I56" s="2" t="s">
         <v>542</v>
       </c>
+      <c r="J56" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M56" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>86</v>
       </c>
@@ -15135,14 +15437,17 @@
       <c r="I57" s="2" t="s">
         <v>548</v>
       </c>
+      <c r="J57" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>87</v>
       </c>
@@ -15170,14 +15475,17 @@
       <c r="I58" s="2" t="s">
         <v>554</v>
       </c>
+      <c r="J58" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>88</v>
       </c>
@@ -15205,14 +15513,17 @@
       <c r="I59" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="J59" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>89</v>
       </c>
@@ -15240,14 +15551,17 @@
       <c r="I60" s="2" t="s">
         <v>565</v>
       </c>
+      <c r="J60" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K60" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M60" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>90</v>
       </c>
@@ -15275,14 +15589,17 @@
       <c r="I61" s="2" t="s">
         <v>571</v>
       </c>
+      <c r="J61" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M61" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>91</v>
       </c>
@@ -15310,14 +15627,17 @@
       <c r="I62" s="2" t="s">
         <v>576</v>
       </c>
+      <c r="J62" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M62" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>92</v>
       </c>
@@ -15345,14 +15665,17 @@
       <c r="I63" s="2" t="s">
         <v>582</v>
       </c>
+      <c r="J63" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M63" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>94</v>
       </c>
@@ -15380,14 +15703,17 @@
       <c r="I64" s="2" t="s">
         <v>595</v>
       </c>
+      <c r="J64" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M64" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>97</v>
       </c>
@@ -15415,14 +15741,17 @@
       <c r="I65" s="2" t="s">
         <v>615</v>
       </c>
+      <c r="J65" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M65" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>98</v>
       </c>
@@ -15450,14 +15779,17 @@
       <c r="I66" s="2" t="s">
         <v>621</v>
       </c>
+      <c r="J66" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K66" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M66" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>99</v>
       </c>
@@ -15485,14 +15817,17 @@
       <c r="I67" s="2" t="s">
         <v>627</v>
       </c>
+      <c r="J67" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M67" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>100</v>
       </c>
@@ -15517,14 +15852,17 @@
       <c r="I68" s="2" t="s">
         <v>631</v>
       </c>
+      <c r="J68" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M68" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>101</v>
       </c>
@@ -15552,14 +15890,17 @@
       <c r="I69" s="2" t="s">
         <v>637</v>
       </c>
+      <c r="J69" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M69" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>103</v>
       </c>
@@ -15587,14 +15928,17 @@
       <c r="I70" s="2" t="s">
         <v>650</v>
       </c>
+      <c r="J70" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>104</v>
       </c>
@@ -15622,14 +15966,17 @@
       <c r="I71" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="J71" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M71" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>105</v>
       </c>
@@ -15657,14 +16004,17 @@
       <c r="I72" s="2" t="s">
         <v>662</v>
       </c>
+      <c r="J72" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M72" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>106</v>
       </c>
@@ -15692,14 +16042,17 @@
       <c r="I73" s="2" t="s">
         <v>668</v>
       </c>
+      <c r="J73" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>107</v>
       </c>
@@ -15727,14 +16080,17 @@
       <c r="I74" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="J74" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M74" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>112</v>
       </c>
@@ -15762,14 +16118,17 @@
       <c r="I75" s="2" t="s">
         <v>706</v>
       </c>
+      <c r="J75" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M75" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>114</v>
       </c>
@@ -15797,14 +16156,17 @@
       <c r="I76" s="2" t="s">
         <v>719</v>
       </c>
+      <c r="J76" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M76" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>115</v>
       </c>
@@ -15832,14 +16194,17 @@
       <c r="I77" s="2" t="s">
         <v>725</v>
       </c>
+      <c r="J77" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K77" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M77" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>117</v>
       </c>
@@ -15867,14 +16232,17 @@
       <c r="I78" s="2" t="s">
         <v>738</v>
       </c>
+      <c r="J78" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M78" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>118</v>
       </c>
@@ -15899,14 +16267,17 @@
       <c r="I79" s="2" t="s">
         <v>743</v>
       </c>
+      <c r="J79" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K79" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M79" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>121</v>
       </c>
@@ -15931,14 +16302,17 @@
       <c r="I80" s="2" t="s">
         <v>762</v>
       </c>
+      <c r="J80" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>124</v>
       </c>
@@ -15966,14 +16340,17 @@
       <c r="I81" s="2" t="s">
         <v>782</v>
       </c>
+      <c r="J81" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K81" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>127</v>
       </c>
@@ -16001,14 +16378,17 @@
       <c r="I82" s="2" t="s">
         <v>802</v>
       </c>
+      <c r="J82" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K82" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M82" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L82" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>128</v>
       </c>
@@ -16036,14 +16416,17 @@
       <c r="I83" s="2" t="s">
         <v>808</v>
       </c>
+      <c r="J83" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K83" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>131</v>
       </c>
@@ -16071,14 +16454,17 @@
       <c r="I84" s="2" t="s">
         <v>828</v>
       </c>
+      <c r="J84" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M84" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>132</v>
       </c>
@@ -16103,14 +16489,17 @@
       <c r="I85" s="2" t="s">
         <v>833</v>
       </c>
+      <c r="J85" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M85" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>134</v>
       </c>
@@ -16138,14 +16527,17 @@
       <c r="I86" s="2" t="s">
         <v>844</v>
       </c>
+      <c r="J86" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K86" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M86" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>138</v>
       </c>
@@ -16173,14 +16565,17 @@
       <c r="I87" s="2" t="s">
         <v>871</v>
       </c>
+      <c r="J87" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K87" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>139</v>
       </c>
@@ -16208,14 +16603,17 @@
       <c r="I88" s="2" t="s">
         <v>877</v>
       </c>
+      <c r="J88" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K88" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>141</v>
       </c>
@@ -16243,14 +16641,17 @@
       <c r="I89" s="2" t="s">
         <v>888</v>
       </c>
+      <c r="J89" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>144</v>
       </c>
@@ -16278,14 +16679,17 @@
       <c r="I90" s="2" t="s">
         <v>907</v>
       </c>
+      <c r="J90" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M90" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>145</v>
       </c>
@@ -16310,14 +16714,17 @@
       <c r="I91" s="2" t="s">
         <v>912</v>
       </c>
+      <c r="J91" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K91" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M91" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>147</v>
       </c>
@@ -16345,14 +16752,17 @@
       <c r="I92" s="2" t="s">
         <v>923</v>
       </c>
+      <c r="J92" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K92" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M92" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L92" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>164</v>
       </c>
@@ -16380,14 +16790,17 @@
       <c r="I93" s="2" t="s">
         <v>1035</v>
       </c>
+      <c r="J93" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K93" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1019" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>174</v>
       </c>
@@ -16415,14 +16828,17 @@
       <c r="I94" s="2" t="s">
         <v>1101</v>
       </c>
+      <c r="J94" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K94" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1019" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+      <c r="L94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1016" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>185</v>
       </c>
@@ -16447,14 +16863,17 @@
       <c r="I95" s="2" t="s">
         <v>1169</v>
       </c>
+      <c r="J95" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K95" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M95" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1019" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1016" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="47">
         <f>COUNT(A3:A95)</f>
         <v>93</v>
@@ -16466,8 +16885,7 @@
       <c r="H96" s="56"/>
       <c r="I96" s="48"/>
       <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="AME96"/>
+      <c r="AMB96"/>
     </row>
     <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA1D90-46AB-4DB3-A853-72F2DC726867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E2657-6A49-43BE-ACCB-81B1CD1C33C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1210">
   <si>
     <t>Material search results</t>
   </si>
@@ -3611,18 +3611,6 @@
     <t>Total papers</t>
   </si>
   <si>
-    <t>Summa</t>
-  </si>
-  <si>
-    <t>Keskiarvo</t>
-  </si>
-  <si>
-    <t>Juokseva summa</t>
-  </si>
-  <si>
-    <t>Laske</t>
-  </si>
-  <si>
     <t>Search Engine</t>
   </si>
   <si>
@@ -3645,6 +3633,39 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>General game playing, Game playing, Imperfect information, Hyperplay, AI evaluation</t>
+  </si>
+  <si>
+    <t>ER = Evaluation research, VR = Validation research, SP = Solution proposal, PP = Philosophical paper, OP = Opinion paper, PEP = Personal experience paper</t>
+  </si>
+  <si>
+    <t>SP, VR</t>
+  </si>
+  <si>
+    <t>Arcade Learning Environment, Learning environment, AI evaluation, Game playing, Atari 2600, DQN, Best practices</t>
+  </si>
+  <si>
+    <t>Wieringa classification doesn't clearly have a category for SLRs</t>
+  </si>
+  <si>
+    <t>SLR</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>AGI safety, Literature review, Intelligence explosion, AI research</t>
+  </si>
+  <si>
+    <t>AI and society, AI ethics, survey, AI research, AI governance, Human-AI interaction</t>
+  </si>
+  <si>
+    <t>Malmo platform, experimentation platform, Minecraft, Complex environment</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -9797,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13154,10 +13175,10 @@
         <v>1189</v>
       </c>
       <c r="C194" s="60" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D194" s="61" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E194" s="60" t="s">
         <v>1190</v>
@@ -13169,7 +13190,7 @@
         <v>20</v>
       </c>
       <c r="H194" s="61" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
@@ -13249,7 +13270,7 @@
         <v>167</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E198" s="2">
         <f>COUNTIF(E3:E189,"=JAGI")</f>
@@ -13334,7 +13355,7 @@
   <dimension ref="A1:AMB97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13349,7 +13370,7 @@
     <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="46.42578125" customWidth="1"/>
+    <col min="13" max="13" width="79.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
@@ -13359,6 +13380,9 @@
       <c r="B1" s="7" t="s">
         <v>1187</v>
       </c>
+      <c r="N1" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="2" spans="1:1016" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -13401,13 +13425,13 @@
         <v>22</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="AMB2"/>
     </row>
@@ -13447,6 +13471,12 @@
       </c>
       <c r="L3" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13486,6 +13516,12 @@
       <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="5" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
@@ -13524,6 +13560,15 @@
       <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="6" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
@@ -13562,6 +13607,12 @@
       <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="7" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -13597,6 +13648,12 @@
       <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="8" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -13945,7 +14002,7 @@
         <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L17" t="s">
         <v>255</v>
@@ -13983,7 +14040,7 @@
         <v>71</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L18" t="s">
         <v>255</v>
@@ -14021,7 +14078,7 @@
         <v>71</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L19" t="s">
         <v>255</v>
@@ -14059,7 +14116,7 @@
         <v>71</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L20" t="s">
         <v>255</v>
@@ -14097,7 +14154,7 @@
         <v>71</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L21" t="s">
         <v>255</v>
@@ -14135,7 +14192,7 @@
         <v>71</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L22" t="s">
         <v>255</v>
@@ -14173,7 +14230,7 @@
         <v>71</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L23" t="s">
         <v>255</v>
@@ -14211,7 +14268,7 @@
         <v>71</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L24" t="s">
         <v>255</v>
@@ -14249,7 +14306,7 @@
         <v>71</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L25" t="s">
         <v>255</v>
@@ -14284,7 +14341,7 @@
         <v>71</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L26" t="s">
         <v>255</v>
@@ -14319,7 +14376,7 @@
         <v>71</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L27" t="s">
         <v>255</v>
@@ -14357,7 +14414,7 @@
         <v>71</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L28" t="s">
         <v>255</v>
@@ -14395,7 +14452,7 @@
         <v>71</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L29" t="s">
         <v>255</v>
@@ -14430,7 +14487,7 @@
         <v>71</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L30" t="s">
         <v>255</v>
@@ -14468,7 +14525,7 @@
         <v>71</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L31" t="s">
         <v>255</v>
@@ -14506,7 +14563,7 @@
         <v>71</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L32" t="s">
         <v>255</v>
@@ -14544,7 +14601,7 @@
         <v>71</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L33" t="s">
         <v>255</v>
@@ -14582,7 +14639,7 @@
         <v>71</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L34" t="s">
         <v>255</v>
@@ -14620,7 +14677,7 @@
         <v>71</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L35" t="s">
         <v>255</v>
@@ -14658,7 +14715,7 @@
         <v>71</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L36" t="s">
         <v>255</v>
@@ -14696,7 +14753,7 @@
         <v>71</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L37" t="s">
         <v>255</v>
@@ -14734,7 +14791,7 @@
         <v>71</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L38" t="s">
         <v>255</v>
@@ -14772,7 +14829,7 @@
         <v>71</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L39" t="s">
         <v>255</v>
@@ -14807,7 +14864,7 @@
         <v>71</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L40" t="s">
         <v>255</v>
@@ -14845,7 +14902,7 @@
         <v>71</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L41" t="s">
         <v>255</v>
@@ -14883,7 +14940,7 @@
         <v>71</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L42" t="s">
         <v>255</v>
@@ -14921,7 +14978,7 @@
         <v>71</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L43" t="s">
         <v>255</v>
@@ -14959,7 +15016,7 @@
         <v>71</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L44" t="s">
         <v>255</v>
@@ -14997,7 +15054,7 @@
         <v>71</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L45" t="s">
         <v>255</v>
@@ -15035,7 +15092,7 @@
         <v>71</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L46" t="s">
         <v>255</v>
@@ -15070,7 +15127,7 @@
         <v>71</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L47" t="s">
         <v>255</v>
@@ -15108,7 +15165,7 @@
         <v>71</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L48" t="s">
         <v>255</v>
@@ -15143,7 +15200,7 @@
         <v>71</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L49" t="s">
         <v>255</v>
@@ -15178,7 +15235,7 @@
         <v>71</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L50" t="s">
         <v>255</v>
@@ -15216,7 +15273,7 @@
         <v>71</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L51" t="s">
         <v>255</v>
@@ -15254,7 +15311,7 @@
         <v>71</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L52" t="s">
         <v>255</v>
@@ -15292,7 +15349,7 @@
         <v>71</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L53" t="s">
         <v>255</v>
@@ -15327,7 +15384,7 @@
         <v>71</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L54" t="s">
         <v>255</v>
@@ -15365,7 +15422,7 @@
         <v>71</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L55" t="s">
         <v>255</v>
@@ -15403,7 +15460,7 @@
         <v>71</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L56" t="s">
         <v>255</v>
@@ -15441,7 +15498,7 @@
         <v>71</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L57" t="s">
         <v>255</v>
@@ -15479,7 +15536,7 @@
         <v>71</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L58" t="s">
         <v>255</v>
@@ -15517,7 +15574,7 @@
         <v>71</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L59" t="s">
         <v>255</v>
@@ -15555,7 +15612,7 @@
         <v>71</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L60" t="s">
         <v>255</v>
@@ -15593,7 +15650,7 @@
         <v>71</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L61" t="s">
         <v>255</v>
@@ -15631,7 +15688,7 @@
         <v>71</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L62" t="s">
         <v>255</v>
@@ -15669,7 +15726,7 @@
         <v>71</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L63" t="s">
         <v>255</v>
@@ -15707,7 +15764,7 @@
         <v>71</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L64" t="s">
         <v>255</v>
@@ -15745,7 +15802,7 @@
         <v>71</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L65" t="s">
         <v>255</v>
@@ -15783,7 +15840,7 @@
         <v>71</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L66" t="s">
         <v>255</v>
@@ -15821,7 +15878,7 @@
         <v>71</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L67" t="s">
         <v>255</v>
@@ -15856,7 +15913,7 @@
         <v>71</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L68" t="s">
         <v>255</v>
@@ -15894,7 +15951,7 @@
         <v>71</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L69" t="s">
         <v>255</v>
@@ -15932,7 +15989,7 @@
         <v>71</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L70" t="s">
         <v>255</v>
@@ -15970,7 +16027,7 @@
         <v>71</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L71" t="s">
         <v>255</v>
@@ -16008,7 +16065,7 @@
         <v>71</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L72" t="s">
         <v>255</v>
@@ -16046,7 +16103,7 @@
         <v>71</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L73" t="s">
         <v>255</v>
@@ -16084,7 +16141,7 @@
         <v>71</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L74" t="s">
         <v>255</v>
@@ -16122,7 +16179,7 @@
         <v>71</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L75" t="s">
         <v>255</v>
@@ -16160,7 +16217,7 @@
         <v>71</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L76" t="s">
         <v>255</v>
@@ -16198,7 +16255,7 @@
         <v>71</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L77" t="s">
         <v>255</v>
@@ -16236,7 +16293,7 @@
         <v>71</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L78" t="s">
         <v>255</v>
@@ -16271,7 +16328,7 @@
         <v>71</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L79" t="s">
         <v>255</v>
@@ -16306,7 +16363,7 @@
         <v>71</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L80" t="s">
         <v>255</v>
@@ -16344,7 +16401,7 @@
         <v>71</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L81" t="s">
         <v>255</v>
@@ -16382,7 +16439,7 @@
         <v>71</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L82" t="s">
         <v>255</v>
@@ -16420,7 +16477,7 @@
         <v>71</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L83" t="s">
         <v>255</v>
@@ -16458,7 +16515,7 @@
         <v>71</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L84" t="s">
         <v>255</v>
@@ -16493,7 +16550,7 @@
         <v>71</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L85" t="s">
         <v>255</v>
@@ -16531,7 +16588,7 @@
         <v>71</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L86" t="s">
         <v>255</v>
@@ -16569,7 +16626,7 @@
         <v>71</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L87" t="s">
         <v>255</v>
@@ -16607,7 +16664,7 @@
         <v>71</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L88" t="s">
         <v>255</v>
@@ -16645,7 +16702,7 @@
         <v>71</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L89" t="s">
         <v>255</v>
@@ -16683,7 +16740,7 @@
         <v>71</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L90" t="s">
         <v>255</v>
@@ -16718,7 +16775,7 @@
         <v>71</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L91" t="s">
         <v>255</v>
@@ -16756,7 +16813,7 @@
         <v>71</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L92" t="s">
         <v>255</v>
@@ -16794,7 +16851,7 @@
         <v>71</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L93" t="s">
         <v>255</v>
@@ -16832,7 +16889,7 @@
         <v>71</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L94" t="s">
         <v>255</v>
@@ -16867,7 +16924,7 @@
         <v>71</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L95" t="s">
         <v>255</v>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E2657-6A49-43BE-ACCB-81B1CD1C33C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE9AD7-9BFB-41E4-8EFA-A357E02C3299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1224">
   <si>
     <t>Material search results</t>
   </si>
@@ -3644,9 +3644,6 @@
     <t>SP, VR</t>
   </si>
   <si>
-    <t>Arcade Learning Environment, Learning environment, AI evaluation, Game playing, Atari 2600, DQN, Best practices</t>
-  </si>
-  <si>
     <t>Wieringa classification doesn't clearly have a category for SLRs</t>
   </si>
   <si>
@@ -3656,16 +3653,61 @@
     <t>PP</t>
   </si>
   <si>
-    <t>AGI safety, Literature review, Intelligence explosion, AI research</t>
-  </si>
-  <si>
     <t>AI and society, AI ethics, survey, AI research, AI governance, Human-AI interaction</t>
   </si>
   <si>
-    <t>Malmo platform, experimentation platform, Minecraft, Complex environment</t>
-  </si>
-  <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Superintelligence, machine morality, AI safety, Philosophical aspects</t>
+  </si>
+  <si>
+    <t>THE-QA, diagram understanding, reading comprehension, Question answering, Machine vision, Visual Question Answering, Corpus, HLAI</t>
+  </si>
+  <si>
+    <t>AGI safety, Literature review, Intelligence explosion, AI research, AGI</t>
+  </si>
+  <si>
+    <t>Arcade Learning Environment, Learning environment, AI evaluation, Game playing, Atari 2600, DQN, Best practices, general agent</t>
+  </si>
+  <si>
+    <t>Malmo platform, experimentation platform, Minecraft, Complex environment, 3d environment, AGI</t>
+  </si>
+  <si>
+    <t>Ultrafilters, Legg-Hutter-agent, Intelligence measurement, environment rewards</t>
+  </si>
+  <si>
+    <t>Should this paper even be in? Doesn't relate to general intelligence explicitly!!</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic Intelligence Quotient test, AIQ, MC-AIXI, Agent evaluation, AI evaluation, Universal Intelligence </t>
+  </si>
+  <si>
+    <t>Artificial animals, Animats, local Q-learning, Homeostatic agent, AGI, General environment</t>
+  </si>
+  <si>
+    <t>Homeostat, Survival, Reinforcement learning, Reward, Animal behaviour</t>
+  </si>
+  <si>
+    <t>ALICE IN WONDERLAND, Cognitive Architecture, Arbitrary symbolic domain, Bounded rationality, Beliefs, AGI</t>
+  </si>
+  <si>
+    <t>Sigma, Cognitive architecture, Graphical models, Virtual human, AGI</t>
+  </si>
+  <si>
+    <t>Word puzzles, Games, IBM Watson, AGI, Cognitive computing</t>
+  </si>
+  <si>
+    <t>AGI Brain, Modern control theory, Decision making, AGI, ASOR, Multi-agent system, Agent communication, Optimization, Personalities, Neural Networks</t>
+  </si>
+  <si>
+    <t>AGI, Programming language, Probabilistic programming, Partial evaluation, Cognitive architecture</t>
   </si>
 </sst>
 </file>
@@ -4419,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13354,8 +13396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B71EA-290D-4309-8558-374C60EDEE62}">
   <dimension ref="A1:AMB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13517,7 +13559,7 @@
         <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>1201</v>
@@ -13561,13 +13603,13 @@
         <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="P5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="6" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13608,10 +13650,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="7" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13649,10 +13691,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="8" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13689,6 +13731,12 @@
       <c r="L8" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="9" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -13727,6 +13775,12 @@
       <c r="L9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="10" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -13759,6 +13813,15 @@
       <c r="L10" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="11" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -13794,6 +13857,12 @@
       <c r="L11" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="M11" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="12" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -13829,6 +13898,12 @@
       <c r="L12" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="13" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -13864,6 +13939,12 @@
       <c r="L13" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="14" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -13899,6 +13980,12 @@
       <c r="L14" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="M14" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="15" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -13934,6 +14021,12 @@
       <c r="L15" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="16" spans="1:1016" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -13969,8 +14062,14 @@
       <c r="L16" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>36</v>
       </c>
@@ -14007,8 +14106,14 @@
       <c r="L17" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>37</v>
       </c>
@@ -14045,8 +14150,14 @@
       <c r="L18" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>38</v>
       </c>
@@ -14084,7 +14195,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>39</v>
       </c>
@@ -14122,7 +14233,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>40</v>
       </c>
@@ -14160,7 +14271,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>41</v>
       </c>
@@ -14198,7 +14309,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42</v>
       </c>
@@ -14236,7 +14347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>43</v>
       </c>
@@ -14274,7 +14385,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44</v>
       </c>
@@ -14312,7 +14423,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>45</v>
       </c>
@@ -14347,7 +14458,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>46</v>
       </c>
@@ -14382,7 +14493,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>47</v>
       </c>
@@ -14420,7 +14531,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>48</v>
       </c>
@@ -14458,7 +14569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>49</v>
       </c>
@@ -14493,7 +14604,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>50</v>
       </c>
@@ -14531,7 +14642,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>51</v>
       </c>
@@ -16942,6 +17053,10 @@
       <c r="H96" s="56"/>
       <c r="I96" s="48"/>
       <c r="J96" s="48"/>
+      <c r="M96" s="49">
+        <f>COUNTIF(M3:M95,"&lt;&gt;")</f>
+        <v>16</v>
+      </c>
       <c r="AMB96"/>
     </row>
     <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE9AD7-9BFB-41E4-8EFA-A357E02C3299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAF066-DC8C-42E1-8991-E6908DE041E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1246">
   <si>
     <t>Material search results</t>
   </si>
@@ -3708,6 +3708,72 @@
   </si>
   <si>
     <t>AGI, Programming language, Probabilistic programming, Partial evaluation, Cognitive architecture</t>
+  </si>
+  <si>
+    <t>Cyber-physical systems, Event-learning framework, Robust controllers, factored ELF, AGI components, Reinforcement learning</t>
+  </si>
+  <si>
+    <t>AGI, Computational creativity, Gödel machine, Design theory</t>
+  </si>
+  <si>
+    <t>AGI, AGI safety, Friendly AI, Nurture, Child AI</t>
+  </si>
+  <si>
+    <t>HLAI, Deep learning, Requirements of AI, (Universal induction, AIXI, Solomonoff induction)</t>
+  </si>
+  <si>
+    <t>HLAI, Cognitive Event Calculus, Automated reasoning, Inference, AGI, MATR</t>
+  </si>
+  <si>
+    <t>AGI, Recursive self-improvement, Convergence theory</t>
+  </si>
+  <si>
+    <t>HLAI, S-O modeling, Information modeling, Intelligence modeling, Natural/Core informatics</t>
+  </si>
+  <si>
+    <t>AGI, Embodiment, Intelligence development</t>
+  </si>
+  <si>
+    <t>PP, OP?</t>
+  </si>
+  <si>
+    <t>Difficult se classify, seems like a literature review.</t>
+  </si>
+  <si>
+    <t>AGI, Episodic learning, Episodic memory, MaRz algorithm, NSM</t>
+  </si>
+  <si>
+    <t>AI safety, AI aligment, Self-awareness, Human Enhancement</t>
+  </si>
+  <si>
+    <t>SP, PP</t>
+  </si>
+  <si>
+    <t>AGI, Category theory, Functors, Adjunction, (Raven Progressive Matrices)</t>
+  </si>
+  <si>
+    <t>Probabilistic Growth and Mining of Combinations, OpenCog, Probabilistic inference</t>
+  </si>
+  <si>
+    <t>AGI safety, AI alignment, Augmented Utilitarism, Perverse instantiation, Utility functions, AI ethics</t>
+  </si>
+  <si>
+    <t>Recursive self-improvement, Self-modification</t>
+  </si>
+  <si>
+    <t>AI safety, Malevolent AI, Superintelligence, Cyborgization, Malevolent Cyborgization</t>
+  </si>
+  <si>
+    <t>AGI, NARS, Decision theory, Decision making models</t>
+  </si>
+  <si>
+    <t>AGI, Aesthetic philosophy, Canonical intelligent agent categories, Contemplation</t>
+  </si>
+  <si>
+    <t>AGI, Scenario mapping, Technology roadmap, Workshops, AI progress</t>
+  </si>
+  <si>
+    <t>AGI,  Universal induction, Kolmogorov complexity, AI progress, Turing machine</t>
   </si>
 </sst>
 </file>
@@ -4461,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13396,8 +13462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B71EA-290D-4309-8558-374C60EDEE62}">
   <dimension ref="A1:AMB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14069,7 +14135,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>36</v>
       </c>
@@ -14113,7 +14179,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>37</v>
       </c>
@@ -14157,7 +14223,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>38</v>
       </c>
@@ -14194,8 +14260,14 @@
       <c r="L19" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>39</v>
       </c>
@@ -14232,8 +14304,14 @@
       <c r="L20" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>40</v>
       </c>
@@ -14270,8 +14348,14 @@
       <c r="L21" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>41</v>
       </c>
@@ -14308,8 +14392,14 @@
       <c r="L22" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>42</v>
       </c>
@@ -14346,8 +14436,14 @@
       <c r="L23" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>43</v>
       </c>
@@ -14384,8 +14480,14 @@
       <c r="L24" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>44</v>
       </c>
@@ -14422,8 +14524,14 @@
       <c r="L25" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>45</v>
       </c>
@@ -14457,8 +14565,17 @@
       <c r="L26" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>46</v>
       </c>
@@ -14492,8 +14609,14 @@
       <c r="L27" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>47</v>
       </c>
@@ -14530,8 +14653,14 @@
       <c r="L28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>48</v>
       </c>
@@ -14568,8 +14697,14 @@
       <c r="L29" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>49</v>
       </c>
@@ -14603,8 +14738,14 @@
       <c r="L30" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>50</v>
       </c>
@@ -14641,8 +14782,14 @@
       <c r="L31" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>51</v>
       </c>
@@ -14679,8 +14826,14 @@
       <c r="L32" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>52</v>
       </c>
@@ -14717,8 +14870,14 @@
       <c r="L33" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>54</v>
       </c>
@@ -14755,8 +14914,14 @@
       <c r="L34" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>55</v>
       </c>
@@ -14793,8 +14958,14 @@
       <c r="L35" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>56</v>
       </c>
@@ -14831,8 +15002,14 @@
       <c r="L36" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>57</v>
       </c>
@@ -14869,8 +15046,14 @@
       <c r="L37" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>58</v>
       </c>
@@ -14908,7 +15091,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>59</v>
       </c>
@@ -14946,7 +15129,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>61</v>
       </c>
@@ -14981,7 +15164,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>62</v>
       </c>
@@ -15019,7 +15202,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>63</v>
       </c>
@@ -15057,7 +15240,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>64</v>
       </c>
@@ -15095,7 +15278,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>65</v>
       </c>
@@ -15133,7 +15316,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>67</v>
       </c>
@@ -15171,7 +15354,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>68</v>
       </c>
@@ -15209,7 +15392,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>69</v>
       </c>
@@ -15244,7 +15427,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>71</v>
       </c>
@@ -17055,7 +17238,7 @@
       <c r="J96" s="48"/>
       <c r="M96" s="49">
         <f>COUNTIF(M3:M95,"&lt;&gt;")</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AMB96"/>
     </row>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAF066-DC8C-42E1-8991-E6908DE041E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8CB2BD-C8DE-422C-ABB6-E7B0FEC04817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1271">
   <si>
     <t>Material search results</t>
   </si>
@@ -3774,6 +3774,92 @@
   </si>
   <si>
     <t>AGI,  Universal induction, Kolmogorov complexity, AI progress, Turing machine</t>
+  </si>
+  <si>
+    <t>AGI, AI alignment, AGI safety, Value Learning problem, AIXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGI, Social environment, Artificial psychology, Empathy, Compassion, Multi-agent systems, HCI </t>
+  </si>
+  <si>
+    <t>AGI, Mealy machine, Experience learning, System Induction Games, Cognitive modeling</t>
+  </si>
+  <si>
+    <t>AGI, Cumulative learning, NARS, AERA, Knowledge acquisition</t>
+  </si>
+  <si>
+    <t>AGI, AGI safety, AGI containment problem</t>
+  </si>
+  <si>
+    <t>SP, PP?</t>
+  </si>
+  <si>
+    <t>AGI, Temporal inference, Causal inference, NARS</t>
+  </si>
+  <si>
+    <t>PP, SP</t>
+  </si>
+  <si>
+    <t>AGI, WILLIAM, Inductive programming, Incremental compression, AIXI, Seed AI, Recursive self-improvement, Core algorithm</t>
+  </si>
+  <si>
+    <t>AGI, Computer vision, Perception, AGI architecture, Discriminative models, Generative models</t>
+  </si>
+  <si>
+    <t>AGI, Perception, Computer vision, NARS</t>
+  </si>
+  <si>
+    <t>AGI, Temporal singularity, Simulated society, Multi-agent systems, Fermi paradox</t>
+  </si>
+  <si>
+    <t>Universal AI, AIXI, Death, Suicide, Reinforcement learning, AI safety</t>
+  </si>
+  <si>
+    <t>AGI, Inductive reasoning, Number series problem, AGI evaluation</t>
+  </si>
+  <si>
+    <t>ER, PP?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGI, IARPA CREATE, SWARM, AGI evaluation, Argument Marshalling, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project description</t>
+    </r>
+  </si>
+  <si>
+    <t>PP?</t>
+  </si>
+  <si>
+    <t>Describes IARPA's project should this just be removed?</t>
+  </si>
+  <si>
+    <t>AGI, OpenCog, PrimeAGI, Agent design, Cognitive Architecture</t>
+  </si>
+  <si>
+    <t>AGI, OpenCog, Cognitive synergy, Attention, Logical Inference, Cognitive architecture, PrimeAGI</t>
+  </si>
+  <si>
+    <t>AGI, Cumulative learning, Cumulative modeling, Causal relations</t>
+  </si>
+  <si>
+    <t>Common sense, Understanding, CYC project, Symbolic systems</t>
+  </si>
+  <si>
+    <t>AGI, Partial algorithms, Algorithm analysis, Expected discounted reward, Recursive self-improvement</t>
+  </si>
+  <si>
+    <t>AI evaluation, Task environment, Environment design, Environment requirements</t>
+  </si>
+  <si>
+    <t>AGI, HCI, Emotion, Emotion detection, Bayesian inference, Facial expressions, Perception,</t>
   </si>
 </sst>
 </file>
@@ -13462,8 +13548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B71EA-290D-4309-8558-374C60EDEE62}">
   <dimension ref="A1:AMB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15090,6 +15176,12 @@
       <c r="L38" t="s">
         <v>255</v>
       </c>
+      <c r="M38" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
@@ -15128,6 +15220,12 @@
       <c r="L39" t="s">
         <v>255</v>
       </c>
+      <c r="M39" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
@@ -15163,6 +15261,12 @@
       <c r="L40" t="s">
         <v>255</v>
       </c>
+      <c r="M40" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
@@ -15201,6 +15305,12 @@
       <c r="L41" t="s">
         <v>255</v>
       </c>
+      <c r="M41" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
@@ -15239,6 +15349,12 @@
       <c r="L42" t="s">
         <v>255</v>
       </c>
+      <c r="M42" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
@@ -15277,6 +15393,12 @@
       <c r="L43" t="s">
         <v>255</v>
       </c>
+      <c r="M43" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
@@ -15315,6 +15437,12 @@
       <c r="L44" t="s">
         <v>255</v>
       </c>
+      <c r="M44" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
@@ -15353,6 +15481,12 @@
       <c r="L45" t="s">
         <v>255</v>
       </c>
+      <c r="M45" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
@@ -15391,6 +15525,12 @@
       <c r="L46" t="s">
         <v>255</v>
       </c>
+      <c r="M46" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
@@ -15426,6 +15566,12 @@
       <c r="L47" t="s">
         <v>255</v>
       </c>
+      <c r="M47" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
@@ -15464,8 +15610,14 @@
       <c r="L48" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>72</v>
       </c>
@@ -15499,8 +15651,14 @@
       <c r="L49" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>73</v>
       </c>
@@ -15534,8 +15692,14 @@
       <c r="L50" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>75</v>
       </c>
@@ -15572,8 +15736,17 @@
       <c r="L51" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>78</v>
       </c>
@@ -15610,8 +15783,14 @@
       <c r="L52" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>80</v>
       </c>
@@ -15648,8 +15827,14 @@
       <c r="L53" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>81</v>
       </c>
@@ -15683,8 +15868,14 @@
       <c r="L54" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>82</v>
       </c>
@@ -15721,8 +15912,14 @@
       <c r="L55" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>85</v>
       </c>
@@ -15759,8 +15956,14 @@
       <c r="L56" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>86</v>
       </c>
@@ -15797,8 +16000,14 @@
       <c r="L57" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M57" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>87</v>
       </c>
@@ -15836,7 +16045,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>88</v>
       </c>
@@ -15874,7 +16083,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>89</v>
       </c>
@@ -15912,7 +16121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>90</v>
       </c>
@@ -15950,7 +16159,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>91</v>
       </c>
@@ -15988,7 +16197,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>92</v>
       </c>
@@ -16026,7 +16235,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>94</v>
       </c>
@@ -17238,7 +17447,7 @@
       <c r="J96" s="48"/>
       <c r="M96" s="49">
         <f>COUNTIF(M3:M95,"&lt;&gt;")</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AMB96"/>
     </row>
@@ -17253,7 +17462,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD5D572-25B2-4980-B706-D23BEECA7AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B37E128-234B-45C5-9CB7-8E2CB7DBF2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1314">
   <si>
     <t>Material search results</t>
   </si>
@@ -3960,6 +3960,42 @@
   </si>
   <si>
     <t>OpenCog, Grammar learning, Unsupervised learning, NLP, Baby Turing Test</t>
+  </si>
+  <si>
+    <t>AGI, Probabilistic programming, Genetic algorithms, Robot, Planning, Optimization, NAO</t>
+  </si>
+  <si>
+    <t>NARS, Diagnostics, Model Based Diagnostics</t>
+  </si>
+  <si>
+    <t>DSO-CA, Cognitive architectures, Global Workspace Theory, Traffic control problem</t>
+  </si>
+  <si>
+    <t>Induction, Compression, Universal search, AGI, Lifelong learning</t>
+  </si>
+  <si>
+    <t>NARS, AGI, OpenNARS, Cognitive architecture</t>
+  </si>
+  <si>
+    <t>Check if this is the first NARS paper!</t>
+  </si>
+  <si>
+    <t>Incremental compression, Universal induction, Universal search</t>
+  </si>
+  <si>
+    <t>AI aligment, AI safety, AI ethics, Ethical goal function, Control problem, AGI</t>
+  </si>
+  <si>
+    <t>Incremental compression, Hierarchical compression, Universal induction, Power laws</t>
+  </si>
+  <si>
+    <t>SP, VR, PP?</t>
+  </si>
+  <si>
+    <t>SP, VR; PP?</t>
+  </si>
+  <si>
+    <t>Reinforcement learning, Wireheading problem, Value reinforcement learning, General agent, Agent goals</t>
   </si>
 </sst>
 </file>
@@ -13641,8 +13677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="I67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17102,7 +17138,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>124</v>
       </c>
@@ -17146,7 +17182,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>127</v>
       </c>
@@ -17190,7 +17226,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>128</v>
       </c>
@@ -17234,7 +17270,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>131</v>
       </c>
@@ -17278,7 +17314,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>132</v>
       </c>
@@ -17319,7 +17355,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>134</v>
       </c>
@@ -17363,7 +17399,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>138</v>
       </c>
@@ -17400,8 +17436,14 @@
       <c r="L87" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>139</v>
       </c>
@@ -17438,8 +17480,14 @@
       <c r="L88" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>141</v>
       </c>
@@ -17476,8 +17524,14 @@
       <c r="L89" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>144</v>
       </c>
@@ -17514,8 +17568,14 @@
       <c r="L90" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M90" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>145</v>
       </c>
@@ -17549,8 +17609,17 @@
       <c r="L91" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M91" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>147</v>
       </c>
@@ -17587,8 +17656,14 @@
       <c r="L92" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M92" t="s">
+        <v>1308</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>164</v>
       </c>
@@ -17625,8 +17700,14 @@
       <c r="L93" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>1309</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>174</v>
       </c>
@@ -17663,8 +17744,14 @@
       <c r="L94" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>185</v>
       </c>
@@ -17698,8 +17785,14 @@
       <c r="L95" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="47">
         <f>COUNT(A3:A95)</f>
         <v>93</v>
@@ -17713,7 +17806,7 @@
       <c r="J96" s="48"/>
       <c r="M96" s="49">
         <f>COUNTIF(M3:M95,"&lt;&gt;")</f>
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A87F8C-8E7D-4664-B798-0E00412A11FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7546E8E-8001-4B0F-B46E-A70662216925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="1654">
   <si>
     <t>Material search results</t>
   </si>
@@ -4861,6 +4861,9 @@
     <t>Different keywords</t>
   </si>
   <si>
+    <t>Total instances (Python)</t>
+  </si>
+  <si>
     <t>Cognitive architectures</t>
   </si>
   <si>
@@ -4900,6 +4903,9 @@
     <t>Homeostatic agents</t>
   </si>
   <si>
+    <t>Category theory</t>
+  </si>
+  <si>
     <t>AIXI</t>
   </si>
   <si>
@@ -4927,6 +4933,9 @@
     <t>Game playing</t>
   </si>
   <si>
+    <t>Rewarding</t>
+  </si>
+  <si>
     <t>Probabilistic approaches</t>
   </si>
   <si>
@@ -4948,34 +4957,46 @@
     <t>Agent environment</t>
   </si>
   <si>
+    <t>Question answering</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Philosophical aspects</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Temporal reasoning</t>
+  </si>
+  <si>
     <t>Causal reasoning</t>
   </si>
   <si>
     <t>Inference</t>
   </si>
   <si>
-    <t>NLP</t>
-  </si>
-  <si>
-    <t>Temporal reasoning</t>
-  </si>
-  <si>
     <t>Functional programming approach</t>
   </si>
   <si>
-    <t>Problemsolving?</t>
+    <t>Problemsolving</t>
   </si>
   <si>
     <t>Bio-inspired approaches</t>
   </si>
   <si>
-    <t>Reasoning</t>
+    <t>Game Theory</t>
   </si>
   <si>
     <t>Physical robots</t>
   </si>
   <si>
-    <t>Total instances (Python)</t>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Categorization phase 2</t>
   </si>
 </sst>
 </file>
@@ -4988,7 +5009,7 @@
     <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5067,8 +5088,16 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5146,8 +5175,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5233,8 +5268,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -5265,8 +5309,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5348,10 +5393,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="30"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="31">
     <cellStyle name="Accent 1 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Bad 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -5381,6 +5430,7 @@
     <cellStyle name="Neutral 8" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Neutral 9" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Otsikko 2" xfId="30" builtinId="17"/>
     <cellStyle name="Otsikko 4" xfId="2" builtinId="19"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14688,8 +14738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="J68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView topLeftCell="F19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20386,10 +20436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q299"/>
+  <dimension ref="A1:S299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O298" sqref="O298"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20399,7 +20449,7 @@
     <col min="3" max="3" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -20408,9 +20458,12 @@
     <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="46"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>1605</v>
       </c>
@@ -20418,15 +20471,15 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P2" t="s">
         <v>1607</v>
       </c>
       <c r="Q2" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="36" t="s">
         <v>1310</v>
@@ -20444,13 +20497,14 @@
         <f t="shared" ref="P3:P15" si="0">COUNTIF(B3:O3,"&lt;&gt;")</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="43">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B4" t="s">
         <v>1311</v>
@@ -20470,17 +20524,23 @@
       <c r="G4" t="s">
         <v>1405</v>
       </c>
+      <c r="H4" t="s">
+        <v>1331</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>20</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B5" t="s">
         <v>1312</v>
@@ -20492,13 +20552,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="44">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B6" t="s">
         <v>1314</v>
@@ -20519,25 +20579,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="44">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>1331</v>
-      </c>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B8" t="s">
         <v>1313</v>
@@ -20564,11 +20621,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="44">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20577,9 +20634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B10" t="s">
         <v>1317</v>
@@ -20603,13 +20660,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="44">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B11" t="s">
         <v>1318</v>
@@ -20648,13 +20705,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="44">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B12" t="s">
         <v>1319</v>
@@ -20672,13 +20729,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="44">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B13" t="s">
         <v>1323</v>
@@ -20705,13 +20762,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="44">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B14" t="s">
         <v>1321</v>
@@ -20732,13 +20789,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="44">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B15" t="s">
         <v>1322</v>
@@ -20752,22 +20809,25 @@
       <c r="E15" t="s">
         <v>1494</v>
       </c>
+      <c r="F15" t="s">
+        <v>1474</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B17" t="s">
         <v>1324</v>
@@ -20791,13 +20851,13 @@
         <f t="shared" ref="P17:P48" si="1">COUNTIF(B17:O17,"&lt;&gt;")</f>
         <v>6</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B18" t="s">
         <v>1325</v>
@@ -20821,7 +20881,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="44">
         <v>11</v>
       </c>
     </row>
@@ -20836,7 +20896,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B20" t="s">
         <v>1327</v>
@@ -20863,7 +20923,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="44">
         <v>12</v>
       </c>
     </row>
@@ -20877,6 +20937,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>1622</v>
+      </c>
       <c r="B22" t="s">
         <v>1328</v>
       </c>
@@ -20908,7 +20971,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B25" t="s">
         <v>1316</v>
@@ -20920,13 +20983,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B26" t="s">
         <v>1333</v>
@@ -20953,13 +21016,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="B27" t="s">
         <v>1334</v>
@@ -20974,7 +21037,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="44">
         <v>5</v>
       </c>
     </row>
@@ -20992,7 +21055,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="44">
         <v>6</v>
       </c>
     </row>
@@ -21007,7 +21070,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B30" t="s">
         <v>1337</v>
@@ -21021,17 +21084,20 @@
       <c r="E30" t="s">
         <v>1417</v>
       </c>
+      <c r="F30" t="s">
+        <v>1426</v>
+      </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q30" s="43">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="44">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B31" t="s">
         <v>1338</v>
@@ -21049,7 +21115,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="44">
         <v>6</v>
       </c>
     </row>
@@ -21082,7 +21148,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B35" t="s">
         <v>1342</v>
@@ -21099,17 +21165,26 @@
       <c r="F35" t="s">
         <v>1466</v>
       </c>
+      <c r="G35" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1503</v>
+      </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q35" s="43">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q35" s="44">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B36" t="s">
         <v>1343</v>
@@ -21145,7 +21220,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B39" t="s">
         <v>1344</v>
@@ -21160,13 +21235,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B40" t="s">
         <v>1340</v>
@@ -21190,7 +21265,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="Q40" s="44">
         <v>7</v>
       </c>
     </row>
@@ -21204,15 +21279,12 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>1384</v>
-      </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -21234,6 +21306,9 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>1632</v>
+      </c>
       <c r="B45" t="s">
         <v>1352</v>
       </c>
@@ -21271,7 +21346,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B48" t="s">
         <v>1355</v>
@@ -21289,7 +21364,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q48" s="43">
+      <c r="Q48" s="44">
         <v>5</v>
       </c>
     </row>
@@ -21304,7 +21379,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B50" t="s">
         <v>1418</v>
@@ -21364,7 +21439,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="B55" t="s">
         <v>1362</v>
@@ -21379,7 +21454,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="44">
         <v>4</v>
       </c>
     </row>
@@ -21394,7 +21469,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B57" t="s">
         <v>1364</v>
@@ -21421,13 +21496,13 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q57" s="43">
+      <c r="Q57" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="B58" t="s">
         <v>1543</v>
@@ -21463,7 +21538,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="B61" t="s">
         <v>1368</v>
@@ -21487,7 +21562,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q61" s="43">
+      <c r="Q61" s="44">
         <v>7</v>
       </c>
     </row>
@@ -21510,15 +21585,12 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>1371</v>
-      </c>
       <c r="P64">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -21532,7 +21604,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="B66" t="s">
         <v>1385</v>
@@ -21555,33 +21627,39 @@
       <c r="H66" t="s">
         <v>1516</v>
       </c>
+      <c r="I66" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1384</v>
+      </c>
       <c r="P66">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q66" s="43">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="Q66" s="44">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>1402</v>
-      </c>
       <c r="P67">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>1371</v>
+      </c>
       <c r="P68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -21606,18 +21684,12 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1380</v>
-      </c>
       <c r="P71">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -21672,52 +21744,18 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="38" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1489</v>
-      </c>
       <c r="Q77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="38" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1518</v>
-      </c>
-      <c r="P78">
-        <f t="shared" ref="P78:P110" si="3">COUNTIF(B78:O78,"&lt;&gt;")</f>
-        <v>5</v>
-      </c>
-      <c r="Q78" s="43">
-        <v>6</v>
+      <c r="Q78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P79">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P79:P110" si="3">COUNTIF(B79:O79,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="Q79">
@@ -21725,6 +21763,9 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="38" t="s">
+        <v>1640</v>
+      </c>
       <c r="B80" t="s">
         <v>1387</v>
       </c>
@@ -21744,7 +21785,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q80" s="43">
+      <c r="Q80" s="44">
         <v>5</v>
       </c>
     </row>
@@ -21759,7 +21800,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B82" t="s">
         <v>1389</v>
@@ -21821,30 +21862,36 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="38" t="s">
+        <v>1642</v>
+      </c>
       <c r="B87" t="s">
         <v>1394</v>
       </c>
       <c r="C87" t="s">
         <v>1433</v>
       </c>
+      <c r="D87" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1357</v>
+      </c>
       <c r="P87">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Q87" s="44">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>1357</v>
-      </c>
       <c r="P88">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -22013,39 +22060,39 @@
       <c r="B106" t="s">
         <v>1413</v>
       </c>
-      <c r="C106" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1415</v>
-      </c>
       <c r="P106">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1407</v>
+      </c>
       <c r="P107">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>1415</v>
+      </c>
       <c r="P108">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.2">
@@ -22153,18 +22200,12 @@
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1428</v>
-      </c>
       <c r="P119">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.2">
@@ -22180,12 +22221,15 @@
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>1428</v>
+      </c>
       <c r="P121">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.2">
@@ -22306,15 +22350,12 @@
       <c r="B134" t="s">
         <v>1441</v>
       </c>
-      <c r="C134" t="s">
-        <v>1444</v>
-      </c>
       <c r="P134">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.2">
@@ -22585,15 +22626,12 @@
       </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>1469</v>
-      </c>
       <c r="P162">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.2">
@@ -22642,15 +22680,12 @@
       </c>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>1474</v>
-      </c>
       <c r="P167">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.2">
@@ -22759,41 +22794,48 @@
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P178">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="Q178">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
-        <v>1486</v>
-      </c>
-      <c r="P179">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="Q179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A180" s="38" t="s">
+        <v>1643</v>
+      </c>
       <c r="B180" t="s">
-        <v>1487</v>
+        <v>1564</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1498</v>
       </c>
       <c r="P180">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q180">
-        <v>1</v>
+        <f>COUNTIF(B180:O180,"&lt;&gt;")</f>
+        <v>6</v>
+      </c>
+      <c r="Q180" s="44">
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="38" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="B181" t="s">
         <v>1488</v>
@@ -22805,7 +22847,7 @@
         <v>1553</v>
       </c>
       <c r="P181">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(B181:O181,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="Q181">
@@ -22813,28 +22855,50 @@
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P182">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="A182" s="38" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1489</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A183" s="38" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1518</v>
+      </c>
       <c r="P183">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
+        <f>COUNTIF(B183:O183,"&lt;&gt;")</f>
+        <v>5</v>
+      </c>
+      <c r="Q183" s="44">
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P184">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="Q184">
         <v>0</v>
       </c>
@@ -22844,7 +22908,7 @@
         <v>1492</v>
       </c>
       <c r="P185">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P185:P216" si="7">COUNTIF(B185:O185,"&lt;&gt;")</f>
         <v>1</v>
       </c>
       <c r="Q185">
@@ -22855,29 +22919,29 @@
       <c r="B186" t="s">
         <v>1493</v>
       </c>
-      <c r="C186" t="s">
+      <c r="P186">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
         <v>1495</v>
       </c>
-      <c r="P186">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Q186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P187">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q188">
@@ -22892,7 +22956,7 @@
         <v>1497</v>
       </c>
       <c r="P189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q189">
@@ -22901,7 +22965,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q190">
@@ -22910,7 +22974,7 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q191">
@@ -22919,7 +22983,7 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q192">
@@ -22933,20 +22997,17 @@
       <c r="C193" t="s">
         <v>1501</v>
       </c>
-      <c r="D193" t="s">
-        <v>1503</v>
-      </c>
       <c r="P193">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q193">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q194">
@@ -22958,7 +23019,7 @@
         <v>1502</v>
       </c>
       <c r="P195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q195">
@@ -22967,7 +23028,7 @@
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q196">
@@ -22979,7 +23040,7 @@
         <v>1504</v>
       </c>
       <c r="P197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q197">
@@ -22988,7 +23049,7 @@
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q198">
@@ -23000,7 +23061,7 @@
         <v>1506</v>
       </c>
       <c r="P199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q199">
@@ -23009,7 +23070,7 @@
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q200">
@@ -23018,7 +23079,7 @@
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q201">
@@ -23030,7 +23091,7 @@
         <v>1509</v>
       </c>
       <c r="P202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q202">
@@ -23042,7 +23103,7 @@
         <v>1510</v>
       </c>
       <c r="P203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q203">
@@ -23051,7 +23112,7 @@
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q204">
@@ -23066,7 +23127,7 @@
         <v>1511</v>
       </c>
       <c r="P205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q205">
@@ -23075,7 +23136,7 @@
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q206">
@@ -23083,21 +23144,27 @@
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>1487</v>
+      </c>
       <c r="P207">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>1486</v>
+      </c>
       <c r="P208">
-        <f t="shared" ref="P208:P239" si="7">COUNTIF(B208:O208,"&lt;&gt;")</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
@@ -23174,7 +23241,7 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P217">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="P217:P248" si="8">COUNTIF(B217:O217,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="Q217">
@@ -23186,7 +23253,7 @@
         <v>1525</v>
       </c>
       <c r="P218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q218">
@@ -23195,7 +23262,7 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="38" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="B219" t="s">
         <v>1526</v>
@@ -23207,7 +23274,7 @@
         <v>1555</v>
       </c>
       <c r="P219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q219">
@@ -23216,7 +23283,7 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q220">
@@ -23225,7 +23292,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q221">
@@ -23237,7 +23304,7 @@
         <v>1529</v>
       </c>
       <c r="P222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q222">
@@ -23249,7 +23316,7 @@
         <v>1530</v>
       </c>
       <c r="P223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q223">
@@ -23261,7 +23328,7 @@
         <v>1531</v>
       </c>
       <c r="P224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q224">
@@ -23273,7 +23340,7 @@
         <v>1532</v>
       </c>
       <c r="P225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q225">
@@ -23282,7 +23349,7 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q226">
@@ -23294,7 +23361,7 @@
         <v>1534</v>
       </c>
       <c r="P227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q227">
@@ -23303,7 +23370,7 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q228">
@@ -23312,7 +23379,7 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q229">
@@ -23321,7 +23388,7 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q230">
@@ -23333,7 +23400,7 @@
         <v>1538</v>
       </c>
       <c r="P231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q231">
@@ -23342,7 +23409,7 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="38" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="B232" t="s">
         <v>1539</v>
@@ -23357,10 +23424,10 @@
         <v>1499</v>
       </c>
       <c r="P232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="Q232">
+      <c r="Q232" s="44">
         <v>4</v>
       </c>
     </row>
@@ -23369,7 +23436,7 @@
         <v>1540</v>
       </c>
       <c r="P233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q233">
@@ -23381,7 +23448,7 @@
         <v>1541</v>
       </c>
       <c r="P234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q234">
@@ -23393,7 +23460,7 @@
         <v>1542</v>
       </c>
       <c r="P235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q235">
@@ -23402,7 +23469,7 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q236">
@@ -23411,7 +23478,7 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q237">
@@ -23420,7 +23487,7 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q238">
@@ -23429,7 +23496,7 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q239">
@@ -23438,7 +23505,7 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P240">
-        <f t="shared" ref="P240:P271" si="8">COUNTIF(B240:O240,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q240">
@@ -23456,7 +23523,7 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="38" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="B242" t="s">
         <v>1549</v>
@@ -23467,12 +23534,15 @@
       <c r="D242" t="s">
         <v>1586</v>
       </c>
+      <c r="E242" t="s">
+        <v>1444</v>
+      </c>
       <c r="P242">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="Q242">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q242" s="44">
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
@@ -23534,7 +23604,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P249">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P249:P280" si="9">COUNTIF(B249:O249,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="Q249">
@@ -23543,7 +23613,7 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P250">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q250">
@@ -23552,7 +23622,7 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P251">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q251">
@@ -23561,7 +23631,7 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P252">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q252">
@@ -23573,7 +23643,7 @@
         <v>1560</v>
       </c>
       <c r="P253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q253">
@@ -23585,7 +23655,7 @@
         <v>1561</v>
       </c>
       <c r="P254">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q254">
@@ -23597,7 +23667,7 @@
         <v>1562</v>
       </c>
       <c r="P255">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q255">
@@ -23609,7 +23679,7 @@
         <v>1563</v>
       </c>
       <c r="P256">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q256">
@@ -23617,33 +23687,8 @@
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A257" s="38" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D257" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E257" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F257" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G257" t="s">
-        <v>1498</v>
-      </c>
-      <c r="P257">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q257" s="43">
-        <v>6</v>
+      <c r="Q257">
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
@@ -23654,7 +23699,7 @@
         <v>1406</v>
       </c>
       <c r="P258">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P258:P297" si="10">COUNTIF(B258:O258,"&lt;&gt;")</f>
         <v>2</v>
       </c>
       <c r="Q258">
@@ -23663,7 +23708,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P259">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q259">
@@ -23672,7 +23717,7 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q260">
@@ -23680,6 +23725,9 @@
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A261" s="38" t="s">
+        <v>1650</v>
+      </c>
       <c r="B261" t="s">
         <v>1568</v>
       </c>
@@ -23687,7 +23735,7 @@
         <v>1569</v>
       </c>
       <c r="P261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Q261">
@@ -23696,7 +23744,7 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q262">
@@ -23708,7 +23756,7 @@
         <v>1570</v>
       </c>
       <c r="P263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q263">
@@ -23720,7 +23768,7 @@
         <v>1571</v>
       </c>
       <c r="P264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q264">
@@ -23729,7 +23777,7 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q265">
@@ -23738,7 +23786,7 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q266">
@@ -23750,7 +23798,7 @@
         <v>1574</v>
       </c>
       <c r="P267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q267">
@@ -23762,7 +23810,7 @@
         <v>1575</v>
       </c>
       <c r="P268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q268">
@@ -23777,7 +23825,7 @@
         <v>1578</v>
       </c>
       <c r="P269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Q269">
@@ -23786,7 +23834,7 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q270">
@@ -23795,7 +23843,7 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q271">
@@ -23804,7 +23852,7 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P272">
-        <f t="shared" ref="P272:P303" si="9">COUNTIF(B272:O272,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q272">
@@ -23813,7 +23861,7 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q273">
@@ -23825,7 +23873,7 @@
         <v>1580</v>
       </c>
       <c r="P274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q274">
@@ -23837,7 +23885,7 @@
         <v>1581</v>
       </c>
       <c r="P275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q275">
@@ -23846,7 +23894,7 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q276">
@@ -23855,7 +23903,7 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q277">
@@ -23864,7 +23912,7 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q278">
@@ -23873,7 +23921,7 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q279">
@@ -23882,7 +23930,7 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q280">
@@ -23891,7 +23939,7 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" s="38" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="B281" t="s">
         <v>1587</v>
@@ -23906,16 +23954,16 @@
         <v>1445</v>
       </c>
       <c r="P281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="Q281">
+      <c r="Q281" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q282">
@@ -23923,6 +23971,9 @@
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A283" s="38" t="s">
+        <v>1652</v>
+      </c>
       <c r="B283" t="s">
         <v>1589</v>
       </c>
@@ -23930,7 +23981,7 @@
         <v>1590</v>
       </c>
       <c r="P283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Q283">
@@ -23939,7 +23990,7 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q284">
@@ -23948,7 +23999,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q285">
@@ -23957,7 +24008,7 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q286">
@@ -23969,7 +24020,7 @@
         <v>1593</v>
       </c>
       <c r="P287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q287">
@@ -23978,123 +24029,124 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>1600</v>
       </c>
       <c r="P294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="40">
         <f>COUNTIF(A3:A297, "&lt;&gt;")</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B298" s="34">
         <f>COUNTIF(B3:B297,"&lt;&gt;")</f>
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P298" s="34">
         <f>COUNTIF(P3:P297,"&gt;1")</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q298" s="34">
         <f>COUNTIF(Q3:Q297,"&gt;1")</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="R298" s="48"/>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P299" s="34">
         <f>COUNTIF(P4:P298,"&gt;4")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q299" s="34">
-        <f>COUNTIF(Q4:Q298,"&gt;4")</f>
-        <v>29</v>
+        <f>COUNTIF(Q4:Q298,"&gt;=4")</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7546E8E-8001-4B0F-B46E-A70662216925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65726B5B-D9AC-414F-83CE-288121EF290A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1654">
   <si>
     <t>Material search results</t>
   </si>
@@ -4867,6 +4867,9 @@
     <t>Cognitive architectures</t>
   </si>
   <si>
+    <t>Categorization phase 2</t>
+  </si>
+  <si>
     <t>NARS</t>
   </si>
   <si>
@@ -4891,6 +4894,9 @@
     <t>RSI</t>
   </si>
   <si>
+    <t>Universal Induction</t>
+  </si>
+  <si>
     <t>Multi-agent systems</t>
   </si>
   <si>
@@ -4909,7 +4915,7 @@
     <t>AIXI</t>
   </si>
   <si>
-    <t>Universal Induction</t>
+    <t>Planning &amp; decision making</t>
   </si>
   <si>
     <t>Compression</t>
@@ -4921,6 +4927,9 @@
     <t>AGI design</t>
   </si>
   <si>
+    <t>Agent environment</t>
+  </si>
+  <si>
     <t>AI research</t>
   </si>
   <si>
@@ -4933,70 +4942,61 @@
     <t>Game playing</t>
   </si>
   <si>
+    <t>Philosophical aspects</t>
+  </si>
+  <si>
     <t>Rewarding</t>
   </si>
   <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
     <t>Probabilistic approaches</t>
   </si>
   <si>
+    <t>Inference</t>
+  </si>
+  <si>
     <t>Neural networks</t>
   </si>
   <si>
+    <t>Artificial pedagogy</t>
+  </si>
+  <si>
     <t>Understanding</t>
   </si>
   <si>
-    <t>Artificial pedagogy</t>
-  </si>
-  <si>
     <t>Imitation learning</t>
   </si>
   <si>
-    <t>Planning &amp; decision making</t>
-  </si>
-  <si>
-    <t>Agent environment</t>
+    <t>Problemsolving</t>
+  </si>
+  <si>
+    <t>Bio-inspired approaches</t>
+  </si>
+  <si>
+    <t>Physical robots</t>
+  </si>
+  <si>
+    <t>Causal reasoning</t>
+  </si>
+  <si>
+    <t>NLP</t>
   </si>
   <si>
     <t>Question answering</t>
   </si>
   <si>
-    <t>NLP</t>
-  </si>
-  <si>
-    <t>Philosophical aspects</t>
-  </si>
-  <si>
-    <t>Reasoning</t>
-  </si>
-  <si>
     <t>Temporal reasoning</t>
   </si>
   <si>
-    <t>Causal reasoning</t>
-  </si>
-  <si>
-    <t>Inference</t>
-  </si>
-  <si>
     <t>Functional programming approach</t>
   </si>
   <si>
-    <t>Problemsolving</t>
-  </si>
-  <si>
-    <t>Bio-inspired approaches</t>
-  </si>
-  <si>
     <t>Game Theory</t>
   </si>
   <si>
-    <t>Physical robots</t>
-  </si>
-  <si>
     <t>Diagnostics</t>
-  </si>
-  <si>
-    <t>Categorization phase 2</t>
   </si>
 </sst>
 </file>
@@ -5309,7 +5309,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -20436,10 +20436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S299"/>
+  <dimension ref="A1:AD299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="L43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20458,12 +20458,13 @@
     <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="46"/>
-    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="46" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>1605</v>
       </c>
@@ -20471,7 +20472,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P2" t="s">
         <v>1607</v>
       </c>
@@ -20479,7 +20480,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="36" t="s">
         <v>1310</v>
@@ -20502,7 +20503,7 @@
       </c>
       <c r="R3" s="47"/>
     </row>
-    <row r="4" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>1609</v>
       </c>
@@ -20535,12 +20536,12 @@
         <v>20</v>
       </c>
       <c r="S4" s="45" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B5" t="s">
         <v>1312</v>
@@ -20556,9 +20557,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B6" t="s">
         <v>1314</v>
@@ -20582,8 +20583,14 @@
       <c r="Q6" s="44">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="U6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20591,10 +20598,16 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="U7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B8" t="s">
         <v>1313</v>
@@ -20624,8 +20637,14 @@
       <c r="Q8" s="44">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20634,9 +20653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B10" t="s">
         <v>1317</v>
@@ -20663,10 +20682,16 @@
       <c r="Q10" s="44">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="U10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B11" t="s">
         <v>1318</v>
@@ -20708,10 +20733,16 @@
       <c r="Q11" s="44">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B12" t="s">
         <v>1319</v>
@@ -20732,10 +20763,16 @@
       <c r="Q12" s="44">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X12" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B13" t="s">
         <v>1323</v>
@@ -20766,9 +20803,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B14" t="s">
         <v>1321</v>
@@ -20792,10 +20829,16 @@
       <c r="Q14" s="44">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" t="s">
+        <v>1619</v>
+      </c>
+      <c r="U14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B15" t="s">
         <v>1322</v>
@@ -20819,15 +20862,27 @@
       <c r="Q15" s="44">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>1625</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="B17" t="s">
         <v>1324</v>
@@ -20855,9 +20910,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B18" t="s">
         <v>1325</v>
@@ -20884,8 +20939,14 @@
       <c r="Q18" s="44">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>1621</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20894,9 +20955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B20" t="s">
         <v>1327</v>
@@ -20926,8 +20987,14 @@
       <c r="Q20" s="44">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T20" t="s">
+        <v>1626</v>
+      </c>
+      <c r="U20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20936,9 +21003,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B22" t="s">
         <v>1328</v>
@@ -20950,8 +21017,14 @@
       <c r="Q22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>1617</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20960,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20968,10 +21041,16 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>1614</v>
+      </c>
+      <c r="U24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="B25" t="s">
         <v>1316</v>
@@ -20986,10 +21065,16 @@
       <c r="Q25" s="44">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>1630</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B26" t="s">
         <v>1333</v>
@@ -21019,10 +21104,16 @@
       <c r="Q26" s="44">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T26" t="s">
+        <v>1633</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B27" t="s">
         <v>1334</v>
@@ -21041,7 +21132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1349</v>
       </c>
@@ -21058,8 +21149,14 @@
       <c r="Q28" s="44">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T28" t="s">
+        <v>1628</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21068,9 +21165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B30" t="s">
         <v>1337</v>
@@ -21094,10 +21191,16 @@
       <c r="Q30" s="44">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>1629</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B31" t="s">
         <v>1338</v>
@@ -21119,7 +21222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21127,8 +21230,14 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>1622</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21137,7 +21246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21145,10 +21254,16 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T34" t="s">
+        <v>1631</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B35" t="s">
         <v>1342</v>
@@ -21182,9 +21297,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="B36" t="s">
         <v>1343</v>
@@ -21200,7 +21315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21209,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21217,10 +21332,16 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T38" t="s">
+        <v>1616</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B39" t="s">
         <v>1344</v>
@@ -21239,9 +21360,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B40" t="s">
         <v>1340</v>
@@ -21269,7 +21390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21278,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21286,8 +21407,14 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T42" t="s">
+        <v>1635</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21296,7 +21423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21304,10 +21431,16 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T44" t="s">
+        <v>1620</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="B45" t="s">
         <v>1352</v>
@@ -21323,7 +21456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21331,8 +21464,14 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
+        <v>1637</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1354</v>
       </c>
@@ -21343,10 +21482,16 @@
       <c r="Q47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T47" t="s">
+        <v>1639</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="B48" t="s">
         <v>1355</v>
@@ -21367,8 +21512,14 @@
       <c r="Q48" s="44">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T48" t="s">
+        <v>1647</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P49">
         <f t="shared" ref="P49:P80" si="2">COUNTIF(B49:O49,"&lt;&gt;")</f>
         <v>0</v>
@@ -21376,10 +21527,16 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T49" t="s">
+        <v>1650</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="B50" t="s">
         <v>1418</v>
@@ -21398,7 +21555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21407,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21415,8 +21572,14 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="X52" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Y52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1360</v>
       </c>
@@ -21428,7 +21591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P54">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21436,10 +21599,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T54" t="s">
+        <v>1641</v>
+      </c>
+      <c r="U54">
+        <v>4</v>
+      </c>
+      <c r="X54" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>1635</v>
+        <v>1642</v>
       </c>
       <c r="B55" t="s">
         <v>1362</v>
@@ -21457,8 +21632,14 @@
       <c r="Q55" s="44">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="X55" t="s">
+        <v>1645</v>
+      </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P56">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21467,9 +21648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="B57" t="s">
         <v>1364</v>
@@ -21500,9 +21681,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="B58" t="s">
         <v>1543</v>
@@ -21517,8 +21698,14 @@
       <c r="Q58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T58" t="s">
+        <v>1644</v>
+      </c>
+      <c r="U58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P59">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21526,8 +21713,14 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T59" t="s">
+        <v>1649</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P60">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21535,10 +21728,16 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="X60" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="B61" t="s">
         <v>1368</v>
@@ -21566,7 +21765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P62">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21574,8 +21773,14 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T62" t="s">
+        <v>1636</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P63">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21584,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P64">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21592,8 +21797,14 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T64" t="s">
+        <v>1640</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P65">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21602,9 +21813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="B66" t="s">
         <v>1385</v>
@@ -21641,7 +21852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P67">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21650,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1371</v>
       </c>
@@ -21661,8 +21872,14 @@
       <c r="Q68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T68" t="s">
+        <v>1646</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21671,7 +21888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1377</v>
       </c>
@@ -21682,8 +21899,14 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T70" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21692,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21701,7 +21924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>1583</v>
       </c>
@@ -21713,7 +21936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21721,8 +21944,14 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T74" t="s">
+        <v>1632</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>1366</v>
       </c>
@@ -21734,7 +21963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21743,17 +21972,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="Q77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T78" t="s">
+        <v>1648</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P79">
         <f t="shared" ref="P79:P110" si="3">COUNTIF(B79:O79,"&lt;&gt;")</f>
         <v>0</v>
@@ -21762,9 +21997,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>1640</v>
+        <v>1649</v>
       </c>
       <c r="B80" t="s">
         <v>1387</v>
@@ -21789,7 +22024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P81">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21798,9 +22033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>1641</v>
+        <v>1648</v>
       </c>
       <c r="B82" t="s">
         <v>1389</v>
@@ -21818,8 +22053,14 @@
       <c r="Q82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T82" t="s">
+        <v>1642</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P83">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21828,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>1408</v>
       </c>
@@ -21842,8 +22083,14 @@
       <c r="Q84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T84" t="s">
+        <v>1651</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P85">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21852,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P86">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21860,10 +22107,16 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T86" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="B87" t="s">
         <v>1394</v>
@@ -21885,7 +22138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P88">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21894,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P89">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21903,7 +22156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P90">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21911,8 +22164,14 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T90" t="s">
+        <v>1652</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P91">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21921,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P92">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21929,8 +22188,14 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T92" t="s">
+        <v>1653</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P93">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21939,7 +22204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P94">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21948,7 +22213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P95">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21957,7 +22222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>1403</v>
       </c>
@@ -21969,7 +22234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>1404</v>
       </c>
@@ -21981,7 +22246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P98">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21989,8 +22254,26 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S98" s="33"/>
+      <c r="T98" s="33">
+        <f>COUNTIF(T6:T97, "&lt;&gt;")</f>
+        <v>39</v>
+      </c>
+      <c r="U98" s="33">
+        <f>SUM(U6:U97)</f>
+        <v>192</v>
+      </c>
+      <c r="V98" s="33"/>
+      <c r="W98" s="33"/>
+      <c r="X98" s="33"/>
+      <c r="Y98" s="33"/>
+      <c r="Z98" s="33"/>
+      <c r="AA98" s="33"/>
+      <c r="AB98" s="33"/>
+      <c r="AC98" s="33"/>
+      <c r="AD98" s="33"/>
+    </row>
+    <row r="99" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P99">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21999,7 +22282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22008,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P101">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22017,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P102">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22026,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P103">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22035,7 +22318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1411</v>
       </c>
@@ -22047,7 +22330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P105">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22056,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1413</v>
       </c>
@@ -22068,7 +22351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>1412</v>
       </c>
@@ -22083,7 +22366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>1415</v>
       </c>
@@ -22095,7 +22378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P109">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22104,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:30" x14ac:dyDescent="0.2">
       <c r="P110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22113,12 +22396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:30" x14ac:dyDescent="0.2">
       <c r="Q111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>1419</v>
       </c>
@@ -22805,7 +23088,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="38" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="B180" t="s">
         <v>1564</v>
@@ -22835,7 +23118,7 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="38" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="B181" t="s">
         <v>1488</v>
@@ -22856,7 +23139,7 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="38" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B182" t="s">
         <v>1507</v>
@@ -22873,7 +23156,7 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="38" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="B183" t="s">
         <v>1438</v>
@@ -23262,7 +23545,7 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="38" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="B219" t="s">
         <v>1526</v>
@@ -23409,7 +23692,7 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="38" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B232" t="s">
         <v>1539</v>
@@ -23523,7 +23806,7 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="38" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B242" t="s">
         <v>1549</v>
@@ -23726,7 +24009,7 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="38" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B261" t="s">
         <v>1568</v>
@@ -23939,7 +24222,7 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" s="38" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="B281" t="s">
         <v>1587</v>
@@ -23972,7 +24255,7 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" s="38" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B283" t="s">
         <v>1589</v>
@@ -24151,6 +24434,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65726B5B-D9AC-414F-83CE-288121EF290A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8CC06-CB72-47B9-BFD8-3FEA0F5454C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="1687">
   <si>
     <t>Material search results</t>
   </si>
@@ -4997,6 +4997,105 @@
   </si>
   <si>
     <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Universal AI</t>
+  </si>
+  <si>
+    <t>Reasoning and Inference</t>
+  </si>
+  <si>
+    <t>Problem specific research</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Nature-inspired approaches</t>
+  </si>
+  <si>
+    <t>Category description</t>
+  </si>
+  <si>
+    <t>CAs and their descriptions, articles relating to specific CAs.</t>
+  </si>
+  <si>
+    <t>AI/AGI safety, Self-improvement, containment and alignment problems.</t>
+  </si>
+  <si>
+    <t>Universal induction, AIXI and similar closely relating concepts.</t>
+  </si>
+  <si>
+    <t>Learning from experience, curriculum design, teaching AI.</t>
+  </si>
+  <si>
+    <t>Human-computer interaction, communication, cooperation.</t>
+  </si>
+  <si>
+    <t>Description of environments, their design, how agents interact with them.</t>
+  </si>
+  <si>
+    <t>Emotions, empathy, and similar human-like qualities in AI.</t>
+  </si>
+  <si>
+    <t>General ideas about how AGI should be designed. Closely related to CA, but more general, or component based.</t>
+  </si>
+  <si>
+    <t>Machine vision and perception related topics.</t>
+  </si>
+  <si>
+    <t>Meta-level research, literature reviews, roadmaps.</t>
+  </si>
+  <si>
+    <t>Measuring intelligence, performance on some scale.</t>
+  </si>
+  <si>
+    <t>Morality and ethics, either implementing them or meta-level discussion.</t>
+  </si>
+  <si>
+    <t>How agent devises a plan and makes decisions.</t>
+  </si>
+  <si>
+    <t>More philosophical aspects, like how things should be thought or what something means.</t>
+  </si>
+  <si>
+    <t>How agents interact and communicate, society of AI.</t>
+  </si>
+  <si>
+    <t>Uncertainty, Bayesian approaches, probabilities in decision making.</t>
+  </si>
+  <si>
+    <t>General game playing and game-related approaches in evaluation.</t>
+  </si>
+  <si>
+    <t>Reasoning and inference of meaning and goals, prediction and introspection. Related to Planning &amp; decision making</t>
+  </si>
+  <si>
+    <t>Solutions or research relating to some specific problem, such as traffic control.</t>
+  </si>
+  <si>
+    <t>Artificial animals, homeostatic approach, genetic algorithms, and other nature-related ideas.</t>
+  </si>
+  <si>
+    <t>Papers focusing on neural networks specifically.</t>
+  </si>
+  <si>
+    <t>Is this useless? Check paper count!</t>
+  </si>
+  <si>
+    <t>Physical devices and robots, interaction on physical environment.</t>
+  </si>
+  <si>
+    <t>Category theory and its usage.</t>
+  </si>
+  <si>
+    <t>Solutions specifically related to RL and agent rewarding.</t>
+  </si>
+  <si>
+    <t>Papers that can't be classified otherwise easily.</t>
   </si>
 </sst>
 </file>
@@ -5311,7 +5410,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5395,10 +5494,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="30"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="30" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Accent 1 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -14738,8 +14838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18897,7 +18997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
@@ -20438,8 +20538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59"/>
+    <sheetView tabSelected="1" topLeftCell="M67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20458,13 +20558,14 @@
     <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="46" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="45" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>1605</v>
       </c>
@@ -20472,7 +20573,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P2" t="s">
         <v>1607</v>
       </c>
@@ -20480,7 +20581,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="36" t="s">
         <v>1310</v>
@@ -20501,9 +20602,9 @@
       <c r="Q3" s="43">
         <v>69</v>
       </c>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>1609</v>
       </c>
@@ -20535,11 +20636,14 @@
       <c r="Q4" s="44">
         <v>20</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="49" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="32" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>1611</v>
       </c>
@@ -20556,8 +20660,14 @@
       <c r="Q5" s="44">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>1612</v>
       </c>
@@ -20583,14 +20693,20 @@
       <c r="Q6" s="44">
         <v>16</v>
       </c>
+      <c r="S6" s="32" t="s">
+        <v>1609</v>
+      </c>
       <c r="T6" t="s">
         <v>1609</v>
       </c>
       <c r="U6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20605,7 +20721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>1613</v>
       </c>
@@ -20644,7 +20760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20653,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>1614</v>
       </c>
@@ -20682,14 +20798,20 @@
       <c r="Q10" s="44">
         <v>13</v>
       </c>
+      <c r="S10" s="32" t="s">
+        <v>1615</v>
+      </c>
       <c r="T10" t="s">
         <v>1615</v>
       </c>
       <c r="U10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1615</v>
       </c>
@@ -20740,7 +20862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>1616</v>
       </c>
@@ -20763,14 +20885,8 @@
       <c r="Q12" s="44">
         <v>8</v>
       </c>
-      <c r="X12" t="s">
-        <v>1613</v>
-      </c>
-      <c r="Y12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>1617</v>
       </c>
@@ -20803,7 +20919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>1618</v>
       </c>
@@ -20829,14 +20945,20 @@
       <c r="Q14" s="44">
         <v>8</v>
       </c>
+      <c r="S14" s="32" t="s">
+        <v>1654</v>
+      </c>
       <c r="T14" t="s">
         <v>1619</v>
       </c>
       <c r="U14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1620</v>
       </c>
@@ -20869,7 +20991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="Q16">
         <v>0</v>
       </c>
@@ -20880,7 +21002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>1621</v>
       </c>
@@ -20909,8 +21031,14 @@
       <c r="Q17" s="44">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>1622</v>
       </c>
@@ -20939,14 +21067,8 @@
       <c r="Q18" s="44">
         <v>11</v>
       </c>
-      <c r="T18" t="s">
-        <v>1621</v>
-      </c>
-      <c r="U18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20954,8 +21076,20 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S19" s="32" t="s">
+        <v>1621</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1621</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>1623</v>
       </c>
@@ -20988,13 +21122,13 @@
         <v>12</v>
       </c>
       <c r="T20" t="s">
-        <v>1626</v>
+        <v>1641</v>
       </c>
       <c r="U20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21003,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>1624</v>
       </c>
@@ -21017,14 +21151,20 @@
       <c r="Q22">
         <v>3</v>
       </c>
+      <c r="S22" s="32" t="s">
+        <v>1617</v>
+      </c>
       <c r="T22" t="s">
         <v>1617</v>
       </c>
       <c r="U22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21033,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21041,14 +21181,8 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="T24" t="s">
-        <v>1614</v>
-      </c>
-      <c r="U24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>1625</v>
       </c>
@@ -21065,14 +21199,20 @@
       <c r="Q25" s="44">
         <v>8</v>
       </c>
+      <c r="S25" s="32" t="s">
+        <v>1630</v>
+      </c>
       <c r="T25" t="s">
         <v>1630</v>
       </c>
       <c r="U25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
         <v>1619</v>
       </c>
@@ -21111,7 +21251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
         <v>1627</v>
       </c>
@@ -21132,7 +21272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1349</v>
       </c>
@@ -21149,14 +21289,20 @@
       <c r="Q28" s="44">
         <v>6</v>
       </c>
+      <c r="S28" s="32" t="s">
+        <v>1628</v>
+      </c>
       <c r="T28" t="s">
         <v>1628</v>
       </c>
       <c r="U28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21165,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
         <v>1628</v>
       </c>
@@ -21191,14 +21337,20 @@
       <c r="Q30" s="44">
         <v>7</v>
       </c>
+      <c r="S30" s="32" t="s">
+        <v>1629</v>
+      </c>
       <c r="T30" t="s">
         <v>1629</v>
       </c>
       <c r="U30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
         <v>1629</v>
       </c>
@@ -21222,7 +21374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21230,14 +21382,20 @@
       <c r="Q32">
         <v>0</v>
       </c>
+      <c r="S32" s="32" t="s">
+        <v>1622</v>
+      </c>
       <c r="T32" t="s">
         <v>1622</v>
       </c>
       <c r="U32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W32" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21246,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21254,14 +21412,20 @@
       <c r="Q34">
         <v>0</v>
       </c>
+      <c r="S34" s="32" t="s">
+        <v>1631</v>
+      </c>
       <c r="T34" t="s">
         <v>1631</v>
       </c>
       <c r="U34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>1631</v>
       </c>
@@ -21297,7 +21461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>1632</v>
       </c>
@@ -21314,8 +21478,20 @@
       <c r="Q36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S36" s="32" t="s">
+        <v>1614</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1614</v>
+      </c>
+      <c r="U36">
+        <v>8</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21324,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21332,14 +21508,20 @@
       <c r="Q38">
         <v>0</v>
       </c>
+      <c r="S38" s="32" t="s">
+        <v>1616</v>
+      </c>
       <c r="T38" t="s">
         <v>1616</v>
       </c>
       <c r="U38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W38" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
         <v>1633</v>
       </c>
@@ -21359,8 +21541,9 @@
       <c r="Q39" s="44">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S39" s="32"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>1634</v>
       </c>
@@ -21389,8 +21572,20 @@
       <c r="Q40" s="44">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S40" s="32" t="s">
+        <v>1626</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1626</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21398,8 +21593,9 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S41" s="32"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21407,14 +21603,20 @@
       <c r="Q42">
         <v>0</v>
       </c>
+      <c r="S42" s="32" t="s">
+        <v>1635</v>
+      </c>
       <c r="T42" t="s">
         <v>1635</v>
       </c>
       <c r="U42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21422,8 +21624,15 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S43" s="32"/>
+      <c r="T43" t="s">
+        <v>1642</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21431,14 +21640,9 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="T44" t="s">
-        <v>1620</v>
-      </c>
-      <c r="U44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S44" s="32"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
         <v>1636</v>
       </c>
@@ -21455,8 +21659,9 @@
       <c r="Q45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S45" s="32"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21464,14 +21669,20 @@
       <c r="Q46">
         <v>0</v>
       </c>
+      <c r="S46" s="32" t="s">
+        <v>1655</v>
+      </c>
       <c r="T46" t="s">
         <v>1637</v>
       </c>
       <c r="U46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W46" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1354</v>
       </c>
@@ -21482,6 +21693,7 @@
       <c r="Q47">
         <v>2</v>
       </c>
+      <c r="S47" s="32"/>
       <c r="T47" t="s">
         <v>1639</v>
       </c>
@@ -21489,7 +21701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
         <v>1638</v>
       </c>
@@ -21512,6 +21724,7 @@
       <c r="Q48" s="44">
         <v>5</v>
       </c>
+      <c r="S48" s="32"/>
       <c r="T48" t="s">
         <v>1647</v>
       </c>
@@ -21519,14 +21732,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P49">
-        <f t="shared" ref="P49:P80" si="2">COUNTIF(B49:O49,"&lt;&gt;")</f>
+        <f t="shared" ref="P49:P76" si="2">COUNTIF(B49:O49,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
+      <c r="S49" s="32"/>
       <c r="T49" t="s">
         <v>1650</v>
       </c>
@@ -21534,7 +21748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
         <v>1640</v>
       </c>
@@ -21554,8 +21768,9 @@
       <c r="Q50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21563,8 +21778,20 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S51" s="32" t="s">
+        <v>1620</v>
+      </c>
+      <c r="T51" t="s">
+        <v>1620</v>
+      </c>
+      <c r="U51">
+        <v>5</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21572,14 +21799,9 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="X52" t="s">
-        <v>1638</v>
-      </c>
-      <c r="Y52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1360</v>
       </c>
@@ -21590,8 +21812,9 @@
       <c r="Q53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P54">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21599,20 +21822,20 @@
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="T54" t="s">
-        <v>1641</v>
-      </c>
-      <c r="U54">
+      <c r="S54" s="32" t="s">
+        <v>1638</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="U54" s="2">
         <v>4</v>
       </c>
-      <c r="X54" t="s">
-        <v>1623</v>
-      </c>
-      <c r="Y54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W54" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
         <v>1642</v>
       </c>
@@ -21632,14 +21855,9 @@
       <c r="Q55" s="44">
         <v>4</v>
       </c>
-      <c r="X55" t="s">
-        <v>1645</v>
-      </c>
-      <c r="Y55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P56">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21647,8 +21865,20 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S56" s="32" t="s">
+        <v>1634</v>
+      </c>
+      <c r="T56" t="s">
+        <v>1634</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="W56" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
         <v>1641</v>
       </c>
@@ -21680,8 +21910,9 @@
       <c r="Q57" s="44">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S57" s="32"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
         <v>1643</v>
       </c>
@@ -21698,14 +21929,20 @@
       <c r="Q58">
         <v>2</v>
       </c>
+      <c r="S58" s="32" t="s">
+        <v>1656</v>
+      </c>
       <c r="T58" t="s">
         <v>1644</v>
       </c>
       <c r="U58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W58" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P59">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21713,6 +21950,9 @@
       <c r="Q59">
         <v>0</v>
       </c>
+      <c r="S59" s="48" t="s">
+        <v>1657</v>
+      </c>
       <c r="T59" t="s">
         <v>1649</v>
       </c>
@@ -21720,7 +21960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P60">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21728,14 +21968,9 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="X60" t="s">
-        <v>1634</v>
-      </c>
-      <c r="Y60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
         <v>1626</v>
       </c>
@@ -21764,8 +21999,20 @@
       <c r="Q61" s="44">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S61" s="32" t="s">
+        <v>1659</v>
+      </c>
+      <c r="T61" t="s">
+        <v>1623</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="W61" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P62">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21773,14 +22020,15 @@
       <c r="Q62">
         <v>0</v>
       </c>
+      <c r="S62" s="32"/>
       <c r="T62" t="s">
-        <v>1636</v>
+        <v>1645</v>
       </c>
       <c r="U62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P63">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21788,8 +22036,9 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P64">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21797,14 +22046,23 @@
       <c r="Q64">
         <v>0</v>
       </c>
+      <c r="S64" s="32" t="s">
+        <v>1640</v>
+      </c>
       <c r="T64" t="s">
         <v>1640</v>
       </c>
       <c r="U64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W64" t="s">
+        <v>1681</v>
+      </c>
+      <c r="X64" s="32" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P65">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21812,8 +22070,9 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
         <v>1630</v>
       </c>
@@ -21851,8 +22110,9 @@
       <c r="Q66" s="44">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S66" s="32"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P67">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21860,8 +22120,9 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S67" s="32"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1371</v>
       </c>
@@ -21872,14 +22133,20 @@
       <c r="Q68">
         <v>1</v>
       </c>
+      <c r="S68" s="32" t="s">
+        <v>1646</v>
+      </c>
       <c r="T68" t="s">
         <v>1646</v>
       </c>
       <c r="U68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W68" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21887,8 +22154,9 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S69" s="32"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1377</v>
       </c>
@@ -21899,14 +22167,20 @@
       <c r="Q70">
         <v>1</v>
       </c>
+      <c r="S70" s="32" t="s">
+        <v>1624</v>
+      </c>
       <c r="T70" t="s">
         <v>1624</v>
       </c>
       <c r="U70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W70" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21914,8 +22188,9 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S71" s="32"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21923,8 +22198,20 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S72" s="32" t="s">
+        <v>1613</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1613</v>
+      </c>
+      <c r="U72">
+        <v>12</v>
+      </c>
+      <c r="W72" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>1583</v>
       </c>
@@ -21935,8 +22222,15 @@
       <c r="Q73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S73" s="32"/>
+      <c r="T73" t="s">
+        <v>1636</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21944,14 +22238,9 @@
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="T74" t="s">
-        <v>1632</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S74" s="32"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>1366</v>
       </c>
@@ -21962,8 +22251,9 @@
       <c r="Q75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S75" s="32"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21971,24 +22261,21 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S76" s="32"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S77" s="32"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="T78" t="s">
-        <v>1648</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S78" s="32"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P79">
         <f t="shared" ref="P79:P110" si="3">COUNTIF(B79:O79,"&lt;&gt;")</f>
         <v>0</v>
@@ -21996,8 +22283,9 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S79" s="32"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
         <v>1649</v>
       </c>
@@ -22023,6 +22311,18 @@
       <c r="Q80" s="44">
         <v>5</v>
       </c>
+      <c r="S80" s="32" t="s">
+        <v>1658</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1632</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="W80" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P81">
@@ -22032,6 +22332,12 @@
       <c r="Q81">
         <v>0</v>
       </c>
+      <c r="T81" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
@@ -22054,7 +22360,7 @@
         <v>3</v>
       </c>
       <c r="T82" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="U82">
         <v>2</v>
@@ -22068,6 +22374,12 @@
       <c r="Q83">
         <v>0</v>
       </c>
+      <c r="T83" t="s">
+        <v>1652</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
@@ -22084,10 +22396,10 @@
         <v>2</v>
       </c>
       <c r="T84" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -22107,12 +22419,6 @@
       <c r="Q86">
         <v>0</v>
       </c>
-      <c r="T86" t="s">
-        <v>1643</v>
-      </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
@@ -22164,12 +22470,6 @@
       <c r="Q90">
         <v>0</v>
       </c>
-      <c r="T90" t="s">
-        <v>1652</v>
-      </c>
-      <c r="U90">
-        <v>1</v>
-      </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P91">
@@ -22188,12 +22488,6 @@
       <c r="Q92">
         <v>0</v>
       </c>
-      <c r="T92" t="s">
-        <v>1653</v>
-      </c>
-      <c r="U92">
-        <v>1</v>
-      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P93">
@@ -22254,14 +22548,17 @@
       <c r="Q98">
         <v>0</v>
       </c>
-      <c r="S98" s="33"/>
+      <c r="S98" s="33">
+        <f>COUNTIF(S6:S97, "&lt;&gt;")</f>
+        <v>26</v>
+      </c>
       <c r="T98" s="33">
         <f>COUNTIF(T6:T97, "&lt;&gt;")</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U98" s="33">
         <f>SUM(U6:U97)</f>
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="V98" s="33"/>
       <c r="W98" s="33"/>
@@ -23060,7 +23357,7 @@
         <v>1483</v>
       </c>
       <c r="P176">
-        <f t="shared" ref="P176:P207" si="6">COUNTIF(B176:O176,"&lt;&gt;")</f>
+        <f t="shared" ref="P176:P177" si="6">COUNTIF(B176:O176,"&lt;&gt;")</f>
         <v>1</v>
       </c>
       <c r="Q176">
@@ -23887,7 +24184,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P249">
-        <f t="shared" ref="P249:P280" si="9">COUNTIF(B249:O249,"&lt;&gt;")</f>
+        <f t="shared" ref="P249:P256" si="9">COUNTIF(B249:O249,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="Q249">
@@ -24420,7 +24717,7 @@
         <f>COUNTIF(Q3:Q297,"&gt;1")</f>
         <v>58</v>
       </c>
-      <c r="R298" s="48"/>
+      <c r="R298" s="47"/>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P299" s="34">

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yliopisto\gradu\aigrad\gradu\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8CC06-CB72-47B9-BFD8-3FEA0F5454C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CE2AB-5FBB-4F67-8241-251552577A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="1746">
   <si>
     <t>Material search results</t>
   </si>
@@ -3895,9 +3895,6 @@
     <t>AGI, NARS, Emotion, Cognitive Architecture, AGI design, OpenNARS</t>
   </si>
   <si>
-    <t>AGI, Algorithmic learning, Inferential learning, NARS, Inferential learning</t>
-  </si>
-  <si>
     <t>AGI, OpenCog, Pattern mining, Surprisingness, Reasoning, Hypergraphs</t>
   </si>
   <si>
@@ -5008,9 +5005,6 @@
     <t>Problem specific research</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -5096,6 +5090,189 @@
   </si>
   <si>
     <t>Papers that can't be classified otherwise easily.</t>
+  </si>
+  <si>
+    <t>11, 18</t>
+  </si>
+  <si>
+    <t>6, 11, 18</t>
+  </si>
+  <si>
+    <t>2, 10</t>
+  </si>
+  <si>
+    <t>2, 5, 12</t>
+  </si>
+  <si>
+    <t>6, 18</t>
+  </si>
+  <si>
+    <t>9, 11</t>
+  </si>
+  <si>
+    <t>2, 12, 14</t>
+  </si>
+  <si>
+    <t>3, 11</t>
+  </si>
+  <si>
+    <t>20, 24, 6</t>
+  </si>
+  <si>
+    <t>1, 6</t>
+  </si>
+  <si>
+    <t>19, 18</t>
+  </si>
+  <si>
+    <t>13, 16, 21</t>
+  </si>
+  <si>
+    <t>1, 17</t>
+  </si>
+  <si>
+    <t>8, 24</t>
+  </si>
+  <si>
+    <t>Nurture? Pedagogy?</t>
+  </si>
+  <si>
+    <t>3, 14</t>
+  </si>
+  <si>
+    <t>3, 24</t>
+  </si>
+  <si>
+    <t>Deep learning?</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>2, 12</t>
+  </si>
+  <si>
+    <t>1, 13</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>7, 16, 5</t>
+  </si>
+  <si>
+    <t>1, 8</t>
+  </si>
+  <si>
+    <t>4, 8</t>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
+    <t>8, 9</t>
+  </si>
+  <si>
+    <t>1, 15</t>
+  </si>
+  <si>
+    <t>1, 3, 2</t>
+  </si>
+  <si>
+    <t>Not related to safety, just rsi</t>
+  </si>
+  <si>
+    <t>1, 9</t>
+  </si>
+  <si>
+    <t>1, 7</t>
+  </si>
+  <si>
+    <t>2, 3, 24</t>
+  </si>
+  <si>
+    <t>3, 15, 19, 11</t>
+  </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>1, 7, 15, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 6, </t>
+  </si>
+  <si>
+    <t>5, 7, 9, 17</t>
+  </si>
+  <si>
+    <t>1, 17, 8</t>
+  </si>
+  <si>
+    <t>14, 16</t>
+  </si>
+  <si>
+    <t>20, 24</t>
+  </si>
+  <si>
+    <t>1, 5, 14</t>
+  </si>
+  <si>
+    <t>16, 24</t>
+  </si>
+  <si>
+    <t>19?</t>
+  </si>
+  <si>
+    <t>4, 19</t>
+  </si>
+  <si>
+    <t>1, 8, 23</t>
+  </si>
+  <si>
+    <t>22, 15</t>
+  </si>
+  <si>
+    <t>Imitiation?</t>
+  </si>
+  <si>
+    <t>15, 24</t>
+  </si>
+  <si>
+    <t>1, 20</t>
+  </si>
+  <si>
+    <t>1, 9, 21</t>
+  </si>
+  <si>
+    <t>1, 7, 8</t>
+  </si>
+  <si>
+    <t>AGI, Algorithmic learning, Inferential learning, NARS</t>
+  </si>
+  <si>
+    <t>1, 19</t>
+  </si>
+  <si>
+    <t>6, 20, 24</t>
+  </si>
+  <si>
+    <t>1, 13, 24</t>
+  </si>
+  <si>
+    <t>1, 14</t>
+  </si>
+  <si>
+    <t>1, 11</t>
+  </si>
+  <si>
+    <t>13, 17, 20, 22</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>RSI?</t>
   </si>
 </sst>
 </file>
@@ -5410,7 +5587,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5499,6 +5676,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="30" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Accent 1 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -14838,8 +15016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="H64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14960,6 +15138,9 @@
       <c r="N3" t="s">
         <v>1200</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>1685</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
@@ -15004,6 +15185,9 @@
       <c r="N4" t="s">
         <v>1200</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
@@ -15048,6 +15232,9 @@
       <c r="N5" t="s">
         <v>1203</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>1687</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>1204</v>
       </c>
@@ -15095,6 +15282,9 @@
       <c r="N6" t="s">
         <v>1206</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -15136,6 +15326,9 @@
       <c r="N7" t="s">
         <v>1208</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>1689</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -15177,6 +15370,9 @@
       <c r="N8" t="s">
         <v>1208</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>1690</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -15221,6 +15417,9 @@
       <c r="N9" t="s">
         <v>1211</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>1691</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -15262,6 +15461,9 @@
       <c r="N10" t="s">
         <v>1213</v>
       </c>
+      <c r="O10" s="2" t="s">
+        <v>1692</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -15303,6 +15505,9 @@
       <c r="N11" t="s">
         <v>1200</v>
       </c>
+      <c r="O11" s="2" t="s">
+        <v>1693</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -15344,6 +15549,9 @@
       <c r="N12" t="s">
         <v>1200</v>
       </c>
+      <c r="O12" s="2" t="s">
+        <v>1693</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -15385,6 +15593,9 @@
       <c r="N13" t="s">
         <v>1208</v>
       </c>
+      <c r="O13" s="2" t="s">
+        <v>1694</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -15426,6 +15637,9 @@
       <c r="N14" t="s">
         <v>1208</v>
       </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -15467,6 +15681,9 @@
       <c r="N15" t="s">
         <v>1208</v>
       </c>
+      <c r="O15" s="2" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -15511,6 +15728,9 @@
       <c r="N16" t="s">
         <v>1200</v>
       </c>
+      <c r="O16" s="2" t="s">
+        <v>1696</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -15555,6 +15775,9 @@
       <c r="N17" t="s">
         <v>1208</v>
       </c>
+      <c r="O17" s="2" t="s">
+        <v>1697</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -15599,6 +15822,9 @@
       <c r="N18" t="s">
         <v>1208</v>
       </c>
+      <c r="O18" s="2" t="s">
+        <v>1698</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -15643,6 +15869,9 @@
       <c r="N19" t="s">
         <v>1208</v>
       </c>
+      <c r="O19" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
@@ -15687,6 +15916,12 @@
       <c r="N20" t="s">
         <v>1211</v>
       </c>
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1699</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
@@ -15731,6 +15966,12 @@
       <c r="N21" t="s">
         <v>1206</v>
       </c>
+      <c r="O21" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1702</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
@@ -15775,6 +16016,9 @@
       <c r="N22" t="s">
         <v>1208</v>
       </c>
+      <c r="O22" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
@@ -15819,6 +16063,9 @@
       <c r="N23" t="s">
         <v>1206</v>
       </c>
+      <c r="O23" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
@@ -15863,6 +16110,9 @@
       <c r="N24" t="s">
         <v>1206</v>
       </c>
+      <c r="O24" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
@@ -15904,6 +16154,9 @@
       <c r="N25" s="1" t="s">
         <v>1206</v>
       </c>
+      <c r="O25" s="2">
+        <v>22</v>
+      </c>
       <c r="P25" s="1" t="s">
         <v>1230</v>
       </c>
@@ -15948,6 +16201,9 @@
       <c r="N26" t="s">
         <v>1208</v>
       </c>
+      <c r="O26" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
@@ -15992,6 +16248,9 @@
       <c r="N27" t="s">
         <v>1233</v>
       </c>
+      <c r="O27" s="2" t="s">
+        <v>1703</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
@@ -16036,6 +16295,9 @@
       <c r="N28" t="s">
         <v>1208</v>
       </c>
+      <c r="O28" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
@@ -16077,6 +16339,9 @@
       <c r="N29" t="s">
         <v>1208</v>
       </c>
+      <c r="O29" s="2" t="s">
+        <v>1697</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
@@ -16121,6 +16386,9 @@
       <c r="N30" t="s">
         <v>1206</v>
       </c>
+      <c r="O30" s="2" t="s">
+        <v>1704</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
@@ -16165,6 +16433,9 @@
       <c r="N31" t="s">
         <v>1206</v>
       </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
@@ -16209,8 +16480,11 @@
       <c r="N32" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>54</v>
       </c>
@@ -16253,8 +16527,11 @@
       <c r="N33" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>55</v>
       </c>
@@ -16297,8 +16574,11 @@
       <c r="N34" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>56</v>
       </c>
@@ -16341,8 +16621,11 @@
       <c r="N35" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>57</v>
       </c>
@@ -16385,8 +16668,11 @@
       <c r="N36" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>58</v>
       </c>
@@ -16429,8 +16715,11 @@
       <c r="N37" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="2" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>59</v>
       </c>
@@ -16473,8 +16762,11 @@
       <c r="N38" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>61</v>
       </c>
@@ -16514,8 +16806,11 @@
       <c r="N39" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="2" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>62</v>
       </c>
@@ -16558,8 +16853,11 @@
       <c r="N40" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>63</v>
       </c>
@@ -16602,8 +16900,11 @@
       <c r="N41" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>64</v>
       </c>
@@ -16646,8 +16947,11 @@
       <c r="N42" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>65</v>
       </c>
@@ -16690,8 +16994,11 @@
       <c r="N43" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="50" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>67</v>
       </c>
@@ -16734,8 +17041,11 @@
       <c r="N44" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>68</v>
       </c>
@@ -16778,8 +17088,14 @@
       <c r="N45" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>69</v>
       </c>
@@ -16819,8 +17135,11 @@
       <c r="N46" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>71</v>
       </c>
@@ -16863,8 +17182,11 @@
       <c r="N47" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>72</v>
       </c>
@@ -16903,6 +17225,9 @@
       </c>
       <c r="N48" t="s">
         <v>1206</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16945,6 +17270,9 @@
       <c r="N49" t="s">
         <v>1257</v>
       </c>
+      <c r="O49" s="2" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
@@ -16989,6 +17317,9 @@
       <c r="N50" t="s">
         <v>1206</v>
       </c>
+      <c r="O50" s="2" t="s">
+        <v>1719</v>
+      </c>
       <c r="P50" s="1" t="s">
         <v>1259</v>
       </c>
@@ -17036,6 +17367,9 @@
       <c r="N51" t="s">
         <v>1213</v>
       </c>
+      <c r="O51" s="2" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
@@ -17080,6 +17414,9 @@
       <c r="N52" t="s">
         <v>1208</v>
       </c>
+      <c r="O52" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
@@ -17121,6 +17458,9 @@
       <c r="N53" t="s">
         <v>1206</v>
       </c>
+      <c r="O53" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
@@ -17165,6 +17505,12 @@
       <c r="N54" t="s">
         <v>1208</v>
       </c>
+      <c r="O54" s="2">
+        <v>25</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
@@ -17209,6 +17555,9 @@
       <c r="N55" t="s">
         <v>1206</v>
       </c>
+      <c r="O55" s="2" t="s">
+        <v>1721</v>
+      </c>
     </row>
     <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
@@ -17253,6 +17602,9 @@
       <c r="N56" t="s">
         <v>1208</v>
       </c>
+      <c r="O56" s="2" t="s">
+        <v>1722</v>
+      </c>
     </row>
     <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
@@ -17297,6 +17649,9 @@
       <c r="N57" s="1" t="s">
         <v>1208</v>
       </c>
+      <c r="O57" s="2">
+        <v>12</v>
+      </c>
       <c r="P57" t="s">
         <v>1267</v>
       </c>
@@ -17344,6 +17699,9 @@
       <c r="N58" t="s">
         <v>1257</v>
       </c>
+      <c r="O58" s="2" t="s">
+        <v>1723</v>
+      </c>
     </row>
     <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
@@ -17388,6 +17746,9 @@
       <c r="N59" t="s">
         <v>1208</v>
       </c>
+      <c r="O59" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
@@ -17432,6 +17793,9 @@
       <c r="N60" t="s">
         <v>1206</v>
       </c>
+      <c r="O60" s="2" t="s">
+        <v>1724</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
@@ -17476,6 +17840,9 @@
       <c r="N61" t="s">
         <v>1257</v>
       </c>
+      <c r="O61" s="2" t="s">
+        <v>1692</v>
+      </c>
     </row>
     <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
@@ -17520,6 +17887,9 @@
       <c r="N62" t="s">
         <v>1208</v>
       </c>
+      <c r="O62" s="2" t="s">
+        <v>1725</v>
+      </c>
     </row>
     <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
@@ -17564,6 +17934,9 @@
       <c r="N63" t="s">
         <v>1251</v>
       </c>
+      <c r="O63" s="2" t="s">
+        <v>1726</v>
+      </c>
     </row>
     <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
@@ -17608,8 +17981,14 @@
       <c r="N64" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>98</v>
       </c>
@@ -17652,8 +18031,11 @@
       <c r="N65" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="2" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <v>99</v>
       </c>
@@ -17696,8 +18078,11 @@
       <c r="N66" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>100</v>
       </c>
@@ -17737,8 +18122,11 @@
       <c r="N67" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="2" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>101</v>
       </c>
@@ -17781,8 +18169,11 @@
       <c r="N68" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <v>103</v>
       </c>
@@ -17825,8 +18216,14 @@
       <c r="N69" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <v>104</v>
       </c>
@@ -17869,8 +18266,11 @@
       <c r="N70" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <v>105</v>
       </c>
@@ -17913,8 +18313,11 @@
       <c r="N71" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <v>106</v>
       </c>
@@ -17957,8 +18360,11 @@
       <c r="N72" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>107</v>
       </c>
@@ -18001,8 +18407,11 @@
       <c r="N73" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="2" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <v>112</v>
       </c>
@@ -18045,8 +18454,11 @@
       <c r="N74" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="2" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>114</v>
       </c>
@@ -18089,8 +18501,11 @@
       <c r="N75" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="2" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <v>115</v>
       </c>
@@ -18128,13 +18543,16 @@
         <v>255</v>
       </c>
       <c r="M76" t="s">
-        <v>1286</v>
+        <v>1737</v>
       </c>
       <c r="N76" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>117</v>
       </c>
@@ -18172,13 +18590,16 @@
         <v>255</v>
       </c>
       <c r="M77" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N77" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O77" s="2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <v>118</v>
       </c>
@@ -18213,13 +18634,16 @@
         <v>255</v>
       </c>
       <c r="M78" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N78" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>121</v>
       </c>
@@ -18254,13 +18678,16 @@
         <v>255</v>
       </c>
       <c r="M79" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="N79" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O79" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>124</v>
       </c>
@@ -18298,10 +18725,13 @@
         <v>255</v>
       </c>
       <c r="M80" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="N80" t="s">
         <v>1208</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18342,10 +18772,13 @@
         <v>255</v>
       </c>
       <c r="M81" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="N81" t="s">
         <v>1208</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18386,10 +18819,13 @@
         <v>255</v>
       </c>
       <c r="M82" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N82" t="s">
         <v>1208</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18430,10 +18866,13 @@
         <v>255</v>
       </c>
       <c r="M83" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="N83" t="s">
         <v>1208</v>
+      </c>
+      <c r="O83" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18471,10 +18910,13 @@
         <v>255</v>
       </c>
       <c r="M84" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N84" t="s">
         <v>1208</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18515,10 +18957,13 @@
         <v>255</v>
       </c>
       <c r="M85" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="N85" t="s">
         <v>1208</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18559,10 +19004,13 @@
         <v>255</v>
       </c>
       <c r="M86" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="N86" t="s">
         <v>1208</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18603,10 +19051,13 @@
         <v>255</v>
       </c>
       <c r="M87" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="N87" t="s">
         <v>1208</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18647,10 +19098,13 @@
         <v>255</v>
       </c>
       <c r="M88" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="N88" t="s">
         <v>1213</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18691,10 +19145,13 @@
         <v>255</v>
       </c>
       <c r="M89" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N89" t="s">
         <v>1208</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18732,13 +19189,16 @@
         <v>255</v>
       </c>
       <c r="M90" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="N90" t="s">
         <v>1208</v>
       </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
       <c r="P90" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18779,10 +19239,13 @@
         <v>255</v>
       </c>
       <c r="M91" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="N91" t="s">
         <v>1200</v>
+      </c>
+      <c r="O91" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18823,10 +19286,13 @@
         <v>255</v>
       </c>
       <c r="M92" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="N92" t="s">
         <v>1233</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18867,10 +19333,13 @@
         <v>255</v>
       </c>
       <c r="M93" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="N93" t="s">
         <v>1200</v>
+      </c>
+      <c r="O93" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18908,10 +19377,13 @@
         <v>255</v>
       </c>
       <c r="M94" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="N94" t="s">
         <v>1208</v>
+      </c>
+      <c r="O94" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18932,7 +19404,7 @@
     </row>
     <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="31" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18967,13 +19439,13 @@
         <v>170</v>
       </c>
       <c r="M101" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="N101" t="s">
         <v>1208</v>
       </c>
       <c r="P101" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19008,1487 +19480,1487 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="299" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="35" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B299" s="33">
         <f>COUNTIFS(B3:B297,"&lt;&gt;*/1", B3:B297,"&lt;&gt;*/2",B3:B297,"&lt;&gt;*/3" )</f>
@@ -20536,10 +21008,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD299"/>
+  <dimension ref="A1:AE299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S90" sqref="S90"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20559,41 +21031,42 @@
     <col min="16" max="16" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="45" customWidth="1"/>
-    <col min="19" max="19" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1605</v>
       </c>
-      <c r="B1" s="41" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>1607</v>
       </c>
-      <c r="Q2" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:25" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="P3" s="37">
         <f t="shared" ref="P3:P15" si="0">COUNTIF(B3:O3,"&lt;&gt;")</f>
@@ -20604,30 +21077,30 @@
       </c>
       <c r="R3" s="46"/>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D4" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -20636,22 +21109,22 @@
       <c r="Q4" s="44">
         <v>20</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="T4" s="49" t="s">
+        <v>1609</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>1610</v>
       </c>
-      <c r="W4" s="32" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>1611</v>
-      </c>
       <c r="B5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -20660,31 +21133,31 @@
       <c r="Q5" s="44">
         <v>14</v>
       </c>
-      <c r="S5" s="33"/>
       <c r="T5" s="33"/>
       <c r="U5" s="33"/>
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
       <c r="X5" s="33"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5" s="33"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -20693,20 +21166,23 @@
       <c r="Q6" s="44">
         <v>16</v>
       </c>
-      <c r="S6" s="32" t="s">
-        <v>1609</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1609</v>
-      </c>
-      <c r="U6">
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="V6">
         <v>16</v>
       </c>
-      <c r="W6" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20714,37 +21190,37 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="T7" t="s">
-        <v>1611</v>
-      </c>
-      <c r="U7">
+      <c r="U7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="V7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F8" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G8" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H8" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -20753,14 +21229,14 @@
       <c r="Q8" s="44">
         <v>15</v>
       </c>
-      <c r="T8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="U8">
+      <c r="U8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="V8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20769,27 +21245,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F10" t="s">
         <v>1395</v>
       </c>
-      <c r="F10" t="s">
-        <v>1396</v>
-      </c>
       <c r="G10" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -20798,55 +21274,58 @@
       <c r="Q10" s="44">
         <v>13</v>
       </c>
-      <c r="S10" s="32" t="s">
-        <v>1615</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1615</v>
-      </c>
-      <c r="U10">
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>1614</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1614</v>
+      </c>
+      <c r="V10">
         <v>11</v>
       </c>
-      <c r="W10" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X10" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I11" t="s">
         <v>1457</v>
       </c>
-      <c r="G11" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1429</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1458</v>
-      </c>
       <c r="J11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K11" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="L11" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -20855,28 +21334,28 @@
       <c r="Q11" s="44">
         <v>22</v>
       </c>
-      <c r="T11" t="s">
-        <v>1618</v>
-      </c>
-      <c r="U11">
+      <c r="U11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="V11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C12" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E12" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -20886,30 +21365,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C13" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D13" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F13" t="s">
         <v>1462</v>
       </c>
-      <c r="F13" t="s">
-        <v>1463</v>
-      </c>
       <c r="G13" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H13" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -20919,24 +21398,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C14" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F14" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -20945,37 +21424,40 @@
       <c r="Q14" s="44">
         <v>8</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>1654</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>1653</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>1619</v>
       </c>
-      <c r="U14">
-        <v>9</v>
-      </c>
-      <c r="W14" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>1620</v>
-      </c>
       <c r="B15" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C15" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E15" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F15" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -20984,45 +21466,45 @@
       <c r="Q15" s="44">
         <v>9</v>
       </c>
-      <c r="T15" t="s">
-        <v>1625</v>
-      </c>
-      <c r="U15">
+      <c r="U15" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="T16" t="s">
-        <v>1627</v>
-      </c>
-      <c r="U16">
+      <c r="U16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="V16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B17" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C17" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D17" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E17" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F17" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G17" t="s">
         <v>1447</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1448</v>
       </c>
       <c r="P17">
         <f t="shared" ref="P17:P48" si="1">COUNTIF(B17:O17,"&lt;&gt;")</f>
@@ -21031,34 +21513,34 @@
       <c r="Q17" s="44">
         <v>10</v>
       </c>
-      <c r="T17" t="s">
-        <v>1651</v>
-      </c>
-      <c r="U17">
+      <c r="U17" t="s">
+        <v>1650</v>
+      </c>
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B18" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D18" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G18" t="s">
         <v>1557</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1558</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
@@ -21068,7 +21550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21076,43 +21558,46 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="S19" s="32" t="s">
-        <v>1621</v>
-      </c>
-      <c r="T19" t="s">
-        <v>1621</v>
-      </c>
-      <c r="U19">
+      <c r="S19" s="2">
+        <v>4</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>1620</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1620</v>
+      </c>
+      <c r="V19">
         <v>8</v>
       </c>
-      <c r="W19" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B20" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C20" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G20" t="s">
         <v>1398</v>
       </c>
-      <c r="E20" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1399</v>
-      </c>
       <c r="H20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
@@ -21121,14 +21606,14 @@
       <c r="Q20" s="44">
         <v>12</v>
       </c>
-      <c r="T20" t="s">
-        <v>1641</v>
-      </c>
-      <c r="U20">
+      <c r="U20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21137,12 +21622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
@@ -21151,20 +21636,23 @@
       <c r="Q22">
         <v>3</v>
       </c>
-      <c r="S22" s="32" t="s">
-        <v>1617</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1617</v>
-      </c>
-      <c r="U22">
+      <c r="S22" s="2">
+        <v>5</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>1616</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1616</v>
+      </c>
+      <c r="V22">
         <v>7</v>
       </c>
-      <c r="W22" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21173,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21182,15 +21670,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B25" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
@@ -21199,43 +21687,46 @@
       <c r="Q25" s="44">
         <v>8</v>
       </c>
-      <c r="S25" s="32" t="s">
-        <v>1630</v>
-      </c>
-      <c r="T25" t="s">
-        <v>1630</v>
-      </c>
-      <c r="U25">
+      <c r="S25" s="2">
+        <v>6</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>1629</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1629</v>
+      </c>
+      <c r="V25">
         <v>5</v>
       </c>
-      <c r="W25" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B26" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C26" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D26" t="s">
         <v>1434</v>
       </c>
-      <c r="D26" t="s">
-        <v>1435</v>
-      </c>
       <c r="E26" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F26" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G26" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H26" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
@@ -21244,25 +21735,25 @@
       <c r="Q26" s="44">
         <v>12</v>
       </c>
-      <c r="T26" t="s">
-        <v>1633</v>
-      </c>
-      <c r="U26">
+      <c r="U26" t="s">
+        <v>1632</v>
+      </c>
+      <c r="V26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C27" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D27" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
@@ -21272,15 +21763,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C28" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D28" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
@@ -21289,20 +21780,23 @@
       <c r="Q28" s="44">
         <v>6</v>
       </c>
-      <c r="S28" s="32" t="s">
-        <v>1628</v>
-      </c>
-      <c r="T28" t="s">
-        <v>1628</v>
-      </c>
-      <c r="U28">
+      <c r="S28" s="2">
+        <v>7</v>
+      </c>
+      <c r="T28" s="32" t="s">
+        <v>1627</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1627</v>
+      </c>
+      <c r="V28">
         <v>6</v>
       </c>
-      <c r="W28" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21311,24 +21805,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B30" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C30" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D30" t="s">
         <v>1476</v>
       </c>
-      <c r="D30" t="s">
-        <v>1477</v>
-      </c>
       <c r="E30" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F30" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
@@ -21337,34 +21831,37 @@
       <c r="Q30" s="44">
         <v>7</v>
       </c>
-      <c r="S30" s="32" t="s">
-        <v>1629</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1629</v>
-      </c>
-      <c r="U30">
+      <c r="S30" s="2">
+        <v>8</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>1628</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V30">
         <v>6</v>
       </c>
-      <c r="W30" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B31" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C31" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D31" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E31" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
@@ -21374,7 +21871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21382,20 +21879,23 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="S32" s="32" t="s">
-        <v>1622</v>
-      </c>
-      <c r="T32" t="s">
-        <v>1622</v>
-      </c>
-      <c r="U32">
+      <c r="S32" s="2">
+        <v>9</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>1621</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1621</v>
+      </c>
+      <c r="V32">
         <v>5</v>
       </c>
-      <c r="W32" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21404,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21412,46 +21912,49 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="S34" s="32" t="s">
-        <v>1631</v>
-      </c>
-      <c r="T34" t="s">
-        <v>1631</v>
-      </c>
-      <c r="U34">
+      <c r="S34" s="2">
+        <v>10</v>
+      </c>
+      <c r="T34" s="32" t="s">
+        <v>1630</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="V34">
         <v>5</v>
       </c>
-      <c r="W34" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C35" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D35" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E35" t="s">
         <v>1467</v>
       </c>
-      <c r="E35" t="s">
-        <v>1468</v>
-      </c>
       <c r="F35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G35" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H35" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I35" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
@@ -21461,15 +21964,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B36" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
@@ -21478,20 +21981,23 @@
       <c r="Q36">
         <v>3</v>
       </c>
-      <c r="S36" s="32" t="s">
-        <v>1614</v>
-      </c>
-      <c r="T36" t="s">
-        <v>1614</v>
-      </c>
-      <c r="U36">
+      <c r="S36" s="2">
+        <v>11</v>
+      </c>
+      <c r="T36" s="32" t="s">
+        <v>1613</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1613</v>
+      </c>
+      <c r="V36">
         <v>8</v>
       </c>
-      <c r="W36" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21500,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21508,31 +22014,34 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="S38" s="32" t="s">
-        <v>1616</v>
-      </c>
-      <c r="T38" t="s">
-        <v>1616</v>
-      </c>
-      <c r="U38">
+      <c r="S38" s="2">
+        <v>12</v>
+      </c>
+      <c r="T38" s="32" t="s">
+        <v>1615</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1615</v>
+      </c>
+      <c r="V38">
         <v>5</v>
       </c>
-      <c r="W38" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B39" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C39" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D39" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
@@ -21541,29 +22050,29 @@
       <c r="Q39" s="44">
         <v>4</v>
       </c>
-      <c r="S39" s="32"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T39" s="32"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B40" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C40" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D40" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E40" t="s">
         <v>1372</v>
       </c>
-      <c r="E40" t="s">
-        <v>1373</v>
-      </c>
       <c r="F40" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G40" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
@@ -21572,20 +22081,23 @@
       <c r="Q40" s="44">
         <v>7</v>
       </c>
-      <c r="S40" s="32" t="s">
-        <v>1626</v>
-      </c>
-      <c r="T40" t="s">
-        <v>1626</v>
-      </c>
-      <c r="U40">
+      <c r="S40" s="2">
+        <v>13</v>
+      </c>
+      <c r="T40" s="32" t="s">
+        <v>1625</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1625</v>
+      </c>
+      <c r="V40">
         <v>6</v>
       </c>
-      <c r="W40" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21593,9 +22105,9 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="S41" s="32"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T41" s="32"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21603,20 +22115,23 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="S42" s="32" t="s">
-        <v>1635</v>
-      </c>
-      <c r="T42" t="s">
-        <v>1635</v>
-      </c>
-      <c r="U42">
+      <c r="S42" s="2">
+        <v>14</v>
+      </c>
+      <c r="T42" s="32" t="s">
+        <v>1634</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1634</v>
+      </c>
+      <c r="V42">
         <v>5</v>
       </c>
-      <c r="W42" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21624,15 +22139,15 @@
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="S43" s="32"/>
-      <c r="T43" t="s">
-        <v>1642</v>
-      </c>
-      <c r="U43">
+      <c r="T43" s="32"/>
+      <c r="U43" t="s">
+        <v>1641</v>
+      </c>
+      <c r="V43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21640,17 +22155,17 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="S44" s="32"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T44" s="32"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B45" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C45" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
@@ -21659,9 +22174,9 @@
       <c r="Q45">
         <v>3</v>
       </c>
-      <c r="S45" s="32"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T45" s="32"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21669,22 +22184,25 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="S46" s="32" t="s">
-        <v>1655</v>
-      </c>
-      <c r="T46" t="s">
-        <v>1637</v>
-      </c>
-      <c r="U46">
+      <c r="S46" s="2">
+        <v>15</v>
+      </c>
+      <c r="T46" s="32" t="s">
+        <v>1654</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1636</v>
+      </c>
+      <c r="V46">
         <v>5</v>
       </c>
-      <c r="W46" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P47">
         <f t="shared" si="1"/>
@@ -21693,29 +22211,29 @@
       <c r="Q47">
         <v>2</v>
       </c>
-      <c r="S47" s="32"/>
-      <c r="T47" t="s">
-        <v>1639</v>
-      </c>
-      <c r="U47">
+      <c r="T47" s="32"/>
+      <c r="U47" t="s">
+        <v>1638</v>
+      </c>
+      <c r="V47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B48" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C48" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D48" t="s">
         <v>1455</v>
       </c>
-      <c r="D48" t="s">
-        <v>1456</v>
-      </c>
       <c r="E48" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="P48">
         <f t="shared" si="1"/>
@@ -21724,15 +22242,15 @@
       <c r="Q48" s="44">
         <v>5</v>
       </c>
-      <c r="S48" s="32"/>
-      <c r="T48" t="s">
-        <v>1647</v>
-      </c>
-      <c r="U48">
+      <c r="T48" s="32"/>
+      <c r="U48" t="s">
+        <v>1646</v>
+      </c>
+      <c r="V48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P49">
         <f t="shared" ref="P49:P76" si="2">COUNTIF(B49:O49,"&lt;&gt;")</f>
         <v>0</v>
@@ -21740,26 +22258,26 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="S49" s="32"/>
-      <c r="T49" t="s">
-        <v>1650</v>
-      </c>
-      <c r="U49">
+      <c r="T49" s="32"/>
+      <c r="U49" t="s">
+        <v>1649</v>
+      </c>
+      <c r="V49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B50" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C50" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D50" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="P50">
         <f t="shared" si="2"/>
@@ -21768,9 +22286,9 @@
       <c r="Q50">
         <v>3</v>
       </c>
-      <c r="S50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T50" s="32"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21778,20 +22296,23 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="S51" s="32" t="s">
-        <v>1620</v>
-      </c>
-      <c r="T51" t="s">
-        <v>1620</v>
-      </c>
-      <c r="U51">
+      <c r="S51" s="2">
+        <v>16</v>
+      </c>
+      <c r="T51" s="32" t="s">
+        <v>1619</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1619</v>
+      </c>
+      <c r="V51">
         <v>5</v>
       </c>
-      <c r="W51" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X51" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21799,11 +22320,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="S52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T52" s="32"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="P53">
         <f t="shared" si="2"/>
@@ -21812,9 +22333,9 @@
       <c r="Q53">
         <v>2</v>
       </c>
-      <c r="S53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T53" s="32"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P54">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21822,31 +22343,34 @@
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="S54" s="32" t="s">
-        <v>1638</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="U54" s="2">
+      <c r="S54" s="2">
+        <v>17</v>
+      </c>
+      <c r="T54" s="32" t="s">
+        <v>1637</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="V54" s="2">
         <v>4</v>
       </c>
-      <c r="W54" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X54" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B55" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C55" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D55" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="P55">
         <f t="shared" si="2"/>
@@ -21855,9 +22379,9 @@
       <c r="Q55" s="44">
         <v>4</v>
       </c>
-      <c r="S55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T55" s="32"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P56">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21865,43 +22389,46 @@
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="S56" s="32" t="s">
-        <v>1634</v>
-      </c>
-      <c r="T56" t="s">
-        <v>1634</v>
-      </c>
-      <c r="U56">
+      <c r="S56" s="2">
+        <v>18</v>
+      </c>
+      <c r="T56" s="32" t="s">
+        <v>1633</v>
+      </c>
+      <c r="U56" t="s">
+        <v>1633</v>
+      </c>
+      <c r="V56">
         <v>3</v>
       </c>
-      <c r="W56" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X56" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B57" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C57" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D57" t="s">
         <v>1430</v>
       </c>
-      <c r="D57" t="s">
-        <v>1431</v>
-      </c>
       <c r="E57" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F57" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G57" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H57" t="s">
         <v>1566</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1567</v>
       </c>
       <c r="P57">
         <f t="shared" si="2"/>
@@ -21910,17 +22437,17 @@
       <c r="Q57" s="44">
         <v>8</v>
       </c>
-      <c r="S57" s="32"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T57" s="32"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B58" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C58" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="P58">
         <f t="shared" si="2"/>
@@ -21929,20 +22456,23 @@
       <c r="Q58">
         <v>2</v>
       </c>
-      <c r="S58" s="32" t="s">
-        <v>1656</v>
-      </c>
-      <c r="T58" t="s">
-        <v>1644</v>
-      </c>
-      <c r="U58">
+      <c r="S58" s="2">
+        <v>19</v>
+      </c>
+      <c r="T58" s="32" t="s">
+        <v>1655</v>
+      </c>
+      <c r="U58" t="s">
+        <v>1643</v>
+      </c>
+      <c r="V58">
         <v>4</v>
       </c>
-      <c r="W58" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X58" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P59">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21950,17 +22480,15 @@
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="S59" s="48" t="s">
-        <v>1657</v>
-      </c>
-      <c r="T59" t="s">
-        <v>1649</v>
-      </c>
-      <c r="U59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T59" s="48"/>
+      <c r="U59" t="s">
+        <v>1648</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P60">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21968,29 +22496,29 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T60" s="32"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B61" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C61" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D61" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E61" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F61" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G61" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="P61">
         <f t="shared" si="2"/>
@@ -21999,20 +22527,23 @@
       <c r="Q61" s="44">
         <v>7</v>
       </c>
-      <c r="S61" s="32" t="s">
-        <v>1659</v>
-      </c>
-      <c r="T61" t="s">
-        <v>1623</v>
-      </c>
-      <c r="U61">
+      <c r="S61" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" s="32" t="s">
+        <v>1657</v>
+      </c>
+      <c r="U61" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V61">
         <v>4</v>
       </c>
-      <c r="W61" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X61" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P62">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22020,15 +22551,15 @@
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="S62" s="32"/>
-      <c r="T62" t="s">
-        <v>1645</v>
-      </c>
-      <c r="U62">
+      <c r="T62" s="32"/>
+      <c r="U62" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P63">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22036,9 +22567,9 @@
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T63" s="32"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P64">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22046,23 +22577,26 @@
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="S64" s="32" t="s">
-        <v>1640</v>
-      </c>
-      <c r="T64" t="s">
-        <v>1640</v>
-      </c>
-      <c r="U64">
+      <c r="S64" s="2">
+        <v>21</v>
+      </c>
+      <c r="T64" s="32" t="s">
+        <v>1639</v>
+      </c>
+      <c r="U64" t="s">
+        <v>1639</v>
+      </c>
+      <c r="V64">
         <v>3</v>
       </c>
-      <c r="W64" t="s">
-        <v>1681</v>
-      </c>
-      <c r="X64" s="32" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Y64" s="32" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P65">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22070,38 +22604,38 @@
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T65" s="32"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B66" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C66" t="s">
         <v>1385</v>
       </c>
-      <c r="C66" t="s">
-        <v>1386</v>
-      </c>
       <c r="D66" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E66" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F66" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H66" t="s">
         <v>1515</v>
       </c>
-      <c r="G66" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1516</v>
-      </c>
       <c r="I66" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J66" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="P66">
         <f t="shared" si="2"/>
@@ -22110,9 +22644,9 @@
       <c r="Q66" s="44">
         <v>9</v>
       </c>
-      <c r="S66" s="32"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T66" s="32"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P67">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22120,11 +22654,11 @@
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="S67" s="32"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T67" s="32"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="P68">
         <f t="shared" si="2"/>
@@ -22133,20 +22667,23 @@
       <c r="Q68">
         <v>1</v>
       </c>
-      <c r="S68" s="32" t="s">
-        <v>1646</v>
-      </c>
-      <c r="T68" t="s">
-        <v>1646</v>
-      </c>
-      <c r="U68">
+      <c r="S68" s="2">
+        <v>22</v>
+      </c>
+      <c r="T68" s="32" t="s">
+        <v>1645</v>
+      </c>
+      <c r="U68" t="s">
+        <v>1645</v>
+      </c>
+      <c r="V68">
         <v>3</v>
       </c>
-      <c r="W68" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22154,11 +22691,11 @@
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="S69" s="32"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T69" s="32"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="P70">
         <f t="shared" si="2"/>
@@ -22167,20 +22704,23 @@
       <c r="Q70">
         <v>1</v>
       </c>
-      <c r="S70" s="32" t="s">
-        <v>1624</v>
-      </c>
-      <c r="T70" t="s">
-        <v>1624</v>
-      </c>
-      <c r="U70">
+      <c r="S70" s="2">
+        <v>23</v>
+      </c>
+      <c r="T70" s="32" t="s">
+        <v>1623</v>
+      </c>
+      <c r="U70" t="s">
+        <v>1623</v>
+      </c>
+      <c r="V70">
         <v>3</v>
       </c>
-      <c r="W70" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X70" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22188,9 +22728,9 @@
       <c r="Q71">
         <v>0</v>
       </c>
-      <c r="S71" s="32"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T71" s="32"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22198,22 +22738,25 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="S72" s="32" t="s">
-        <v>1613</v>
-      </c>
-      <c r="T72" t="s">
-        <v>1613</v>
-      </c>
-      <c r="U72">
+      <c r="S72" s="2">
+        <v>24</v>
+      </c>
+      <c r="T72" s="32" t="s">
+        <v>1612</v>
+      </c>
+      <c r="U72" t="s">
+        <v>1612</v>
+      </c>
+      <c r="V72">
         <v>12</v>
       </c>
-      <c r="W72" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="P73">
         <f t="shared" si="2"/>
@@ -22222,15 +22765,15 @@
       <c r="Q73">
         <v>1</v>
       </c>
-      <c r="S73" s="32"/>
-      <c r="T73" t="s">
-        <v>1636</v>
-      </c>
-      <c r="U73">
+      <c r="T73" s="32"/>
+      <c r="U73" t="s">
+        <v>1635</v>
+      </c>
+      <c r="V73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22238,11 +22781,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="S74" s="32"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T74" s="32"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="P75">
         <f t="shared" si="2"/>
@@ -22251,9 +22794,9 @@
       <c r="Q75">
         <v>2</v>
       </c>
-      <c r="S75" s="32"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T75" s="32"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22261,21 +22804,21 @@
       <c r="Q76">
         <v>0</v>
       </c>
-      <c r="S76" s="32"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T76" s="32"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="S77" s="32"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T77" s="32"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="S78" s="32"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T78" s="32"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P79">
         <f t="shared" ref="P79:P110" si="3">COUNTIF(B79:O79,"&lt;&gt;")</f>
         <v>0</v>
@@ -22283,26 +22826,26 @@
       <c r="Q79">
         <v>0</v>
       </c>
-      <c r="S79" s="32"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T79" s="32"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B80" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F80" t="s">
         <v>1387</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1388</v>
       </c>
       <c r="P80">
         <f t="shared" si="3"/>
@@ -22311,20 +22854,23 @@
       <c r="Q80" s="44">
         <v>5</v>
       </c>
-      <c r="S80" s="32" t="s">
-        <v>1658</v>
-      </c>
-      <c r="T80" t="s">
-        <v>1632</v>
-      </c>
-      <c r="U80">
+      <c r="S80" s="2">
+        <v>25</v>
+      </c>
+      <c r="T80" s="32" t="s">
+        <v>1656</v>
+      </c>
+      <c r="U80" t="s">
+        <v>1631</v>
+      </c>
+      <c r="V80">
         <v>2</v>
       </c>
-      <c r="W80" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X80" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P81">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22332,25 +22878,25 @@
       <c r="Q81">
         <v>0</v>
       </c>
-      <c r="T81" t="s">
-        <v>1643</v>
-      </c>
-      <c r="U81">
+      <c r="U81" t="s">
+        <v>1642</v>
+      </c>
+      <c r="V81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B82" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C82" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D82" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="P82">
         <f t="shared" si="3"/>
@@ -22359,14 +22905,14 @@
       <c r="Q82">
         <v>3</v>
       </c>
-      <c r="T82" t="s">
-        <v>1648</v>
-      </c>
-      <c r="U82">
+      <c r="U82" t="s">
+        <v>1647</v>
+      </c>
+      <c r="V82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P83">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22374,19 +22920,19 @@
       <c r="Q83">
         <v>0</v>
       </c>
-      <c r="T83" t="s">
-        <v>1652</v>
-      </c>
-      <c r="U83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U83" t="s">
+        <v>1651</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C84" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="P84">
         <f t="shared" si="3"/>
@@ -22395,14 +22941,14 @@
       <c r="Q84">
         <v>2</v>
       </c>
-      <c r="T84" t="s">
-        <v>1653</v>
-      </c>
-      <c r="U84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U84" t="s">
+        <v>1652</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P85">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22411,7 +22957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P86">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22420,21 +22966,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B87" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C87" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D87" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E87" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P87">
         <f t="shared" si="3"/>
@@ -22444,7 +22990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P88">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22453,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P89">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22462,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P90">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22471,7 +23017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P91">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22480,7 +23026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P92">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22489,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P93">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22498,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P94">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22507,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P95">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22516,9 +23062,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="P96">
         <f t="shared" si="3"/>
@@ -22528,9 +23074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="P97">
         <f t="shared" si="3"/>
@@ -22540,7 +23086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P98">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22548,19 +23094,18 @@
       <c r="Q98">
         <v>0</v>
       </c>
-      <c r="S98" s="33">
-        <f>COUNTIF(S6:S97, "&lt;&gt;")</f>
-        <v>26</v>
-      </c>
       <c r="T98" s="33">
         <f>COUNTIF(T6:T97, "&lt;&gt;")</f>
+        <v>25</v>
+      </c>
+      <c r="U98" s="33">
+        <f>COUNTIF(U6:U97, "&lt;&gt;")</f>
         <v>44</v>
       </c>
-      <c r="U98" s="33">
-        <f>SUM(U6:U97)</f>
+      <c r="V98" s="33">
+        <f>SUM(V6:V97)</f>
         <v>218</v>
       </c>
-      <c r="V98" s="33"/>
       <c r="W98" s="33"/>
       <c r="X98" s="33"/>
       <c r="Y98" s="33"/>
@@ -22569,8 +23114,9 @@
       <c r="AB98" s="33"/>
       <c r="AC98" s="33"/>
       <c r="AD98" s="33"/>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="33"/>
+    </row>
+    <row r="99" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P99">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22579,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22588,7 +23134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P101">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22597,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P102">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22606,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P103">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22615,9 +23161,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="P104">
         <f t="shared" si="3"/>
@@ -22627,7 +23173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P105">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22636,9 +23182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="P106">
         <f t="shared" si="3"/>
@@ -22648,12 +23194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C107" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="P107">
         <f t="shared" si="3"/>
@@ -22663,9 +23209,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="P108">
         <f t="shared" si="3"/>
@@ -22675,7 +23221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P109">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22684,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:31" x14ac:dyDescent="0.2">
       <c r="P110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22693,17 +23239,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Q111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C112" t="s">
         <v>1419</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1420</v>
       </c>
       <c r="P112">
         <f t="shared" ref="P112:P143" si="4">COUNTIF(B112:O112,"&lt;&gt;")</f>
@@ -22724,7 +23270,7 @@
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="P114">
         <f t="shared" si="4"/>
@@ -22736,7 +23282,7 @@
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="P115">
         <f t="shared" si="4"/>
@@ -22748,7 +23294,7 @@
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="P116">
         <f t="shared" si="4"/>
@@ -22760,7 +23306,7 @@
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P117">
         <f t="shared" si="4"/>
@@ -22790,7 +23336,7 @@
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="P120">
         <f t="shared" si="4"/>
@@ -22802,7 +23348,7 @@
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="P121">
         <f t="shared" si="4"/>
@@ -22868,7 +23414,7 @@
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="P128">
         <f t="shared" si="4"/>
@@ -22907,7 +23453,7 @@
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="P132">
         <f t="shared" si="4"/>
@@ -22928,7 +23474,7 @@
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="P134">
         <f t="shared" si="4"/>
@@ -22940,10 +23486,10 @@
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C135" t="s">
         <v>1442</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1443</v>
       </c>
       <c r="P135">
         <f t="shared" si="4"/>
@@ -23009,7 +23555,7 @@
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="P142">
         <f t="shared" si="4"/>
@@ -23021,7 +23567,7 @@
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P143">
         <f t="shared" si="4"/>
@@ -23042,7 +23588,7 @@
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="P145">
         <f t="shared" si="5"/>
@@ -23054,7 +23600,7 @@
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="P146">
         <f t="shared" si="5"/>
@@ -23066,7 +23612,7 @@
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="P147">
         <f t="shared" si="5"/>
@@ -23114,7 +23660,7 @@
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="P152">
         <f t="shared" si="5"/>
@@ -23216,7 +23762,7 @@
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="P163">
         <f t="shared" si="5"/>
@@ -23228,7 +23774,7 @@
     </row>
     <row r="164" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="P164">
         <f t="shared" si="5"/>
@@ -23240,7 +23786,7 @@
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="P165">
         <f t="shared" si="5"/>
@@ -23270,7 +23816,7 @@
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="P168">
         <f t="shared" si="5"/>
@@ -23309,7 +23855,7 @@
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="P172">
         <f t="shared" si="5"/>
@@ -23330,7 +23876,7 @@
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="P174">
         <f t="shared" si="5"/>
@@ -23342,7 +23888,7 @@
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="P175">
         <f t="shared" si="5"/>
@@ -23354,7 +23900,7 @@
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="P176">
         <f t="shared" ref="P176:P177" si="6">COUNTIF(B176:O176,"&lt;&gt;")</f>
@@ -23385,25 +23931,25 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="38" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B180" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C180" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F180" t="s">
         <v>1546</v>
       </c>
-      <c r="D180" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1547</v>
-      </c>
       <c r="G180" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="P180">
         <f>COUNTIF(B180:O180,"&lt;&gt;")</f>
@@ -23415,16 +23961,16 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="38" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B181" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C181" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D181" t="s">
         <v>1552</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1553</v>
       </c>
       <c r="P181">
         <f>COUNTIF(B181:O181,"&lt;&gt;")</f>
@@ -23436,16 +23982,16 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="38" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B182" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C182" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D182" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -23453,22 +23999,22 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="38" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B183" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C183" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D183" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E183" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F183" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="P183">
         <f>COUNTIF(B183:O183,"&lt;&gt;")</f>
@@ -23485,7 +24031,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="P185">
         <f t="shared" ref="P185:P216" si="7">COUNTIF(B185:O185,"&lt;&gt;")</f>
@@ -23497,7 +24043,7 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="P186">
         <f t="shared" si="7"/>
@@ -23509,7 +24055,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="P187">
         <f t="shared" si="7"/>
@@ -23530,10 +24076,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C189" t="s">
         <v>1496</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1497</v>
       </c>
       <c r="P189">
         <f t="shared" si="7"/>
@@ -23572,10 +24118,10 @@
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C193" t="s">
         <v>1500</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1501</v>
       </c>
       <c r="P193">
         <f t="shared" si="7"/>
@@ -23596,7 +24142,7 @@
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="P195">
         <f t="shared" si="7"/>
@@ -23617,7 +24163,7 @@
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="P197">
         <f t="shared" si="7"/>
@@ -23638,7 +24184,7 @@
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="P199">
         <f t="shared" si="7"/>
@@ -23668,7 +24214,7 @@
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="P202">
         <f t="shared" si="7"/>
@@ -23680,7 +24226,7 @@
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="P203">
         <f t="shared" si="7"/>
@@ -23701,10 +24247,10 @@
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C205" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="P205">
         <f t="shared" si="7"/>
@@ -23725,7 +24271,7 @@
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="P207">
         <f t="shared" si="7"/>
@@ -23737,7 +24283,7 @@
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="P208">
         <f t="shared" si="7"/>
@@ -23830,7 +24376,7 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="P218">
         <f t="shared" si="8"/>
@@ -23842,16 +24388,16 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="38" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B219" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C219" t="s">
         <v>1526</v>
       </c>
-      <c r="C219" t="s">
-        <v>1527</v>
-      </c>
       <c r="D219" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="P219">
         <f t="shared" si="8"/>
@@ -23881,7 +24427,7 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="P222">
         <f t="shared" si="8"/>
@@ -23893,7 +24439,7 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="P223">
         <f t="shared" si="8"/>
@@ -23905,7 +24451,7 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="P224">
         <f t="shared" si="8"/>
@@ -23917,7 +24463,7 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="P225">
         <f t="shared" si="8"/>
@@ -23938,7 +24484,7 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="P227">
         <f t="shared" si="8"/>
@@ -23977,7 +24523,7 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="P231">
         <f t="shared" si="8"/>
@@ -23989,19 +24535,19 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="38" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B232" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C232" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D232" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E232" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="P232">
         <f t="shared" si="8"/>
@@ -24013,7 +24559,7 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="P233">
         <f t="shared" si="8"/>
@@ -24025,7 +24571,7 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="P234">
         <f t="shared" si="8"/>
@@ -24037,7 +24583,7 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="P235">
         <f t="shared" si="8"/>
@@ -24103,19 +24649,19 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="38" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B242" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C242" t="s">
         <v>1549</v>
       </c>
-      <c r="C242" t="s">
-        <v>1550</v>
-      </c>
       <c r="D242" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E242" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="P242">
         <f t="shared" si="8"/>
@@ -24136,7 +24682,7 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="P244">
         <f t="shared" si="8"/>
@@ -24220,7 +24766,7 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="P253">
         <f t="shared" si="9"/>
@@ -24232,7 +24778,7 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="P254">
         <f t="shared" si="9"/>
@@ -24244,7 +24790,7 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="P255">
         <f t="shared" si="9"/>
@@ -24256,7 +24802,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="P256">
         <f t="shared" si="9"/>
@@ -24273,10 +24819,10 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C258" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="P258">
         <f t="shared" ref="P258:P297" si="10">COUNTIF(B258:O258,"&lt;&gt;")</f>
@@ -24306,13 +24852,13 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="38" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B261" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C261" t="s">
         <v>1568</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1569</v>
       </c>
       <c r="P261">
         <f t="shared" si="10"/>
@@ -24333,7 +24879,7 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="P263">
         <f t="shared" si="10"/>
@@ -24345,7 +24891,7 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="P264">
         <f t="shared" si="10"/>
@@ -24375,7 +24921,7 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="P267">
         <f t="shared" si="10"/>
@@ -24387,7 +24933,7 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="P268">
         <f t="shared" si="10"/>
@@ -24399,10 +24945,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C269" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="P269">
         <f t="shared" si="10"/>
@@ -24450,7 +24996,7 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="P274">
         <f t="shared" si="10"/>
@@ -24462,7 +25008,7 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="P275">
         <f t="shared" si="10"/>
@@ -24519,19 +25065,19 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" s="38" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B281" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C281" t="s">
         <v>1587</v>
       </c>
-      <c r="C281" t="s">
-        <v>1588</v>
-      </c>
       <c r="D281" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E281" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="P281">
         <f t="shared" si="10"/>
@@ -24552,13 +25098,13 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" s="38" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B283" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C283" t="s">
         <v>1589</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1590</v>
       </c>
       <c r="P283">
         <f t="shared" si="10"/>
@@ -24597,7 +25143,7 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="P287">
         <f t="shared" si="10"/>
@@ -24616,7 +25162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P289">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24625,7 +25171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P290">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24634,7 +25180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P291">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24643,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P292">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24652,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P293">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24661,9 +25207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="P294">
         <f t="shared" si="10"/>
@@ -24673,7 +25219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P295">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24682,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P296">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24691,7 +25237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P297">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24700,7 +25246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="40">
         <f>COUNTIF(A3:A297, "&lt;&gt;")</f>
         <v>44</v>
@@ -24718,8 +25264,9 @@
         <v>58</v>
       </c>
       <c r="R298" s="47"/>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S298" s="2"/>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P299" s="34">
         <f>COUNTIF(P4:P298,"&gt;4")</f>
         <v>22</v>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="1765">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -3665,6 +3665,9 @@
     <t xml:space="preserve">2, 5, 12</t>
   </si>
   <si>
+    <t xml:space="preserve">5, 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malmo platform, experimentation platform, Minecraft, Complex environment, 3d environment, AGI</t>
   </si>
   <si>
@@ -3749,6 +3752,9 @@
     <t xml:space="preserve">AGI, AGI safety, Friendly AI, Nurture, Child AI</t>
   </si>
   <si>
+    <t xml:space="preserve">2, 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nurture? Pedagogy?</t>
   </si>
   <si>
@@ -3758,6 +3764,9 @@
     <t xml:space="preserve">3, 14, 21</t>
   </si>
   <si>
+    <t xml:space="preserve">3, 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">HLAI, Cognitive Event Calculus, Automated reasoning, Inference, AGI, MATR</t>
   </si>
   <si>
@@ -3872,6 +3881,9 @@
     <t xml:space="preserve">1, 3, 2</t>
   </si>
   <si>
+    <t xml:space="preserve">1, 3, 26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not related to safety, just rsi</t>
   </si>
   <si>
@@ -3923,7 +3935,7 @@
     <t xml:space="preserve">AGI, Partial algorithms, Algorithm analysis, Expected discounted reward, Recursive self-improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">RSI?</t>
+    <t xml:space="preserve">Focus not on rsi, but fits</t>
   </si>
   <si>
     <t xml:space="preserve">AI evaluation, Task environment, Environment design, Environment requirements</t>
@@ -3980,7 +3992,7 @@
     <t xml:space="preserve">16, 24</t>
   </si>
   <si>
-    <t xml:space="preserve">19?</t>
+    <t xml:space="preserve">16, 19, 24</t>
   </si>
   <si>
     <t xml:space="preserve">AGI, NARS, Emotion, Cognitive Architecture, AGI design</t>
@@ -4010,6 +4022,9 @@
     <t xml:space="preserve">22, 15</t>
   </si>
   <si>
+    <t xml:space="preserve">4, 15, 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imitiation?</t>
   </si>
   <si>
@@ -4025,7 +4040,13 @@
     <t xml:space="preserve">1, 20</t>
   </si>
   <si>
+    <t xml:space="preserve">8, 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">General value functions, Introspective agents, Prediction, Reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 13, 15</t>
   </si>
   <si>
     <t xml:space="preserve">AIXI, MC-AIXI, Reinforcement learning, Imitation, AGI, Lambda calculus, MAGICHASKELLER, Inductive programming</t>
@@ -6089,14 +6110,14 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.71"/>
@@ -15014,19 +15035,19 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P46" activeCellId="0" sqref="P46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.57"/>
@@ -15143,6 +15164,9 @@
       <c r="O3" s="0" t="s">
         <v>1203</v>
       </c>
+      <c r="P3" s="0" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
@@ -15190,6 +15214,9 @@
       <c r="O4" s="0" t="s">
         <v>1205</v>
       </c>
+      <c r="P4" s="0" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
@@ -15237,6 +15264,9 @@
       <c r="O5" s="0" t="s">
         <v>1208</v>
       </c>
+      <c r="P5" s="0" t="s">
+        <v>1208</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>1209</v>
       </c>
@@ -15287,6 +15317,9 @@
       <c r="O6" s="0" t="s">
         <v>1212</v>
       </c>
+      <c r="P6" s="0" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
@@ -15323,13 +15356,16 @@
         <v>35</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15367,13 +15403,16 @@
         <v>35</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15414,13 +15453,16 @@
         <v>35</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15458,13 +15500,16 @@
         <v>170</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15502,13 +15547,16 @@
         <v>170</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15546,13 +15594,16 @@
         <v>170</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15590,13 +15641,16 @@
         <v>170</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15634,12 +15688,15 @@
         <v>170</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15678,13 +15735,16 @@
         <v>170</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15719,19 +15779,22 @@
         <v>71</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15766,19 +15829,22 @@
         <v>71</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15813,19 +15879,22 @@
         <v>71</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15860,18 +15929,21 @@
         <v>71</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -15907,22 +15979,25 @@
         <v>71</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="P20" s="0" t="s">
+        <v>1242</v>
+      </c>
       <c r="Q20" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15957,19 +16032,22 @@
         <v>71</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>1243</v>
+        <v>1245</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16004,18 +16082,21 @@
         <v>71</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -16051,19 +16132,22 @@
         <v>71</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16098,18 +16182,21 @@
         <v>71</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>20</v>
       </c>
     </row>
@@ -16142,13 +16229,13 @@
         <v>71</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>1211</v>
@@ -16156,8 +16243,11 @@
       <c r="O25" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="P25" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="Q25" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16189,18 +16279,21 @@
         <v>71</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16236,19 +16329,22 @@
         <v>71</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16283,18 +16379,21 @@
         <v>71</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>23</v>
       </c>
     </row>
@@ -16327,19 +16426,22 @@
         <v>71</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16374,19 +16476,22 @@
         <v>71</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>1256</v>
+        <v>1259</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16421,19 +16526,22 @@
         <v>71</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16468,19 +16576,22 @@
         <v>71</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16515,19 +16626,22 @@
         <v>71</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>1260</v>
+        <v>1263</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16562,18 +16676,21 @@
         <v>71</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16609,18 +16726,21 @@
         <v>71</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O35" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P35" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -16656,18 +16776,21 @@
         <v>71</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16703,19 +16826,22 @@
         <v>71</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>1265</v>
+        <v>1268</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16750,19 +16876,22 @@
         <v>71</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>1267</v>
+        <v>1270</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16794,19 +16923,22 @@
         <v>71</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>1269</v>
+        <v>1272</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16841,19 +16973,22 @@
         <v>71</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>1271</v>
+        <v>1274</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16888,19 +17023,22 @@
         <v>71</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>1273</v>
+        <v>1276</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16935,18 +17073,21 @@
         <v>71</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16982,21 +17123,23 @@
         <v>71</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P43" s="29"/>
+        <v>1279</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="n">
@@ -17030,19 +17173,22 @@
         <v>71</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>1279</v>
+        <v>1282</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17077,22 +17223,25 @@
         <v>71</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>1281</v>
+        <v>1284</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>1285</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17124,19 +17273,22 @@
         <v>71</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>1284</v>
+        <v>1288</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17171,18 +17323,21 @@
         <v>71</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O47" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P47" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -17215,19 +17370,22 @@
         <v>71</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>1287</v>
+        <v>1291</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17259,19 +17417,22 @@
         <v>71</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>1290</v>
+        <v>1294</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17306,22 +17467,25 @@
         <v>71</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>1292</v>
+        <v>1296</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>1296</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17356,19 +17520,22 @@
         <v>71</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>1295</v>
+        <v>1299</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17403,18 +17570,21 @@
         <v>71</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P52" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17447,18 +17617,21 @@
         <v>71</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O53" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P53" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -17494,22 +17667,25 @@
         <v>71</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="P54" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="Q54" s="0" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17544,19 +17720,22 @@
         <v>71</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>1301</v>
+        <v>1305</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17591,19 +17770,22 @@
         <v>71</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>1303</v>
+        <v>1307</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17638,22 +17820,25 @@
         <v>71</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O57" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="P57" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="Q57" s="0" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17688,19 +17873,22 @@
         <v>71</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>1307</v>
+        <v>1311</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17735,18 +17923,21 @@
         <v>71</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17782,19 +17973,22 @@
         <v>71</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>1310</v>
+        <v>1314</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17829,19 +18023,22 @@
         <v>71</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17876,19 +18073,22 @@
         <v>71</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L62" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>1313</v>
+        <v>1317</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17923,19 +18123,22 @@
         <v>71</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>1315</v>
+        <v>1319</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17970,22 +18173,22 @@
         <v>71</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>1317</v>
-      </c>
-      <c r="Q64" s="0" t="s">
-        <v>1318</v>
+        <v>1321</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18020,19 +18223,22 @@
         <v>71</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>1320</v>
+        <v>1324</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18067,19 +18273,22 @@
         <v>71</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>1322</v>
+        <v>1326</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18111,19 +18320,22 @@
         <v>71</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>1324</v>
+        <v>1328</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18158,18 +18370,21 @@
         <v>71</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="N68" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O68" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="P68" s="0" t="n">
         <v>23</v>
       </c>
     </row>
@@ -18205,22 +18420,25 @@
         <v>71</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>1327</v>
+        <v>1331</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>1332</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18255,19 +18473,22 @@
         <v>71</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>1330</v>
+        <v>1335</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18302,19 +18523,22 @@
         <v>71</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>1332</v>
+        <v>1337</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18349,19 +18573,22 @@
         <v>71</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O72" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18396,19 +18623,22 @@
         <v>71</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>1334</v>
+        <v>1341</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>1335</v>
+        <v>1342</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18443,19 +18673,22 @@
         <v>71</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>1337</v>
+        <v>1344</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18490,19 +18723,22 @@
         <v>71</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>1339</v>
+        <v>1346</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18537,18 +18773,21 @@
         <v>71</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L76" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18584,19 +18823,22 @@
         <v>71</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L77" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>1279</v>
+        <v>1282</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18628,18 +18870,21 @@
         <v>71</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L78" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P78" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18672,19 +18917,22 @@
         <v>71</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L79" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18719,19 +18967,22 @@
         <v>71</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L80" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>1345</v>
+        <v>1352</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18766,19 +19017,22 @@
         <v>71</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L81" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>1347</v>
+        <v>1354</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18813,19 +19067,22 @@
         <v>71</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L82" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>1273</v>
+        <v>1276</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18860,18 +19117,21 @@
         <v>71</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L83" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P83" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18904,19 +19164,22 @@
         <v>71</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L84" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>1351</v>
+        <v>1358</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18951,19 +19214,22 @@
         <v>71</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L85" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>1353</v>
+        <v>1360</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18998,19 +19264,22 @@
         <v>71</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L86" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>1355</v>
+        <v>1362</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19045,18 +19314,21 @@
         <v>71</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L87" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19092,19 +19364,22 @@
         <v>71</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L88" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>1358</v>
+        <v>1365</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19139,19 +19414,22 @@
         <v>71</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L89" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>1360</v>
+        <v>1367</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19183,22 +19461,25 @@
         <v>71</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L90" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O90" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="P90" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Q90" s="0" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19233,18 +19514,21 @@
         <v>71</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L91" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="N91" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19280,19 +19564,22 @@
         <v>71</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L92" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>1256</v>
+        <v>1259</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19327,18 +19614,21 @@
         <v>71</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L93" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="N93" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="O93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P93" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19371,18 +19661,21 @@
         <v>71</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L94" s="0" t="s">
         <v>255</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O94" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P94" s="0" t="n">
         <v>24</v>
       </c>
     </row>
@@ -19404,7 +19697,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="31" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19439,13 +19732,13 @@
         <v>170</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19477,1494 +19770,1494 @@
       <selection pane="topLeft" activeCell="B304" activeCellId="0" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1372</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1374</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>1375</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>1380</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1381</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>1383</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>1385</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>1386</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>1391</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>1440</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>1443</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>1444</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>1446</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>1447</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>1448</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>1454</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>1456</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>1458</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>1459</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>1461</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>1462</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>1465</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>1466</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>1469</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>1475</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>1480</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>1484</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="0" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>1505</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>1507</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0" t="s">
-        <v>1509</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0" t="s">
-        <v>1510</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>1512</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>1514</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>1515</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>1516</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>1517</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>1518</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>1520</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
-        <v>1522</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>1525</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>1526</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>1528</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>1530</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>1531</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>1532</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>1533</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="0" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="0" t="s">
-        <v>1538</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>1539</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="0" t="s">
-        <v>1540</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>1541</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>1542</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
-        <v>1543</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="0" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="0" t="s">
-        <v>1546</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>1549</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="0" t="s">
-        <v>1550</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="0" t="s">
-        <v>1551</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>1552</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>1553</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>1554</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="0" t="s">
-        <v>1556</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="0" t="s">
-        <v>1557</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="0" t="s">
-        <v>1558</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="0" t="s">
-        <v>1560</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>1561</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
-        <v>1562</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>1563</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>1564</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>1565</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="0" t="s">
-        <v>1566</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>1567</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="0" t="s">
-        <v>1568</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="s">
-        <v>1569</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>1570</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>1571</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>1572</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>1573</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>1574</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>1578</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>1579</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>1586</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>1588</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>1589</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>1590</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>1591</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>1593</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>1594</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>1595</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="0" t="s">
-        <v>1596</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="0" t="s">
-        <v>1597</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>1598</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>1599</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>1600</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>1601</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>1602</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>1603</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>1604</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>1605</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>1606</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="0" t="s">
-        <v>1607</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="0" t="s">
-        <v>1608</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
-        <v>1609</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>1610</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>1611</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
-        <v>1612</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="0" t="s">
-        <v>1613</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="0" t="s">
-        <v>1614</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="0" t="s">
-        <v>1615</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="0" t="s">
-        <v>1616</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="0" t="s">
-        <v>1617</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="0" t="s">
-        <v>1618</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>1619</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="0" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="0" t="s">
-        <v>1621</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="0" t="s">
-        <v>1622</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="0" t="s">
-        <v>1623</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="0" t="s">
-        <v>1624</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="0" t="s">
-        <v>1625</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="0" t="s">
-        <v>1626</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="0" t="s">
-        <v>1627</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="0" t="s">
-        <v>1628</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="0" t="s">
-        <v>1629</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="0" t="s">
-        <v>1630</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="0" t="s">
-        <v>1631</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="0" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="0" t="s">
-        <v>1633</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="0" t="s">
-        <v>1634</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="0" t="s">
-        <v>1635</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>1636</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>1637</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="0" t="s">
-        <v>1638</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="0" t="s">
-        <v>1639</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="0" t="s">
-        <v>1640</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="0" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>1641</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>1642</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
-        <v>1643</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>1645</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>1646</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>1647</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>1648</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="0" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
-        <v>1650</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="0" t="s">
-        <v>1651</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="0" t="s">
-        <v>1653</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>1654</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="0" t="s">
-        <v>1655</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="0" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="0" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>1663</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>1664</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="299" s="33" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="32" t="s">
-        <v>1665</v>
+        <v>1672</v>
       </c>
       <c r="B299" s="33" t="n">
         <f aca="false">COUNTIFS(B3:B297,"&lt;&gt;*/1", B3:B297,"&lt;&gt;*/2",B3:B297,"&lt;&gt;*/3" )</f>
@@ -21026,9 +21319,9 @@
       <selection pane="topLeft" activeCell="U119" activeCellId="0" sqref="U119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="51.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="51.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.29"/>
@@ -21043,7 +21336,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="25.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="35" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="91.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.14"/>
@@ -21051,33 +21344,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>1666</v>
+        <v>1673</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>1667</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P2" s="0" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>1669</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="3" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="38"/>
       <c r="B3" s="39" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1381</v>
+        <v>1388</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="P3" s="40" t="n">
         <f aca="false">COUNTIF(B3:O3,"&lt;&gt;")</f>
@@ -21090,28 +21383,28 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1372</v>
+        <v>1379</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1653</v>
+        <v>1660</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1462</v>
+        <v>1469</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1466</v>
+        <v>1473</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">COUNTIF(B4:O4,"&lt;&gt;")</f>
@@ -21121,21 +21414,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>1672</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">COUNTIF(B5:O5,"&lt;&gt;")</f>
@@ -21153,22 +21446,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1375</v>
+        <v>1382</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1391</v>
+        <v>1398</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">COUNTIF(B6:O6,"&lt;&gt;")</f>
@@ -21181,16 +21474,16 @@
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="V6" s="0" t="n">
         <v>16</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21202,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>11</v>
@@ -21210,28 +21503,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1374</v>
+        <v>1381</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1663</v>
+        <v>1670</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1609</v>
+        <v>1616</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1597</v>
+        <v>1604</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">COUNTIF(B8:O8,"&lt;&gt;")</f>
@@ -21241,7 +21534,7 @@
         <v>15</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>8</v>
@@ -21258,25 +21551,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1456</v>
+        <v>1463</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1646</v>
+        <v>1653</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">COUNTIF(B10:O10,"&lt;&gt;")</f>
@@ -21289,54 +21582,54 @@
         <v>2</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>11</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>1679</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1518</v>
+        <v>1525</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>1522</v>
+        <v>1529</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">COUNTIF(B11:O11,"&lt;&gt;")</f>
@@ -21346,7 +21639,7 @@
         <v>22</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>1680</v>
+        <v>1687</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>5</v>
@@ -21354,19 +21647,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1380</v>
+        <v>1387</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">COUNTIF(B12:O12,"&lt;&gt;")</f>
@@ -21378,28 +21671,28 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1443</v>
+        <v>1450</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1512</v>
+        <v>1519</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>1578</v>
+        <v>1585</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">COUNTIF(B13:O13,"&lt;&gt;")</f>
@@ -21411,22 +21704,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>1680</v>
+        <v>1687</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1552</v>
+        <v>1559</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1440</v>
+        <v>1447</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">COUNTIF(B14:O14,"&lt;&gt;")</f>
@@ -21439,36 +21732,36 @@
         <v>3</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1683</v>
+        <v>1690</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>1684</v>
+        <v>1691</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>1685</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1383</v>
+        <v>1390</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">COUNTIF(B15:O15,"&lt;&gt;")</f>
@@ -21478,7 +21771,7 @@
         <v>9</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>7</v>
@@ -21489,7 +21782,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>1688</v>
+        <v>1695</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>4</v>
@@ -21497,25 +21790,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1385</v>
+        <v>1392</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1638</v>
+        <v>1645</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1541</v>
+        <v>1548</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1509</v>
+        <v>1516</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">COUNTIF(B17:O17,"&lt;&gt;")</f>
@@ -21525,7 +21818,7 @@
         <v>10</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="V17" s="0" t="n">
         <v>2</v>
@@ -21533,25 +21826,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1386</v>
+        <v>1393</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1618</v>
+        <v>1625</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>1619</v>
+        <v>1626</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">COUNTIF(B18:O18,"&lt;&gt;")</f>
@@ -21573,42 +21866,42 @@
         <v>4</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
       <c r="V19" s="0" t="n">
         <v>8</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>1692</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>1693</v>
+        <v>1700</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1459</v>
+        <v>1466</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1461</v>
+        <v>1468</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1633</v>
+        <v>1640</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
       <c r="P20" s="0" t="n">
         <f aca="false">COUNTIF(B20:O20,"&lt;&gt;")</f>
@@ -21618,7 +21911,7 @@
         <v>12</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>4</v>
@@ -21635,10 +21928,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">COUNTIF(B22:O22,"&lt;&gt;")</f>
@@ -21651,16 +21944,16 @@
         <v>5</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>7</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21683,13 +21976,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">COUNTIF(B25:O25,"&lt;&gt;")</f>
@@ -21702,42 +21995,42 @@
         <v>6</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="V25" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>1698</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>1684</v>
+        <v>1691</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
       <c r="P26" s="0" t="n">
         <f aca="false">COUNTIF(B26:O26,"&lt;&gt;")</f>
@@ -21747,7 +22040,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="V26" s="0" t="n">
         <v>2</v>
@@ -21755,16 +22048,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="34" t="s">
-        <v>1688</v>
+        <v>1695</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">COUNTIF(B27:O27,"&lt;&gt;")</f>
@@ -21776,13 +22069,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">COUNTIF(B28:O28,"&lt;&gt;")</f>
@@ -21795,16 +22088,16 @@
         <v>7</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="V28" s="0" t="n">
         <v>6</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>1701</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21818,22 +22111,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">COUNTIF(B30:O30,"&lt;&gt;")</f>
@@ -21846,33 +22139,33 @@
         <v>8</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>6</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>1703</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>1546</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>1539</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">COUNTIF(B31:O31,"&lt;&gt;")</f>
@@ -21894,16 +22187,16 @@
         <v>9</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>1704</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21927,45 +22220,45 @@
         <v>10</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="V34" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1528</v>
+        <v>1535</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>1564</v>
+        <v>1571</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">COUNTIF(B35:O35,"&lt;&gt;")</f>
@@ -21977,13 +22270,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
       <c r="P36" s="0" t="n">
         <f aca="false">COUNTIF(B36:O36,"&lt;&gt;")</f>
@@ -21996,16 +22289,16 @@
         <v>11</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="V36" s="0" t="n">
         <v>8</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22029,30 +22322,30 @@
         <v>12</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1444</v>
+        <v>1451</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1634</v>
+        <v>1641</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">COUNTIF(B39:O39,"&lt;&gt;")</f>
@@ -22065,25 +22358,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
       <c r="P40" s="0" t="n">
         <f aca="false">COUNTIF(B40:O40,"&lt;&gt;")</f>
@@ -22096,16 +22389,16 @@
         <v>13</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="V40" s="0" t="n">
         <v>6</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22130,16 +22423,16 @@
         <v>14</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="V42" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22152,7 +22445,7 @@
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="0" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>2</v>
@@ -22170,13 +22463,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1574</v>
+        <v>1581</v>
       </c>
       <c r="P45" s="0" t="n">
         <f aca="false">COUNTIF(B45:O45,"&lt;&gt;")</f>
@@ -22199,21 +22492,21 @@
         <v>15</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="V46" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="P47" s="0" t="n">
         <f aca="false">COUNTIF(B47:O47,"&lt;&gt;")</f>
@@ -22224,7 +22517,7 @@
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="0" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="V47" s="0" t="n">
         <v>5</v>
@@ -22232,19 +22525,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="34" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1516</v>
+        <v>1523</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1517</v>
+        <v>1524</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="P48" s="0" t="n">
         <f aca="false">COUNTIF(B48:O48,"&lt;&gt;")</f>
@@ -22255,7 +22548,7 @@
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="0" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>3</v>
@@ -22271,7 +22564,7 @@
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="0" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="V49" s="0" t="n">
         <v>2</v>
@@ -22279,16 +22572,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>1617</v>
+        <v>1624</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="P50" s="0" t="n">
         <f aca="false">COUNTIF(B50:O50,"&lt;&gt;")</f>
@@ -22311,16 +22604,16 @@
         <v>16</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>5</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22335,7 +22628,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
       <c r="P53" s="0" t="n">
         <f aca="false">COUNTIF(B53:O53,"&lt;&gt;")</f>
@@ -22358,30 +22651,30 @@
         <v>17</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="V54" s="0" t="n">
         <v>4</v>
       </c>
       <c r="X54" s="0" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>1594</v>
+        <v>1601</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1569</v>
+        <v>1576</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">COUNTIF(B55:O55,"&lt;&gt;")</f>
@@ -22404,42 +22697,42 @@
         <v>18</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="V56" s="0" t="n">
         <v>3</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="34" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1507</v>
+        <v>1514</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>1627</v>
+        <v>1634</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>1628</v>
+        <v>1635</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">COUNTIF(B57:O57,"&lt;&gt;")</f>
@@ -22452,13 +22745,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="34" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>1604</v>
+        <v>1611</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1615</v>
+        <v>1622</v>
       </c>
       <c r="P58" s="0" t="n">
         <f aca="false">COUNTIF(B58:O58,"&lt;&gt;")</f>
@@ -22471,16 +22764,16 @@
         <v>19</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="V58" s="0" t="n">
         <v>4</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22493,7 +22786,7 @@
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="0" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="V59" s="0" t="n">
         <v>1</v>
@@ -22511,25 +22804,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="34" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>1475</v>
+        <v>1482</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1664</v>
+        <v>1671</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1589</v>
+        <v>1596</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>1526</v>
+        <v>1533</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>1525</v>
+        <v>1532</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">COUNTIF(B61:O61,"&lt;&gt;")</f>
@@ -22542,16 +22835,16 @@
         <v>20</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>1693</v>
+        <v>1700</v>
       </c>
       <c r="V61" s="0" t="n">
         <v>4</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22564,7 +22857,7 @@
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="0" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="V62" s="0" t="n">
         <v>3</v>
@@ -22592,20 +22885,20 @@
         <v>21</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="V64" s="0" t="n">
         <v>3</v>
       </c>
       <c r="X64" s="0" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="0" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22620,34 +22913,34 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1446</v>
+        <v>1453</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>1447</v>
+        <v>1454</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1458</v>
+        <v>1465</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">COUNTIF(B66:O66,"&lt;&gt;")</f>
@@ -22670,7 +22963,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
       <c r="P68" s="0" t="n">
         <f aca="false">COUNTIF(B68:O68,"&lt;&gt;")</f>
@@ -22683,16 +22976,16 @@
         <v>22</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="U68" s="0" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="V68" s="0" t="n">
         <v>3</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22707,7 +23000,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
       <c r="P70" s="0" t="n">
         <f aca="false">COUNTIF(B70:O70,"&lt;&gt;")</f>
@@ -22720,16 +23013,16 @@
         <v>23</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="U70" s="0" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="V70" s="0" t="n">
         <v>3</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22754,21 +23047,21 @@
         <v>24</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="V72" s="0" t="n">
         <v>12</v>
       </c>
       <c r="X72" s="0" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
       <c r="P73" s="0" t="n">
         <f aca="false">COUNTIF(B73:O73,"&lt;&gt;")</f>
@@ -22779,7 +23072,7 @@
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="0" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="V73" s="0" t="n">
         <v>3</v>
@@ -22797,7 +23090,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">COUNTIF(B75:O75,"&lt;&gt;")</f>
@@ -22842,22 +23135,22 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>1448</v>
+        <v>1455</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>1454</v>
+        <v>1461</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">COUNTIF(B80:O80,"&lt;&gt;")</f>
@@ -22870,16 +23163,16 @@
         <v>25</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="U80" s="0" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="V80" s="0" t="n">
         <v>2</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22891,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="0" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="V81" s="0" t="n">
         <v>2</v>
@@ -22899,16 +23192,16 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>1645</v>
+        <v>1652</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>1643</v>
+        <v>1650</v>
       </c>
       <c r="P82" s="0" t="n">
         <f aca="false">COUNTIF(B82:O82,"&lt;&gt;")</f>
@@ -22918,7 +23211,7 @@
         <v>3</v>
       </c>
       <c r="U82" s="0" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="V82" s="0" t="n">
         <v>2</v>
@@ -22933,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="0" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="V83" s="0" t="n">
         <v>1</v>
@@ -22941,10 +23234,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>1469</v>
+        <v>1476</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
       <c r="P84" s="0" t="n">
         <f aca="false">COUNTIF(B84:O84,"&lt;&gt;")</f>
@@ -22954,7 +23247,7 @@
         <v>2</v>
       </c>
       <c r="U84" s="0" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
       <c r="V84" s="0" t="n">
         <v>1</v>
@@ -22980,19 +23273,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="34" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1530</v>
+        <v>1537</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
       <c r="P87" s="0" t="n">
         <f aca="false">COUNTIF(B87:O87,"&lt;&gt;")</f>
@@ -23076,7 +23369,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
       <c r="P96" s="0" t="n">
         <f aca="false">COUNTIF(B96:O96,"&lt;&gt;")</f>
@@ -23088,7 +23381,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>1465</v>
+        <v>1472</v>
       </c>
       <c r="P97" s="0" t="n">
         <f aca="false">COUNTIF(B97:O97,"&lt;&gt;")</f>
@@ -23193,7 +23486,7 @@
     </row>
     <row r="104" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
       <c r="P104" s="0" t="n">
         <f aca="false">COUNTIF(B104:O104,"&lt;&gt;")</f>
@@ -23203,7 +23496,7 @@
         <v>1</v>
       </c>
       <c r="T104" s="44" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23217,7 +23510,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="P106" s="0" t="n">
         <f aca="false">COUNTIF(B106:O106,"&lt;&gt;")</f>
@@ -23227,15 +23520,15 @@
         <v>1</v>
       </c>
       <c r="T106" s="46" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
       <c r="P107" s="0" t="n">
         <f aca="false">COUNTIF(B107:O107,"&lt;&gt;")</f>
@@ -23247,7 +23540,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
       <c r="P108" s="0" t="n">
         <f aca="false">COUNTIF(B108:O108,"&lt;&gt;")</f>
@@ -23260,10 +23553,10 @@
         <v>2</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="U108" s="0" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23275,7 +23568,7 @@
         <v>0</v>
       </c>
       <c r="T109" s="0" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23287,7 +23580,7 @@
         <v>0</v>
       </c>
       <c r="T110" s="0" t="s">
-        <v>1751</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23297,10 +23590,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>1480</v>
+        <v>1487</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
       <c r="P112" s="0" t="n">
         <f aca="false">COUNTIF(B112:O112,"&lt;&gt;")</f>
@@ -23313,7 +23606,7 @@
         <v>4</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23325,15 +23618,15 @@
         <v>0</v>
       </c>
       <c r="T113" s="0" t="s">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="U113" s="0" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
       <c r="P114" s="0" t="n">
         <f aca="false">COUNTIF(B114:O114,"&lt;&gt;")</f>
@@ -23345,7 +23638,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
       <c r="P115" s="0" t="n">
         <f aca="false">COUNTIF(B115:O115,"&lt;&gt;")</f>
@@ -23358,15 +23651,15 @@
         <v>21</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="U115" s="0" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>1484</v>
+        <v>1491</v>
       </c>
       <c r="P116" s="0" t="n">
         <f aca="false">COUNTIF(B116:O116,"&lt;&gt;")</f>
@@ -23376,12 +23669,12 @@
         <v>1</v>
       </c>
       <c r="T116" s="0" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
       <c r="P117" s="0" t="n">
         <f aca="false">COUNTIF(B117:O117,"&lt;&gt;")</f>
@@ -23403,10 +23696,10 @@
         <v>10</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="U118" s="0" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23418,12 +23711,12 @@
         <v>0</v>
       </c>
       <c r="T119" s="0" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
       <c r="P120" s="0" t="n">
         <f aca="false">COUNTIF(B120:O120,"&lt;&gt;")</f>
@@ -23435,7 +23728,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="P121" s="0" t="n">
         <f aca="false">COUNTIF(B121:O121,"&lt;&gt;")</f>
@@ -23501,7 +23794,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="P128" s="0" t="n">
         <f aca="false">COUNTIF(B128:O128,"&lt;&gt;")</f>
@@ -23540,7 +23833,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="P132" s="0" t="n">
         <f aca="false">COUNTIF(B132:O132,"&lt;&gt;")</f>
@@ -23561,7 +23854,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
       <c r="P134" s="0" t="n">
         <f aca="false">COUNTIF(B134:O134,"&lt;&gt;")</f>
@@ -23573,10 +23866,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>1503</v>
+        <v>1510</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="P135" s="0" t="n">
         <f aca="false">COUNTIF(B135:O135,"&lt;&gt;")</f>
@@ -23642,7 +23935,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0" t="s">
-        <v>1510</v>
+        <v>1517</v>
       </c>
       <c r="P142" s="0" t="n">
         <f aca="false">COUNTIF(B142:O142,"&lt;&gt;")</f>
@@ -23654,7 +23947,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="P143" s="0" t="n">
         <f aca="false">COUNTIF(B143:O143,"&lt;&gt;")</f>
@@ -23675,7 +23968,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="P145" s="0" t="n">
         <f aca="false">COUNTIF(B145:O145,"&lt;&gt;")</f>
@@ -23687,7 +23980,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="P146" s="0" t="n">
         <f aca="false">COUNTIF(B146:O146,"&lt;&gt;")</f>
@@ -23699,7 +23992,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>1515</v>
+        <v>1522</v>
       </c>
       <c r="P147" s="0" t="n">
         <f aca="false">COUNTIF(B147:O147,"&lt;&gt;")</f>
@@ -23747,7 +24040,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>1520</v>
+        <v>1527</v>
       </c>
       <c r="P152" s="0" t="n">
         <f aca="false">COUNTIF(B152:O152,"&lt;&gt;")</f>
@@ -23849,7 +24142,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>1531</v>
+        <v>1538</v>
       </c>
       <c r="P163" s="0" t="n">
         <f aca="false">COUNTIF(B163:O163,"&lt;&gt;")</f>
@@ -23861,7 +24154,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="P164" s="0" t="n">
         <f aca="false">COUNTIF(B164:O164,"&lt;&gt;")</f>
@@ -23873,7 +24166,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>1533</v>
+        <v>1540</v>
       </c>
       <c r="P165" s="0" t="n">
         <f aca="false">COUNTIF(B165:O165,"&lt;&gt;")</f>
@@ -23903,7 +24196,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="P168" s="0" t="n">
         <f aca="false">COUNTIF(B168:O168,"&lt;&gt;")</f>
@@ -23942,7 +24235,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="0" t="s">
-        <v>1540</v>
+        <v>1547</v>
       </c>
       <c r="P172" s="0" t="n">
         <f aca="false">COUNTIF(B172:O172,"&lt;&gt;")</f>
@@ -23963,7 +24256,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>1542</v>
+        <v>1549</v>
       </c>
       <c r="P174" s="0" t="n">
         <f aca="false">COUNTIF(B174:O174,"&lt;&gt;")</f>
@@ -23975,7 +24268,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
-        <v>1543</v>
+        <v>1550</v>
       </c>
       <c r="P175" s="0" t="n">
         <f aca="false">COUNTIF(B175:O175,"&lt;&gt;")</f>
@@ -23987,7 +24280,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
       <c r="P176" s="0" t="n">
         <f aca="false">COUNTIF(B176:O176,"&lt;&gt;")</f>
@@ -24018,25 +24311,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="34" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>1625</v>
+        <v>1632</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>1607</v>
+        <v>1614</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>1608</v>
+        <v>1615</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
       <c r="P180" s="0" t="n">
         <f aca="false">COUNTIF(B180:O180,"&lt;&gt;")</f>
@@ -24048,16 +24341,16 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="34" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>1549</v>
+        <v>1556</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>1613</v>
+        <v>1620</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>1614</v>
+        <v>1621</v>
       </c>
       <c r="P181" s="0" t="n">
         <f aca="false">COUNTIF(B181:O181,"&lt;&gt;")</f>
@@ -24069,16 +24362,16 @@
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="34" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>1568</v>
+        <v>1575</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>1605</v>
+        <v>1612</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="Q182" s="0" t="n">
         <v>3</v>
@@ -24086,22 +24379,22 @@
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="34" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>1640</v>
+        <v>1647</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>1566</v>
+        <v>1573</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>1579</v>
+        <v>1586</v>
       </c>
       <c r="P183" s="0" t="n">
         <f aca="false">COUNTIF(B183:O183,"&lt;&gt;")</f>
@@ -24118,7 +24411,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>1553</v>
+        <v>1560</v>
       </c>
       <c r="P185" s="0" t="n">
         <f aca="false">COUNTIF(B185:O185,"&lt;&gt;")</f>
@@ -24130,7 +24423,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>1554</v>
+        <v>1561</v>
       </c>
       <c r="P186" s="0" t="n">
         <f aca="false">COUNTIF(B186:O186,"&lt;&gt;")</f>
@@ -24142,7 +24435,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>1556</v>
+        <v>1563</v>
       </c>
       <c r="P187" s="0" t="n">
         <f aca="false">COUNTIF(B187:O187,"&lt;&gt;")</f>
@@ -24163,10 +24456,10 @@
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="0" t="s">
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>1558</v>
+        <v>1565</v>
       </c>
       <c r="P189" s="0" t="n">
         <f aca="false">COUNTIF(B189:O189,"&lt;&gt;")</f>
@@ -24205,10 +24498,10 @@
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>1561</v>
+        <v>1568</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>1562</v>
+        <v>1569</v>
       </c>
       <c r="P193" s="0" t="n">
         <f aca="false">COUNTIF(B193:O193,"&lt;&gt;")</f>
@@ -24229,7 +24522,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>1563</v>
+        <v>1570</v>
       </c>
       <c r="P195" s="0" t="n">
         <f aca="false">COUNTIF(B195:O195,"&lt;&gt;")</f>
@@ -24250,7 +24543,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>1565</v>
+        <v>1572</v>
       </c>
       <c r="P197" s="0" t="n">
         <f aca="false">COUNTIF(B197:O197,"&lt;&gt;")</f>
@@ -24271,7 +24564,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>1567</v>
+        <v>1574</v>
       </c>
       <c r="P199" s="0" t="n">
         <f aca="false">COUNTIF(B199:O199,"&lt;&gt;")</f>
@@ -24301,7 +24594,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>1570</v>
+        <v>1577</v>
       </c>
       <c r="P202" s="0" t="n">
         <f aca="false">COUNTIF(B202:O202,"&lt;&gt;")</f>
@@ -24313,7 +24606,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>1571</v>
+        <v>1578</v>
       </c>
       <c r="P203" s="0" t="n">
         <f aca="false">COUNTIF(B203:O203,"&lt;&gt;")</f>
@@ -24334,10 +24627,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>1573</v>
+        <v>1580</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>1572</v>
+        <v>1579</v>
       </c>
       <c r="P205" s="0" t="n">
         <f aca="false">COUNTIF(B205:O205,"&lt;&gt;")</f>
@@ -24358,7 +24651,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
       <c r="P207" s="0" t="n">
         <f aca="false">COUNTIF(B207:O207,"&lt;&gt;")</f>
@@ -24370,7 +24663,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="P208" s="0" t="n">
         <f aca="false">COUNTIF(B208:O208,"&lt;&gt;")</f>
@@ -24463,7 +24756,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>1586</v>
+        <v>1593</v>
       </c>
       <c r="P218" s="0" t="n">
         <f aca="false">COUNTIF(B218:O218,"&lt;&gt;")</f>
@@ -24475,16 +24768,16 @@
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="34" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>1588</v>
+        <v>1595</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>1616</v>
+        <v>1623</v>
       </c>
       <c r="P219" s="0" t="n">
         <f aca="false">COUNTIF(B219:O219,"&lt;&gt;")</f>
@@ -24514,7 +24807,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>1590</v>
+        <v>1597</v>
       </c>
       <c r="P222" s="0" t="n">
         <f aca="false">COUNTIF(B222:O222,"&lt;&gt;")</f>
@@ -24526,7 +24819,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>1591</v>
+        <v>1598</v>
       </c>
       <c r="P223" s="0" t="n">
         <f aca="false">COUNTIF(B223:O223,"&lt;&gt;")</f>
@@ -24538,7 +24831,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
       <c r="P224" s="0" t="n">
         <f aca="false">COUNTIF(B224:O224,"&lt;&gt;")</f>
@@ -24550,7 +24843,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>1593</v>
+        <v>1600</v>
       </c>
       <c r="P225" s="0" t="n">
         <f aca="false">COUNTIF(B225:O225,"&lt;&gt;")</f>
@@ -24571,7 +24864,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>1595</v>
+        <v>1602</v>
       </c>
       <c r="P227" s="0" t="n">
         <f aca="false">COUNTIF(B227:O227,"&lt;&gt;")</f>
@@ -24610,7 +24903,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>1599</v>
+        <v>1606</v>
       </c>
       <c r="P231" s="0" t="n">
         <f aca="false">COUNTIF(B231:O231,"&lt;&gt;")</f>
@@ -24622,19 +24915,19 @@
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="34" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>1600</v>
+        <v>1607</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>1655</v>
+        <v>1662</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>1596</v>
+        <v>1603</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>1560</v>
+        <v>1567</v>
       </c>
       <c r="P232" s="0" t="n">
         <f aca="false">COUNTIF(B232:O232,"&lt;&gt;")</f>
@@ -24646,7 +24939,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>1601</v>
+        <v>1608</v>
       </c>
       <c r="P233" s="0" t="n">
         <f aca="false">COUNTIF(B233:O233,"&lt;&gt;")</f>
@@ -24658,7 +24951,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>1602</v>
+        <v>1609</v>
       </c>
       <c r="P234" s="0" t="n">
         <f aca="false">COUNTIF(B234:O234,"&lt;&gt;")</f>
@@ -24670,7 +24963,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>1603</v>
+        <v>1610</v>
       </c>
       <c r="P235" s="0" t="n">
         <f aca="false">COUNTIF(B235:O235,"&lt;&gt;")</f>
@@ -24736,19 +25029,19 @@
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="34" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>1610</v>
+        <v>1617</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>1611</v>
+        <v>1618</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>1647</v>
+        <v>1654</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>1505</v>
+        <v>1512</v>
       </c>
       <c r="P242" s="0" t="n">
         <f aca="false">COUNTIF(B242:O242,"&lt;&gt;")</f>
@@ -24769,7 +25062,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
-        <v>1612</v>
+        <v>1619</v>
       </c>
       <c r="P244" s="0" t="n">
         <f aca="false">COUNTIF(B244:O244,"&lt;&gt;")</f>
@@ -24853,7 +25146,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="0" t="s">
-        <v>1621</v>
+        <v>1628</v>
       </c>
       <c r="P253" s="0" t="n">
         <f aca="false">COUNTIF(B253:O253,"&lt;&gt;")</f>
@@ -24865,7 +25158,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="0" t="s">
-        <v>1622</v>
+        <v>1629</v>
       </c>
       <c r="P254" s="0" t="n">
         <f aca="false">COUNTIF(B254:O254,"&lt;&gt;")</f>
@@ -24877,7 +25170,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="0" t="s">
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="P255" s="0" t="n">
         <f aca="false">COUNTIF(B255:O255,"&lt;&gt;")</f>
@@ -24889,7 +25182,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="0" t="s">
-        <v>1624</v>
+        <v>1631</v>
       </c>
       <c r="P256" s="0" t="n">
         <f aca="false">COUNTIF(B256:O256,"&lt;&gt;")</f>
@@ -24906,10 +25199,10 @@
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="0" t="s">
-        <v>1626</v>
+        <v>1633</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
       <c r="P258" s="0" t="n">
         <f aca="false">COUNTIF(B258:O258,"&lt;&gt;")</f>
@@ -24939,13 +25232,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="34" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>1629</v>
+        <v>1636</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>1630</v>
+        <v>1637</v>
       </c>
       <c r="P261" s="0" t="n">
         <f aca="false">COUNTIF(B261:O261,"&lt;&gt;")</f>
@@ -24966,7 +25259,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="0" t="s">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="P263" s="0" t="n">
         <f aca="false">COUNTIF(B263:O263,"&lt;&gt;")</f>
@@ -24978,7 +25271,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="0" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="P264" s="0" t="n">
         <f aca="false">COUNTIF(B264:O264,"&lt;&gt;")</f>
@@ -25008,7 +25301,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="0" t="s">
-        <v>1635</v>
+        <v>1642</v>
       </c>
       <c r="P267" s="0" t="n">
         <f aca="false">COUNTIF(B267:O267,"&lt;&gt;")</f>
@@ -25020,7 +25313,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>1636</v>
+        <v>1643</v>
       </c>
       <c r="P268" s="0" t="n">
         <f aca="false">COUNTIF(B268:O268,"&lt;&gt;")</f>
@@ -25032,10 +25325,10 @@
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>1637</v>
+        <v>1644</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>1639</v>
+        <v>1646</v>
       </c>
       <c r="P269" s="0" t="n">
         <f aca="false">COUNTIF(B269:O269,"&lt;&gt;")</f>
@@ -25083,7 +25376,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>1641</v>
+        <v>1648</v>
       </c>
       <c r="P274" s="0" t="n">
         <f aca="false">COUNTIF(B274:O274,"&lt;&gt;")</f>
@@ -25095,7 +25388,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>1642</v>
+        <v>1649</v>
       </c>
       <c r="P275" s="0" t="n">
         <f aca="false">COUNTIF(B275:O275,"&lt;&gt;")</f>
@@ -25152,19 +25445,19 @@
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="34" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>1648</v>
+        <v>1655</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
       <c r="P281" s="0" t="n">
         <f aca="false">COUNTIF(B281:O281,"&lt;&gt;")</f>
@@ -25185,13 +25478,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="34" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>1651</v>
+        <v>1658</v>
       </c>
       <c r="P283" s="0" t="n">
         <f aca="false">COUNTIF(B283:O283,"&lt;&gt;")</f>
@@ -25230,7 +25523,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>1654</v>
+        <v>1661</v>
       </c>
       <c r="P287" s="0" t="n">
         <f aca="false">COUNTIF(B287:O287,"&lt;&gt;")</f>
@@ -25296,7 +25589,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="P294" s="0" t="n">
         <f aca="false">COUNTIF(B294:O294,"&lt;&gt;")</f>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1837">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">AGI safety, Literature review, Intelligence explosion, AI research, AGI</t>
   </si>
   <si>
-    <t xml:space="preserve">SLR, PP</t>
+    <t xml:space="preserve">PP</t>
   </si>
   <si>
     <t xml:space="preserve">2, 10</t>
@@ -3669,9 +3669,6 @@
   </si>
   <si>
     <t xml:space="preserve">AI and society, AI ethics, survey, AI research, AI governance, Human-AI interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
   </si>
   <si>
     <t xml:space="preserve">2, 5, 12</t>
@@ -5544,19 +5541,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="General"/>
-    <numFmt numFmtId="175" formatCode="d\-mmm"/>
+    <numFmt numFmtId="170" formatCode="General"/>
+    <numFmt numFmtId="171" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -5912,19 +5905,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6014,7 +6007,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6046,7 +6039,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6058,7 +6051,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6126,7 +6119,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6244,14 +6237,14 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.71"/>
@@ -15169,19 +15162,19 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M40" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q75" activeCellId="0" sqref="Q75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.57"/>
@@ -15459,16 +15452,16 @@
         <v>1214</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15506,19 +15499,19 @@
         <v>35</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>1221</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15556,19 +15549,19 @@
         <v>35</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15609,19 +15602,19 @@
         <v>35</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15659,19 +15652,19 @@
         <v>170</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15709,19 +15702,19 @@
         <v>170</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15759,19 +15752,19 @@
         <v>170</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15809,19 +15802,19 @@
         <v>170</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15859,19 +15852,19 @@
         <v>170</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15909,19 +15902,19 @@
         <v>170</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>18</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15956,25 +15949,25 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16009,25 +16002,25 @@
         <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16062,25 +16055,25 @@
         <v>71</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>1255</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16115,16 +16108,16 @@
         <v>71</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>7</v>
@@ -16133,7 +16126,7 @@
         <v>7</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16168,28 +16161,28 @@
         <v>71</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="O20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>1261</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16224,25 +16217,25 @@
         <v>71</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>1265</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16277,16 +16270,16 @@
         <v>71</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O22" s="2" t="n">
         <v>15</v>
@@ -16295,7 +16288,7 @@
         <v>15</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16330,16 +16323,16 @@
         <v>71</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O23" s="2" t="n">
         <v>2</v>
@@ -16348,7 +16341,7 @@
         <v>26</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16383,16 +16376,16 @@
         <v>71</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O24" s="2" t="n">
         <v>20</v>
@@ -16401,7 +16394,7 @@
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16433,16 +16426,16 @@
         <v>71</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O25" s="2" t="n">
         <v>22</v>
@@ -16451,10 +16444,10 @@
         <v>22</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16486,16 +16479,16 @@
         <v>71</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O26" s="2" t="n">
         <v>4</v>
@@ -16504,7 +16497,7 @@
         <v>4</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16539,25 +16532,25 @@
         <v>71</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16592,16 +16585,16 @@
         <v>71</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>23</v>
@@ -16610,7 +16603,7 @@
         <v>23</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16642,25 +16635,25 @@
         <v>71</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16695,25 +16688,25 @@
         <v>71</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>1286</v>
-      </c>
       <c r="P30" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16748,16 +16741,16 @@
         <v>71</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O31" s="2" t="n">
         <v>2</v>
@@ -16766,7 +16759,7 @@
         <v>26</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16801,25 +16794,25 @@
         <v>71</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16854,25 +16847,25 @@
         <v>71</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16907,16 +16900,16 @@
         <v>71</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O34" s="2" t="n">
         <v>10</v>
@@ -16925,7 +16918,7 @@
         <v>10</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16960,16 +16953,16 @@
         <v>71</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O35" s="2" t="n">
         <v>14</v>
@@ -16978,7 +16971,7 @@
         <v>14</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17013,16 +17006,16 @@
         <v>71</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O36" s="2" t="n">
         <v>3</v>
@@ -17031,7 +17024,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17066,25 +17059,25 @@
         <v>71</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>1299</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17119,25 +17112,25 @@
         <v>71</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>1302</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17169,25 +17162,25 @@
         <v>71</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17222,25 +17215,25 @@
         <v>71</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17275,25 +17268,25 @@
         <v>71</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17328,16 +17321,16 @@
         <v>71</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O42" s="2" t="n">
         <v>2</v>
@@ -17346,7 +17339,7 @@
         <v>2</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17381,25 +17374,25 @@
         <v>71</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M43" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O43" s="29" t="s">
         <v>1313</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O43" s="29" t="s">
+      <c r="P43" s="29" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q43" s="29" t="s">
         <v>1314</v>
-      </c>
-      <c r="P43" s="29" t="s">
-        <v>1314</v>
-      </c>
-      <c r="Q43" s="29" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17434,25 +17427,25 @@
         <v>71</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M44" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17487,28 +17480,28 @@
         <v>71</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M45" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>1323</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17540,25 +17533,25 @@
         <v>71</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>1326</v>
-      </c>
       <c r="P46" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17593,16 +17586,16 @@
         <v>71</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O47" s="2" t="n">
         <v>16</v>
@@ -17611,7 +17604,7 @@
         <v>16</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17643,25 +17636,25 @@
         <v>71</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O48" s="2" t="s">
+      <c r="P48" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17693,25 +17686,25 @@
         <v>71</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>1335</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17746,28 +17739,28 @@
         <v>71</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O50" s="2" t="s">
+      <c r="P50" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q50" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="Q50" s="2" t="s">
+      <c r="R50" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17802,25 +17795,25 @@
         <v>71</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M51" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17855,16 +17848,16 @@
         <v>71</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O52" s="2" t="n">
         <v>4</v>
@@ -17873,7 +17866,7 @@
         <v>4</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17905,16 +17898,16 @@
         <v>71</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O53" s="2" t="n">
         <v>14</v>
@@ -17923,7 +17916,7 @@
         <v>14</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17958,16 +17951,16 @@
         <v>71</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O54" s="2" t="n">
         <v>25</v>
@@ -17976,10 +17969,10 @@
         <v>26</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18014,25 +18007,25 @@
         <v>71</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O55" s="2" t="s">
+      <c r="P55" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>1350</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18067,25 +18060,25 @@
         <v>71</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M56" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Q56" s="2" t="s">
         <v>1353</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18120,16 +18113,16 @@
         <v>71</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O57" s="2" t="n">
         <v>12</v>
@@ -18138,10 +18131,10 @@
         <v>14</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18176,25 +18169,25 @@
         <v>71</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M58" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>1358</v>
-      </c>
       <c r="P58" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q58" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18229,16 +18222,16 @@
         <v>71</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O59" s="2" t="n">
         <v>3</v>
@@ -18247,7 +18240,7 @@
         <v>3</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18282,25 +18275,25 @@
         <v>71</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M60" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O60" s="2" t="s">
+      <c r="P60" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Q60" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18335,25 +18328,25 @@
         <v>71</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="O61" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q61" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18388,25 +18381,25 @@
         <v>71</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M62" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>1365</v>
-      </c>
       <c r="P62" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18441,25 +18434,25 @@
         <v>71</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M63" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="N63" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="O63" s="2" t="s">
+      <c r="P63" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q63" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18494,25 +18487,25 @@
         <v>71</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M64" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O64" s="2" t="s">
+      <c r="P64" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Q64" s="2" t="s">
         <v>1370</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18547,25 +18540,25 @@
         <v>71</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M65" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O65" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O65" s="2" t="s">
+      <c r="P65" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q65" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18600,25 +18593,25 @@
         <v>71</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M66" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>1376</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18650,25 +18643,25 @@
         <v>71</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M67" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="N67" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O67" s="2" t="s">
+      <c r="P67" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q67" s="2" t="s">
         <v>1378</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18703,16 +18696,16 @@
         <v>71</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O68" s="2" t="n">
         <v>23</v>
@@ -18721,7 +18714,7 @@
         <v>23</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18756,28 +18749,28 @@
         <v>71</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O69" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18812,25 +18805,25 @@
         <v>71</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M70" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>1387</v>
-      </c>
       <c r="P70" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18865,22 +18858,22 @@
         <v>71</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M71" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O71" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="N71" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O71" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>1211</v>
@@ -18918,25 +18911,25 @@
         <v>71</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O72" s="2" t="n">
         <v>13</v>
       </c>
       <c r="P72" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>1392</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18971,25 +18964,25 @@
         <v>71</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O73" s="2" t="s">
+      <c r="P73" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q73" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19024,25 +19017,25 @@
         <v>71</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M74" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O74" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="N74" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>1398</v>
-      </c>
       <c r="P74" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19077,25 +19070,25 @@
         <v>71</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M75" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>1400</v>
-      </c>
       <c r="P75" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q75" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19130,16 +19123,16 @@
         <v>71</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O76" s="2" t="n">
         <v>1</v>
@@ -19148,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19183,25 +19176,25 @@
         <v>71</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O77" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q77" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19233,16 +19226,16 @@
         <v>71</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O78" s="2" t="n">
         <v>4</v>
@@ -19251,7 +19244,7 @@
         <v>4</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19283,25 +19276,25 @@
         <v>71</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O79" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q79" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19336,25 +19329,25 @@
         <v>71</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M80" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q80" s="2" t="s">
         <v>1406</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19389,25 +19382,25 @@
         <v>71</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M81" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="N81" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O81" s="2" t="s">
+      <c r="P81" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="Q81" s="2" t="s">
         <v>1409</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19442,25 +19435,25 @@
         <v>71</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19495,16 +19488,16 @@
         <v>71</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O83" s="2" t="n">
         <v>3</v>
@@ -19513,7 +19506,7 @@
         <v>3</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19545,25 +19538,25 @@
         <v>71</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M84" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q84" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19598,25 +19591,25 @@
         <v>71</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M85" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O85" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="N85" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O85" s="2" t="s">
+      <c r="P85" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q85" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19651,25 +19644,25 @@
         <v>71</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M86" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="N86" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O86" s="2" t="s">
+      <c r="P86" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q86" s="2" t="s">
         <v>1419</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19704,16 +19697,16 @@
         <v>71</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O87" s="2" t="n">
         <v>1</v>
@@ -19722,7 +19715,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19757,25 +19750,25 @@
         <v>71</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="P88" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19810,25 +19803,25 @@
         <v>71</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M89" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O89" s="2" t="s">
+      <c r="P89" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q89" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19860,28 +19853,28 @@
         <v>71</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M90" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>1426</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19916,13 +19909,13 @@
         <v>71</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>1203</v>
@@ -19934,7 +19927,7 @@
         <v>3</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19969,25 +19962,25 @@
         <v>71</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P92" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q92" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20022,13 +20015,13 @@
         <v>71</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>1203</v>
@@ -20040,7 +20033,7 @@
         <v>3</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20072,16 +20065,16 @@
         <v>71</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O94" s="2" t="n">
         <v>24</v>
@@ -20090,7 +20083,7 @@
         <v>24</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="95" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20111,7 +20104,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20146,13 +20139,13 @@
         <v>170</v>
       </c>
       <c r="M101" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="R101" s="2" t="s">
         <v>1434</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -20184,1494 +20177,1494 @@
       <selection pane="topLeft" activeCell="B304" activeCellId="0" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="299" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="31" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B299" s="32" t="n">
         <f aca="false">COUNTIFS(B3:B297,"&lt;&gt;*/1", B3:B297,"&lt;&gt;*/2",B3:B297,"&lt;&gt;*/3" )</f>
@@ -21729,11 +21722,11 @@
   </sheetPr>
   <dimension ref="A1:AE299"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P118" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V150" activeCellId="0" sqref="V150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V143" activeCellId="0" sqref="V143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="51.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.42"/>
@@ -21758,33 +21751,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1732</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P2" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>1734</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="3" s="38" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="37"/>
       <c r="B3" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="P3" s="38" t="n">
         <f aca="false">COUNTIF(B3:O3,"&lt;&gt;")</f>
@@ -21797,28 +21790,28 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">COUNTIF(B4:O4,"&lt;&gt;")</f>
@@ -21828,21 +21821,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>1737</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">COUNTIF(B5:O5,"&lt;&gt;")</f>
@@ -21860,22 +21853,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">COUNTIF(B6:O6,"&lt;&gt;")</f>
@@ -21888,16 +21881,16 @@
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="V6" s="2" t="n">
         <v>16</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21909,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="V7" s="2" t="n">
         <v>11</v>
@@ -21917,28 +21910,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">COUNTIF(B8:O8,"&lt;&gt;")</f>
@@ -21948,7 +21941,7 @@
         <v>15</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="V8" s="2" t="n">
         <v>8</v>
@@ -21965,25 +21958,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>1523</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="P10" s="2" t="n">
         <f aca="false">COUNTIF(B10:O10,"&lt;&gt;")</f>
@@ -21996,54 +21989,54 @@
         <v>2</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="V10" s="2" t="n">
         <v>11</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>1585</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="P11" s="2" t="n">
         <f aca="false">COUNTIF(B11:O11,"&lt;&gt;")</f>
@@ -22053,7 +22046,7 @@
         <v>22</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="V11" s="2" t="n">
         <v>5</v>
@@ -22061,19 +22054,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="P12" s="2" t="n">
         <f aca="false">COUNTIF(B12:O12,"&lt;&gt;")</f>
@@ -22085,28 +22078,28 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>1590</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="P13" s="2" t="n">
         <f aca="false">COUNTIF(B13:O13,"&lt;&gt;")</f>
@@ -22118,22 +22111,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="P14" s="2" t="n">
         <f aca="false">COUNTIF(B14:O14,"&lt;&gt;")</f>
@@ -22146,36 +22139,36 @@
         <v>3</v>
       </c>
       <c r="T14" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>1749</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>1750</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>9</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="P15" s="2" t="n">
         <f aca="false">COUNTIF(B15:O15,"&lt;&gt;")</f>
@@ -22185,7 +22178,7 @@
         <v>9</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="V15" s="2" t="n">
         <v>7</v>
@@ -22196,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="V16" s="2" t="n">
         <v>4</v>
@@ -22204,25 +22197,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>1574</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1575</v>
       </c>
       <c r="P17" s="2" t="n">
         <f aca="false">COUNTIF(B17:O17,"&lt;&gt;")</f>
@@ -22232,7 +22225,7 @@
         <v>10</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="V17" s="2" t="n">
         <v>2</v>
@@ -22240,25 +22233,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>1684</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1685</v>
       </c>
       <c r="P18" s="2" t="n">
         <f aca="false">COUNTIF(B18:O18,"&lt;&gt;")</f>
@@ -22280,42 +22273,42 @@
         <v>4</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="V19" s="2" t="n">
         <v>8</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>1526</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="P20" s="2" t="n">
         <f aca="false">COUNTIF(B20:O20,"&lt;&gt;")</f>
@@ -22325,7 +22318,7 @@
         <v>12</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>4</v>
@@ -22342,10 +22335,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="P22" s="2" t="n">
         <f aca="false">COUNTIF(B22:O22,"&lt;&gt;")</f>
@@ -22358,16 +22351,16 @@
         <v>5</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>7</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22390,13 +22383,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="P25" s="2" t="n">
         <f aca="false">COUNTIF(B25:O25,"&lt;&gt;")</f>
@@ -22409,42 +22402,42 @@
         <v>6</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="V25" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>1562</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="P26" s="2" t="n">
         <f aca="false">COUNTIF(B26:O26,"&lt;&gt;")</f>
@@ -22454,7 +22447,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>2</v>
@@ -22462,16 +22455,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="33" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="P27" s="2" t="n">
         <f aca="false">COUNTIF(B27:O27,"&lt;&gt;")</f>
@@ -22483,13 +22476,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="P28" s="2" t="n">
         <f aca="false">COUNTIF(B28:O28,"&lt;&gt;")</f>
@@ -22502,16 +22495,16 @@
         <v>7</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>6</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22525,22 +22518,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>1604</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="P30" s="2" t="n">
         <f aca="false">COUNTIF(B30:O30,"&lt;&gt;")</f>
@@ -22553,33 +22546,33 @@
         <v>8</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>6</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="P31" s="2" t="n">
         <f aca="false">COUNTIF(B31:O31,"&lt;&gt;")</f>
@@ -22601,16 +22594,16 @@
         <v>9</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22634,45 +22627,45 @@
         <v>10</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="33" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>1595</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P35" s="2" t="n">
         <f aca="false">COUNTIF(B35:O35,"&lt;&gt;")</f>
@@ -22684,13 +22677,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="33" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="P36" s="2" t="n">
         <f aca="false">COUNTIF(B36:O36,"&lt;&gt;")</f>
@@ -22703,16 +22696,16 @@
         <v>11</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>8</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22736,30 +22729,30 @@
         <v>12</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="P39" s="2" t="n">
         <f aca="false">COUNTIF(B39:O39,"&lt;&gt;")</f>
@@ -22772,25 +22765,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>1500</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="P40" s="2" t="n">
         <f aca="false">COUNTIF(B40:O40,"&lt;&gt;")</f>
@@ -22803,16 +22796,16 @@
         <v>13</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>6</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22837,16 +22830,16 @@
         <v>14</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="V42" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22859,7 +22852,7 @@
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>2</v>
@@ -22877,13 +22870,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="P45" s="2" t="n">
         <f aca="false">COUNTIF(B45:O45,"&lt;&gt;")</f>
@@ -22906,21 +22899,21 @@
         <v>15</v>
       </c>
       <c r="T46" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="U46" s="2" t="s">
         <v>1783</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>1784</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="P47" s="2" t="n">
         <f aca="false">COUNTIF(B47:O47,"&lt;&gt;")</f>
@@ -22931,7 +22924,7 @@
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="V47" s="2" t="n">
         <v>5</v>
@@ -22939,19 +22932,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>1583</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="P48" s="2" t="n">
         <f aca="false">COUNTIF(B48:O48,"&lt;&gt;")</f>
@@ -22962,7 +22955,7 @@
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="V48" s="2" t="n">
         <v>3</v>
@@ -22978,7 +22971,7 @@
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="V49" s="2" t="n">
         <v>2</v>
@@ -22986,16 +22979,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="P50" s="2" t="n">
         <f aca="false">COUNTIF(B50:O50,"&lt;&gt;")</f>
@@ -23018,16 +23011,16 @@
         <v>16</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="V51" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23042,7 +23035,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="P53" s="2" t="n">
         <f aca="false">COUNTIF(B53:O53,"&lt;&gt;")</f>
@@ -23065,30 +23058,30 @@
         <v>17</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="V54" s="2" t="n">
         <v>4</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="P55" s="2" t="n">
         <f aca="false">COUNTIF(B55:O55,"&lt;&gt;")</f>
@@ -23111,42 +23104,42 @@
         <v>18</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="V56" s="2" t="n">
         <v>3</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>1558</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>1693</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>1694</v>
       </c>
       <c r="P57" s="2" t="n">
         <f aca="false">COUNTIF(B57:O57,"&lt;&gt;")</f>
@@ -23159,13 +23152,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="P58" s="2" t="n">
         <f aca="false">COUNTIF(B58:O58,"&lt;&gt;")</f>
@@ -23178,16 +23171,16 @@
         <v>19</v>
       </c>
       <c r="T58" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="U58" s="2" t="s">
         <v>1795</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>1796</v>
       </c>
       <c r="V58" s="2" t="n">
         <v>4</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23200,7 +23193,7 @@
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="V59" s="2" t="n">
         <v>1</v>
@@ -23218,25 +23211,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="33" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="P61" s="2" t="n">
         <f aca="false">COUNTIF(B61:O61,"&lt;&gt;")</f>
@@ -23249,16 +23242,16 @@
         <v>20</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="V61" s="2" t="n">
         <v>4</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23271,7 +23264,7 @@
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="V62" s="2" t="n">
         <v>3</v>
@@ -23299,20 +23292,20 @@
         <v>21</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="V64" s="2" t="n">
         <v>3</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23327,34 +23320,34 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="33" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>1513</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>1643</v>
-      </c>
       <c r="I66" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="P66" s="2" t="n">
         <f aca="false">COUNTIF(B66:O66,"&lt;&gt;")</f>
@@ -23377,7 +23370,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="P68" s="2" t="n">
         <f aca="false">COUNTIF(B68:O68,"&lt;&gt;")</f>
@@ -23390,16 +23383,16 @@
         <v>22</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="V68" s="2" t="n">
         <v>3</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23414,7 +23407,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="P70" s="2" t="n">
         <f aca="false">COUNTIF(B70:O70,"&lt;&gt;")</f>
@@ -23427,16 +23420,16 @@
         <v>23</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="V70" s="2" t="n">
         <v>3</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23461,21 +23454,21 @@
         <v>24</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="V72" s="2" t="n">
         <v>12</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="P73" s="2" t="n">
         <f aca="false">COUNTIF(B73:O73,"&lt;&gt;")</f>
@@ -23486,7 +23479,7 @@
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="V73" s="2" t="n">
         <v>3</v>
@@ -23504,7 +23497,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="P75" s="2" t="n">
         <f aca="false">COUNTIF(B75:O75,"&lt;&gt;")</f>
@@ -23549,22 +23542,22 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="33" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>1514</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>1515</v>
       </c>
       <c r="P80" s="2" t="n">
         <f aca="false">COUNTIF(B80:O80,"&lt;&gt;")</f>
@@ -23577,16 +23570,16 @@
         <v>25</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="V80" s="2" t="n">
         <v>2</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23598,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="V81" s="2" t="n">
         <v>2</v>
@@ -23606,16 +23599,16 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="33" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="P82" s="2" t="n">
         <f aca="false">COUNTIF(B82:O82,"&lt;&gt;")</f>
@@ -23625,7 +23618,7 @@
         <v>3</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="V82" s="2" t="n">
         <v>2</v>
@@ -23640,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="V83" s="2" t="n">
         <v>1</v>
@@ -23648,10 +23641,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="P84" s="2" t="n">
         <f aca="false">COUNTIF(B84:O84,"&lt;&gt;")</f>
@@ -23661,7 +23654,7 @@
         <v>2</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V84" s="2" t="n">
         <v>1</v>
@@ -23687,19 +23680,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="33" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="P87" s="2" t="n">
         <f aca="false">COUNTIF(B87:O87,"&lt;&gt;")</f>
@@ -23783,7 +23776,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="P96" s="2" t="n">
         <f aca="false">COUNTIF(B96:O96,"&lt;&gt;")</f>
@@ -23795,7 +23788,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="P97" s="2" t="n">
         <f aca="false">COUNTIF(B97:O97,"&lt;&gt;")</f>
@@ -23900,7 +23893,7 @@
     </row>
     <row r="104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="P104" s="2" t="n">
         <f aca="false">COUNTIF(B104:O104,"&lt;&gt;")</f>
@@ -23910,7 +23903,7 @@
         <v>1</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23924,7 +23917,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="P106" s="2" t="n">
         <f aca="false">COUNTIF(B106:O106,"&lt;&gt;")</f>
@@ -23934,15 +23927,15 @@
         <v>1</v>
       </c>
       <c r="T106" s="43" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="P107" s="2" t="n">
         <f aca="false">COUNTIF(B107:O107,"&lt;&gt;")</f>
@@ -23954,7 +23947,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="P108" s="2" t="n">
         <f aca="false">COUNTIF(B108:O108,"&lt;&gt;")</f>
@@ -23967,10 +23960,10 @@
         <v>2</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23982,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23994,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24004,10 +23997,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>1546</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>1547</v>
       </c>
       <c r="P112" s="2" t="n">
         <f aca="false">COUNTIF(B112:O112,"&lt;&gt;")</f>
@@ -24020,7 +24013,7 @@
         <v>4</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24032,15 +24025,15 @@
         <v>0</v>
       </c>
       <c r="T113" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="U113" s="2" t="s">
         <v>1818</v>
-      </c>
-      <c r="U113" s="2" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="P114" s="2" t="n">
         <f aca="false">COUNTIF(B114:O114,"&lt;&gt;")</f>
@@ -24052,7 +24045,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="P115" s="2" t="n">
         <f aca="false">COUNTIF(B115:O115,"&lt;&gt;")</f>
@@ -24065,15 +24058,15 @@
         <v>21</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="P116" s="2" t="n">
         <f aca="false">COUNTIF(B116:O116,"&lt;&gt;")</f>
@@ -24083,12 +24076,12 @@
         <v>1</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="P117" s="2" t="n">
         <f aca="false">COUNTIF(B117:O117,"&lt;&gt;")</f>
@@ -24110,10 +24103,10 @@
         <v>10</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24125,12 +24118,12 @@
         <v>0</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="P120" s="2" t="n">
         <f aca="false">COUNTIF(B120:O120,"&lt;&gt;")</f>
@@ -24142,7 +24135,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="P121" s="2" t="n">
         <f aca="false">COUNTIF(B121:O121,"&lt;&gt;")</f>
@@ -24155,10 +24148,10 @@
         <v>12</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24173,7 +24166,7 @@
         <v>14</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24185,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24210,10 +24203,10 @@
         <v>19</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24225,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24239,7 +24232,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="P128" s="2" t="n">
         <f aca="false">COUNTIF(B128:O128,"&lt;&gt;")</f>
@@ -24252,10 +24245,10 @@
         <v>25</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24267,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24290,7 +24283,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="P132" s="2" t="n">
         <f aca="false">COUNTIF(B132:O132,"&lt;&gt;")</f>
@@ -24311,7 +24304,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="P134" s="2" t="n">
         <f aca="false">COUNTIF(B134:O134,"&lt;&gt;")</f>
@@ -24323,10 +24316,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>1569</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>1570</v>
       </c>
       <c r="P135" s="2" t="n">
         <f aca="false">COUNTIF(B135:O135,"&lt;&gt;")</f>
@@ -24381,7 +24374,7 @@
         <v>0</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24402,7 +24395,7 @@
         <v>0</v>
       </c>
       <c r="T140" s="44" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24416,7 +24409,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="P142" s="2" t="n">
         <f aca="false">COUNTIF(B142:O142,"&lt;&gt;")</f>
@@ -24426,15 +24419,15 @@
         <v>1</v>
       </c>
       <c r="V142" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="W142" s="2" t="s">
         <v>1830</v>
-      </c>
-      <c r="W142" s="2" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="P143" s="2" t="n">
         <f aca="false">COUNTIF(B143:O143,"&lt;&gt;")</f>
@@ -24447,7 +24440,7 @@
         <v>1</v>
       </c>
       <c r="T143" s="45" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="V143" s="2" t="n">
         <v>1</v>
@@ -24468,7 +24461,7 @@
         <v>2</v>
       </c>
       <c r="T144" s="45" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="V144" s="2" t="n">
         <v>8</v>
@@ -24479,7 +24472,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="P145" s="2" t="n">
         <f aca="false">COUNTIF(B145:O145,"&lt;&gt;")</f>
@@ -24492,7 +24485,7 @@
         <v>3</v>
       </c>
       <c r="T145" s="45" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="V145" s="2" t="n">
         <v>15</v>
@@ -24503,7 +24496,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="P146" s="2" t="n">
         <f aca="false">COUNTIF(B146:O146,"&lt;&gt;")</f>
@@ -24516,7 +24509,7 @@
         <v>4</v>
       </c>
       <c r="T146" s="45" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V146" s="2" t="n">
         <v>13</v>
@@ -24527,7 +24520,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="P147" s="2" t="n">
         <f aca="false">COUNTIF(B147:O147,"&lt;&gt;")</f>
@@ -24540,7 +24533,7 @@
         <v>5</v>
       </c>
       <c r="T147" s="45" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="V147" s="2" t="n">
         <v>17</v>
@@ -24561,7 +24554,7 @@
         <v>6</v>
       </c>
       <c r="T148" s="45" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="V148" s="2" t="n">
         <v>23</v>
@@ -24582,7 +24575,7 @@
         <v>7</v>
       </c>
       <c r="T149" s="45" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="V149" s="2" t="n">
         <v>3</v>
@@ -24603,7 +24596,7 @@
         <v>8</v>
       </c>
       <c r="T150" s="45" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="V150" s="2" t="n">
         <v>22</v>
@@ -24624,7 +24617,7 @@
         <v>9</v>
       </c>
       <c r="T151" s="45" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="V151" s="2" t="n">
         <v>9</v>
@@ -24635,7 +24628,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="P152" s="2" t="n">
         <f aca="false">COUNTIF(B152:O152,"&lt;&gt;")</f>
@@ -24648,7 +24641,7 @@
         <v>10</v>
       </c>
       <c r="T152" s="45" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="V152" s="2" t="n">
         <v>20</v>
@@ -24669,7 +24662,7 @@
         <v>11</v>
       </c>
       <c r="T153" s="46" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="V153" s="2" t="n">
         <v>24</v>
@@ -24690,7 +24683,7 @@
         <v>12</v>
       </c>
       <c r="T154" s="46" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="V154" s="2" t="n">
         <v>26</v>
@@ -24711,7 +24704,7 @@
         <v>13</v>
       </c>
       <c r="T155" s="46" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="V155" s="2" t="n">
         <v>4</v>
@@ -24732,7 +24725,7 @@
         <v>14</v>
       </c>
       <c r="T156" s="47" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="V156" s="2" t="n">
         <v>6</v>
@@ -24753,7 +24746,7 @@
         <v>15</v>
       </c>
       <c r="T157" s="47" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="V157" s="2" t="n">
         <v>16</v>
@@ -24774,7 +24767,7 @@
         <v>16</v>
       </c>
       <c r="T158" s="47" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="V158" s="2" t="n">
         <v>5</v>
@@ -24795,7 +24788,7 @@
         <v>17</v>
       </c>
       <c r="T159" s="48" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="V159" s="2" t="n">
         <v>2</v>
@@ -24816,7 +24809,7 @@
         <v>18</v>
       </c>
       <c r="T160" s="48" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="V160" s="2" t="n">
         <v>14</v>
@@ -24837,7 +24830,7 @@
         <v>19</v>
       </c>
       <c r="T161" s="48" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="V161" s="2" t="n">
         <v>7</v>
@@ -24858,7 +24851,7 @@
         <v>20</v>
       </c>
       <c r="T162" s="48" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="V162" s="2" t="n">
         <v>10</v>
@@ -24869,7 +24862,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="P163" s="2" t="n">
         <f aca="false">COUNTIF(B163:O163,"&lt;&gt;")</f>
@@ -24882,7 +24875,7 @@
         <v>21</v>
       </c>
       <c r="T163" s="48" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V163" s="2" t="n">
         <v>11</v>
@@ -24893,7 +24886,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="P164" s="2" t="n">
         <f aca="false">COUNTIF(B164:O164,"&lt;&gt;")</f>
@@ -24906,7 +24899,7 @@
         <v>22</v>
       </c>
       <c r="T164" s="48" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="V164" s="2" t="n">
         <v>18</v>
@@ -24917,7 +24910,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="P165" s="2" t="n">
         <f aca="false">COUNTIF(B165:O165,"&lt;&gt;")</f>
@@ -24947,7 +24940,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P168" s="2" t="n">
         <f aca="false">COUNTIF(B168:O168,"&lt;&gt;")</f>
@@ -24986,7 +24979,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="P172" s="2" t="n">
         <f aca="false">COUNTIF(B172:O172,"&lt;&gt;")</f>
@@ -25007,7 +25000,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="P174" s="2" t="n">
         <f aca="false">COUNTIF(B174:O174,"&lt;&gt;")</f>
@@ -25019,7 +25012,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="P175" s="2" t="n">
         <f aca="false">COUNTIF(B175:O175,"&lt;&gt;")</f>
@@ -25031,7 +25024,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="P176" s="2" t="n">
         <f aca="false">COUNTIF(B176:O176,"&lt;&gt;")</f>
@@ -25062,25 +25055,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="33" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>1674</v>
-      </c>
       <c r="G180" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="P180" s="2" t="n">
         <f aca="false">COUNTIF(B180:O180,"&lt;&gt;")</f>
@@ -25092,16 +25085,16 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="33" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>1679</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>1680</v>
       </c>
       <c r="P181" s="2" t="n">
         <f aca="false">COUNTIF(B181:O181,"&lt;&gt;")</f>
@@ -25113,16 +25106,16 @@
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="33" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="Q182" s="2" t="n">
         <v>3</v>
@@ -25130,22 +25123,22 @@
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="33" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="P183" s="2" t="n">
         <f aca="false">COUNTIF(B183:O183,"&lt;&gt;")</f>
@@ -25162,7 +25155,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="P185" s="2" t="n">
         <f aca="false">COUNTIF(B185:O185,"&lt;&gt;")</f>
@@ -25174,7 +25167,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="P186" s="2" t="n">
         <f aca="false">COUNTIF(B186:O186,"&lt;&gt;")</f>
@@ -25186,7 +25179,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="P187" s="2" t="n">
         <f aca="false">COUNTIF(B187:O187,"&lt;&gt;")</f>
@@ -25207,10 +25200,10 @@
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1623</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>1624</v>
       </c>
       <c r="P189" s="2" t="n">
         <f aca="false">COUNTIF(B189:O189,"&lt;&gt;")</f>
@@ -25249,10 +25242,10 @@
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1627</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>1628</v>
       </c>
       <c r="P193" s="2" t="n">
         <f aca="false">COUNTIF(B193:O193,"&lt;&gt;")</f>
@@ -25273,7 +25266,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="P195" s="2" t="n">
         <f aca="false">COUNTIF(B195:O195,"&lt;&gt;")</f>
@@ -25294,7 +25287,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="P197" s="2" t="n">
         <f aca="false">COUNTIF(B197:O197,"&lt;&gt;")</f>
@@ -25315,7 +25308,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="P199" s="2" t="n">
         <f aca="false">COUNTIF(B199:O199,"&lt;&gt;")</f>
@@ -25345,7 +25338,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="P202" s="2" t="n">
         <f aca="false">COUNTIF(B202:O202,"&lt;&gt;")</f>
@@ -25357,7 +25350,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="P203" s="2" t="n">
         <f aca="false">COUNTIF(B203:O203,"&lt;&gt;")</f>
@@ -25378,10 +25371,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="P205" s="2" t="n">
         <f aca="false">COUNTIF(B205:O205,"&lt;&gt;")</f>
@@ -25402,7 +25395,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="P207" s="2" t="n">
         <f aca="false">COUNTIF(B207:O207,"&lt;&gt;")</f>
@@ -25414,7 +25407,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="P208" s="2" t="n">
         <f aca="false">COUNTIF(B208:O208,"&lt;&gt;")</f>
@@ -25507,7 +25500,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="P218" s="2" t="n">
         <f aca="false">COUNTIF(B218:O218,"&lt;&gt;")</f>
@@ -25519,16 +25512,16 @@
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="33" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1654</v>
-      </c>
       <c r="D219" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="P219" s="2" t="n">
         <f aca="false">COUNTIF(B219:O219,"&lt;&gt;")</f>
@@ -25558,7 +25551,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="P222" s="2" t="n">
         <f aca="false">COUNTIF(B222:O222,"&lt;&gt;")</f>
@@ -25570,7 +25563,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="P223" s="2" t="n">
         <f aca="false">COUNTIF(B223:O223,"&lt;&gt;")</f>
@@ -25582,7 +25575,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="P224" s="2" t="n">
         <f aca="false">COUNTIF(B224:O224,"&lt;&gt;")</f>
@@ -25594,7 +25587,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="P225" s="2" t="n">
         <f aca="false">COUNTIF(B225:O225,"&lt;&gt;")</f>
@@ -25615,7 +25608,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="P227" s="2" t="n">
         <f aca="false">COUNTIF(B227:O227,"&lt;&gt;")</f>
@@ -25654,7 +25647,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="P231" s="2" t="n">
         <f aca="false">COUNTIF(B231:O231,"&lt;&gt;")</f>
@@ -25666,19 +25659,19 @@
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="33" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="P232" s="2" t="n">
         <f aca="false">COUNTIF(B232:O232,"&lt;&gt;")</f>
@@ -25690,7 +25683,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="P233" s="2" t="n">
         <f aca="false">COUNTIF(B233:O233,"&lt;&gt;")</f>
@@ -25702,7 +25695,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="P234" s="2" t="n">
         <f aca="false">COUNTIF(B234:O234,"&lt;&gt;")</f>
@@ -25714,7 +25707,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="P235" s="2" t="n">
         <f aca="false">COUNTIF(B235:O235,"&lt;&gt;")</f>
@@ -25780,19 +25773,19 @@
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="33" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1677</v>
-      </c>
       <c r="D242" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="P242" s="2" t="n">
         <f aca="false">COUNTIF(B242:O242,"&lt;&gt;")</f>
@@ -25813,7 +25806,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P244" s="2" t="n">
         <f aca="false">COUNTIF(B244:O244,"&lt;&gt;")</f>
@@ -25897,7 +25890,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="P253" s="2" t="n">
         <f aca="false">COUNTIF(B253:O253,"&lt;&gt;")</f>
@@ -25909,7 +25902,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="P254" s="2" t="n">
         <f aca="false">COUNTIF(B254:O254,"&lt;&gt;")</f>
@@ -25921,7 +25914,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="P255" s="2" t="n">
         <f aca="false">COUNTIF(B255:O255,"&lt;&gt;")</f>
@@ -25933,7 +25926,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="P256" s="2" t="n">
         <f aca="false">COUNTIF(B256:O256,"&lt;&gt;")</f>
@@ -25950,10 +25943,10 @@
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="P258" s="2" t="n">
         <f aca="false">COUNTIF(B258:O258,"&lt;&gt;")</f>
@@ -25983,13 +25976,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="33" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1695</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>1696</v>
       </c>
       <c r="P261" s="2" t="n">
         <f aca="false">COUNTIF(B261:O261,"&lt;&gt;")</f>
@@ -26010,7 +26003,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="P263" s="2" t="n">
         <f aca="false">COUNTIF(B263:O263,"&lt;&gt;")</f>
@@ -26022,7 +26015,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="P264" s="2" t="n">
         <f aca="false">COUNTIF(B264:O264,"&lt;&gt;")</f>
@@ -26052,7 +26045,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="P267" s="2" t="n">
         <f aca="false">COUNTIF(B267:O267,"&lt;&gt;")</f>
@@ -26064,7 +26057,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="P268" s="2" t="n">
         <f aca="false">COUNTIF(B268:O268,"&lt;&gt;")</f>
@@ -26076,10 +26069,10 @@
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="P269" s="2" t="n">
         <f aca="false">COUNTIF(B269:O269,"&lt;&gt;")</f>
@@ -26127,7 +26120,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="P274" s="2" t="n">
         <f aca="false">COUNTIF(B274:O274,"&lt;&gt;")</f>
@@ -26139,7 +26132,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="P275" s="2" t="n">
         <f aca="false">COUNTIF(B275:O275,"&lt;&gt;")</f>
@@ -26196,19 +26189,19 @@
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="33" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>1715</v>
-      </c>
       <c r="D281" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="P281" s="2" t="n">
         <f aca="false">COUNTIF(B281:O281,"&lt;&gt;")</f>
@@ -26229,13 +26222,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="33" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>1716</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1717</v>
       </c>
       <c r="P283" s="2" t="n">
         <f aca="false">COUNTIF(B283:O283,"&lt;&gt;")</f>
@@ -26274,7 +26267,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="P287" s="2" t="n">
         <f aca="false">COUNTIF(B287:O287,"&lt;&gt;")</f>
@@ -26340,7 +26333,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="P294" s="2" t="n">
         <f aca="false">COUNTIF(B294:O294,"&lt;&gt;")</f>

--- a/gradu/material/final_results.xlsx
+++ b/gradu/material/final_results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1892">
   <si>
     <t xml:space="preserve">Material search results</t>
   </si>
@@ -3728,6 +3728,9 @@
     <t xml:space="preserve">7, 21</t>
   </si>
   <si>
+    <t xml:space="preserve">Claes Strannegård , Nils Svangård , David Lindström , Joscha Bach , Bas Steunebrink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artificial animals, Animats, local Q-learning, Homeostatic agent, AGI, General environment</t>
   </si>
   <si>
@@ -3740,6 +3743,9 @@
     <t xml:space="preserve">Homeostat, Survival, Reinforcement learning, Reward, Animal behaviour</t>
   </si>
   <si>
+    <t xml:space="preserve">Claes Strannegård , Abdul Rahim Nizamani, Jonas Juel, Ulf Persson</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALICE IN WONDERLAND, Cognitive Architecture, Arbitrary symbolic domain, Bounded rationality, Beliefs, AGI</t>
   </si>
   <si>
@@ -3749,12 +3755,18 @@
     <t xml:space="preserve">1, 14</t>
   </si>
   <si>
+    <t xml:space="preserve">Paul S. Rosenbloom, Abram Demski, Volkan Ustun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sigma, Cognitive architecture, Graphical models, Virtual human, AGI</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">Thomas Manzini, Simon Ellis, James Hendler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Word puzzles, Games, IBM Watson, AGI, Cognitive computing</t>
   </si>
   <si>
@@ -3776,6 +3788,9 @@
     <t xml:space="preserve">4, 15, 19, 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Vitaly Khudobakhshov, Andrey Pitko, Denis Zotov</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Programming language, Probabilistic programming, Partial evaluation, Cognitive architecture</t>
   </si>
   <si>
@@ -3785,6 +3800,9 @@
     <t xml:space="preserve">1, 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Zoltán Tősér, András Lőrincz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cyber-physical systems, Event-learning framework, Robust controllers, factored ELF, AGI components, Reinforcement learning</t>
   </si>
   <si>
@@ -3794,12 +3812,18 @@
     <t xml:space="preserve">2, 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Andreas M. Hein, Hélène Condat</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Computational creativity, Gödel machine, Design theory</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
+    <t xml:space="preserve">Jordi Bieger, Kristinn R. Thórisson, Pei Wang</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, AGI safety, Friendly AI, Nurture, Child AI</t>
   </si>
   <si>
@@ -3824,6 +3848,9 @@
     <t xml:space="preserve">7, 18</t>
   </si>
   <si>
+    <t xml:space="preserve">John Licato, Maxwell Fowler</t>
+  </si>
+  <si>
     <t xml:space="preserve">HLAI, Cognitive Event Calculus, Automated reasoning, Inference, AGI, MATR</t>
   </si>
   <si>
@@ -3851,12 +3878,18 @@
     <t xml:space="preserve">Explain in the text! Difficult se classify, seems like a literature review.</t>
   </si>
   <si>
+    <t xml:space="preserve">Christian Rodriguez, Giselle Marston, William Goolkasian, Ashley Rosenberg, Andrew Nuxoll</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Episodic learning, Episodic memory, MaRz algorithm, NSM</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
+    <t xml:space="preserve">Nadisha-Marie Aliman, Leon Kester</t>
+  </si>
+  <si>
     <t xml:space="preserve">AI safety, AI aligment, Self-awareness, Human Enhancement</t>
   </si>
   <si>
@@ -3890,6 +3923,9 @@
     <t xml:space="preserve">AI safety, Malevolent AI, Superintelligence, Cyborgization, Malevolent Cyborgization</t>
   </si>
   <si>
+    <t xml:space="preserve">Pei Wang, Patrick Hammer</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, NARS, Decision theory, Decision making models</t>
   </si>
   <si>
@@ -3899,12 +3935,18 @@
     <t xml:space="preserve">1, 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Ross Gruetzemacher, David Paradice</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Scenario mapping, Technology roadmap, Workshops, AI progress</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeremy O. Turner, Steve DiPaola</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Aesthetic philosophy, Canonical intelligent agent categories, Contemplation</t>
   </si>
   <si>
@@ -3953,15 +3995,24 @@
     <t xml:space="preserve">13, 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Kristinn R. Thórisson, Jordi Bieger, Xiang Li, Pei Wang</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Cumulative learning, NARS, AERA, Knowledge acquisition</t>
   </si>
   <si>
+    <t xml:space="preserve">James Babcock, János Kramár, Roman Yampolskiy</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, AGI safety, AGI containment problem</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
+    <t xml:space="preserve">Alexey Potapov, Sergey Rodionov, Maxim Peterson, Oleg Scherbakov, Innokentii Zhdanov, Nikolai Skorobogatko</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Computer vision, Perception, AGI architecture, Discriminative models, Generative models</t>
   </si>
   <si>
@@ -3983,6 +4034,9 @@
     <t xml:space="preserve">1, 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Arthur Franz, Victoria Gogulya, Michael Löffler</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, WILLIAM, Inductive programming, Incremental compression, AIXI, Seed AI, Recursive self-improvement, Core algorithm</t>
   </si>
   <si>
@@ -4010,6 +4064,9 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
+    <t xml:space="preserve">Jarryd Martin, Tom Everitt, Marcus Hutter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universal AI, AIXI, Death, Suicide, Reinforcement learning, AI safety</t>
   </si>
   <si>
@@ -4019,6 +4076,9 @@
     <t xml:space="preserve">17, 7, 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Ute Schmid, Marco Ragni</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Inductive reasoning, Number series problem, AGI evaluation</t>
   </si>
   <si>
@@ -4034,6 +4094,9 @@
     <t xml:space="preserve">7, 3, 21</t>
   </si>
   <si>
+    <t xml:space="preserve">Timothy van Gelder, Richard de Rozario</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, IARPA CREATE, SWARM, AGI evaluation, Argument Marshalling, Project description</t>
   </si>
   <si>
@@ -4046,6 +4109,9 @@
     <t xml:space="preserve">Explain in the text! Describes IARPA's project, should this just be removed?</t>
   </si>
   <si>
+    <t xml:space="preserve">Ben Goertzel, Misgana Bayetta Belachew, Matthew Ikle, Gino Yu</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, OpenCog, Cognitive synergy, Attention, Logical Inference, Cognitive architecture, PrimeAGI</t>
   </si>
   <si>
@@ -4058,9 +4124,15 @@
     <t xml:space="preserve">1, 19, 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Kristinn R. Thórisson, Arthur Talbot</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Cumulative learning, Cumulative modeling, Causal relations</t>
   </si>
   <si>
+    <t xml:space="preserve">Kristinn R. Thórisson, David Kremelberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Common sense, Understanding, CYC project, Symbolic systems</t>
   </si>
   <si>
@@ -4070,6 +4142,9 @@
     <t xml:space="preserve">Focus not on rsi, but fits</t>
   </si>
   <si>
+    <t xml:space="preserve">Kristinn R. Thórisson, Jordi Bieger, Stephan Schiffel, Deon Garrett</t>
+  </si>
+  <si>
     <t xml:space="preserve">AI evaluation, Task environment, Environment design, Environment requirements</t>
   </si>
   <si>
@@ -4079,6 +4154,9 @@
     <t xml:space="preserve">17, 14</t>
   </si>
   <si>
+    <t xml:space="preserve">Nutchanon Yongsatianchot, Stacy Marsella</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, HCI, Emotion, Emotion detection, Bayesian inference, Facial expressions, Perception,</t>
   </si>
   <si>
@@ -4094,6 +4172,9 @@
     <t xml:space="preserve">Presented framework is more of a solution, than a new way of looking at things </t>
   </si>
   <si>
+    <t xml:space="preserve">Ben Goertzel, Nil Geisweiller, Eddie Monroe, Mike Duncan, Selamawit Yilma, Meseret Dastaw, Misgana Bayetta, Amen Belayneh, Matthew Ikle, Gino Yu</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, OpenCog, Cognitive synergy, Probabilistic reasoning, MOSES, Probabilistic Logic Networks, OpenCogPrime, Gene expression dataset</t>
   </si>
   <si>
@@ -4103,6 +4184,9 @@
     <t xml:space="preserve">AGI, Inductive programming, Functional programming, Inductive Functional Programming, MAGICHASKELLER, Adaptive planning</t>
   </si>
   <si>
+    <t xml:space="preserve">David (Weaver) Weinbaum, Viktoras Veitas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open-ended intelligence, Multi-agent systems, Self-organization, AGI, Intelligence definition, Individuation</t>
   </si>
   <si>
@@ -4115,12 +4199,18 @@
     <t xml:space="preserve">AGI, AI evaluation, AIQ, AGI evaluation, Universal Intelligence</t>
   </si>
   <si>
+    <t xml:space="preserve">Patrick Andersson, Anton Strandman, Claes Strannegård</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Artificial animals, Animats, Homeostatic agent, Reinforcement learning</t>
   </si>
   <si>
     <t xml:space="preserve">20, 24</t>
   </si>
   <si>
+    <t xml:space="preserve">Kristinn R. Thórisson, David Kremelberg, Bas R. Steunebrink, Eric Nivel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Understanding, Pragmatic understanding, HCI, AGI, AERA, Semantics</t>
   </si>
   <si>
@@ -4130,6 +4220,9 @@
     <t xml:space="preserve">1, 16, 18</t>
   </si>
   <si>
+    <t xml:space="preserve">Qiong Huang, Doya Kenji</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Reinforcement learning, Agent communication, Multi-agent systems, Meeting task, Split-Q-learning</t>
   </si>
   <si>
@@ -4139,6 +4232,9 @@
     <t xml:space="preserve">15, 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Xiang Li, Patrick Hammer, Pei Wang, Hongling Xie</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, NARS, Emotion, Cognitive Architecture, AGI design</t>
   </si>
   <si>
@@ -4148,6 +4244,9 @@
     <t xml:space="preserve">1, 19</t>
   </si>
   <si>
+    <t xml:space="preserve">Jordi E. Bieger, Kristinn R. Thórisson</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Cumulative learning, Curriculum learning, Artificial Pedagogy, Lifelong learning, Task analysis, Air Traffic Control</t>
   </si>
   <si>
@@ -4166,6 +4265,9 @@
     <t xml:space="preserve">Category theory, Functor, Tree structures, General problem solving</t>
   </si>
   <si>
+    <t xml:space="preserve">Garrett Katz, Di-Wei Huang, Rodolphe Gentili, James Reggia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imitation learning, Cause-effect reasoning, Physical robot</t>
   </si>
   <si>
@@ -4181,12 +4283,18 @@
     <t xml:space="preserve">Imitiation?</t>
   </si>
   <si>
+    <t xml:space="preserve">Claes Strannegård, Abdul Rahim Nizamani</t>
+  </si>
+  <si>
     <t xml:space="preserve">Symbolic reasoning, Sub-symbolic reasoning, Autonomous agent, Q-learning</t>
   </si>
   <si>
     <t xml:space="preserve">15, 24</t>
   </si>
   <si>
+    <t xml:space="preserve">Frédéric Alexandre, Maxime Carrere</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cognitive architecture, Neuromodulation, AGI, Bio-inspiration</t>
   </si>
   <si>
@@ -4196,6 +4304,9 @@
     <t xml:space="preserve">8, 20</t>
   </si>
   <si>
+    <t xml:space="preserve">Craig Sherstan, Adam White, Marlos C. Machado, Patrick M. Pilarski</t>
+  </si>
+  <si>
     <t xml:space="preserve">General value functions, Introspective agents, Prediction, Reward</t>
   </si>
   <si>
@@ -4214,30 +4325,51 @@
     <t xml:space="preserve">7, 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Alexey Potapov, Innokentii Zhdanov, Oleg Scherbakov, Nikolai Skorobogatko, Hugo Latapie, Enzo Fenoglio</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Computer vision, Perception, DCNN, Cognitive architecture, Semantic image retrieval, YOLOv2, OpenCog, Semantic vision, Symbolic/Subsymbolic gap</t>
   </si>
   <si>
     <t xml:space="preserve">1, 9, 21</t>
   </si>
   <si>
+    <t xml:space="preserve">Pei Wang, Max Talanov, Patrick Hammer</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, NARS, Emotion, Cognitive Architecture, AGI design, OpenNARS</t>
   </si>
   <si>
     <t xml:space="preserve">1, 7, 8</t>
   </si>
   <si>
+    <t xml:space="preserve">Pei Wang, Xiang Li</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Algorithmic learning, Inferential learning, NARS</t>
   </si>
   <si>
+    <t xml:space="preserve">Nil Geisweiller, Ben Goertzel</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, OpenCog, Pattern mining, Surprisingness, Reasoning, Hypergraphs</t>
   </si>
   <si>
+    <t xml:space="preserve">Jordi Bieger, Kristinn R. Thórisson, Bas R. Steunebrink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artificial Pedagogy, Teaching AI, Cumulative learning, Pedagogical Pentagon, AGI</t>
   </si>
   <si>
+    <t xml:space="preserve">Tobias Wängberg, Mikael Böörs, Elliot Catt, Tom Everitt, Marcus Hutter</t>
+  </si>
+  <si>
     <t xml:space="preserve">HCI, Off-switch game, Game theory, Analysis, AGI, AGI Safety</t>
   </si>
   <si>
+    <t xml:space="preserve">Claes Strannegård, Nils Svangård, Joscha Bach, Bas Steunebrink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artificial animals, Animats, Minecraft, Local Q-learning, Autonomous agent, Structural learning, Homestasis, Malmo project</t>
   </si>
   <si>
@@ -4247,6 +4379,9 @@
     <t xml:space="preserve">14, 10, 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Patrick Hammer, Tony Lofthouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, NARS, Goal-directed Procedure Learning, Planning, OpenNARS, Preconditions, Reinforcement learning</t>
   </si>
   <si>
@@ -4256,18 +4391,30 @@
     <t xml:space="preserve">1, 4, 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Eric Nivel, Kristinn R. Thórisson, Bas Steunebrink, Jürgen Schmidhuber</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Anytime Bounded Rationality, Lifetime learning, Anytime, AERA, Cognitive Architecture, Value-driven inference</t>
   </si>
   <si>
+    <t xml:space="preserve">Benja Fallenstein, Nate Soares, Jessica Taylor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solomonoff induction, AIXI, Turing machine, Oracle machine, Universal AI</t>
   </si>
   <si>
+    <t xml:space="preserve">Pei Wang, Xiang Li, Patrick Hammer</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARS, Self-awareness, Self-control</t>
   </si>
   <si>
     <t xml:space="preserve">1, 18</t>
   </si>
   <si>
+    <t xml:space="preserve">Alex Glushchenko, Andres Suarez, Anton Kolonin, Ben Goertzel, Claudia Castillo, Man Hin Leung, Oleg Baskov</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenCog, Grammar learning, Unsupervised learning, NLP, Baby Turing Test</t>
   </si>
   <si>
@@ -4277,6 +4424,9 @@
     <t xml:space="preserve">1, 21</t>
   </si>
   <si>
+    <t xml:space="preserve">Alexey Potapov, Sergey Rodionov, Vita Potapova</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI, Probabilistic programming, Genetic algorithms, Robot, Planning, Optimization, NAO</t>
   </si>
   <si>
@@ -4286,9 +4436,15 @@
     <t xml:space="preserve">4, 5, 10, 8</t>
   </si>
   <si>
+    <t xml:space="preserve">Bill Power, Xiang Li, Pei Wang</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARS, Diagnostics, Model Based Diagnostics</t>
   </si>
   <si>
+    <t xml:space="preserve">Khin Hua Ng, Zhiyuan Du, Gee Wah Ng</t>
+  </si>
+  <si>
     <t xml:space="preserve">DSO-CA, Cognitive architectures, Global Workspace Theory, Traffic control problem</t>
   </si>
   <si>
@@ -4301,6 +4457,9 @@
     <t xml:space="preserve">7, 13</t>
   </si>
   <si>
+    <t xml:space="preserve">Patrick Hammer, Tony Lofthouse, Pei Wang</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARS, AGI, OpenNARS, Cognitive architecture</t>
   </si>
   <si>
@@ -4310,10 +4469,16 @@
     <t xml:space="preserve">Incremental compression, Universal induction, Universal search</t>
   </si>
   <si>
+    <t xml:space="preserve">Nadisha-Marie Aliman, Leon Kester, Peter Werkhoven, Roman Yampolskiy</t>
+  </si>
+  <si>
     <t xml:space="preserve">AI aligment, AI safety, AI ethics, Ethical goal function, Control problem, AGI</t>
   </si>
   <si>
     <t xml:space="preserve">Incremental compression, Hierarchical compression, Universal induction, Power laws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Everitt, Marcus Hutter</t>
   </si>
   <si>
     <t xml:space="preserve">Reinforcement learning, Wireheading problem, Value reinforcement learning, General agent, Agent goals</t>
@@ -6233,11 +6398,11 @@
   </sheetPr>
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.58"/>
@@ -15162,15 +15327,15 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="111.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="118.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="11.86"/>
@@ -15675,7 +15840,7 @@
         <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>1234</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>2018</v>
@@ -15702,19 +15867,19 @@
         <v>170</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15752,19 +15917,19 @@
         <v>170</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15775,7 +15940,7 @@
         <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>1239</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>2017</v>
@@ -15802,19 +15967,19 @@
         <v>170</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15825,7 +15990,7 @@
         <v>201</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>1243</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2017</v>
@@ -15852,7 +16017,7 @@
         <v>170</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>1219</v>
@@ -15864,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15875,7 +16040,7 @@
         <v>237</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>1246</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2015</v>
@@ -15902,19 +16067,19 @@
         <v>170</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>18</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15949,25 +16114,25 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15978,7 +16143,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>257</v>
+        <v>1254</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>2015</v>
@@ -16002,25 +16167,25 @@
         <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16031,7 +16196,7 @@
         <v>262</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>263</v>
+        <v>1258</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>2015</v>
@@ -16055,25 +16220,25 @@
         <v>71</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16084,7 +16249,7 @@
         <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>1262</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>2018</v>
@@ -16108,13 +16273,13 @@
         <v>71</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>1219</v>
@@ -16126,7 +16291,7 @@
         <v>7</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16137,7 +16302,7 @@
         <v>274</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>275</v>
+        <v>1265</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>2015</v>
@@ -16161,13 +16326,13 @@
         <v>71</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>1226</v>
@@ -16176,13 +16341,13 @@
         <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16217,25 +16382,25 @@
         <v>71</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16246,7 +16411,7 @@
         <v>286</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>287</v>
+        <v>1274</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>2016</v>
@@ -16270,13 +16435,13 @@
         <v>71</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>1219</v>
@@ -16288,7 +16453,7 @@
         <v>15</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16323,13 +16488,13 @@
         <v>71</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1268</v>
+        <v>1277</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>1210</v>
@@ -16341,7 +16506,7 @@
         <v>26</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16376,13 +16541,13 @@
         <v>71</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1270</v>
+        <v>1279</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>1210</v>
@@ -16394,7 +16559,7 @@
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>1271</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16426,13 +16591,13 @@
         <v>71</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>1272</v>
+        <v>1281</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>1210</v>
@@ -16444,10 +16609,10 @@
         <v>22</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16458,7 +16623,7 @@
         <v>309</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>310</v>
+        <v>1284</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2017</v>
@@ -16479,13 +16644,13 @@
         <v>71</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>1219</v>
@@ -16497,7 +16662,7 @@
         <v>4</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16508,7 +16673,7 @@
         <v>314</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>315</v>
+        <v>1287</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2018</v>
@@ -16532,25 +16697,25 @@
         <v>71</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16585,13 +16750,13 @@
         <v>71</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>1219</v>
@@ -16603,7 +16768,7 @@
         <v>23</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16635,25 +16800,25 @@
         <v>71</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16664,7 +16829,7 @@
         <v>331</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>315</v>
+        <v>1287</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2019</v>
@@ -16688,19 +16853,19 @@
         <v>71</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>1228</v>
@@ -16741,13 +16906,13 @@
         <v>71</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>1210</v>
@@ -16759,7 +16924,7 @@
         <v>26</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16794,25 +16959,25 @@
         <v>71</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16823,7 +16988,7 @@
         <v>353</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>354</v>
+        <v>1299</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>2015</v>
@@ -16847,25 +17012,25 @@
         <v>71</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>1226</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16876,7 +17041,7 @@
         <v>359</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>360</v>
+        <v>1303</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>2019</v>
@@ -16900,13 +17065,13 @@
         <v>71</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>1219</v>
@@ -16918,7 +17083,7 @@
         <v>10</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16929,7 +17094,7 @@
         <v>365</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>366</v>
+        <v>1306</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>2018</v>
@@ -16953,13 +17118,13 @@
         <v>71</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>1293</v>
+        <v>1307</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>1210</v>
@@ -16971,7 +17136,7 @@
         <v>14</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17006,13 +17171,13 @@
         <v>71</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>1219</v>
@@ -17024,7 +17189,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17059,25 +17224,25 @@
         <v>71</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17112,25 +17277,25 @@
         <v>71</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17162,25 +17327,25 @@
         <v>71</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17215,25 +17380,25 @@
         <v>71</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17244,7 +17409,7 @@
         <v>405</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>406</v>
+        <v>1323</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>2019</v>
@@ -17268,25 +17433,25 @@
         <v>71</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1309</v>
+        <v>1324</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17297,7 +17462,7 @@
         <v>411</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>412</v>
+        <v>1325</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2016</v>
@@ -17321,13 +17486,13 @@
         <v>71</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>1310</v>
+        <v>1326</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>1210</v>
@@ -17339,7 +17504,7 @@
         <v>2</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17350,7 +17515,7 @@
         <v>417</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>418</v>
+        <v>1328</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>2018</v>
@@ -17374,25 +17539,25 @@
         <v>71</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="Q43" s="29" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17403,7 +17568,7 @@
         <v>430</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>354</v>
+        <v>1299</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2015</v>
@@ -17427,25 +17592,25 @@
         <v>71</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17456,7 +17621,7 @@
         <v>435</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>436</v>
+        <v>1336</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>2019</v>
@@ -17480,28 +17645,28 @@
         <v>71</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>1319</v>
+        <v>1337</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>1320</v>
+        <v>1338</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>1321</v>
+        <v>1339</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>1322</v>
+        <v>1340</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>1323</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17512,7 +17677,7 @@
         <v>441</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>354</v>
+        <v>1299</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2018</v>
@@ -17533,25 +17698,25 @@
         <v>71</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>1324</v>
+        <v>1342</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17586,13 +17751,13 @@
         <v>71</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>1326</v>
+        <v>1344</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>1210</v>
@@ -17604,7 +17769,7 @@
         <v>16</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>1327</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17615,7 +17780,7 @@
         <v>457</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>458</v>
+        <v>1346</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>2016</v>
@@ -17636,25 +17801,25 @@
         <v>71</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>1329</v>
+        <v>1348</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>1329</v>
+        <v>1348</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>1330</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17665,7 +17830,7 @@
         <v>462</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>463</v>
+        <v>1350</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>2015</v>
@@ -17686,25 +17851,25 @@
         <v>71</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>1331</v>
+        <v>1351</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>1333</v>
+        <v>1353</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>1334</v>
+        <v>1354</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>1335</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17715,7 +17880,7 @@
         <v>474</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>475</v>
+        <v>1356</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>2017</v>
@@ -17739,28 +17904,28 @@
         <v>71</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>1336</v>
+        <v>1357</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>1338</v>
+        <v>1359</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>1339</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17771,7 +17936,7 @@
         <v>494</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>495</v>
+        <v>1361</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>2016</v>
@@ -17795,25 +17960,25 @@
         <v>71</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>1231</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>1341</v>
+        <v>1363</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17824,7 +17989,7 @@
         <v>507</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>508</v>
+        <v>1366</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>2018</v>
@@ -17848,13 +18013,13 @@
         <v>71</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1344</v>
+        <v>1367</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>1219</v>
@@ -17866,7 +18031,7 @@
         <v>4</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17877,7 +18042,7 @@
         <v>513</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>514</v>
+        <v>1368</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>2017</v>
@@ -17898,13 +18063,13 @@
         <v>71</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>1345</v>
+        <v>1369</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>1210</v>
@@ -17916,7 +18081,7 @@
         <v>14</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17951,13 +18116,13 @@
         <v>71</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>1346</v>
+        <v>1370</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>1219</v>
@@ -17969,10 +18134,10 @@
         <v>26</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17983,7 +18148,7 @@
         <v>537</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>538</v>
+        <v>1372</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>2015</v>
@@ -18007,25 +18172,25 @@
         <v>71</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>1348</v>
+        <v>1373</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>1349</v>
+        <v>1374</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>1349</v>
+        <v>1374</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>1350</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18036,7 +18201,7 @@
         <v>543</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>544</v>
+        <v>1376</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>2016</v>
@@ -18060,25 +18225,25 @@
         <v>71</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1351</v>
+        <v>1377</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>1353</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18113,13 +18278,13 @@
         <v>71</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1354</v>
+        <v>1380</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>1219</v>
@@ -18131,10 +18296,10 @@
         <v>14</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18145,7 +18310,7 @@
         <v>555</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>556</v>
+        <v>1382</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>2015</v>
@@ -18169,25 +18334,25 @@
         <v>71</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1356</v>
+        <v>1383</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>1357</v>
+        <v>1384</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18222,13 +18387,13 @@
         <v>71</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1358</v>
+        <v>1385</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>1219</v>
@@ -18240,7 +18405,7 @@
         <v>3</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18251,7 +18416,7 @@
         <v>566</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>567</v>
+        <v>1386</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>2016</v>
@@ -18275,25 +18440,25 @@
         <v>71</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>1359</v>
+        <v>1387</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>1360</v>
+        <v>1388</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>1360</v>
+        <v>1388</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>1361</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18328,16 +18493,16 @@
         <v>71</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1362</v>
+        <v>1390</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>1232</v>
@@ -18357,7 +18522,7 @@
         <v>577</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>578</v>
+        <v>1391</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>2019</v>
@@ -18381,25 +18546,25 @@
         <v>71</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>1363</v>
+        <v>1392</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>1364</v>
+        <v>1393</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>1364</v>
+        <v>1393</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18410,7 +18575,7 @@
         <v>590</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>591</v>
+        <v>1394</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>2016</v>
@@ -18434,25 +18599,25 @@
         <v>71</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1365</v>
+        <v>1395</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>1366</v>
+        <v>1396</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>1366</v>
+        <v>1396</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>1367</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18463,7 +18628,7 @@
         <v>610</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>611</v>
+        <v>1398</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>2019</v>
@@ -18487,25 +18652,25 @@
         <v>71</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>1369</v>
+        <v>1400</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>1369</v>
+        <v>1400</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>1370</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18516,7 +18681,7 @@
         <v>616</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>617</v>
+        <v>1402</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>2018</v>
@@ -18540,25 +18705,25 @@
         <v>71</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>1371</v>
+        <v>1403</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>1372</v>
+        <v>1404</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>1372</v>
+        <v>1404</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>1373</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18569,7 +18734,7 @@
         <v>622</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>623</v>
+        <v>1406</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>2018</v>
@@ -18593,25 +18758,25 @@
         <v>71</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>1374</v>
+        <v>1407</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>1375</v>
+        <v>1408</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18643,25 +18808,25 @@
         <v>71</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>1376</v>
+        <v>1409</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>1377</v>
+        <v>1410</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>1377</v>
+        <v>1410</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>1378</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18696,13 +18861,13 @@
         <v>71</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1379</v>
+        <v>1412</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>1210</v>
@@ -18714,7 +18879,7 @@
         <v>23</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18725,7 +18890,7 @@
         <v>645</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>646</v>
+        <v>1413</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>2016</v>
@@ -18749,28 +18914,28 @@
         <v>71</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1380</v>
+        <v>1414</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1382</v>
+        <v>1416</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1383</v>
+        <v>1417</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>1384</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18781,7 +18946,7 @@
         <v>651</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>652</v>
+        <v>1419</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>2016</v>
@@ -18805,22 +18970,22 @@
         <v>71</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1385</v>
+        <v>1420</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>1386</v>
+        <v>1421</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1386</v>
+        <v>1421</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>1232</v>
@@ -18834,7 +18999,7 @@
         <v>657</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>658</v>
+        <v>1422</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>2016</v>
@@ -18858,22 +19023,22 @@
         <v>71</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1387</v>
+        <v>1423</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>1388</v>
+        <v>1424</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1389</v>
+        <v>1425</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>1211</v>
@@ -18887,7 +19052,7 @@
         <v>663</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>664</v>
+        <v>1426</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>2016</v>
@@ -18911,13 +19076,13 @@
         <v>71</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1390</v>
+        <v>1427</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>1219</v>
@@ -18926,10 +19091,10 @@
         <v>13</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1391</v>
+        <v>1428</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1392</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18964,25 +19129,25 @@
         <v>71</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1393</v>
+        <v>1430</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>1394</v>
+        <v>1431</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1394</v>
+        <v>1431</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1395</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18993,7 +19158,7 @@
         <v>702</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>703</v>
+        <v>1433</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>2018</v>
@@ -19017,25 +19182,25 @@
         <v>71</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1396</v>
+        <v>1434</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>1397</v>
+        <v>1435</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19046,7 +19211,7 @@
         <v>715</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>716</v>
+        <v>1436</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2016</v>
@@ -19070,25 +19235,25 @@
         <v>71</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1398</v>
+        <v>1437</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>1399</v>
+        <v>1438</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1372</v>
+        <v>1404</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1373</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19099,7 +19264,7 @@
         <v>721</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>722</v>
+        <v>1439</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>2016</v>
@@ -19123,13 +19288,13 @@
         <v>71</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>1219</v>
@@ -19141,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19152,7 +19317,7 @@
         <v>734</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>735</v>
+        <v>1441</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>2019</v>
@@ -19176,25 +19341,25 @@
         <v>71</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1401</v>
+        <v>1442</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19205,7 +19370,7 @@
         <v>740</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>741</v>
+        <v>1443</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>2017</v>
@@ -19226,13 +19391,13 @@
         <v>71</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1402</v>
+        <v>1444</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>1210</v>
@@ -19244,7 +19409,7 @@
         <v>4</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19255,7 +19420,7 @@
         <v>759</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>760</v>
+        <v>1445</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>2017</v>
@@ -19276,25 +19441,25 @@
         <v>71</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1403</v>
+        <v>1446</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19305,7 +19470,7 @@
         <v>778</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>779</v>
+        <v>1447</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>2017</v>
@@ -19329,25 +19494,25 @@
         <v>71</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>1404</v>
+        <v>1448</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>1405</v>
+        <v>1449</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>1405</v>
+        <v>1449</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>1406</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19358,7 +19523,7 @@
         <v>798</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>799</v>
+        <v>1451</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>2018</v>
@@ -19382,25 +19547,25 @@
         <v>71</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>1407</v>
+        <v>1452</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>1408</v>
+        <v>1453</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>1408</v>
+        <v>1453</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>1409</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19411,7 +19576,7 @@
         <v>804</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>805</v>
+        <v>1455</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>2015</v>
@@ -19435,25 +19600,25 @@
         <v>71</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>1410</v>
+        <v>1456</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19464,7 +19629,7 @@
         <v>824</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>825</v>
+        <v>1457</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>2015</v>
@@ -19488,13 +19653,13 @@
         <v>71</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>1411</v>
+        <v>1458</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>1219</v>
@@ -19506,7 +19671,7 @@
         <v>3</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19517,7 +19682,7 @@
         <v>830</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>831</v>
+        <v>1459</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>2017</v>
@@ -19538,25 +19703,25 @@
         <v>71</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>1412</v>
+        <v>1460</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>1413</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19567,7 +19732,7 @@
         <v>841</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>842</v>
+        <v>1462</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>2018</v>
@@ -19591,25 +19756,25 @@
         <v>71</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>1414</v>
+        <v>1463</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>1415</v>
+        <v>1464</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>1415</v>
+        <v>1464</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>1416</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19620,7 +19785,7 @@
         <v>867</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>868</v>
+        <v>1466</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>2016</v>
@@ -19644,25 +19809,25 @@
         <v>71</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>1417</v>
+        <v>1467</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>1418</v>
+        <v>1468</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>1418</v>
+        <v>1468</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>1419</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19673,7 +19838,7 @@
         <v>873</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>874</v>
+        <v>1470</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>2019</v>
@@ -19697,13 +19862,13 @@
         <v>71</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>1420</v>
+        <v>1471</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>1219</v>
@@ -19715,7 +19880,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19726,7 +19891,7 @@
         <v>886</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>880</v>
+        <v>1472</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>2018</v>
@@ -19750,25 +19915,25 @@
         <v>71</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1421</v>
+        <v>1473</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>1231</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>1373</v>
+        <v>1405</v>
       </c>
       <c r="P88" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19803,25 +19968,25 @@
         <v>71</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>1422</v>
+        <v>1474</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>1423</v>
+        <v>1475</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>1423</v>
+        <v>1475</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>1424</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19832,7 +19997,7 @@
         <v>910</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>911</v>
+        <v>1477</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>2016</v>
@@ -19853,13 +20018,13 @@
         <v>71</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>1425</v>
+        <v>1478</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>1219</v>
@@ -19871,10 +20036,10 @@
         <v>1</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1426</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19909,13 +20074,13 @@
         <v>71</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1427</v>
+        <v>1480</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>1203</v>
@@ -19927,7 +20092,7 @@
         <v>3</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19938,7 +20103,7 @@
         <v>1032</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1033</v>
+        <v>1481</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>2019</v>
@@ -19962,19 +20127,19 @@
         <v>71</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1428</v>
+        <v>1482</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>1228</v>
@@ -20015,13 +20180,13 @@
         <v>71</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>1429</v>
+        <v>1483</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>1203</v>
@@ -20033,7 +20198,7 @@
         <v>3</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20044,7 +20209,7 @@
         <v>1169</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1170</v>
+        <v>1484</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>2016</v>
@@ -20065,13 +20230,13 @@
         <v>71</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>255</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>1430</v>
+        <v>1485</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>1219</v>
@@ -20083,7 +20248,7 @@
         <v>24</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>1431</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="95" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20104,7 +20269,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>1432</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20139,13 +20304,13 @@
         <v>170</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>1433</v>
+        <v>1488</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>1434</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -20173,1498 +20338,1498 @@
   </sheetPr>
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B304" activeCellId="0" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1435</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>1436</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>1437</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>1438</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>1439</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>1440</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>1441</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>1442</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>1443</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>1444</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>1445</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>1446</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>1447</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>1448</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>1449</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>1450</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>1451</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>1452</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>1453</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>1454</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>1455</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>1456</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>1457</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>1458</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>1459</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>1460</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>1461</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>1462</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>1463</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>1464</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>1465</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>1466</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>1467</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>1468</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>1469</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>1470</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>1471</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>1472</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>1473</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>1474</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>1475</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>1476</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>1477</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>1478</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>1479</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>1480</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>1481</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>1482</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>1483</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>1484</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>1485</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>1486</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>1487</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>1488</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>1489</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>1490</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>1491</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>1492</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>1493</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>1494</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>1495</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>1496</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>1497</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>1498</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>1499</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>1500</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>1501</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>1502</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>1503</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>1504</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>1505</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>1506</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>1507</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>1508</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>1509</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>1510</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>1511</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>1512</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>1513</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>1514</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>1515</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>1516</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>1517</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>1518</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>1519</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>1520</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>1521</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>1522</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>1523</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>1524</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>1525</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>1526</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>1527</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>1528</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>1529</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>1530</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>1531</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>1532</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>1533</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>1534</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>1535</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>1536</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>1537</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>1538</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>1539</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>1540</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>1541</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>1542</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>1543</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>1544</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>1545</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>1546</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>1547</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>1548</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>1549</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>1550</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>1551</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>1552</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>1553</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>1554</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>1555</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>1556</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>1557</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>1558</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>1559</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>1560</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>1561</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>1562</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>1563</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>1564</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>1565</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>1566</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>1567</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>1568</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>1569</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>1570</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>1571</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>1572</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>1573</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>1574</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>1575</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>1576</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>1577</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>1578</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>1579</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>1580</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>1581</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>1582</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>1583</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>1584</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>1585</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="2" t="s">
-        <v>1586</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
-        <v>1587</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="2" t="s">
-        <v>1588</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="2" t="s">
-        <v>1589</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="2" t="s">
-        <v>1590</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="2" t="s">
-        <v>1591</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="2" t="s">
-        <v>1592</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="2" t="s">
-        <v>1593</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="2" t="s">
-        <v>1594</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="2" t="s">
-        <v>1595</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="2" t="s">
-        <v>1596</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
-        <v>1597</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
-        <v>1598</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="2" t="s">
-        <v>1599</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="2" t="s">
-        <v>1600</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
-        <v>1601</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="2" t="s">
-        <v>1602</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="2" t="s">
-        <v>1603</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
-        <v>1604</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="2" t="s">
-        <v>1605</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>1606</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>1607</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
-        <v>1608</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="2" t="s">
-        <v>1609</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="2" t="s">
-        <v>1610</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="2" t="s">
-        <v>1611</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
-        <v>1612</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="2" t="s">
-        <v>1613</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
-        <v>1614</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="2" t="s">
-        <v>1615</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="2" t="s">
-        <v>1616</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="2" t="s">
-        <v>1617</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="2" t="s">
-        <v>1618</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="2" t="s">
-        <v>1619</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="2" t="s">
-        <v>1620</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="2" t="s">
-        <v>1621</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
-        <v>1622</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
-        <v>1623</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="2" t="s">
-        <v>1624</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="2" t="s">
-        <v>1625</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
-        <v>1626</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="2" t="s">
-        <v>1627</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>1628</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
-        <v>1629</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>1630</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>1631</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>1632</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>1633</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>1634</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>1635</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>1636</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>1637</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>1638</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>1639</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>1640</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>1641</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>1642</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>1643</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>1644</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>1645</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>1646</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>1647</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>1648</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>1649</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>1650</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>1651</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>1652</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>1653</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>1654</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>1655</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>1656</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>1657</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>1658</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>1659</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>1660</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>1661</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>1662</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>1663</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>1664</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>1665</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="2" t="s">
-        <v>1666</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>1667</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>1668</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>1669</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>1670</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>1671</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>1672</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>1673</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="2" t="s">
-        <v>1674</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>1675</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>1676</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>1677</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>1678</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>1679</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>1680</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>1681</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>1682</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>1683</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>1684</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>1685</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>1686</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>1687</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>1688</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>1689</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>1690</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>1691</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>1692</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>1693</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>1694</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>1695</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>1696</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>1697</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>1698</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>1699</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>1700</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>1701</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>1702</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>1703</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>1704</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>1705</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="2" t="s">
-        <v>1561</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>1706</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>1707</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>1708</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>1709</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>1710</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>1711</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>1712</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>1713</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>1714</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>1715</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="2" t="s">
-        <v>1716</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="2" t="s">
-        <v>1717</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="2" t="s">
-        <v>1718</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="2" t="s">
-        <v>1719</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="2" t="s">
-        <v>1720</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="2" t="s">
-        <v>1721</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="2" t="s">
-        <v>1722</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="2" t="s">
-        <v>1723</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="2" t="s">
-        <v>1724</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="2" t="s">
-        <v>1725</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="2" t="s">
-        <v>1726</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="2" t="s">
-        <v>1727</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="2" t="s">
-        <v>1728</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="2" t="s">
-        <v>1729</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="299" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="31" t="s">
-        <v>1730</v>
+        <v>1785</v>
       </c>
       <c r="B299" s="32" t="n">
         <f aca="false">COUNTIFS(B3:B297,"&lt;&gt;*/1", B3:B297,"&lt;&gt;*/2",B3:B297,"&lt;&gt;*/3" )</f>
@@ -21722,11 +21887,11 @@
   </sheetPr>
   <dimension ref="A1:AE299"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P115" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V143" activeCellId="0" sqref="V143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="51.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.42"/>
@@ -21751,33 +21916,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
-        <v>1731</v>
+        <v>1786</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>1732</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P2" s="2" t="s">
-        <v>1733</v>
+        <v>1788</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1734</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="3" s="38" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="37"/>
       <c r="B3" s="2" t="s">
-        <v>1436</v>
+        <v>1491</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1471</v>
+        <v>1526</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1446</v>
+        <v>1501</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1467</v>
+        <v>1522</v>
       </c>
       <c r="P3" s="38" t="n">
         <f aca="false">COUNTIF(B3:O3,"&lt;&gt;")</f>
@@ -21790,28 +21955,28 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>1735</v>
+        <v>1790</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1437</v>
+        <v>1492</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1718</v>
+        <v>1773</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1717</v>
+        <v>1772</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1616</v>
+        <v>1671</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1527</v>
+        <v>1582</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1531</v>
+        <v>1586</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1457</v>
+        <v>1512</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">COUNTIF(B4:O4,"&lt;&gt;")</f>
@@ -21821,21 +21986,21 @@
         <v>20</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>1736</v>
+        <v>1791</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>1737</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>1738</v>
+        <v>1793</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1438</v>
+        <v>1493</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1465</v>
+        <v>1520</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">COUNTIF(B5:O5,"&lt;&gt;")</f>
@@ -21853,22 +22018,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>1739</v>
+        <v>1794</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1440</v>
+        <v>1495</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1456</v>
+        <v>1511</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1462</v>
+        <v>1517</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1650</v>
+        <v>1705</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1648</v>
+        <v>1703</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">COUNTIF(B6:O6,"&lt;&gt;")</f>
@@ -21881,16 +22046,16 @@
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1735</v>
+        <v>1790</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>1735</v>
+        <v>1790</v>
       </c>
       <c r="V6" s="2" t="n">
         <v>16</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>1740</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21902,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1738</v>
+        <v>1793</v>
       </c>
       <c r="V7" s="2" t="n">
         <v>11</v>
@@ -21910,28 +22075,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>1741</v>
+        <v>1796</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1439</v>
+        <v>1494</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1728</v>
+        <v>1783</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1502</v>
+        <v>1557</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1476</v>
+        <v>1531</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1674</v>
+        <v>1729</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1662</v>
+        <v>1717</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1727</v>
+        <v>1782</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">COUNTIF(B8:O8,"&lt;&gt;")</f>
@@ -21941,7 +22106,7 @@
         <v>15</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1739</v>
+        <v>1794</v>
       </c>
       <c r="V8" s="2" t="n">
         <v>8</v>
@@ -21958,25 +22123,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>1742</v>
+        <v>1797</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1443</v>
+        <v>1498</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1461</v>
+        <v>1516</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1473</v>
+        <v>1528</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1521</v>
+        <v>1576</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1522</v>
+        <v>1577</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1711</v>
+        <v>1766</v>
       </c>
       <c r="P10" s="2" t="n">
         <f aca="false">COUNTIF(B10:O10,"&lt;&gt;")</f>
@@ -21989,54 +22154,54 @@
         <v>2</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1743</v>
+        <v>1798</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>1743</v>
+        <v>1798</v>
       </c>
       <c r="V10" s="2" t="n">
         <v>11</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>1744</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>1743</v>
+        <v>1798</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1444</v>
+        <v>1499</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1441</v>
+        <v>1496</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1482</v>
+        <v>1537</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1484</v>
+        <v>1539</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1583</v>
+        <v>1638</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>1555</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>1584</v>
+        <v>1639</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1587</v>
+        <v>1642</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1724</v>
+        <v>1779</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1599</v>
+        <v>1654</v>
       </c>
       <c r="P11" s="2" t="n">
         <f aca="false">COUNTIF(B11:O11,"&lt;&gt;")</f>
@@ -22046,7 +22211,7 @@
         <v>22</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>1745</v>
+        <v>1800</v>
       </c>
       <c r="V11" s="2" t="n">
         <v>5</v>
@@ -22054,19 +22219,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>1746</v>
+        <v>1801</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1445</v>
+        <v>1500</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1472</v>
+        <v>1527</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1646</v>
+        <v>1701</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="P12" s="2" t="n">
         <f aca="false">COUNTIF(B12:O12,"&lt;&gt;")</f>
@@ -22078,28 +22243,28 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>1747</v>
+        <v>1802</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1449</v>
+        <v>1504</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1508</v>
+        <v>1563</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1577</v>
+        <v>1632</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1588</v>
+        <v>1643</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1589</v>
+        <v>1644</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1645</v>
+        <v>1700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1643</v>
+        <v>1698</v>
       </c>
       <c r="P13" s="2" t="n">
         <f aca="false">COUNTIF(B13:O13,"&lt;&gt;")</f>
@@ -22111,22 +22276,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>1745</v>
+        <v>1800</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1447</v>
+        <v>1502</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1586</v>
+        <v>1641</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1617</v>
+        <v>1672</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1505</v>
+        <v>1560</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1566</v>
+        <v>1621</v>
       </c>
       <c r="P14" s="2" t="n">
         <f aca="false">COUNTIF(B14:O14,"&lt;&gt;")</f>
@@ -22139,36 +22304,36 @@
         <v>3</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1748</v>
+        <v>1803</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>1749</v>
+        <v>1804</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>9</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>1750</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>1751</v>
+        <v>1806</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1448</v>
+        <v>1503</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1479</v>
+        <v>1534</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1542</v>
+        <v>1597</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1620</v>
+        <v>1675</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1600</v>
+        <v>1655</v>
       </c>
       <c r="P15" s="2" t="n">
         <f aca="false">COUNTIF(B15:O15,"&lt;&gt;")</f>
@@ -22178,7 +22343,7 @@
         <v>9</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>1752</v>
+        <v>1807</v>
       </c>
       <c r="V15" s="2" t="n">
         <v>7</v>
@@ -22189,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>1753</v>
+        <v>1808</v>
       </c>
       <c r="V16" s="2" t="n">
         <v>4</v>
@@ -22197,25 +22362,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>1754</v>
+        <v>1809</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1450</v>
+        <v>1505</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1491</v>
+        <v>1546</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1703</v>
+        <v>1758</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1606</v>
+        <v>1661</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1573</v>
+        <v>1628</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1574</v>
+        <v>1629</v>
       </c>
       <c r="P17" s="2" t="n">
         <f aca="false">COUNTIF(B17:O17,"&lt;&gt;")</f>
@@ -22225,7 +22390,7 @@
         <v>10</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>1755</v>
+        <v>1810</v>
       </c>
       <c r="V17" s="2" t="n">
         <v>2</v>
@@ -22233,25 +22398,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>1756</v>
+        <v>1811</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1451</v>
+        <v>1506</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1458</v>
+        <v>1513</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1517</v>
+        <v>1572</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1683</v>
+        <v>1738</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1685</v>
+        <v>1740</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1684</v>
+        <v>1739</v>
       </c>
       <c r="P18" s="2" t="n">
         <f aca="false">COUNTIF(B18:O18,"&lt;&gt;")</f>
@@ -22273,42 +22438,42 @@
         <v>4</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1754</v>
+        <v>1809</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>1754</v>
+        <v>1809</v>
       </c>
       <c r="V19" s="2" t="n">
         <v>8</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>1757</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>1758</v>
+        <v>1813</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1453</v>
+        <v>1508</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1477</v>
+        <v>1532</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1524</v>
+        <v>1579</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1526</v>
+        <v>1581</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1698</v>
+        <v>1753</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1525</v>
+        <v>1580</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1452</v>
+        <v>1507</v>
       </c>
       <c r="P20" s="2" t="n">
         <f aca="false">COUNTIF(B20:O20,"&lt;&gt;")</f>
@@ -22318,7 +22483,7 @@
         <v>12</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>1759</v>
+        <v>1814</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>4</v>
@@ -22335,10 +22500,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>1760</v>
+        <v>1815</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1454</v>
+        <v>1509</v>
       </c>
       <c r="P22" s="2" t="n">
         <f aca="false">COUNTIF(B22:O22,"&lt;&gt;")</f>
@@ -22351,16 +22516,16 @@
         <v>5</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1747</v>
+        <v>1802</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>1747</v>
+        <v>1802</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>7</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>1761</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22383,13 +22548,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
-        <v>1752</v>
+        <v>1807</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1442</v>
+        <v>1497</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1474</v>
+        <v>1529</v>
       </c>
       <c r="P25" s="2" t="n">
         <f aca="false">COUNTIF(B25:O25,"&lt;&gt;")</f>
@@ -22402,42 +22567,42 @@
         <v>6</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>1762</v>
+        <v>1817</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>1762</v>
+        <v>1817</v>
       </c>
       <c r="V25" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>1763</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
-        <v>1749</v>
+        <v>1804</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1459</v>
+        <v>1514</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1560</v>
+        <v>1615</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1561</v>
+        <v>1616</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1721</v>
+        <v>1776</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1455</v>
+        <v>1510</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1561</v>
+        <v>1616</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1489</v>
+        <v>1544</v>
       </c>
       <c r="P26" s="2" t="n">
         <f aca="false">COUNTIF(B26:O26,"&lt;&gt;")</f>
@@ -22447,7 +22612,7 @@
         <v>12</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>1764</v>
+        <v>1819</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>2</v>
@@ -22455,16 +22620,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="33" t="s">
-        <v>1753</v>
+        <v>1808</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1460</v>
+        <v>1515</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1722</v>
+        <v>1777</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1725</v>
+        <v>1780</v>
       </c>
       <c r="P27" s="2" t="n">
         <f aca="false">COUNTIF(B27:O27,"&lt;&gt;")</f>
@@ -22476,13 +22641,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>1475</v>
+        <v>1530</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1487</v>
+        <v>1542</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1495</v>
+        <v>1550</v>
       </c>
       <c r="P28" s="2" t="n">
         <f aca="false">COUNTIF(B28:O28,"&lt;&gt;")</f>
@@ -22495,16 +22660,16 @@
         <v>7</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1765</v>
+        <v>1820</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>1765</v>
+        <v>1820</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>6</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>1766</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22518,22 +22683,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>1765</v>
+        <v>1820</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1463</v>
+        <v>1518</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1602</v>
+        <v>1657</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1603</v>
+        <v>1658</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1543</v>
+        <v>1598</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1552</v>
+        <v>1607</v>
       </c>
       <c r="P30" s="2" t="n">
         <f aca="false">COUNTIF(B30:O30,"&lt;&gt;")</f>
@@ -22546,33 +22711,33 @@
         <v>8</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1767</v>
+        <v>1822</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>1767</v>
+        <v>1822</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>6</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>1768</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>1767</v>
+        <v>1822</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1464</v>
+        <v>1519</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1611</v>
+        <v>1666</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1604</v>
+        <v>1659</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1551</v>
+        <v>1606</v>
       </c>
       <c r="P31" s="2" t="n">
         <f aca="false">COUNTIF(B31:O31,"&lt;&gt;")</f>
@@ -22594,16 +22759,16 @@
         <v>9</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>1756</v>
+        <v>1811</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>1756</v>
+        <v>1811</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>1769</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22627,45 +22792,45 @@
         <v>10</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>1770</v>
+        <v>1825</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>1770</v>
+        <v>1825</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>1771</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="33" t="s">
-        <v>1770</v>
+        <v>1825</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1468</v>
+        <v>1523</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1485</v>
+        <v>1540</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1593</v>
+        <v>1648</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1594</v>
+        <v>1649</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1592</v>
+        <v>1647</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1504</v>
+        <v>1559</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1506</v>
+        <v>1561</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1629</v>
+        <v>1684</v>
       </c>
       <c r="P35" s="2" t="n">
         <f aca="false">COUNTIF(B35:O35,"&lt;&gt;")</f>
@@ -22677,13 +22842,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="33" t="s">
-        <v>1772</v>
+        <v>1827</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1469</v>
+        <v>1524</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1507</v>
+        <v>1562</v>
       </c>
       <c r="P36" s="2" t="n">
         <f aca="false">COUNTIF(B36:O36,"&lt;&gt;")</f>
@@ -22696,16 +22861,16 @@
         <v>11</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>1742</v>
+        <v>1797</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>1742</v>
+        <v>1797</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>8</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>1773</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22729,30 +22894,30 @@
         <v>12</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>1746</v>
+        <v>1801</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>1746</v>
+        <v>1801</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>1774</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
-        <v>1764</v>
+        <v>1819</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1470</v>
+        <v>1525</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1509</v>
+        <v>1564</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1699</v>
+        <v>1754</v>
       </c>
       <c r="P39" s="2" t="n">
         <f aca="false">COUNTIF(B39:O39,"&lt;&gt;")</f>
@@ -22765,25 +22930,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>1775</v>
+        <v>1830</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1466</v>
+        <v>1521</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1496</v>
+        <v>1551</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1498</v>
+        <v>1553</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1499</v>
+        <v>1554</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1501</v>
+        <v>1556</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1535</v>
+        <v>1590</v>
       </c>
       <c r="P40" s="2" t="n">
         <f aca="false">COUNTIF(B40:O40,"&lt;&gt;")</f>
@@ -22796,16 +22961,16 @@
         <v>13</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>1776</v>
+        <v>1831</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>1776</v>
+        <v>1831</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>6</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>1777</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22830,16 +22995,16 @@
         <v>14</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="V42" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>1779</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22852,7 +23017,7 @@
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="2" t="s">
-        <v>1780</v>
+        <v>1835</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>2</v>
@@ -22870,13 +23035,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="s">
-        <v>1781</v>
+        <v>1836</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1478</v>
+        <v>1533</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1639</v>
+        <v>1694</v>
       </c>
       <c r="P45" s="2" t="n">
         <f aca="false">COUNTIF(B45:O45,"&lt;&gt;")</f>
@@ -22899,21 +23064,21 @@
         <v>15</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>1782</v>
+        <v>1837</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>1783</v>
+        <v>1838</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>1784</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>1480</v>
+        <v>1535</v>
       </c>
       <c r="P47" s="2" t="n">
         <f aca="false">COUNTIF(B47:O47,"&lt;&gt;")</f>
@@ -22924,7 +23089,7 @@
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="2" t="s">
-        <v>1785</v>
+        <v>1840</v>
       </c>
       <c r="V47" s="2" t="n">
         <v>5</v>
@@ -22932,19 +23097,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>1786</v>
+        <v>1841</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1481</v>
+        <v>1536</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1581</v>
+        <v>1636</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1582</v>
+        <v>1637</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1649</v>
+        <v>1704</v>
       </c>
       <c r="P48" s="2" t="n">
         <f aca="false">COUNTIF(B48:O48,"&lt;&gt;")</f>
@@ -22955,7 +23120,7 @@
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="2" t="s">
-        <v>1787</v>
+        <v>1842</v>
       </c>
       <c r="V48" s="2" t="n">
         <v>3</v>
@@ -22971,7 +23136,7 @@
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="2" t="s">
-        <v>1788</v>
+        <v>1843</v>
       </c>
       <c r="V49" s="2" t="n">
         <v>2</v>
@@ -22979,16 +23144,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>1789</v>
+        <v>1844</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1544</v>
+        <v>1599</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1682</v>
+        <v>1737</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1558</v>
+        <v>1613</v>
       </c>
       <c r="P50" s="2" t="n">
         <f aca="false">COUNTIF(B50:O50,"&lt;&gt;")</f>
@@ -23011,16 +23176,16 @@
         <v>16</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>1751</v>
+        <v>1806</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>1751</v>
+        <v>1806</v>
       </c>
       <c r="V51" s="2" t="n">
         <v>5</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>1790</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23035,7 +23200,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>1486</v>
+        <v>1541</v>
       </c>
       <c r="P53" s="2" t="n">
         <f aca="false">COUNTIF(B53:O53,"&lt;&gt;")</f>
@@ -23058,30 +23223,30 @@
         <v>17</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>1786</v>
+        <v>1841</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>1786</v>
+        <v>1841</v>
       </c>
       <c r="V54" s="2" t="n">
         <v>4</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>1791</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="s">
-        <v>1780</v>
+        <v>1835</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1488</v>
+        <v>1543</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1659</v>
+        <v>1714</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1634</v>
+        <v>1689</v>
       </c>
       <c r="P55" s="2" t="n">
         <f aca="false">COUNTIF(B55:O55,"&lt;&gt;")</f>
@@ -23104,42 +23269,42 @@
         <v>